--- a/IP_cim_kiosztas_akutális.xlsx
+++ b/IP_cim_kiosztas_akutális.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Üzemeltető\vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC77670-8018-4CF5-96F7-AE5DFF7674FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90CB104-6721-46CF-9F1E-03F4DD60FB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="9270" yWindow="4560" windowWidth="16860" windowHeight="15345" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="319">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -465,9 +465,6 @@
     <t>Pozsony_S2</t>
   </si>
   <si>
-    <t>Port1</t>
-  </si>
-  <si>
     <t>Pozsony_Server1</t>
   </si>
   <si>
@@ -498,12 +495,6 @@
     <t>Pozsony_VLAN_12</t>
   </si>
   <si>
-    <t>Pozsony_VLAN_13</t>
-  </si>
-  <si>
-    <t>Pozsony_Laptop2</t>
-  </si>
-  <si>
     <t>Pozsony_Laptop1</t>
   </si>
   <si>
@@ -528,9 +519,6 @@
     <t>192.168.5.65</t>
   </si>
   <si>
-    <t>192.168.5.66</t>
-  </si>
-  <si>
     <t>192.168.5.1</t>
   </si>
   <si>
@@ -630,33 +618,6 @@
     <t>192.168.0.77</t>
   </si>
   <si>
-    <t>192.168.5.67</t>
-  </si>
-  <si>
-    <t>192.168.5.68</t>
-  </si>
-  <si>
-    <t>192.168.5.69</t>
-  </si>
-  <si>
-    <t>192.168.5.70</t>
-  </si>
-  <si>
-    <t>192.168.5.71</t>
-  </si>
-  <si>
-    <t>192.168.5.72</t>
-  </si>
-  <si>
-    <t>192.168.5.73</t>
-  </si>
-  <si>
-    <t>192.168.5.74</t>
-  </si>
-  <si>
-    <t>192.168.5.75</t>
-  </si>
-  <si>
     <t>192.168.5.3</t>
   </si>
   <si>
@@ -682,15 +643,6 @@
   </si>
   <si>
     <t>192.168.5.11</t>
-  </si>
-  <si>
-    <t>192.168.5.12</t>
-  </si>
-  <si>
-    <t>192.168.5.13</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Köztes</t>
@@ -832,15 +784,6 @@
     <t>192.168.1.81</t>
   </si>
   <si>
-    <t xml:space="preserve">Port0 </t>
-  </si>
-  <si>
-    <t>192.168.5.76</t>
-  </si>
-  <si>
-    <t>192.168.5.77</t>
-  </si>
-  <si>
     <t>G0/2</t>
   </si>
   <si>
@@ -962,6 +905,93 @@
   </si>
   <si>
     <t>192.168.0.79</t>
+  </si>
+  <si>
+    <t>Pozsony_MS</t>
+  </si>
+  <si>
+    <t>G 1/0/2</t>
+  </si>
+  <si>
+    <t>G 1/0/1</t>
+  </si>
+  <si>
+    <t>192.168.5.195</t>
+  </si>
+  <si>
+    <t>Fa 0/4</t>
+  </si>
+  <si>
+    <t>Fa 0/5</t>
+  </si>
+  <si>
+    <t>Fa 0/6</t>
+  </si>
+  <si>
+    <t>Fa 0/7</t>
+  </si>
+  <si>
+    <t>Vlan 11</t>
+  </si>
+  <si>
+    <t>Vlan 12</t>
+  </si>
+  <si>
+    <t>Vlan 19</t>
+  </si>
+  <si>
+    <t>G 1/0/3</t>
+  </si>
+  <si>
+    <t>G 1/0/4</t>
+  </si>
+  <si>
+    <t>G 1/0/5</t>
+  </si>
+  <si>
+    <t>G 1/0/6</t>
+  </si>
+  <si>
+    <t>G 0/1</t>
+  </si>
+  <si>
+    <t>G 0/2</t>
+  </si>
+  <si>
+    <t>Fa 0/1</t>
+  </si>
+  <si>
+    <t>Fa 0/2</t>
+  </si>
+  <si>
+    <t>Pozsony_VLAN_19</t>
+  </si>
+  <si>
+    <t>Név</t>
+  </si>
+  <si>
+    <t>IP cím</t>
+  </si>
+  <si>
+    <t>Subnet maszk</t>
+  </si>
+  <si>
+    <t>Eszközök</t>
+  </si>
+  <si>
+    <t>Vevoszolgalat</t>
+  </si>
+  <si>
+    <t>Humaneroforras</t>
+  </si>
+  <si>
+    <t>Vezetoseg</t>
+  </si>
+  <si>
+    <t>Pozsony_MS, Pozsony_S1</t>
+  </si>
+  <si>
+    <t>Pozsony_MS, Pozsony_S2</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1218,8 +1248,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="52">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1894,11 +1936,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1997,21 +2059,12 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2055,12 +2108,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2185,32 +2232,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2251,154 +2280,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2425,6 +2376,12 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2443,59 +2400,140 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2512,12 +2550,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2528,6 +2560,41 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2885,832 +2952,822 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="120" t="s">
+      <c r="E2" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="56" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="117" t="s">
+      <c r="A3" s="103"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="118"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="62" t="s">
+      <c r="D3" s="107"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="57" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="84"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="99"/>
+      <c r="B5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="87"/>
+      <c r="F5" s="18"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="99"/>
+      <c r="B6" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="88" t="s">
-        <v>234</v>
-      </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="89"/>
-    </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="92" t="s">
-        <v>278</v>
-      </c>
-      <c r="D5" s="92" t="s">
-        <v>223</v>
-      </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="18"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>279</v>
-      </c>
-      <c r="D6" s="92" t="s">
-        <v>223</v>
-      </c>
-      <c r="E6" s="92"/>
+      <c r="C6" s="87" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="87"/>
       <c r="F6" s="18"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="92"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="119"/>
-      <c r="B8" s="90"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="98" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="87"/>
+      <c r="F9" s="18"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="99"/>
+      <c r="B10" s="86" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="87" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="87"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="99"/>
+      <c r="B11" s="86" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="87"/>
+      <c r="F11" s="18"/>
+      <c r="I11" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="116" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="116" t="s">
+        <v>57</v>
+      </c>
+      <c r="R11" s="118" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="99"/>
+      <c r="B12" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="87"/>
+      <c r="F12" s="18"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="119"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="99"/>
+      <c r="B13" s="86" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="87"/>
+      <c r="F13" s="18"/>
+      <c r="I13" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="112">
+        <v>7</v>
+      </c>
+      <c r="K13" s="112">
+        <v>30</v>
+      </c>
+      <c r="L13" s="111" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="112" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="111" t="s">
+        <v>53</v>
+      </c>
+      <c r="R13" s="111" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="99"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="18"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+    </row>
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="99"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="18"/>
+      <c r="I15" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="112">
+        <v>5</v>
+      </c>
+      <c r="K15" s="112">
+        <v>30</v>
+      </c>
+      <c r="L15" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="112" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="111" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="111" t="s">
+        <v>54</v>
+      </c>
+      <c r="R15" s="111" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="99"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="18"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+    </row>
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="98" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="87"/>
+      <c r="F17" s="18"/>
+      <c r="I17" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="112">
+        <v>1</v>
+      </c>
+      <c r="K17" s="112">
+        <v>6</v>
+      </c>
+      <c r="L17" s="111" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="112" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="113" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="111" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q17" s="111" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" s="111" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="99"/>
+      <c r="B18" s="86" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="87" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="87"/>
+      <c r="F18" s="18"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+    </row>
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="99"/>
+      <c r="B19" s="86" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="87" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="87"/>
+      <c r="F19" s="18"/>
+      <c r="I19" s="112" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="112">
+        <v>1</v>
+      </c>
+      <c r="K19" s="112">
+        <v>6</v>
+      </c>
+      <c r="L19" s="111" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="112" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="113" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" s="111" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" s="111" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="99"/>
+      <c r="B20" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="87" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="87"/>
+      <c r="F20" s="18"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+    </row>
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="99"/>
+      <c r="B21" s="86" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="87" t="s">
         <v>237</v>
       </c>
-      <c r="B9" s="91" t="s">
-        <v>238</v>
-      </c>
-      <c r="C9" s="92" t="s">
+      <c r="D21" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="87"/>
+      <c r="F21" s="18"/>
+      <c r="I21" s="112" t="s">
+        <v>243</v>
+      </c>
+      <c r="J21" s="112">
+        <v>3</v>
+      </c>
+      <c r="K21" s="112">
+        <v>6</v>
+      </c>
+      <c r="L21" s="111" t="s">
+        <v>244</v>
+      </c>
+      <c r="M21" s="112" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="113" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="111" t="s">
+        <v>245</v>
+      </c>
+      <c r="P21" s="111" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q21" s="111" t="s">
+        <v>247</v>
+      </c>
+      <c r="R21" s="111" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="99"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="18"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+    </row>
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="99"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="99"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+    </row>
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="88" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" s="87" t="s">
+        <v>248</v>
+      </c>
+      <c r="N25" s="112"/>
+    </row>
+    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="88" t="s">
+        <v>274</v>
+      </c>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="F26" s="87" t="s">
+        <v>248</v>
+      </c>
+      <c r="N26" s="112"/>
+    </row>
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="88" t="s">
+        <v>275</v>
+      </c>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87" t="s">
+        <v>272</v>
+      </c>
+      <c r="D27" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="F27" s="87" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="88" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" s="87" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="D28" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="88" t="s">
+        <v>276</v>
+      </c>
+      <c r="B29" s="87" t="s">
+        <v>278</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>281</v>
+      </c>
+      <c r="D29" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+    </row>
+    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" s="87" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>283</v>
+      </c>
+      <c r="D30" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="88" t="s">
+        <v>279</v>
+      </c>
+      <c r="B31" s="87" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="D31" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87" t="s">
         <v>239</v>
       </c>
-      <c r="D9" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="92"/>
-      <c r="F9" s="18"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-    </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110"/>
-      <c r="B10" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="C10" s="92" t="s">
-        <v>241</v>
-      </c>
-      <c r="D10" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="92"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="91" t="s">
-        <v>242</v>
-      </c>
-      <c r="C11" s="92" t="s">
-        <v>243</v>
-      </c>
-      <c r="D11" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="92"/>
-      <c r="F11" s="18"/>
-      <c r="I11" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="103" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="103" t="s">
-        <v>23</v>
-      </c>
-      <c r="P11" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="R11" s="105" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
-      <c r="B12" s="91" t="s">
-        <v>244</v>
-      </c>
-      <c r="C12" s="92" t="s">
-        <v>245</v>
-      </c>
-      <c r="D12" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="92"/>
-      <c r="F12" s="18"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="104"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="106"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="91" t="s">
-        <v>246</v>
-      </c>
-      <c r="C13" s="92" t="s">
-        <v>247</v>
-      </c>
-      <c r="D13" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="92"/>
-      <c r="F13" s="18"/>
-      <c r="I13" s="100" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="100">
-        <v>7</v>
-      </c>
-      <c r="K13" s="100">
-        <v>30</v>
-      </c>
-      <c r="L13" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="102" t="s">
-        <v>40</v>
-      </c>
-      <c r="O13" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="P13" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q13" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="R13" s="101" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="110"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="18"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="18"/>
-      <c r="I15" s="100" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="100">
-        <v>5</v>
-      </c>
-      <c r="K15" s="100">
-        <v>30</v>
-      </c>
-      <c r="L15" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="102" t="s">
-        <v>40</v>
-      </c>
-      <c r="O15" s="101" t="s">
-        <v>45</v>
-      </c>
-      <c r="P15" s="101" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q15" s="101" t="s">
-        <v>54</v>
-      </c>
-      <c r="R15" s="101" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="18"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
-    </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="109" t="s">
-        <v>248</v>
-      </c>
-      <c r="B17" s="91" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="92" t="s">
-        <v>249</v>
-      </c>
-      <c r="D17" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="92"/>
-      <c r="F17" s="18"/>
-      <c r="I17" s="100" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="100">
-        <v>1</v>
-      </c>
-      <c r="K17" s="100">
-        <v>6</v>
-      </c>
-      <c r="L17" s="101" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" s="102" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="P17" s="101" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q17" s="101" t="s">
-        <v>55</v>
-      </c>
-      <c r="R17" s="101" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
-      <c r="B18" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="C18" s="92" t="s">
-        <v>250</v>
-      </c>
-      <c r="D18" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="18"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="102"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="101"/>
-    </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="91" t="s">
-        <v>242</v>
-      </c>
-      <c r="C19" s="92" t="s">
-        <v>251</v>
-      </c>
-      <c r="D19" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="92"/>
-      <c r="F19" s="18"/>
-      <c r="I19" s="100" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="100">
-        <v>1</v>
-      </c>
-      <c r="K19" s="100">
-        <v>6</v>
-      </c>
-      <c r="L19" s="101" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="N19" s="102" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="101" t="s">
-        <v>51</v>
-      </c>
-      <c r="P19" s="101" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q19" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="R19" s="101" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="91" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="92" t="s">
-        <v>252</v>
-      </c>
-      <c r="D20" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="92"/>
-      <c r="F20" s="18"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="102"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="101"/>
-    </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="91" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" s="92" t="s">
-        <v>253</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="92"/>
-      <c r="F21" s="18"/>
-      <c r="I21" s="100" t="s">
-        <v>259</v>
-      </c>
-      <c r="J21" s="100">
-        <v>3</v>
-      </c>
-      <c r="K21" s="100">
-        <v>6</v>
-      </c>
-      <c r="L21" s="101" t="s">
-        <v>260</v>
-      </c>
-      <c r="M21" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="102" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" s="101" t="s">
-        <v>261</v>
-      </c>
-      <c r="P21" s="101" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q21" s="101" t="s">
-        <v>263</v>
-      </c>
-      <c r="R21" s="101" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="18"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="102"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="101"/>
-    </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-    </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="93" t="s">
-        <v>288</v>
-      </c>
-      <c r="B25" s="91"/>
-      <c r="C25" s="92" t="s">
-        <v>289</v>
-      </c>
-      <c r="D25" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="92" t="s">
-        <v>292</v>
-      </c>
-      <c r="F25" s="92" t="s">
-        <v>264</v>
-      </c>
-      <c r="N25" s="100"/>
-    </row>
-    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="93" t="s">
-        <v>293</v>
-      </c>
-      <c r="B26" s="92"/>
-      <c r="C26" s="92" t="s">
-        <v>290</v>
-      </c>
-      <c r="D26" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="92" t="s">
-        <v>292</v>
-      </c>
-      <c r="F26" s="92" t="s">
-        <v>264</v>
-      </c>
-      <c r="N26" s="100"/>
-    </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="93" t="s">
-        <v>294</v>
-      </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92" t="s">
-        <v>291</v>
-      </c>
-      <c r="D27" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="92" t="s">
-        <v>292</v>
-      </c>
-      <c r="F27" s="92" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="93" t="s">
-        <v>296</v>
-      </c>
-      <c r="B28" s="92" t="s">
-        <v>297</v>
-      </c>
-      <c r="C28" s="92" t="s">
-        <v>301</v>
-      </c>
-      <c r="D28" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="93" t="s">
-        <v>295</v>
-      </c>
-      <c r="B29" s="92" t="s">
-        <v>297</v>
-      </c>
-      <c r="C29" s="92" t="s">
-        <v>300</v>
-      </c>
-      <c r="D29" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-    </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="93" t="s">
-        <v>299</v>
-      </c>
-      <c r="B30" s="92" t="s">
-        <v>297</v>
-      </c>
-      <c r="C30" s="92" t="s">
-        <v>302</v>
-      </c>
-      <c r="D30" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="93" t="s">
-        <v>298</v>
-      </c>
-      <c r="B31" s="92" t="s">
-        <v>297</v>
-      </c>
-      <c r="C31" s="92" t="s">
-        <v>303</v>
-      </c>
-      <c r="D31" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="93" t="s">
-        <v>304</v>
-      </c>
-      <c r="B32" s="92"/>
+      <c r="A32" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="B32" s="87"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="95"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="90"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="93" t="s">
-        <v>305</v>
-      </c>
-      <c r="B33" s="96"/>
+      <c r="A33" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="B33" s="91"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="95"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="90"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="96"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="95"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="90"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="96"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="95"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="90"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="93" t="s">
+      <c r="A36" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="96"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="95"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="90"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="96"/>
+      <c r="B37" s="91"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="95"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="90"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="96"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="95"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="90"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="93" t="s">
+      <c r="A39" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="96"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="95"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="90"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="93" t="s">
+      <c r="A40" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="96"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="95"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N21:N22"/>
     <mergeCell ref="Q17:Q18"/>
     <mergeCell ref="O21:O22"/>
     <mergeCell ref="I15:I16"/>
@@ -3727,28 +3784,38 @@
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="O19:O20"/>
     <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3757,10 +3824,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3785,18 +3852,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
     </row>
     <row r="2" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -3817,14 +3884,14 @@
       <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="122" t="s">
+      <c r="G2" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="123"/>
-      <c r="I2" s="122" t="s">
+      <c r="H2" s="181"/>
+      <c r="I2" s="180" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="123"/>
+      <c r="J2" s="181"/>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
@@ -3851,24 +3918,24 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="182" t="s">
         <v>137</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="84" t="s">
-        <v>232</v>
+      <c r="D3" s="79" t="s">
+        <v>216</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="F3" s="21"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="129"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="187"/>
       <c r="L3" s="3" t="s">
         <v>90</v>
       </c>
@@ -3895,22 +3962,22 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="125"/>
+      <c r="A4" s="183"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="83" t="s">
-        <v>277</v>
+      <c r="D4" s="78" t="s">
+        <v>258</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="132"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="190"/>
       <c r="L4" s="3" t="s">
         <v>91</v>
       </c>
@@ -3937,22 +4004,22 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="126"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
         <v>119</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="135"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="191"/>
+      <c r="J5" s="193"/>
       <c r="L5" s="3" t="s">
         <v>95</v>
       </c>
@@ -3979,7 +4046,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="178" t="s">
         <v>140</v>
       </c>
       <c r="B6" s="26"/>
@@ -3987,18 +4054,18 @@
         <v>119</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" s="139"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="141"/>
+        <v>154</v>
+      </c>
+      <c r="G6" s="160"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="162"/>
       <c r="L6" s="3" t="s">
         <v>99</v>
       </c>
@@ -4025,51 +4092,51 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="161"/>
+      <c r="A7" s="179"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28" t="s">
         <v>123</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="142"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="144"/>
-      <c r="L7" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="163"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="165"/>
+      <c r="L7" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="M7" s="68">
+      <c r="M7" s="63">
         <v>40</v>
       </c>
-      <c r="N7" s="68">
+      <c r="N7" s="63">
         <v>62</v>
       </c>
-      <c r="O7" s="68" t="s">
+      <c r="O7" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="68" t="s">
+      <c r="P7" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="68" t="s">
+      <c r="Q7" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="R7" s="68" t="s">
+      <c r="R7" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="S7" s="68" t="s">
+      <c r="S7" s="63" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="166" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="29"/>
@@ -4077,20 +4144,20 @@
         <v>119</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="157"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="158"/>
+        <v>154</v>
+      </c>
+      <c r="G8" s="175"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="176"/>
       <c r="L8" s="3" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="M8" s="4">
         <v>15</v>
@@ -4099,7 +4166,7 @@
         <v>30</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>33</v>
@@ -4108,54 +4175,54 @@
         <v>34</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="146"/>
+      <c r="A9" s="167"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
         <v>123</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="71"/>
+        <v>154</v>
+      </c>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="66"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="147"/>
+      <c r="A10" s="168"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="74"/>
+        <v>154</v>
+      </c>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="158" t="s">
         <v>138</v>
       </c>
       <c r="B11" s="32"/>
@@ -4163,67 +4230,67 @@
         <v>120</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" s="151"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="153"/>
+        <v>154</v>
+      </c>
+      <c r="G11" s="169"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="171"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="137"/>
+      <c r="A12" s="159"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33" t="s">
         <v>121</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="154"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="156"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-    </row>
-    <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="138"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="172"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="174"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+    </row>
+    <row r="13" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="159"/>
+      <c r="B13" s="206"/>
+      <c r="C13" s="206" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="E13" s="34" t="s">
+      <c r="D13" s="206" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="148"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="150"/>
-      <c r="L13" s="66"/>
+      <c r="F13" s="206" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="207"/>
+      <c r="H13" s="208"/>
+      <c r="I13" s="207"/>
+      <c r="J13" s="209"/>
+      <c r="L13" s="61"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -4232,28 +4299,28 @@
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
     </row>
-    <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="190" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="162"/>
-      <c r="L14" s="66"/>
+    <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="211" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14" s="212"/>
+      <c r="C14" s="210" t="s">
+        <v>292</v>
+      </c>
+      <c r="D14" s="212" t="s">
+        <v>293</v>
+      </c>
+      <c r="E14" s="212" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="212" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="212"/>
+      <c r="H14" s="212"/>
+      <c r="I14" s="212"/>
+      <c r="J14" s="212"/>
+      <c r="L14" s="61"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -4262,26 +4329,26 @@
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
     </row>
-    <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="191"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" s="36" t="s">
+    <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="211"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="211" t="s">
+        <v>291</v>
+      </c>
+      <c r="D15" s="212" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="212" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="L15" s="66"/>
+      <c r="F15" s="212" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="212"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="212"/>
+      <c r="L15" s="61"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -4290,26 +4357,20 @@
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
     </row>
-    <row r="16" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="191"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="L16" s="66"/>
+    <row r="16" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="211"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="211" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" s="212"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="212"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="212"/>
+      <c r="J16" s="212"/>
+      <c r="L16" s="61"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -4318,26 +4379,20 @@
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
     </row>
-    <row r="17" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="191"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="L17" s="66"/>
+    <row r="17" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="211"/>
+      <c r="B17" s="212"/>
+      <c r="C17" s="211" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" s="212"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="212"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="212"/>
+      <c r="I17" s="212"/>
+      <c r="J17" s="212"/>
+      <c r="L17" s="61"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -4346,640 +4401,656 @@
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
     </row>
-    <row r="18" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="191"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="36" t="s">
+    <row r="18" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="211"/>
+      <c r="B18" s="212"/>
+      <c r="C18" s="211" t="s">
+        <v>303</v>
+      </c>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
+      <c r="H18" s="212"/>
+      <c r="I18" s="212"/>
+      <c r="J18" s="212"/>
+    </row>
+    <row r="19" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="211"/>
+      <c r="B19" s="212"/>
+      <c r="C19" s="211" t="s">
+        <v>304</v>
+      </c>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="212"/>
+      <c r="J19" s="212"/>
+    </row>
+    <row r="20" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="211"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="212"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="212"/>
+      <c r="F20" s="212"/>
+      <c r="G20" s="212"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="212"/>
+      <c r="J20" s="212"/>
+    </row>
+    <row r="21" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="122" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="157"/>
+    </row>
+    <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="122"/>
+      <c r="B22" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+    </row>
+    <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="122"/>
+      <c r="B23" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="151"/>
+    </row>
+    <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="122"/>
+      <c r="B24" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+    </row>
+    <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="122"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="151"/>
+    </row>
+    <row r="26" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="122"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="151"/>
+    </row>
+    <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="122"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="151"/>
+    </row>
+    <row r="28" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="123"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
+    </row>
+    <row r="29" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="215" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="156"/>
+    </row>
+    <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="216"/>
+      <c r="B30" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="144"/>
+    </row>
+    <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="216"/>
+      <c r="B31" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="144"/>
+    </row>
+    <row r="32" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="216"/>
+      <c r="B32" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="144"/>
+    </row>
+    <row r="33" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="216"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="144"/>
+    </row>
+    <row r="34" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="216"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="144"/>
+    </row>
+    <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="216"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="147"/>
+    </row>
+    <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="216"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="147"/>
+    </row>
+    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="124" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="150"/>
+    </row>
+    <row r="38" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="125"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="138"/>
+      <c r="I38" s="137"/>
+      <c r="J38" s="139"/>
+    </row>
+    <row r="39" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="71"/>
+      <c r="C39" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="G39" s="140"/>
+      <c r="H39" s="141"/>
+      <c r="I39" s="140"/>
+      <c r="J39" s="142"/>
+    </row>
+    <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="49"/>
+      <c r="G40" s="129"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="129"/>
+      <c r="J40" s="131"/>
+    </row>
+    <row r="41" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="49"/>
+      <c r="G41" s="132"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="134"/>
+    </row>
+    <row r="42" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="E42" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="49"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="128"/>
+    </row>
+    <row r="43" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="74" t="s">
+        <v>250</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="E43" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="49"/>
+      <c r="G43" s="126"/>
+      <c r="H43" s="127"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="128"/>
+    </row>
+    <row r="44" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="D44" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="97"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="121"/>
+    </row>
+    <row r="45" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="D45" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E45" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-    </row>
-    <row r="19" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="191"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="36" t="s">
+      <c r="F45" s="97"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="120"/>
+      <c r="J45" s="121"/>
+    </row>
+    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="D46" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E46" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
-    </row>
-    <row r="20" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="191"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="E20" s="36" t="s">
+      <c r="F46" s="54"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="120"/>
+      <c r="J46" s="121"/>
+    </row>
+    <row r="47" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+    </row>
+    <row r="48" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="205"/>
+      <c r="B48" s="205"/>
+      <c r="C48" s="205"/>
+      <c r="D48" s="205"/>
+      <c r="E48" s="205"/>
+      <c r="F48" s="205"/>
+      <c r="G48" s="205"/>
+      <c r="H48" s="205"/>
+      <c r="I48" s="205"/>
+      <c r="J48" s="205"/>
+    </row>
+    <row r="49" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="213"/>
+      <c r="B49" s="80" t="s">
+        <v>267</v>
+      </c>
+      <c r="C49" s="214"/>
+      <c r="D49" s="214"/>
+      <c r="E49" s="214"/>
+      <c r="F49" s="214"/>
+      <c r="G49" s="214"/>
+      <c r="H49" s="214"/>
+      <c r="I49" s="214"/>
+      <c r="J49" s="214"/>
+    </row>
+    <row r="50" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="213"/>
+      <c r="B50" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="214"/>
+      <c r="D50" s="214"/>
+      <c r="E50" s="214"/>
+      <c r="F50" s="214"/>
+      <c r="G50" s="214"/>
+      <c r="H50" s="214"/>
+      <c r="I50" s="214"/>
+      <c r="J50" s="214"/>
+    </row>
+    <row r="51" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="213"/>
+      <c r="B51" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="214"/>
+      <c r="D51" s="214"/>
+      <c r="E51" s="214"/>
+      <c r="F51" s="214"/>
+      <c r="G51" s="214"/>
+      <c r="H51" s="214"/>
+      <c r="I51" s="214"/>
+      <c r="J51" s="214"/>
+    </row>
+    <row r="52" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A52" s="213"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="214"/>
+      <c r="D52" s="214"/>
+      <c r="E52" s="214"/>
+      <c r="F52" s="214"/>
+      <c r="G52" s="214"/>
+      <c r="H52" s="214"/>
+      <c r="I52" s="214"/>
+      <c r="J52" s="214"/>
+    </row>
+    <row r="54" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="217" t="s">
+        <v>310</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>11</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="163"/>
-    </row>
-    <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="192"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="E21" s="39" t="s">
+      <c r="E55" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <v>12</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="186"/>
-    </row>
-    <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" s="40" t="s">
+      <c r="E56" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
+        <v>19</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="G22" s="170"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="171"/>
-    </row>
-    <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="165"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="G23" s="167"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="167"/>
-      <c r="J23" s="169"/>
-    </row>
-    <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="165"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="G24" s="167"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="169"/>
-    </row>
-    <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="165"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="167"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="169"/>
-    </row>
-    <row r="26" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="165"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" s="167"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="169"/>
-    </row>
-    <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="165"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="G27" s="167"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="169"/>
-    </row>
-    <row r="28" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="166"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="E28" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="180"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="182"/>
-    </row>
-    <row r="29" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="193" t="s">
-        <v>145</v>
-      </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46" t="s">
-        <v>265</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="E29" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="G29" s="183"/>
-      <c r="H29" s="184"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="185"/>
-    </row>
-    <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="194"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="174"/>
-      <c r="H30" s="175"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="176"/>
-    </row>
-    <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="76"/>
-      <c r="C31" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="49" t="s">
-        <v>282</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="G31" s="177"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="177"/>
-      <c r="J31" s="179"/>
-    </row>
-    <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="B32" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="E32" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="G32" s="198"/>
-      <c r="H32" s="199"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="200"/>
-    </row>
-    <row r="33" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>271</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="E33" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="G33" s="201"/>
-      <c r="H33" s="202"/>
-      <c r="I33" s="201"/>
-      <c r="J33" s="203"/>
-    </row>
-    <row r="34" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="D34" s="52" t="s">
-        <v>266</v>
-      </c>
-      <c r="E34" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" s="195"/>
-      <c r="H34" s="196"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="197"/>
-    </row>
-    <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="79" t="s">
-        <v>269</v>
-      </c>
-      <c r="B35" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="D35" s="52" t="s">
-        <v>267</v>
-      </c>
-      <c r="E35" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35" s="195"/>
-      <c r="H35" s="196"/>
-      <c r="I35" s="195"/>
-      <c r="J35" s="197"/>
-    </row>
-    <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="B36" s="78" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" s="56" t="s">
-        <v>270</v>
-      </c>
-      <c r="D36" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="E36" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188"/>
-      <c r="I36" s="188"/>
-      <c r="J36" s="189"/>
-    </row>
-    <row r="37" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="57" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>271</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="E37" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="188"/>
-      <c r="J37" s="189"/>
-    </row>
-    <row r="38" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="B38" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="56" t="s">
-        <v>272</v>
-      </c>
-      <c r="D38" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="E38" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="G38" s="188"/>
-      <c r="H38" s="188"/>
-      <c r="I38" s="188"/>
-      <c r="J38" s="189"/>
-    </row>
-    <row r="39" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-    </row>
-    <row r="40" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="E40" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-    </row>
-    <row r="41" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="85"/>
-      <c r="B41" s="85" t="s">
-        <v>286</v>
-      </c>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-    </row>
-    <row r="42" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="79" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="79" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="79" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>318</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
+  <mergeCells count="80">
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
@@ -4995,15 +5066,59 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5015,8 +5130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27F8DC3-BDE0-43F3-979D-2CCDC5541D2C}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J42"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5040,14 +5155,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -5068,14 +5183,14 @@
       <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="209" t="s">
+      <c r="G2" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209" t="s">
+      <c r="H2" s="195"/>
+      <c r="I2" s="195" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="209"/>
+      <c r="J2" s="195"/>
       <c r="N2" t="s">
         <v>62</v>
       </c>
@@ -5088,24 +5203,24 @@
       <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="194" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="80" t="s">
-        <v>274</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>223</v>
+      <c r="C3" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>207</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="205"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="197"/>
       <c r="N3" s="19" t="s">
         <v>17</v>
       </c>
@@ -5132,22 +5247,22 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="210"/>
+      <c r="A4" s="194"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="80" t="s">
-        <v>275</v>
-      </c>
-      <c r="D4" s="82" t="s">
-        <v>276</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>223</v>
+      <c r="C4" s="75" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>207</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="205"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="197"/>
       <c r="N4" s="7" t="s">
         <v>63</v>
       </c>
@@ -5174,22 +5289,22 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="210"/>
+      <c r="A5" s="194"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="82" t="s">
+      <c r="D5" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="77" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="204"/>
-      <c r="H5" s="205"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="205"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="196"/>
+      <c r="J5" s="197"/>
       <c r="N5" s="7" t="s">
         <v>67</v>
       </c>
@@ -5216,26 +5331,26 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="210" t="s">
+      <c r="A6" s="194" t="s">
         <v>103</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="82" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="82" t="s">
+      <c r="D6" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="77" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G6" s="204"/>
-      <c r="H6" s="205"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G6" s="196"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="197"/>
       <c r="N6" s="7" t="s">
         <v>71</v>
       </c>
@@ -5262,24 +5377,24 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="210"/>
+      <c r="A7" s="194"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="82" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="82" t="s">
+      <c r="D7" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="77" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G7" s="204"/>
-      <c r="H7" s="205"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="197"/>
       <c r="N7" s="7" t="s">
         <v>75</v>
       </c>
@@ -5306,26 +5421,26 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="210" t="s">
+      <c r="A8" s="194" t="s">
         <v>104</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="82" t="s">
+      <c r="D8" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="77" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G8" s="204"/>
-      <c r="H8" s="205"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="197"/>
       <c r="N8" s="13" t="s">
         <v>79</v>
       </c>
@@ -5352,24 +5467,24 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="210"/>
+      <c r="A9" s="194"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="82" t="s">
-        <v>175</v>
-      </c>
-      <c r="E9" s="82" t="s">
+      <c r="D9" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="77" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G9" s="204"/>
-      <c r="H9" s="205"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G9" s="196"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="197"/>
       <c r="L9" s="15"/>
       <c r="M9" s="16"/>
       <c r="N9" s="17" t="s">
@@ -5398,27 +5513,27 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="210"/>
+      <c r="A10" s="194"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="80" t="s">
-        <v>268</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="82" t="s">
+      <c r="C10" s="75" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="77" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G10" s="204"/>
-      <c r="H10" s="205"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G10" s="196"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="197"/>
     </row>
     <row r="11" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="210" t="s">
+      <c r="A11" s="194" t="s">
         <v>105</v>
       </c>
       <c r="B11" s="10"/>
@@ -5426,61 +5541,61 @@
         <v>120</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G11" s="204"/>
-      <c r="H11" s="205"/>
-      <c r="I11" s="204"/>
-      <c r="J11" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G11" s="196"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="197"/>
     </row>
     <row r="12" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="210"/>
+      <c r="A12" s="194"/>
       <c r="B12" s="10"/>
       <c r="C12" s="9" t="s">
         <v>121</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G12" s="204"/>
-      <c r="H12" s="205"/>
-      <c r="I12" s="204"/>
-      <c r="J12" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G12" s="196"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="197"/>
     </row>
     <row r="13" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="210"/>
+      <c r="A13" s="194"/>
       <c r="B13" s="10"/>
       <c r="C13" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G13" s="204"/>
-      <c r="H13" s="205"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G13" s="196"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="197"/>
     </row>
     <row r="14" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="211" t="s">
+      <c r="A14" s="201" t="s">
         <v>106</v>
       </c>
       <c r="B14" s="10"/>
@@ -5488,157 +5603,157 @@
         <v>123</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G14" s="204"/>
-      <c r="H14" s="205"/>
-      <c r="I14" s="204"/>
-      <c r="J14" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G14" s="196"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="197"/>
     </row>
     <row r="15" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="212"/>
+      <c r="A15" s="202"/>
       <c r="B15" s="10"/>
       <c r="C15" s="9" t="s">
         <v>124</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G15" s="204"/>
-      <c r="H15" s="205"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G15" s="196"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="197"/>
     </row>
     <row r="16" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="212"/>
+      <c r="A16" s="202"/>
       <c r="B16" s="10"/>
       <c r="C16" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G16" s="204"/>
-      <c r="H16" s="205"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G16" s="196"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="197"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="212"/>
+      <c r="A17" s="202"/>
       <c r="B17" s="10"/>
       <c r="C17" s="9" t="s">
         <v>126</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G17" s="204"/>
-      <c r="H17" s="205"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G17" s="196"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="197"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="212"/>
+      <c r="A18" s="202"/>
       <c r="B18" s="10"/>
       <c r="C18" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G18" s="204"/>
-      <c r="H18" s="205"/>
-      <c r="I18" s="204"/>
-      <c r="J18" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G18" s="196"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="197"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="212"/>
+      <c r="A19" s="202"/>
       <c r="B19" s="10"/>
       <c r="C19" s="9" t="s">
         <v>128</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G19" s="204"/>
-      <c r="H19" s="205"/>
-      <c r="I19" s="204"/>
-      <c r="J19" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G19" s="196"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="197"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="212"/>
+      <c r="A20" s="202"/>
       <c r="B20" s="10"/>
       <c r="C20" s="9" t="s">
         <v>129</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G20" s="98"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="99"/>
+        <v>163</v>
+      </c>
+      <c r="G20" s="93"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="94"/>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="213"/>
+      <c r="A21" s="203"/>
       <c r="B21" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="204"/>
-      <c r="H21" s="205"/>
-      <c r="I21" s="204"/>
-      <c r="J21" s="205"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="197"/>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="206" t="s">
+      <c r="A22" s="198" t="s">
         <v>107</v>
       </c>
       <c r="B22" s="12"/>
@@ -5646,196 +5761,196 @@
         <v>123</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G22" s="204"/>
-      <c r="H22" s="205"/>
-      <c r="I22" s="204"/>
-      <c r="J22" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G22" s="196"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="197"/>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="207"/>
+      <c r="A23" s="199"/>
       <c r="B23" s="12"/>
       <c r="C23" s="9" t="s">
         <v>124</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G23" s="204"/>
-      <c r="H23" s="205"/>
-      <c r="I23" s="204"/>
-      <c r="J23" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G23" s="196"/>
+      <c r="H23" s="197"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="197"/>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="207"/>
+      <c r="A24" s="199"/>
       <c r="B24" s="12"/>
       <c r="C24" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G24" s="204"/>
-      <c r="H24" s="205"/>
-      <c r="I24" s="204"/>
-      <c r="J24" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G24" s="196"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="197"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="207"/>
+      <c r="A25" s="199"/>
       <c r="B25" s="12"/>
       <c r="C25" s="9" t="s">
         <v>126</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G25" s="204"/>
-      <c r="H25" s="205"/>
-      <c r="I25" s="204"/>
-      <c r="J25" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G25" s="196"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="196"/>
+      <c r="J25" s="197"/>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="207"/>
+      <c r="A26" s="199"/>
       <c r="B26" s="12"/>
       <c r="C26" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G26" s="204"/>
-      <c r="H26" s="205"/>
-      <c r="I26" s="204"/>
-      <c r="J26" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G26" s="196"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="196"/>
+      <c r="J26" s="197"/>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="207"/>
+      <c r="A27" s="199"/>
       <c r="B27" s="12"/>
       <c r="C27" s="9" t="s">
         <v>128</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G27" s="204"/>
-      <c r="H27" s="205"/>
-      <c r="I27" s="204"/>
-      <c r="J27" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G27" s="196"/>
+      <c r="H27" s="197"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="197"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="207"/>
+      <c r="A28" s="199"/>
       <c r="B28" s="12"/>
       <c r="C28" s="9" t="s">
         <v>129</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G28" s="204"/>
-      <c r="H28" s="205"/>
-      <c r="I28" s="204"/>
-      <c r="J28" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G28" s="196"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="197"/>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="207"/>
+      <c r="A29" s="199"/>
       <c r="B29" s="12"/>
       <c r="C29" s="9" t="s">
         <v>130</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G29" s="98"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="99"/>
+        <v>163</v>
+      </c>
+      <c r="G29" s="93"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="94"/>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="208"/>
+      <c r="A30" s="200"/>
       <c r="B30" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="204"/>
-      <c r="H30" s="205"/>
-      <c r="I30" s="204"/>
-      <c r="J30" s="205"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="197"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G31" s="204"/>
-      <c r="H31" s="205"/>
-      <c r="I31" s="204"/>
-      <c r="J31" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G31" s="196"/>
+      <c r="H31" s="197"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="197"/>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -5843,21 +5958,21 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="D32" s="82" t="s">
-        <v>307</v>
-      </c>
-      <c r="E32" s="82" t="s">
+        <v>287</v>
+      </c>
+      <c r="D32" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="G32" s="204"/>
-      <c r="H32" s="205"/>
-      <c r="I32" s="204"/>
-      <c r="J32" s="205"/>
+      <c r="F32" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="196"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="197"/>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -5869,19 +5984,19 @@
       <c r="C33" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="82" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" s="82" t="s">
+      <c r="D33" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="G33" s="204"/>
-      <c r="H33" s="205"/>
-      <c r="I33" s="204"/>
-      <c r="J33" s="205"/>
+      <c r="F33" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" s="196"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="197"/>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -5893,19 +6008,19 @@
       <c r="C34" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="82" t="s">
-        <v>185</v>
-      </c>
-      <c r="E34" s="82" t="s">
+      <c r="D34" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="G34" s="204"/>
-      <c r="H34" s="205"/>
-      <c r="I34" s="204"/>
-      <c r="J34" s="205"/>
+      <c r="F34" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="196"/>
+      <c r="H34" s="197"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="197"/>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -5917,19 +6032,19 @@
       <c r="C35" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="82" t="s">
-        <v>194</v>
-      </c>
-      <c r="E35" s="82" t="s">
+      <c r="D35" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="G35" s="204"/>
-      <c r="H35" s="205"/>
-      <c r="I35" s="204"/>
-      <c r="J35" s="205"/>
+      <c r="F35" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" s="196"/>
+      <c r="H35" s="197"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="197"/>
     </row>
     <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -5941,19 +6056,19 @@
       <c r="C36" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="82" t="s">
-        <v>195</v>
-      </c>
-      <c r="E36" s="82" t="s">
+      <c r="D36" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="G36" s="204"/>
-      <c r="H36" s="205"/>
-      <c r="I36" s="204"/>
-      <c r="J36" s="205"/>
+      <c r="F36" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" s="196"/>
+      <c r="H36" s="197"/>
+      <c r="I36" s="196"/>
+      <c r="J36" s="197"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -5965,19 +6080,19 @@
       <c r="C37" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="82" t="s">
-        <v>196</v>
-      </c>
-      <c r="E37" s="82" t="s">
+      <c r="D37" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="G37" s="204"/>
-      <c r="H37" s="205"/>
-      <c r="I37" s="204"/>
-      <c r="J37" s="205"/>
+      <c r="F37" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" s="196"/>
+      <c r="H37" s="197"/>
+      <c r="I37" s="196"/>
+      <c r="J37" s="197"/>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -5989,19 +6104,19 @@
       <c r="C38" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="E38" s="82" t="s">
+      <c r="D38" s="77" t="s">
+        <v>179</v>
+      </c>
+      <c r="E38" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="G38" s="204"/>
-      <c r="H38" s="205"/>
-      <c r="I38" s="204"/>
-      <c r="J38" s="205"/>
+      <c r="F38" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" s="196"/>
+      <c r="H38" s="197"/>
+      <c r="I38" s="196"/>
+      <c r="J38" s="197"/>
     </row>
     <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -6012,12 +6127,12 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G39" s="204"/>
-      <c r="H39" s="205"/>
-      <c r="I39" s="204"/>
-      <c r="J39" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G39" s="196"/>
+      <c r="H39" s="197"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="197"/>
     </row>
     <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -6028,12 +6143,12 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G40" s="204"/>
-      <c r="H40" s="205"/>
-      <c r="I40" s="204"/>
-      <c r="J40" s="205"/>
+        <v>163</v>
+      </c>
+      <c r="G40" s="196"/>
+      <c r="H40" s="197"/>
+      <c r="I40" s="196"/>
+      <c r="J40" s="197"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
@@ -6044,19 +6159,74 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="204"/>
-      <c r="H41" s="205"/>
-      <c r="I41" s="204"/>
-      <c r="J41" s="205"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="197"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="A22:A30"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G3:H3"/>
@@ -6073,67 +6243,12 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A21"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6162,20 +6277,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="214" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
+      <c r="A1" s="204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="214"/>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
+      <c r="A2" s="204"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6205,7 +6320,7 @@
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -6214,19 +6329,19 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6240,19 +6355,19 @@
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6266,19 +6381,19 @@
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/IP_cim_kiosztas_akutális.xlsx
+++ b/IP_cim_kiosztas_akutális.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tibi\Documents\GitHub\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90CB104-6721-46CF-9F1E-03F4DD60FB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F89D52A-540A-4A14-A033-FE5697505628}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9270" yWindow="4560" windowWidth="16860" windowHeight="15345" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="9270" yWindow="4560" windowWidth="16860" windowHeight="15345" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -1960,7 +1960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2241,341 +2241,11 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2588,15 +2258,349 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -2927,8 +2931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00720853-46FD-4EE1-97EA-B1AFFEF5B41E}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21:L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2952,20 +2956,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="121" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="55" t="s">
@@ -2974,7 +2978,7 @@
       <c r="D2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="E2" s="126" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="56" t="s">
@@ -2982,19 +2986,19 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="103"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="106" t="s">
+      <c r="A3" s="120"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="110"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="127"/>
       <c r="F3" s="57" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="116" t="s">
         <v>204</v>
       </c>
       <c r="B4" s="83" t="s">
@@ -3006,7 +3010,7 @@
       <c r="F4" s="84"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="1" t="s">
         <v>219</v>
       </c>
@@ -3029,7 +3033,7 @@
       <c r="Q5" s="60"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="1" t="s">
         <v>220</v>
       </c>
@@ -3052,7 +3056,7 @@
       <c r="Q6" s="60"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="115" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="85"/>
@@ -3071,7 +3075,7 @@
       <c r="Q7" s="60"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
+      <c r="A8" s="125"/>
       <c r="B8" s="85"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -3088,7 +3092,7 @@
       <c r="Q8" s="60"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="115" t="s">
         <v>221</v>
       </c>
       <c r="B9" s="86" t="s">
@@ -3113,7 +3117,7 @@
       <c r="Q9" s="60"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="99"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="86" t="s">
         <v>224</v>
       </c>
@@ -3127,7 +3131,7 @@
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="99"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="86" t="s">
         <v>226</v>
       </c>
@@ -3139,39 +3143,39 @@
       </c>
       <c r="E11" s="87"/>
       <c r="F11" s="18"/>
-      <c r="I11" s="114" t="s">
+      <c r="I11" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="116" t="s">
+      <c r="J11" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="116" t="s">
+      <c r="K11" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="116" t="s">
+      <c r="L11" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="116" t="s">
+      <c r="M11" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="116" t="s">
+      <c r="N11" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="116" t="s">
+      <c r="O11" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="116" t="s">
+      <c r="P11" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="116" t="s">
+      <c r="Q11" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="R11" s="118" t="s">
+      <c r="R11" s="111" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="86" t="s">
         <v>228</v>
       </c>
@@ -3183,19 +3187,19 @@
       </c>
       <c r="E12" s="87"/>
       <c r="F12" s="18"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="117"/>
-      <c r="Q12" s="117"/>
-      <c r="R12" s="119"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="112"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="86" t="s">
         <v>230</v>
       </c>
@@ -3207,113 +3211,113 @@
       </c>
       <c r="E13" s="87"/>
       <c r="F13" s="18"/>
-      <c r="I13" s="112" t="s">
+      <c r="I13" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="112">
+      <c r="J13" s="106">
         <v>7</v>
       </c>
-      <c r="K13" s="112">
+      <c r="K13" s="106">
         <v>30</v>
       </c>
-      <c r="L13" s="111" t="s">
+      <c r="L13" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="112" t="s">
+      <c r="M13" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="113" t="s">
+      <c r="N13" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="111" t="s">
+      <c r="O13" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="111" t="s">
+      <c r="P13" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="111" t="s">
+      <c r="Q13" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="R13" s="111" t="s">
+      <c r="R13" s="107" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="99"/>
+      <c r="A14" s="116"/>
       <c r="B14" s="86"/>
       <c r="C14" s="87"/>
       <c r="D14" s="87"/>
       <c r="E14" s="87"/>
       <c r="F14" s="18"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="111"/>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="111"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="99"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="86"/>
       <c r="C15" s="87"/>
       <c r="D15" s="87"/>
       <c r="E15" s="87"/>
       <c r="F15" s="18"/>
-      <c r="I15" s="112" t="s">
+      <c r="I15" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="112">
+      <c r="J15" s="106">
         <v>5</v>
       </c>
-      <c r="K15" s="112">
+      <c r="K15" s="106">
         <v>30</v>
       </c>
-      <c r="L15" s="111" t="s">
+      <c r="L15" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="112" t="s">
+      <c r="M15" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="113" t="s">
+      <c r="N15" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="O15" s="111" t="s">
+      <c r="O15" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="111" t="s">
+      <c r="P15" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="Q15" s="111" t="s">
+      <c r="Q15" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="R15" s="111" t="s">
+      <c r="R15" s="107" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="99"/>
+      <c r="A16" s="116"/>
       <c r="B16" s="86"/>
       <c r="C16" s="87"/>
       <c r="D16" s="87"/>
       <c r="E16" s="87"/>
       <c r="F16" s="18"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="111"/>
-      <c r="P16" s="111"/>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="111"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="107"/>
+      <c r="R16" s="107"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="115" t="s">
         <v>232</v>
       </c>
       <c r="B17" s="86" t="s">
@@ -3327,39 +3331,39 @@
       </c>
       <c r="E17" s="87"/>
       <c r="F17" s="18"/>
-      <c r="I17" s="112" t="s">
+      <c r="I17" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="112">
+      <c r="J17" s="106">
         <v>1</v>
       </c>
-      <c r="K17" s="112">
+      <c r="K17" s="106">
         <v>6</v>
       </c>
-      <c r="L17" s="111" t="s">
+      <c r="L17" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="112" t="s">
+      <c r="M17" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="113" t="s">
+      <c r="N17" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="111" t="s">
+      <c r="O17" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="111" t="s">
+      <c r="P17" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="Q17" s="111" t="s">
+      <c r="Q17" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="R17" s="111" t="s">
+      <c r="R17" s="107" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="99"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="86" t="s">
         <v>224</v>
       </c>
@@ -3371,19 +3375,19 @@
       </c>
       <c r="E18" s="87"/>
       <c r="F18" s="18"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="113"/>
-      <c r="O18" s="111"/>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="111"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="99"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="86" t="s">
         <v>226</v>
       </c>
@@ -3395,39 +3399,39 @@
       </c>
       <c r="E19" s="87"/>
       <c r="F19" s="18"/>
-      <c r="I19" s="112" t="s">
+      <c r="I19" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="112">
+      <c r="J19" s="106">
         <v>1</v>
       </c>
-      <c r="K19" s="112">
+      <c r="K19" s="106">
         <v>6</v>
       </c>
-      <c r="L19" s="111" t="s">
+      <c r="L19" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="M19" s="112" t="s">
+      <c r="M19" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="113" t="s">
+      <c r="N19" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="111" t="s">
+      <c r="O19" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="111" t="s">
+      <c r="P19" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="Q19" s="111" t="s">
+      <c r="Q19" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="111" t="s">
+      <c r="R19" s="107" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="99"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="86" t="s">
         <v>228</v>
       </c>
@@ -3439,19 +3443,19 @@
       </c>
       <c r="E20" s="87"/>
       <c r="F20" s="18"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="111"/>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="111"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="107"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="99"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="86" t="s">
         <v>230</v>
       </c>
@@ -3463,57 +3467,57 @@
       </c>
       <c r="E21" s="87"/>
       <c r="F21" s="18"/>
-      <c r="I21" s="112" t="s">
+      <c r="I21" s="106" t="s">
         <v>243</v>
       </c>
-      <c r="J21" s="112">
+      <c r="J21" s="106">
         <v>3</v>
       </c>
-      <c r="K21" s="112">
+      <c r="K21" s="106">
         <v>6</v>
       </c>
-      <c r="L21" s="111" t="s">
+      <c r="L21" s="107" t="s">
         <v>244</v>
       </c>
-      <c r="M21" s="112" t="s">
+      <c r="M21" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="113" t="s">
+      <c r="N21" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="O21" s="111" t="s">
+      <c r="O21" s="107" t="s">
         <v>245</v>
       </c>
-      <c r="P21" s="111" t="s">
+      <c r="P21" s="107" t="s">
         <v>246</v>
       </c>
-      <c r="Q21" s="111" t="s">
+      <c r="Q21" s="107" t="s">
         <v>247</v>
       </c>
-      <c r="R21" s="111" t="s">
+      <c r="R21" s="107" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="99"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="86"/>
       <c r="C22" s="87"/>
       <c r="D22" s="87"/>
       <c r="E22" s="87"/>
       <c r="F22" s="18"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="111"/>
-      <c r="P22" s="111"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="111"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="107"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="99"/>
+      <c r="A23" s="116"/>
       <c r="B23" s="86"/>
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
@@ -3521,7 +3525,7 @@
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="99"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="86"/>
       <c r="C24" s="87"/>
       <c r="D24" s="87"/>
@@ -3545,7 +3549,7 @@
       <c r="F25" s="87" t="s">
         <v>248</v>
       </c>
-      <c r="N25" s="112"/>
+      <c r="N25" s="218"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="88" t="s">
@@ -3564,7 +3568,7 @@
       <c r="F26" s="87" t="s">
         <v>248</v>
       </c>
-      <c r="N26" s="112"/>
+      <c r="N26" s="218"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="88" t="s">
@@ -3583,6 +3587,7 @@
       <c r="F27" s="87" t="s">
         <v>248</v>
       </c>
+      <c r="N27" s="219"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="88" t="s">
@@ -3745,55 +3750,16 @@
       <c r="F40" s="90"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
+  <mergeCells count="69">
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="R15:R16"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
@@ -3807,15 +3773,53 @@
     <mergeCell ref="R13:R14"/>
     <mergeCell ref="P15:P16"/>
     <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3826,7 +3830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -3852,18 +3856,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="179" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
     </row>
     <row r="2" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -3884,14 +3888,14 @@
       <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="180" t="s">
+      <c r="G2" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="181"/>
-      <c r="I2" s="180" t="s">
+      <c r="H2" s="134"/>
+      <c r="I2" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="181"/>
+      <c r="J2" s="134"/>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
@@ -3918,7 +3922,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="135" t="s">
         <v>137</v>
       </c>
       <c r="B3" s="21"/>
@@ -3932,10 +3936,10 @@
         <v>207</v>
       </c>
       <c r="F3" s="21"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="187"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="140"/>
       <c r="L3" s="3" t="s">
         <v>90</v>
       </c>
@@ -3962,7 +3966,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23" t="s">
         <v>118</v>
@@ -3974,10 +3978,10 @@
         <v>207</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="188"/>
-      <c r="J4" s="190"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="143"/>
       <c r="L4" s="3" t="s">
         <v>91</v>
       </c>
@@ -4004,7 +4008,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="184"/>
+      <c r="A5" s="137"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
         <v>119</v>
@@ -4016,10 +4020,10 @@
         <v>34</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="191"/>
-      <c r="H5" s="192"/>
-      <c r="I5" s="191"/>
-      <c r="J5" s="193"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="146"/>
       <c r="L5" s="3" t="s">
         <v>95</v>
       </c>
@@ -4046,7 +4050,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="170" t="s">
         <v>140</v>
       </c>
       <c r="B6" s="26"/>
@@ -4062,10 +4066,10 @@
       <c r="F6" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="G6" s="160"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="162"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="151"/>
       <c r="L6" s="3" t="s">
         <v>99</v>
       </c>
@@ -4092,7 +4096,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="179"/>
+      <c r="A7" s="171"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28" t="s">
         <v>123</v>
@@ -4106,10 +4110,10 @@
       <c r="F7" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="163"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="165"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="154"/>
       <c r="L7" s="62" t="s">
         <v>87</v>
       </c>
@@ -4136,7 +4140,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="166" t="s">
+      <c r="A8" s="155" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="29"/>
@@ -4152,10 +4156,10 @@
       <c r="F8" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="G8" s="175"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="176"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="168"/>
       <c r="L8" s="3" t="s">
         <v>261</v>
       </c>
@@ -4182,7 +4186,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="167"/>
+      <c r="A9" s="156"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
         <v>123</v>
@@ -4202,7 +4206,7 @@
       <c r="J9" s="66"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="168"/>
+      <c r="A10" s="157"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31" t="s">
         <v>249</v>
@@ -4222,7 +4226,7 @@
       <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="158" t="s">
+      <c r="A11" s="147" t="s">
         <v>138</v>
       </c>
       <c r="B11" s="32"/>
@@ -4238,13 +4242,13 @@
       <c r="F11" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="169"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="169"/>
-      <c r="J11" s="171"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="163"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="159"/>
+      <c r="A12" s="148"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33" t="s">
         <v>121</v>
@@ -4258,10 +4262,10 @@
       <c r="F12" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="G12" s="172"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="174"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="166"/>
       <c r="L12" s="60"/>
       <c r="M12" s="60"/>
       <c r="N12" s="60"/>
@@ -4272,24 +4276,24 @@
       <c r="S12" s="60"/>
     </row>
     <row r="13" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="159"/>
-      <c r="B13" s="206"/>
-      <c r="C13" s="206" t="s">
+      <c r="A13" s="148"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="206" t="s">
+      <c r="D13" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="206" t="s">
+      <c r="E13" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="206" t="s">
+      <c r="F13" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="G13" s="207"/>
-      <c r="H13" s="208"/>
-      <c r="I13" s="207"/>
-      <c r="J13" s="209"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="160"/>
       <c r="L13" s="61"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -4300,26 +4304,26 @@
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="211" t="s">
+      <c r="A14" s="101" t="s">
         <v>290</v>
       </c>
-      <c r="B14" s="212"/>
-      <c r="C14" s="210" t="s">
+      <c r="B14" s="102"/>
+      <c r="C14" s="100" t="s">
         <v>292</v>
       </c>
-      <c r="D14" s="212" t="s">
+      <c r="D14" s="102" t="s">
         <v>293</v>
       </c>
-      <c r="E14" s="212" t="s">
+      <c r="E14" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="212" t="s">
+      <c r="F14" s="102" t="s">
         <v>154</v>
       </c>
-      <c r="G14" s="212"/>
-      <c r="H14" s="212"/>
-      <c r="I14" s="212"/>
-      <c r="J14" s="212"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
       <c r="L14" s="61"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -4330,24 +4334,24 @@
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="211"/>
-      <c r="B15" s="212"/>
-      <c r="C15" s="211" t="s">
+      <c r="A15" s="101"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="101" t="s">
         <v>291</v>
       </c>
-      <c r="D15" s="212" t="s">
+      <c r="D15" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="E15" s="212" t="s">
+      <c r="E15" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="212" t="s">
+      <c r="F15" s="102" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="212"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="212"/>
-      <c r="J15" s="212"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
       <c r="L15" s="61"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -4358,18 +4362,18 @@
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="211"/>
-      <c r="B16" s="212"/>
-      <c r="C16" s="211" t="s">
+      <c r="A16" s="101"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="D16" s="212"/>
-      <c r="E16" s="212"/>
-      <c r="F16" s="212"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="212"/>
-      <c r="J16" s="212"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
       <c r="L16" s="61"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -4380,18 +4384,18 @@
       <c r="S16" s="6"/>
     </row>
     <row r="17" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="211"/>
-      <c r="B17" s="212"/>
-      <c r="C17" s="211" t="s">
+      <c r="A17" s="101"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="101" t="s">
         <v>302</v>
       </c>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="212"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
       <c r="L17" s="61"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -4402,47 +4406,47 @@
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="211"/>
-      <c r="B18" s="212"/>
-      <c r="C18" s="211" t="s">
+      <c r="A18" s="101"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="101" t="s">
         <v>303</v>
       </c>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="212"/>
-      <c r="J18" s="212"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="211"/>
-      <c r="B19" s="212"/>
-      <c r="C19" s="211" t="s">
+      <c r="A19" s="101"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="101" t="s">
         <v>304</v>
       </c>
-      <c r="D19" s="212"/>
-      <c r="E19" s="212"/>
-      <c r="F19" s="212"/>
-      <c r="G19" s="212"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="212"/>
-      <c r="J19" s="212"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="211"/>
-      <c r="B20" s="212"/>
-      <c r="C20" s="212"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="212"/>
-      <c r="F20" s="212"/>
-      <c r="G20" s="212"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="212"/>
-      <c r="J20" s="212"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="122" t="s">
+      <c r="A21" s="194" t="s">
         <v>141</v>
       </c>
       <c r="B21" s="34" t="s">
@@ -4454,13 +4458,13 @@
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="157"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="172"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="122"/>
+      <c r="A22" s="194"/>
       <c r="B22" s="34" t="s">
         <v>298</v>
       </c>
@@ -4470,13 +4474,13 @@
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="151"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="173"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="122"/>
+      <c r="A23" s="194"/>
       <c r="B23" s="34" t="s">
         <v>298</v>
       </c>
@@ -4486,13 +4490,13 @@
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
       <c r="F23" s="95"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="151"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="173"/>
     </row>
     <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="122"/>
+      <c r="A24" s="194"/>
       <c r="B24" s="34" t="s">
         <v>298</v>
       </c>
@@ -4502,13 +4506,13 @@
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
       <c r="F24" s="95"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
+      <c r="G24" s="173"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="173"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="122"/>
+      <c r="A25" s="194"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35" t="s">
         <v>305</v>
@@ -4516,13 +4520,13 @@
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
       <c r="F25" s="95"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="151"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="173"/>
     </row>
     <row r="26" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="122"/>
+      <c r="A26" s="194"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35" t="s">
         <v>306</v>
@@ -4530,13 +4534,13 @@
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
       <c r="F26" s="95"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
+      <c r="G26" s="173"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="173"/>
+      <c r="J26" s="173"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="122"/>
+      <c r="A27" s="194"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35" t="s">
         <v>307</v>
@@ -4544,13 +4548,13 @@
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
       <c r="F27" s="95"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
+      <c r="G27" s="173"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="173"/>
+      <c r="J27" s="173"/>
     </row>
     <row r="28" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="123"/>
+      <c r="A28" s="195"/>
       <c r="B28" s="96"/>
       <c r="C28" s="36" t="s">
         <v>308</v>
@@ -4558,13 +4562,13 @@
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
       <c r="F28" s="96"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="152"/>
+      <c r="G28" s="190"/>
+      <c r="H28" s="190"/>
+      <c r="I28" s="190"/>
+      <c r="J28" s="190"/>
     </row>
     <row r="29" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="215" t="s">
+      <c r="A29" s="131" t="s">
         <v>142</v>
       </c>
       <c r="B29" s="37" t="s">
@@ -4576,13 +4580,13 @@
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="156"/>
+      <c r="G29" s="177"/>
+      <c r="H29" s="191"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="178"/>
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="216"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="37" t="s">
         <v>299</v>
       </c>
@@ -4592,13 +4596,13 @@
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="144"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="176"/>
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="216"/>
+      <c r="A31" s="132"/>
       <c r="B31" s="37" t="s">
         <v>299</v>
       </c>
@@ -4608,13 +4612,13 @@
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="144"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="175"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="176"/>
     </row>
     <row r="32" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="216"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="39" t="s">
         <v>300</v>
       </c>
@@ -4624,13 +4628,13 @@
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
-      <c r="G32" s="143"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="144"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="175"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="176"/>
     </row>
     <row r="33" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="216"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="39"/>
       <c r="C33" s="40" t="s">
         <v>305</v>
@@ -4638,13 +4642,13 @@
       <c r="D33" s="39"/>
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
-      <c r="G33" s="143"/>
-      <c r="H33" s="155"/>
-      <c r="I33" s="143"/>
-      <c r="J33" s="144"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="175"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="176"/>
     </row>
     <row r="34" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="216"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="39"/>
       <c r="C34" s="40" t="s">
         <v>306</v>
@@ -4652,13 +4656,13 @@
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
       <c r="F34" s="39"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="144"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="175"/>
+      <c r="I34" s="174"/>
+      <c r="J34" s="176"/>
     </row>
     <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="216"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="41"/>
       <c r="C35" s="42" t="s">
         <v>307</v>
@@ -4666,13 +4670,13 @@
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="147"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="129"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="130"/>
     </row>
     <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="216"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="41"/>
       <c r="C36" s="42" t="s">
         <v>308</v>
@@ -4680,13 +4684,13 @@
       <c r="D36" s="41"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="145"/>
-      <c r="J36" s="147"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="130"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="124" t="s">
+      <c r="A37" s="196" t="s">
         <v>144</v>
       </c>
       <c r="B37" s="43"/>
@@ -4694,22 +4698,22 @@
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="43"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="150"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="187"/>
+      <c r="J37" s="189"/>
     </row>
     <row r="38" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="125"/>
+      <c r="A38" s="197"/>
       <c r="B38" s="44"/>
       <c r="C38" s="45"/>
       <c r="D38" s="44"/>
       <c r="E38" s="44"/>
       <c r="F38" s="44"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="138"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="139"/>
+      <c r="G38" s="181"/>
+      <c r="H38" s="182"/>
+      <c r="I38" s="181"/>
+      <c r="J38" s="183"/>
     </row>
     <row r="39" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="70" t="s">
@@ -4728,10 +4732,10 @@
       <c r="F39" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="G39" s="140"/>
-      <c r="H39" s="141"/>
-      <c r="I39" s="140"/>
-      <c r="J39" s="142"/>
+      <c r="G39" s="184"/>
+      <c r="H39" s="185"/>
+      <c r="I39" s="184"/>
+      <c r="J39" s="186"/>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
@@ -4750,10 +4754,10 @@
         <v>26</v>
       </c>
       <c r="F40" s="49"/>
-      <c r="G40" s="129"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="129"/>
-      <c r="J40" s="131"/>
+      <c r="G40" s="201"/>
+      <c r="H40" s="202"/>
+      <c r="I40" s="201"/>
+      <c r="J40" s="203"/>
     </row>
     <row r="41" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="50" t="s">
@@ -4772,10 +4776,10 @@
         <v>26</v>
       </c>
       <c r="F41" s="49"/>
-      <c r="G41" s="132"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="132"/>
-      <c r="J41" s="134"/>
+      <c r="G41" s="204"/>
+      <c r="H41" s="205"/>
+      <c r="I41" s="204"/>
+      <c r="J41" s="206"/>
     </row>
     <row r="42" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="50" t="s">
@@ -4794,10 +4798,10 @@
         <v>26</v>
       </c>
       <c r="F42" s="49"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="128"/>
+      <c r="G42" s="198"/>
+      <c r="H42" s="199"/>
+      <c r="I42" s="198"/>
+      <c r="J42" s="200"/>
     </row>
     <row r="43" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="74" t="s">
@@ -4816,10 +4820,10 @@
         <v>26</v>
       </c>
       <c r="F43" s="49"/>
-      <c r="G43" s="126"/>
-      <c r="H43" s="127"/>
-      <c r="I43" s="126"/>
-      <c r="J43" s="128"/>
+      <c r="G43" s="198"/>
+      <c r="H43" s="199"/>
+      <c r="I43" s="198"/>
+      <c r="J43" s="200"/>
     </row>
     <row r="44" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="72" t="s">
@@ -4838,10 +4842,10 @@
         <v>26</v>
       </c>
       <c r="F44" s="97"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="121"/>
+      <c r="G44" s="192"/>
+      <c r="H44" s="192"/>
+      <c r="I44" s="192"/>
+      <c r="J44" s="193"/>
     </row>
     <row r="45" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="52" t="s">
@@ -4860,10 +4864,10 @@
         <v>26</v>
       </c>
       <c r="F45" s="97"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="120"/>
-      <c r="I45" s="120"/>
-      <c r="J45" s="121"/>
+      <c r="G45" s="192"/>
+      <c r="H45" s="192"/>
+      <c r="I45" s="192"/>
+      <c r="J45" s="193"/>
     </row>
     <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
@@ -4882,10 +4886,10 @@
         <v>26</v>
       </c>
       <c r="F46" s="54"/>
-      <c r="G46" s="120"/>
-      <c r="H46" s="120"/>
-      <c r="I46" s="120"/>
-      <c r="J46" s="121"/>
+      <c r="G46" s="192"/>
+      <c r="H46" s="192"/>
+      <c r="I46" s="192"/>
+      <c r="J46" s="193"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
@@ -4904,76 +4908,76 @@
       <c r="J47" s="39"/>
     </row>
     <row r="48" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="205"/>
-      <c r="B48" s="205"/>
-      <c r="C48" s="205"/>
-      <c r="D48" s="205"/>
-      <c r="E48" s="205"/>
-      <c r="F48" s="205"/>
-      <c r="G48" s="205"/>
-      <c r="H48" s="205"/>
-      <c r="I48" s="205"/>
-      <c r="J48" s="205"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
     </row>
     <row r="49" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="213"/>
+      <c r="A49" s="103"/>
       <c r="B49" s="80" t="s">
         <v>267</v>
       </c>
-      <c r="C49" s="214"/>
-      <c r="D49" s="214"/>
-      <c r="E49" s="214"/>
-      <c r="F49" s="214"/>
-      <c r="G49" s="214"/>
-      <c r="H49" s="214"/>
-      <c r="I49" s="214"/>
-      <c r="J49" s="214"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="104"/>
     </row>
     <row r="50" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="213"/>
+      <c r="A50" s="103"/>
       <c r="B50" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="C50" s="214"/>
-      <c r="D50" s="214"/>
-      <c r="E50" s="214"/>
-      <c r="F50" s="214"/>
-      <c r="G50" s="214"/>
-      <c r="H50" s="214"/>
-      <c r="I50" s="214"/>
-      <c r="J50" s="214"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="104"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="104"/>
+      <c r="I50" s="104"/>
+      <c r="J50" s="104"/>
     </row>
     <row r="51" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="213"/>
+      <c r="A51" s="103"/>
       <c r="B51" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="C51" s="214"/>
-      <c r="D51" s="214"/>
-      <c r="E51" s="214"/>
-      <c r="F51" s="214"/>
-      <c r="G51" s="214"/>
-      <c r="H51" s="214"/>
-      <c r="I51" s="214"/>
-      <c r="J51" s="214"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="104"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="104"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="104"/>
     </row>
     <row r="52" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="213"/>
+      <c r="A52" s="103"/>
       <c r="B52" s="74"/>
-      <c r="C52" s="214"/>
-      <c r="D52" s="214"/>
-      <c r="E52" s="214"/>
-      <c r="F52" s="214"/>
-      <c r="G52" s="214"/>
-      <c r="H52" s="214"/>
-      <c r="I52" s="214"/>
-      <c r="J52" s="214"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="104"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="104"/>
     </row>
     <row r="54" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="217" t="s">
+      <c r="B54" s="105" t="s">
         <v>310</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -5039,6 +5043,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="A29:A36"/>
@@ -5055,70 +5123,6 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5130,7 +5134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27F8DC3-BDE0-43F3-979D-2CCDC5541D2C}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -5155,14 +5159,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -5183,14 +5187,14 @@
       <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="195" t="s">
+      <c r="G2" s="212" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195" t="s">
+      <c r="H2" s="212"/>
+      <c r="I2" s="212" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="195"/>
+      <c r="J2" s="212"/>
       <c r="N2" t="s">
         <v>62</v>
       </c>
@@ -5203,7 +5207,7 @@
       <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="213" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="10"/>
@@ -5217,10 +5221,10 @@
         <v>207</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="196"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="196"/>
-      <c r="J3" s="197"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="208"/>
       <c r="N3" s="19" t="s">
         <v>17</v>
       </c>
@@ -5247,7 +5251,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="194"/>
+      <c r="A4" s="213"/>
       <c r="B4" s="10"/>
       <c r="C4" s="75" t="s">
         <v>256</v>
@@ -5259,10 +5263,10 @@
         <v>207</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="197"/>
-      <c r="I4" s="196"/>
-      <c r="J4" s="197"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="208"/>
       <c r="N4" s="7" t="s">
         <v>63</v>
       </c>
@@ -5289,7 +5293,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="194"/>
+      <c r="A5" s="213"/>
       <c r="B5" s="10"/>
       <c r="C5" s="75" t="s">
         <v>119</v>
@@ -5301,10 +5305,10 @@
         <v>7</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="196"/>
-      <c r="H5" s="197"/>
-      <c r="I5" s="196"/>
-      <c r="J5" s="197"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="208"/>
+      <c r="I5" s="207"/>
+      <c r="J5" s="208"/>
       <c r="N5" s="7" t="s">
         <v>67</v>
       </c>
@@ -5331,7 +5335,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="213" t="s">
         <v>103</v>
       </c>
       <c r="B6" s="10"/>
@@ -5347,10 +5351,10 @@
       <c r="F6" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G6" s="196"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="197"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="208"/>
       <c r="N6" s="7" t="s">
         <v>71</v>
       </c>
@@ -5377,7 +5381,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="194"/>
+      <c r="A7" s="213"/>
       <c r="B7" s="10"/>
       <c r="C7" s="75" t="s">
         <v>123</v>
@@ -5391,10 +5395,10 @@
       <c r="F7" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="196"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="196"/>
-      <c r="J7" s="197"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="208"/>
       <c r="N7" s="7" t="s">
         <v>75</v>
       </c>
@@ -5421,7 +5425,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="213" t="s">
         <v>104</v>
       </c>
       <c r="B8" s="10"/>
@@ -5437,10 +5441,10 @@
       <c r="F8" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="196"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="197"/>
+      <c r="G8" s="207"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="207"/>
+      <c r="J8" s="208"/>
       <c r="N8" s="13" t="s">
         <v>79</v>
       </c>
@@ -5467,7 +5471,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="194"/>
+      <c r="A9" s="213"/>
       <c r="B9" s="10"/>
       <c r="C9" s="75" t="s">
         <v>123</v>
@@ -5481,10 +5485,10 @@
       <c r="F9" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G9" s="196"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="197"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="208"/>
+      <c r="I9" s="207"/>
+      <c r="J9" s="208"/>
       <c r="L9" s="15"/>
       <c r="M9" s="16"/>
       <c r="N9" s="17" t="s">
@@ -5513,7 +5517,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="194"/>
+      <c r="A10" s="213"/>
       <c r="B10" s="10"/>
       <c r="C10" s="75" t="s">
         <v>249</v>
@@ -5527,13 +5531,13 @@
       <c r="F10" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="196"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="197"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="208"/>
+      <c r="I10" s="207"/>
+      <c r="J10" s="208"/>
     </row>
     <row r="11" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="194" t="s">
+      <c r="A11" s="213" t="s">
         <v>105</v>
       </c>
       <c r="B11" s="10"/>
@@ -5549,13 +5553,13 @@
       <c r="F11" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G11" s="196"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="197"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="208"/>
+      <c r="I11" s="207"/>
+      <c r="J11" s="208"/>
     </row>
     <row r="12" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="194"/>
+      <c r="A12" s="213"/>
       <c r="B12" s="10"/>
       <c r="C12" s="9" t="s">
         <v>121</v>
@@ -5569,13 +5573,13 @@
       <c r="F12" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G12" s="196"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="197"/>
+      <c r="G12" s="207"/>
+      <c r="H12" s="208"/>
+      <c r="I12" s="207"/>
+      <c r="J12" s="208"/>
     </row>
     <row r="13" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="194"/>
+      <c r="A13" s="213"/>
       <c r="B13" s="10"/>
       <c r="C13" s="9" t="s">
         <v>122</v>
@@ -5589,13 +5593,13 @@
       <c r="F13" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G13" s="196"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="197"/>
+      <c r="G13" s="207"/>
+      <c r="H13" s="208"/>
+      <c r="I13" s="207"/>
+      <c r="J13" s="208"/>
     </row>
     <row r="14" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="201" t="s">
+      <c r="A14" s="214" t="s">
         <v>106</v>
       </c>
       <c r="B14" s="10"/>
@@ -5611,13 +5615,13 @@
       <c r="F14" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G14" s="196"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="197"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="208"/>
+      <c r="I14" s="207"/>
+      <c r="J14" s="208"/>
     </row>
     <row r="15" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="202"/>
+      <c r="A15" s="215"/>
       <c r="B15" s="10"/>
       <c r="C15" s="9" t="s">
         <v>124</v>
@@ -5631,13 +5635,13 @@
       <c r="F15" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G15" s="196"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="196"/>
-      <c r="J15" s="197"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="208"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="208"/>
     </row>
     <row r="16" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="202"/>
+      <c r="A16" s="215"/>
       <c r="B16" s="10"/>
       <c r="C16" s="9" t="s">
         <v>125</v>
@@ -5651,13 +5655,13 @@
       <c r="F16" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G16" s="196"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="196"/>
-      <c r="J16" s="197"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="207"/>
+      <c r="J16" s="208"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="202"/>
+      <c r="A17" s="215"/>
       <c r="B17" s="10"/>
       <c r="C17" s="9" t="s">
         <v>126</v>
@@ -5671,13 +5675,13 @@
       <c r="F17" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G17" s="196"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="196"/>
-      <c r="J17" s="197"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="207"/>
+      <c r="J17" s="208"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="202"/>
+      <c r="A18" s="215"/>
       <c r="B18" s="10"/>
       <c r="C18" s="9" t="s">
         <v>127</v>
@@ -5691,13 +5695,13 @@
       <c r="F18" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G18" s="196"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="197"/>
+      <c r="G18" s="207"/>
+      <c r="H18" s="208"/>
+      <c r="I18" s="207"/>
+      <c r="J18" s="208"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="202"/>
+      <c r="A19" s="215"/>
       <c r="B19" s="10"/>
       <c r="C19" s="9" t="s">
         <v>128</v>
@@ -5711,13 +5715,13 @@
       <c r="F19" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G19" s="196"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="197"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="208"/>
+      <c r="I19" s="207"/>
+      <c r="J19" s="208"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="202"/>
+      <c r="A20" s="215"/>
       <c r="B20" s="10"/>
       <c r="C20" s="9" t="s">
         <v>129</v>
@@ -5737,7 +5741,7 @@
       <c r="J20" s="94"/>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="203"/>
+      <c r="A21" s="216"/>
       <c r="B21" s="1" t="s">
         <v>135</v>
       </c>
@@ -5747,13 +5751,13 @@
       <c r="E21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="196"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="196"/>
-      <c r="J21" s="197"/>
+      <c r="G21" s="207"/>
+      <c r="H21" s="208"/>
+      <c r="I21" s="207"/>
+      <c r="J21" s="208"/>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="198" t="s">
+      <c r="A22" s="209" t="s">
         <v>107</v>
       </c>
       <c r="B22" s="12"/>
@@ -5769,13 +5773,13 @@
       <c r="F22" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G22" s="196"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="196"/>
-      <c r="J22" s="197"/>
+      <c r="G22" s="207"/>
+      <c r="H22" s="208"/>
+      <c r="I22" s="207"/>
+      <c r="J22" s="208"/>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="199"/>
+      <c r="A23" s="210"/>
       <c r="B23" s="12"/>
       <c r="C23" s="9" t="s">
         <v>124</v>
@@ -5789,13 +5793,13 @@
       <c r="F23" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G23" s="196"/>
-      <c r="H23" s="197"/>
-      <c r="I23" s="196"/>
-      <c r="J23" s="197"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="208"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="208"/>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="199"/>
+      <c r="A24" s="210"/>
       <c r="B24" s="12"/>
       <c r="C24" s="9" t="s">
         <v>125</v>
@@ -5809,13 +5813,13 @@
       <c r="F24" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="196"/>
-      <c r="H24" s="197"/>
-      <c r="I24" s="196"/>
-      <c r="J24" s="197"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="208"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="199"/>
+      <c r="A25" s="210"/>
       <c r="B25" s="12"/>
       <c r="C25" s="9" t="s">
         <v>126</v>
@@ -5829,13 +5833,13 @@
       <c r="F25" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G25" s="196"/>
-      <c r="H25" s="197"/>
-      <c r="I25" s="196"/>
-      <c r="J25" s="197"/>
+      <c r="G25" s="207"/>
+      <c r="H25" s="208"/>
+      <c r="I25" s="207"/>
+      <c r="J25" s="208"/>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="199"/>
+      <c r="A26" s="210"/>
       <c r="B26" s="12"/>
       <c r="C26" s="9" t="s">
         <v>127</v>
@@ -5849,13 +5853,13 @@
       <c r="F26" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G26" s="196"/>
-      <c r="H26" s="197"/>
-      <c r="I26" s="196"/>
-      <c r="J26" s="197"/>
+      <c r="G26" s="207"/>
+      <c r="H26" s="208"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="208"/>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="199"/>
+      <c r="A27" s="210"/>
       <c r="B27" s="12"/>
       <c r="C27" s="9" t="s">
         <v>128</v>
@@ -5869,13 +5873,13 @@
       <c r="F27" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G27" s="196"/>
-      <c r="H27" s="197"/>
-      <c r="I27" s="196"/>
-      <c r="J27" s="197"/>
+      <c r="G27" s="207"/>
+      <c r="H27" s="208"/>
+      <c r="I27" s="207"/>
+      <c r="J27" s="208"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="199"/>
+      <c r="A28" s="210"/>
       <c r="B28" s="12"/>
       <c r="C28" s="9" t="s">
         <v>129</v>
@@ -5889,13 +5893,13 @@
       <c r="F28" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G28" s="196"/>
-      <c r="H28" s="197"/>
-      <c r="I28" s="196"/>
-      <c r="J28" s="197"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="208"/>
+      <c r="I28" s="207"/>
+      <c r="J28" s="208"/>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="199"/>
+      <c r="A29" s="210"/>
       <c r="B29" s="12"/>
       <c r="C29" s="9" t="s">
         <v>130</v>
@@ -5915,7 +5919,7 @@
       <c r="J29" s="94"/>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="200"/>
+      <c r="A30" s="211"/>
       <c r="B30" s="1" t="s">
         <v>135</v>
       </c>
@@ -5925,10 +5929,10 @@
       <c r="E30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="196"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="196"/>
-      <c r="J30" s="197"/>
+      <c r="G30" s="207"/>
+      <c r="H30" s="208"/>
+      <c r="I30" s="207"/>
+      <c r="J30" s="208"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -5947,10 +5951,10 @@
       <c r="F31" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G31" s="196"/>
-      <c r="H31" s="197"/>
-      <c r="I31" s="196"/>
-      <c r="J31" s="197"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="208"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="208"/>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -5969,10 +5973,10 @@
       <c r="F32" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="G32" s="196"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="197"/>
+      <c r="G32" s="207"/>
+      <c r="H32" s="208"/>
+      <c r="I32" s="207"/>
+      <c r="J32" s="208"/>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -5993,10 +5997,10 @@
       <c r="F33" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="G33" s="196"/>
-      <c r="H33" s="197"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="197"/>
+      <c r="G33" s="207"/>
+      <c r="H33" s="208"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="208"/>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -6017,10 +6021,10 @@
       <c r="F34" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="G34" s="196"/>
-      <c r="H34" s="197"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="197"/>
+      <c r="G34" s="207"/>
+      <c r="H34" s="208"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="208"/>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -6041,10 +6045,10 @@
       <c r="F35" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="G35" s="196"/>
-      <c r="H35" s="197"/>
-      <c r="I35" s="196"/>
-      <c r="J35" s="197"/>
+      <c r="G35" s="207"/>
+      <c r="H35" s="208"/>
+      <c r="I35" s="207"/>
+      <c r="J35" s="208"/>
     </row>
     <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -6065,10 +6069,10 @@
       <c r="F36" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="G36" s="196"/>
-      <c r="H36" s="197"/>
-      <c r="I36" s="196"/>
-      <c r="J36" s="197"/>
+      <c r="G36" s="207"/>
+      <c r="H36" s="208"/>
+      <c r="I36" s="207"/>
+      <c r="J36" s="208"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -6089,10 +6093,10 @@
       <c r="F37" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="G37" s="196"/>
-      <c r="H37" s="197"/>
-      <c r="I37" s="196"/>
-      <c r="J37" s="197"/>
+      <c r="G37" s="207"/>
+      <c r="H37" s="208"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="208"/>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -6113,10 +6117,10 @@
       <c r="F38" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="G38" s="196"/>
-      <c r="H38" s="197"/>
-      <c r="I38" s="196"/>
-      <c r="J38" s="197"/>
+      <c r="G38" s="207"/>
+      <c r="H38" s="208"/>
+      <c r="I38" s="207"/>
+      <c r="J38" s="208"/>
     </row>
     <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -6129,10 +6133,10 @@
       <c r="F39" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G39" s="196"/>
-      <c r="H39" s="197"/>
-      <c r="I39" s="196"/>
-      <c r="J39" s="197"/>
+      <c r="G39" s="207"/>
+      <c r="H39" s="208"/>
+      <c r="I39" s="207"/>
+      <c r="J39" s="208"/>
     </row>
     <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -6145,10 +6149,10 @@
       <c r="F40" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G40" s="196"/>
-      <c r="H40" s="197"/>
-      <c r="I40" s="196"/>
-      <c r="J40" s="197"/>
+      <c r="G40" s="207"/>
+      <c r="H40" s="208"/>
+      <c r="I40" s="207"/>
+      <c r="J40" s="208"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
@@ -6159,74 +6163,19 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="196"/>
-      <c r="H41" s="197"/>
-      <c r="I41" s="196"/>
-      <c r="J41" s="197"/>
+      <c r="G41" s="207"/>
+      <c r="H41" s="208"/>
+      <c r="I41" s="207"/>
+      <c r="J41" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="A22:A30"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G3:H3"/>
@@ -6243,12 +6192,67 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6277,20 +6281,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="217" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="204"/>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
+      <c r="A2" s="217"/>
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">

--- a/IP_cim_kiosztas_akutális.xlsx
+++ b/IP_cim_kiosztas_akutális.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tibi\Documents\GitHub\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F89D52A-540A-4A14-A033-FE5697505628}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CA6681-9C9B-4739-BA65-FB3980B56C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9270" yWindow="4560" windowWidth="16860" windowHeight="15345" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="9270" yWindow="4560" windowWidth="16860" windowHeight="15345" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -216,12 +216,6 @@
     <t>192.168.5.128</t>
   </si>
   <si>
-    <t>192.168.5.129 - 192.168.5.158</t>
-  </si>
-  <si>
-    <t>192.168.5.159</t>
-  </si>
-  <si>
     <t>192.168.0.0/24</t>
   </si>
   <si>
@@ -312,27 +306,9 @@
     <t>Pozsony_B</t>
   </si>
   <si>
-    <t>192.168.5.160</t>
-  </si>
-  <si>
-    <t>192.168.5.161 - 192.168.5.190</t>
-  </si>
-  <si>
-    <t>192.168.5.191</t>
-  </si>
-  <si>
     <t>Pozsony_C</t>
   </si>
   <si>
-    <t>192.168.5.192</t>
-  </si>
-  <si>
-    <t>192.168.5.193 - 192.168.5.222</t>
-  </si>
-  <si>
-    <t>192.168.5.223</t>
-  </si>
-  <si>
     <t>Pozsony_D</t>
   </si>
   <si>
@@ -504,18 +480,6 @@
     <t>192.168.5.130</t>
   </si>
   <si>
-    <t>192.168.5.161</t>
-  </si>
-  <si>
-    <t>192.168.5.162</t>
-  </si>
-  <si>
-    <t>192.168.5.193</t>
-  </si>
-  <si>
-    <t>192.168.5.194</t>
-  </si>
-  <si>
     <t>192.168.5.65</t>
   </si>
   <si>
@@ -628,18 +592,6 @@
   </si>
   <si>
     <t>192.168.5.6</t>
-  </si>
-  <si>
-    <t>192.168.5.7</t>
-  </si>
-  <si>
-    <t>192.168.5.8</t>
-  </si>
-  <si>
-    <t>192.168.5.9</t>
-  </si>
-  <si>
-    <t>192.168.5.10</t>
   </si>
   <si>
     <t>192.168.5.11</t>
@@ -823,21 +775,6 @@
     <t>Pozsony_F</t>
   </si>
   <si>
-    <t>192.168.5.224</t>
-  </si>
-  <si>
-    <t>192.168.5.225</t>
-  </si>
-  <si>
-    <t>192.168.5.226</t>
-  </si>
-  <si>
-    <t>192.168.5.225 - 192.168.5.254</t>
-  </si>
-  <si>
-    <t>192.168.5.255</t>
-  </si>
-  <si>
     <t>Felügyeleti_VLAN_19</t>
   </si>
   <si>
@@ -916,9 +853,6 @@
     <t>G 1/0/1</t>
   </si>
   <si>
-    <t>192.168.5.195</t>
-  </si>
-  <si>
     <t>Fa 0/4</t>
   </si>
   <si>
@@ -992,6 +926,72 @@
   </si>
   <si>
     <t>Pozsony_MS, Pozsony_S2</t>
+  </si>
+  <si>
+    <t>192.168.5.129 - 192.168.5.130</t>
+  </si>
+  <si>
+    <t>192.168.5.131</t>
+  </si>
+  <si>
+    <t>192.168.5.132</t>
+  </si>
+  <si>
+    <t>192.168.5.133 - 192.168.5.134</t>
+  </si>
+  <si>
+    <t>192.168.5.135</t>
+  </si>
+  <si>
+    <t>192.168.5.136</t>
+  </si>
+  <si>
+    <t>192.168.5.137 - 192.168.5.138</t>
+  </si>
+  <si>
+    <t>192.168.5.139</t>
+  </si>
+  <si>
+    <t>192.168.5.140</t>
+  </si>
+  <si>
+    <t>192.168.5.141 - 192.168.5.142</t>
+  </si>
+  <si>
+    <t>192.168.5.143</t>
+  </si>
+  <si>
+    <t>192.168.5.133</t>
+  </si>
+  <si>
+    <t>192.168.5.134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.5.137 </t>
+  </si>
+  <si>
+    <t>192.168.5.138</t>
+  </si>
+  <si>
+    <t>192.168.5.141</t>
+  </si>
+  <si>
+    <t>192.168.5.142</t>
+  </si>
+  <si>
+    <t>192.168.5.66</t>
+  </si>
+  <si>
+    <t>192.168.5.12</t>
+  </si>
+  <si>
+    <t>192.168.5.13</t>
+  </si>
+  <si>
+    <t>192.168.5.67</t>
+  </si>
+  <si>
+    <t>192.168.5.68</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1868,21 +1868,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -1960,7 +1945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2141,12 +2126,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2261,33 +2240,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2321,163 +2280,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2504,6 +2382,21 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2513,56 +2406,155 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2579,12 +2571,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2597,10 +2583,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -2931,7 +2913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00720853-46FD-4EE1-97EA-B1AFFEF5B41E}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -2956,20 +2938,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="113" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="55" t="s">
@@ -2978,7 +2960,7 @@
       <c r="D2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="126" t="s">
+      <c r="E2" s="118" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="56" t="s">
@@ -2986,41 +2968,41 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="120"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="123" t="s">
+      <c r="A3" s="112"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="124"/>
-      <c r="E3" s="127"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="119"/>
       <c r="F3" s="57" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="84"/>
+      <c r="A4" s="108" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="82"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="87" t="s">
-        <v>259</v>
-      </c>
-      <c r="D5" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="87"/>
+        <v>203</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="85"/>
       <c r="F5" s="18"/>
       <c r="I5" s="60"/>
       <c r="J5" s="60"/>
@@ -3033,766 +3015,734 @@
       <c r="Q5" s="60"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="116"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="87" t="s">
-        <v>260</v>
-      </c>
-      <c r="D6" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="87"/>
+        <v>204</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="85"/>
       <c r="F6" s="18"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
       <c r="L6" s="60"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="80"/>
       <c r="O6" s="60"/>
       <c r="P6" s="60"/>
       <c r="Q6" s="60"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="87"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
       <c r="L7" s="60"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="82"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="80"/>
       <c r="O7" s="60"/>
       <c r="P7" s="60"/>
       <c r="Q7" s="60"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
       <c r="L8" s="60"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="82"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="80"/>
       <c r="O8" s="60"/>
       <c r="P8" s="60"/>
       <c r="Q8" s="60"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
-        <v>221</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9" s="87" t="s">
-        <v>223</v>
-      </c>
-      <c r="D9" s="87" t="s">
+      <c r="A9" s="107" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="87"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="18"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
       <c r="L9" s="60"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="82"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="80"/>
       <c r="O9" s="60"/>
       <c r="P9" s="60"/>
       <c r="Q9" s="60"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="116"/>
-      <c r="B10" s="86" t="s">
+      <c r="A10" s="108"/>
+      <c r="B10" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="85"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="108"/>
+      <c r="B11" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="85"/>
+      <c r="F11" s="18"/>
+      <c r="I11" s="123" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="125" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="125" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="125" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="125" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="125" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="125" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="R11" s="127" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="108"/>
+      <c r="B12" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="85"/>
+      <c r="F12" s="18"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="128"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="108"/>
+      <c r="B13" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="85"/>
+      <c r="F13" s="18"/>
+      <c r="I13" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="121">
+        <v>7</v>
+      </c>
+      <c r="K13" s="121">
+        <v>30</v>
+      </c>
+      <c r="L13" s="120" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="121" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="120" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="120" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="120" t="s">
+        <v>53</v>
+      </c>
+      <c r="R13" s="120" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="108"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="18"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
+    </row>
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="108"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="18"/>
+      <c r="I15" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="121">
+        <v>5</v>
+      </c>
+      <c r="K15" s="121">
+        <v>30</v>
+      </c>
+      <c r="L15" s="120" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="121" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="R15" s="120" t="s">
         <v>224</v>
       </c>
-      <c r="C10" s="87" t="s">
+    </row>
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="108"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="18"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+    </row>
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="107" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="84" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="85"/>
+      <c r="F17" s="18"/>
+      <c r="I17" s="121" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="121">
+        <v>1</v>
+      </c>
+      <c r="K17" s="121">
+        <v>6</v>
+      </c>
+      <c r="L17" s="120" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="121" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="122" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q17" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" s="120" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="87" t="s">
+    </row>
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="108"/>
+      <c r="B18" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="116"/>
-      <c r="B11" s="86" t="s">
+      <c r="E18" s="85"/>
+      <c r="F18" s="18"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="120"/>
+    </row>
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="108"/>
+      <c r="B19" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="85" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="85"/>
+      <c r="F19" s="18"/>
+      <c r="I19" s="121" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="121">
+        <v>1</v>
+      </c>
+      <c r="K19" s="121">
+        <v>6</v>
+      </c>
+      <c r="L19" s="120" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="121" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="122" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="120" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="120" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" s="120" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="87" t="s">
+    </row>
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="108"/>
+      <c r="B20" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="85"/>
+      <c r="F20" s="18"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="120"/>
+    </row>
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="108"/>
+      <c r="B21" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="85"/>
+      <c r="F21" s="18"/>
+      <c r="I21" s="121" t="s">
         <v>227</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="J21" s="121">
+        <v>3</v>
+      </c>
+      <c r="K21" s="121">
+        <v>6</v>
+      </c>
+      <c r="L21" s="120" t="s">
+        <v>228</v>
+      </c>
+      <c r="M21" s="121" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="122" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="120" t="s">
+        <v>229</v>
+      </c>
+      <c r="P21" s="120" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q21" s="120" t="s">
+        <v>231</v>
+      </c>
+      <c r="R21" s="120" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="108"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="18"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="120"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="120"/>
+    </row>
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="108"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="108"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+    </row>
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="86" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="18"/>
-      <c r="I11" s="113" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="109" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="109" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="109" t="s">
-        <v>23</v>
-      </c>
-      <c r="P11" s="109" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="R11" s="111" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="116"/>
-      <c r="B12" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12" s="87" t="s">
-        <v>229</v>
-      </c>
-      <c r="D12" s="87" t="s">
+      <c r="E25" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="F25" s="85" t="s">
+        <v>232</v>
+      </c>
+      <c r="N25" s="105"/>
+    </row>
+    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="86" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="D26" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="18"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="112"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="116"/>
-      <c r="B13" s="86" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="87" t="s">
-        <v>231</v>
-      </c>
-      <c r="D13" s="87" t="s">
+      <c r="E26" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="F26" s="85" t="s">
+        <v>232</v>
+      </c>
+      <c r="N26" s="105"/>
+    </row>
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="86" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="18"/>
-      <c r="I13" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="106">
-        <v>7</v>
-      </c>
-      <c r="K13" s="106">
-        <v>30</v>
-      </c>
-      <c r="L13" s="107" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="O13" s="107" t="s">
-        <v>42</v>
-      </c>
-      <c r="P13" s="107" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q13" s="107" t="s">
-        <v>53</v>
-      </c>
-      <c r="R13" s="107" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="116"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="18"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="107"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="116"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="18"/>
-      <c r="I15" s="106" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="106">
-        <v>5</v>
-      </c>
-      <c r="K15" s="106">
-        <v>30</v>
-      </c>
-      <c r="L15" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="O15" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="P15" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q15" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="R15" s="107" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="116"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="18"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="107"/>
-    </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="115" t="s">
+      <c r="E27" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="F27" s="85" t="s">
         <v>232</v>
       </c>
-      <c r="B17" s="86" t="s">
-        <v>222</v>
-      </c>
-      <c r="C17" s="87" t="s">
-        <v>233</v>
-      </c>
-      <c r="D17" s="87" t="s">
+      <c r="N27" s="106"/>
+    </row>
+    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="86" t="s">
+        <v>256</v>
+      </c>
+      <c r="B28" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="C28" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="87"/>
-      <c r="F17" s="18"/>
-      <c r="I17" s="106" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="106">
-        <v>1</v>
-      </c>
-      <c r="K17" s="106">
-        <v>6</v>
-      </c>
-      <c r="L17" s="107" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" s="108" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="P17" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q17" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="R17" s="107" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="116"/>
-      <c r="B18" s="86" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="87" t="s">
-        <v>234</v>
-      </c>
-      <c r="D18" s="87" t="s">
+      <c r="E28" s="85"/>
+      <c r="F28" s="85" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="86" t="s">
+        <v>255</v>
+      </c>
+      <c r="B29" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="87"/>
-      <c r="F18" s="18"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-    </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116"/>
-      <c r="B19" s="86" t="s">
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+    </row>
+    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="86" t="s">
+        <v>259</v>
+      </c>
+      <c r="B30" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="C30" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="D30" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85" t="s">
         <v>226</v>
       </c>
-      <c r="C19" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="D19" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="18"/>
-      <c r="I19" s="106" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="106">
-        <v>1</v>
-      </c>
-      <c r="K19" s="106">
-        <v>6</v>
-      </c>
-      <c r="L19" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="N19" s="108" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="P19" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q19" s="107" t="s">
-        <v>56</v>
-      </c>
-      <c r="R19" s="107" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="116"/>
-      <c r="B20" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="C20" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="D20" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="87"/>
-      <c r="F20" s="18"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="107"/>
-    </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="116"/>
-      <c r="B21" s="86" t="s">
-        <v>230</v>
-      </c>
-      <c r="C21" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="D21" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="18"/>
-      <c r="I21" s="106" t="s">
-        <v>243</v>
-      </c>
-      <c r="J21" s="106">
-        <v>3</v>
-      </c>
-      <c r="K21" s="106">
-        <v>6</v>
-      </c>
-      <c r="L21" s="107" t="s">
-        <v>244</v>
-      </c>
-      <c r="M21" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="108" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" s="107" t="s">
-        <v>245</v>
-      </c>
-      <c r="P21" s="107" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q21" s="107" t="s">
-        <v>247</v>
-      </c>
-      <c r="R21" s="107" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="116"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="18"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-    </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="116"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="116"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-    </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="88" t="s">
-        <v>269</v>
-      </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87" t="s">
-        <v>270</v>
-      </c>
-      <c r="D25" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="87" t="s">
-        <v>273</v>
-      </c>
-      <c r="F25" s="87" t="s">
-        <v>248</v>
-      </c>
-      <c r="N25" s="218"/>
-    </row>
-    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="88" t="s">
-        <v>274</v>
-      </c>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="D26" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="87" t="s">
-        <v>273</v>
-      </c>
-      <c r="F26" s="87" t="s">
-        <v>248</v>
-      </c>
-      <c r="N26" s="218"/>
-    </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="88" t="s">
-        <v>275</v>
-      </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87" t="s">
-        <v>272</v>
-      </c>
-      <c r="D27" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="87" t="s">
-        <v>273</v>
-      </c>
-      <c r="F27" s="87" t="s">
-        <v>248</v>
-      </c>
-      <c r="N27" s="219"/>
-    </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="88" t="s">
-        <v>277</v>
-      </c>
-      <c r="B28" s="87" t="s">
-        <v>278</v>
-      </c>
-      <c r="C28" s="87" t="s">
-        <v>282</v>
-      </c>
-      <c r="D28" s="87" t="s">
+    </row>
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="86" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" s="85" t="s">
+        <v>263</v>
+      </c>
+      <c r="D31" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="88" t="s">
-        <v>276</v>
-      </c>
-      <c r="B29" s="87" t="s">
-        <v>278</v>
-      </c>
-      <c r="C29" s="87" t="s">
-        <v>281</v>
-      </c>
-      <c r="D29" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-    </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="88" t="s">
-        <v>280</v>
-      </c>
-      <c r="B30" s="87" t="s">
-        <v>278</v>
-      </c>
-      <c r="C30" s="87" t="s">
-        <v>283</v>
-      </c>
-      <c r="D30" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="88" t="s">
-        <v>279</v>
-      </c>
-      <c r="B31" s="87" t="s">
-        <v>278</v>
-      </c>
-      <c r="C31" s="87" t="s">
-        <v>284</v>
-      </c>
-      <c r="D31" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87" t="s">
-        <v>239</v>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="88" t="s">
-        <v>285</v>
-      </c>
-      <c r="B32" s="87"/>
+      <c r="A32" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="B32" s="85"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="88"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="B33" s="91"/>
+      <c r="A33" s="86" t="s">
+        <v>265</v>
+      </c>
+      <c r="B33" s="89"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="90"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="88"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="88" t="s">
+      <c r="A34" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="91"/>
+      <c r="B34" s="89"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="90"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="88"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="91"/>
+      <c r="B35" s="89"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="90"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="88"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="91"/>
+      <c r="B36" s="89"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="90"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="88"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="88" t="s">
+      <c r="A37" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="91"/>
+      <c r="B37" s="89"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="90"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="88"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="88" t="s">
+      <c r="A38" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="91"/>
+      <c r="B38" s="89"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="90"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="88"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="91"/>
+      <c r="B39" s="89"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="90"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="88"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="88" t="s">
+      <c r="A40" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="91"/>
+      <c r="B40" s="89"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="90"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I17:I18"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="R17:R18"/>
     <mergeCell ref="Q19:Q20"/>
@@ -3808,18 +3758,50 @@
     <mergeCell ref="O21:O22"/>
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
     <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I17:I18"/>
     <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3830,8 +3812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3856,18 +3838,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="179" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
+      <c r="A1" s="144" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -3888,14 +3870,14 @@
       <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="133" t="s">
+      <c r="G2" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="133" t="s">
-        <v>136</v>
-      </c>
-      <c r="J2" s="134"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="188" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="189"/>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
@@ -3922,159 +3904,159 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="135" t="s">
-        <v>137</v>
+      <c r="A3" s="190" t="s">
+        <v>129</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="79" t="s">
-        <v>216</v>
+        <v>109</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>200</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="F3" s="21"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="140"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="195"/>
       <c r="L3" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M3" s="4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N3" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>59</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>60</v>
+        <v>297</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="136"/>
+      <c r="A4" s="191"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>258</v>
+        <v>110</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>242</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="143"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="198"/>
       <c r="L4" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M4" s="4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N4" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>92</v>
+        <v>299</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>94</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="137"/>
+      <c r="A5" s="192"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="146"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="201"/>
       <c r="L5" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M5" s="4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N5" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>96</v>
+        <v>302</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>97</v>
+        <v>303</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>98</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="170" t="s">
-        <v>140</v>
+      <c r="A6" s="184" t="s">
+        <v>132</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="149"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="151"/>
+        <v>146</v>
+      </c>
+      <c r="G6" s="204"/>
+      <c r="H6" s="205"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="206"/>
       <c r="L6" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M6" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N6" s="4">
         <v>62</v>
@@ -4089,211 +4071,203 @@
         <v>26</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="171"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>160</v>
+        <v>311</v>
       </c>
       <c r="E7" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="167"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="168"/>
+      <c r="L7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="4">
+        <v>50</v>
+      </c>
+      <c r="N7" s="4">
+        <v>62</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="152"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="154"/>
-      <c r="L7" s="62" t="s">
+      <c r="R7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="M7" s="63">
-        <v>40</v>
-      </c>
-      <c r="N7" s="63">
-        <v>62</v>
-      </c>
-      <c r="O7" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="S7" s="63" t="s">
+      <c r="S7" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="155" t="s">
-        <v>139</v>
+      <c r="A8" s="169" t="s">
+        <v>131</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>157</v>
+        <v>309</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="167"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="168"/>
+        <v>146</v>
+      </c>
+      <c r="G8" s="181"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="182"/>
       <c r="L8" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="M8" s="4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N8" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="156"/>
+      <c r="A9" s="170"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="66"/>
+        <v>146</v>
+      </c>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="64"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="157"/>
+      <c r="A10" s="171"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="69"/>
+        <v>146</v>
+      </c>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="67"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="147" t="s">
-        <v>138</v>
+      <c r="A11" s="202" t="s">
+        <v>130</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" s="161"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="163"/>
+        <v>146</v>
+      </c>
+      <c r="G11" s="175"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="177"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
+      <c r="A12" s="203"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>158</v>
+        <v>308</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="G12" s="164"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="166"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
+        <v>146</v>
+      </c>
+      <c r="G12" s="178"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="180"/>
     </row>
     <row r="13" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="148"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="99" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="99" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="99" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="158"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="160"/>
+      <c r="A13" s="203"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="97" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="172"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="174"/>
       <c r="L13" s="61"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -4304,26 +4278,26 @@
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="101" t="s">
-        <v>290</v>
-      </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="100" t="s">
-        <v>292</v>
-      </c>
-      <c r="D14" s="102" t="s">
-        <v>293</v>
-      </c>
-      <c r="E14" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="102" t="s">
-        <v>154</v>
-      </c>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
+      <c r="A14" s="99" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" s="100"/>
+      <c r="C14" s="98" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="100" t="s">
+        <v>314</v>
+      </c>
+      <c r="E14" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
       <c r="L14" s="61"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -4334,24 +4308,24 @@
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="101"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="101" t="s">
-        <v>291</v>
-      </c>
-      <c r="D15" s="102" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="102" t="s">
+      <c r="A15" s="99"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="99" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="102" t="s">
-        <v>154</v>
-      </c>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
+      <c r="F15" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
       <c r="L15" s="61"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -4362,18 +4336,18 @@
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="101"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="101" t="s">
-        <v>301</v>
-      </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="99" t="s">
+        <v>279</v>
+      </c>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
       <c r="L16" s="61"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -4384,18 +4358,18 @@
       <c r="S16" s="6"/>
     </row>
     <row r="17" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="101"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="101" t="s">
-        <v>302</v>
-      </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="99" t="s">
+        <v>280</v>
+      </c>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
       <c r="L17" s="61"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -4406,497 +4380,497 @@
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="101"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="101" t="s">
-        <v>303</v>
-      </c>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="99" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="101"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="101" t="s">
-        <v>304</v>
-      </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="99" t="s">
+        <v>282</v>
+      </c>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
     </row>
     <row r="20" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="101"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
     </row>
     <row r="21" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="194" t="s">
-        <v>141</v>
+      <c r="A21" s="131" t="s">
+        <v>133</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="172"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="194"/>
+      <c r="A22" s="131"/>
       <c r="B22" s="34" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="173"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="160"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="194"/>
+      <c r="A23" s="131"/>
       <c r="B23" s="34" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="173"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
     </row>
     <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="194"/>
+      <c r="A24" s="131"/>
       <c r="B24" s="34" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="173"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="160"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="194"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="173"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="160"/>
     </row>
     <row r="26" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="194"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="173"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="194"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="173"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="160"/>
     </row>
     <row r="28" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="195"/>
-      <c r="B28" s="96"/>
+      <c r="A28" s="132"/>
+      <c r="B28" s="94"/>
       <c r="C28" s="36" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="190"/>
-      <c r="H28" s="190"/>
-      <c r="I28" s="190"/>
-      <c r="J28" s="190"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="161"/>
     </row>
     <row r="29" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="131" t="s">
-        <v>142</v>
+      <c r="A29" s="186" t="s">
+        <v>134</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
-      <c r="G29" s="177"/>
-      <c r="H29" s="191"/>
-      <c r="I29" s="177"/>
-      <c r="J29" s="178"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="165"/>
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="132"/>
+      <c r="A30" s="187"/>
       <c r="B30" s="37" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="175"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="176"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="153"/>
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="132"/>
+      <c r="A31" s="187"/>
       <c r="B31" s="37" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="175"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="176"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="153"/>
     </row>
     <row r="32" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="132"/>
+      <c r="A32" s="187"/>
       <c r="B32" s="39" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="175"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="176"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="153"/>
     </row>
     <row r="33" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="132"/>
+      <c r="A33" s="187"/>
       <c r="B33" s="39"/>
       <c r="C33" s="40" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D33" s="39"/>
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
-      <c r="G33" s="174"/>
-      <c r="H33" s="175"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="176"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="153"/>
     </row>
     <row r="34" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="132"/>
+      <c r="A34" s="187"/>
       <c r="B34" s="39"/>
       <c r="C34" s="40" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
       <c r="F34" s="39"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="175"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="176"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="153"/>
     </row>
     <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="132"/>
+      <c r="A35" s="187"/>
       <c r="B35" s="41"/>
       <c r="C35" s="42" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
-      <c r="G35" s="128"/>
-      <c r="H35" s="129"/>
-      <c r="I35" s="128"/>
-      <c r="J35" s="130"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="156"/>
     </row>
     <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="132"/>
+      <c r="A36" s="187"/>
       <c r="B36" s="41"/>
       <c r="C36" s="42" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D36" s="41"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="129"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="130"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="156"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="196" t="s">
-        <v>144</v>
+      <c r="A37" s="133" t="s">
+        <v>136</v>
       </c>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="43"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="187"/>
-      <c r="J37" s="189"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="158"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="159"/>
     </row>
     <row r="38" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="197"/>
+      <c r="A38" s="134"/>
       <c r="B38" s="44"/>
       <c r="C38" s="45"/>
       <c r="D38" s="44"/>
       <c r="E38" s="44"/>
       <c r="F38" s="44"/>
-      <c r="G38" s="181"/>
-      <c r="H38" s="182"/>
-      <c r="I38" s="181"/>
-      <c r="J38" s="183"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="146"/>
+      <c r="J38" s="148"/>
     </row>
     <row r="39" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="71"/>
+      <c r="A39" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="69"/>
       <c r="C39" s="47" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="G39" s="184"/>
-      <c r="H39" s="185"/>
-      <c r="I39" s="184"/>
-      <c r="J39" s="186"/>
+        <v>146</v>
+      </c>
+      <c r="G39" s="149"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="151"/>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B40" s="50" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E40" s="49" t="s">
         <v>26</v>
       </c>
       <c r="F40" s="49"/>
-      <c r="G40" s="201"/>
-      <c r="H40" s="202"/>
-      <c r="I40" s="201"/>
-      <c r="J40" s="203"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="139"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="140"/>
     </row>
     <row r="41" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="50" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B41" s="50" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D41" s="49" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E41" s="49" t="s">
         <v>26</v>
       </c>
       <c r="F41" s="49"/>
-      <c r="G41" s="204"/>
-      <c r="H41" s="205"/>
-      <c r="I41" s="204"/>
-      <c r="J41" s="206"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="142"/>
+      <c r="I41" s="141"/>
+      <c r="J41" s="143"/>
     </row>
     <row r="42" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="50" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E42" s="49" t="s">
         <v>26</v>
       </c>
       <c r="F42" s="49"/>
-      <c r="G42" s="198"/>
-      <c r="H42" s="199"/>
-      <c r="I42" s="198"/>
-      <c r="J42" s="200"/>
+      <c r="G42" s="135"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="135"/>
+      <c r="J42" s="137"/>
     </row>
     <row r="43" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="74" t="s">
-        <v>250</v>
+      <c r="A43" s="72" t="s">
+        <v>234</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D43" s="49" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="E43" s="49" t="s">
         <v>26</v>
       </c>
       <c r="F43" s="49"/>
-      <c r="G43" s="198"/>
-      <c r="H43" s="199"/>
-      <c r="I43" s="198"/>
-      <c r="J43" s="200"/>
+      <c r="G43" s="135"/>
+      <c r="H43" s="136"/>
+      <c r="I43" s="135"/>
+      <c r="J43" s="137"/>
     </row>
     <row r="44" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="B44" s="73" t="s">
-        <v>152</v>
+      <c r="A44" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="71" t="s">
+        <v>144</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="D44" s="97" t="s">
-        <v>200</v>
-      </c>
-      <c r="E44" s="97" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="95" t="s">
+        <v>314</v>
+      </c>
+      <c r="E44" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="97"/>
-      <c r="G44" s="192"/>
-      <c r="H44" s="192"/>
-      <c r="I44" s="192"/>
-      <c r="J44" s="193"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="129"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="130"/>
     </row>
     <row r="45" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="52" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B45" s="59" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="D45" s="97" t="s">
-        <v>201</v>
-      </c>
-      <c r="E45" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="D45" s="104" t="s">
+        <v>317</v>
+      </c>
+      <c r="E45" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="97"/>
-      <c r="G45" s="192"/>
-      <c r="H45" s="192"/>
-      <c r="I45" s="192"/>
-      <c r="J45" s="193"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="129"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="129"/>
+      <c r="J45" s="130"/>
     </row>
     <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B46" s="58" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C46" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="D46" s="97" t="s">
-        <v>202</v>
-      </c>
-      <c r="E46" s="97" t="s">
+        <v>237</v>
+      </c>
+      <c r="D46" s="104" t="s">
+        <v>318</v>
+      </c>
+      <c r="E46" s="95" t="s">
         <v>26</v>
       </c>
       <c r="F46" s="54"/>
-      <c r="G46" s="192"/>
-      <c r="H46" s="192"/>
-      <c r="I46" s="192"/>
-      <c r="J46" s="193"/>
+      <c r="G46" s="129"/>
+      <c r="H46" s="129"/>
+      <c r="I46" s="129"/>
+      <c r="J46" s="130"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
@@ -4908,86 +4882,86 @@
       <c r="J47" s="39"/>
     </row>
     <row r="48" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="98"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="98"/>
-      <c r="I48" s="98"/>
-      <c r="J48" s="98"/>
+      <c r="A48" s="96"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
     </row>
     <row r="49" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="103"/>
-      <c r="B49" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="104"/>
-      <c r="I49" s="104"/>
-      <c r="J49" s="104"/>
+      <c r="A49" s="101"/>
+      <c r="B49" s="78" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" s="102"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="102"/>
+      <c r="J49" s="102"/>
     </row>
     <row r="50" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="103"/>
-      <c r="B50" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" s="104"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="104"/>
-      <c r="G50" s="104"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="104"/>
-      <c r="J50" s="104"/>
+      <c r="A50" s="101"/>
+      <c r="B50" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="102"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="102"/>
+      <c r="J50" s="102"/>
     </row>
     <row r="51" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="103"/>
-      <c r="B51" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="C51" s="104"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="104"/>
-      <c r="F51" s="104"/>
-      <c r="G51" s="104"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="104"/>
-      <c r="J51" s="104"/>
+      <c r="A51" s="101"/>
+      <c r="B51" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="102"/>
+      <c r="I51" s="102"/>
+      <c r="J51" s="102"/>
     </row>
     <row r="52" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="103"/>
-      <c r="B52" s="74"/>
-      <c r="C52" s="104"/>
-      <c r="D52" s="104"/>
-      <c r="E52" s="104"/>
-      <c r="F52" s="104"/>
-      <c r="G52" s="104"/>
-      <c r="H52" s="104"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="104"/>
+      <c r="A52" s="101"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="102"/>
     </row>
     <row r="54" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="105" t="s">
-        <v>310</v>
+      <c r="B54" s="103" t="s">
+        <v>288</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -4995,16 +4969,16 @@
         <v>11</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -5012,16 +4986,16 @@
         <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -5029,20 +5003,84 @@
         <v>19</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G34:H34"/>
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="I45:J45"/>
@@ -5059,70 +5097,6 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="I43:J43"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5134,7 +5108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27F8DC3-BDE0-43F3-979D-2CCDC5541D2C}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -5159,14 +5133,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="117" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
+      <c r="A1" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -5187,16 +5161,16 @@
       <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="212" t="s">
+      <c r="G2" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212" t="s">
-        <v>136</v>
-      </c>
-      <c r="J2" s="212"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="209"/>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -5207,24 +5181,24 @@
       <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="213" t="s">
-        <v>102</v>
+      <c r="A3" s="208" t="s">
+        <v>94</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="75" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>207</v>
+      <c r="C3" s="73" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>191</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="208"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="211"/>
       <c r="N3" s="19" t="s">
         <v>17</v>
       </c>
@@ -5251,24 +5225,24 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="213"/>
+      <c r="A4" s="208"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="75" t="s">
-        <v>256</v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>257</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>207</v>
+      <c r="C4" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>191</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="208"/>
+      <c r="G4" s="210"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="211"/>
       <c r="N4" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O4" s="8">
         <v>8</v>
@@ -5277,7 +5251,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>27</v>
@@ -5286,31 +5260,31 @@
         <v>7</v>
       </c>
       <c r="T4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="208"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="211"/>
+      <c r="N5" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="213"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="208"/>
-      <c r="N5" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="O5" s="8">
         <v>8</v>
@@ -5319,7 +5293,7 @@
         <v>14</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>27</v>
@@ -5328,35 +5302,35 @@
         <v>7</v>
       </c>
       <c r="T5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="208" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="210"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="210"/>
+      <c r="J6" s="211"/>
+      <c r="N6" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="213" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="207"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="207"/>
-      <c r="J6" s="208"/>
-      <c r="N6" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="O6" s="8">
         <v>8</v>
@@ -5365,7 +5339,7 @@
         <v>14</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>27</v>
@@ -5374,33 +5348,33 @@
         <v>7</v>
       </c>
       <c r="T6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="208"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="210"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="211"/>
+      <c r="N7" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="213"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="77" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="207"/>
-      <c r="H7" s="208"/>
-      <c r="I7" s="207"/>
-      <c r="J7" s="208"/>
-      <c r="N7" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="O7" s="8">
         <v>4</v>
@@ -5409,7 +5383,7 @@
         <v>6</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>28</v>
@@ -5418,35 +5392,35 @@
         <v>29</v>
       </c>
       <c r="T7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="208" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="210"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="210"/>
+      <c r="J8" s="211"/>
+      <c r="N8" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="213" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="207"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="207"/>
-      <c r="J8" s="208"/>
-      <c r="N8" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="O8" s="14">
         <v>48</v>
@@ -5455,7 +5429,7 @@
         <v>62</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R8" s="14" t="s">
         <v>25</v>
@@ -5464,35 +5438,35 @@
         <v>26</v>
       </c>
       <c r="T8" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U8" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="213"/>
+      <c r="A9" s="208"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="77" t="s">
+      <c r="C9" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="75" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="207"/>
-      <c r="H9" s="208"/>
-      <c r="I9" s="207"/>
-      <c r="J9" s="208"/>
+        <v>151</v>
+      </c>
+      <c r="G9" s="210"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="210"/>
+      <c r="J9" s="211"/>
       <c r="L9" s="15"/>
       <c r="M9" s="16"/>
       <c r="N9" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O9" s="18">
         <v>48</v>
@@ -5501,7 +5475,7 @@
         <v>62</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R9" s="18" t="s">
         <v>25</v>
@@ -5510,672 +5484,727 @@
         <v>26</v>
       </c>
       <c r="T9" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U9" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="213"/>
+      <c r="A10" s="208"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="75" t="s">
-        <v>249</v>
-      </c>
-      <c r="D10" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="77" t="s">
+      <c r="C10" s="73" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="75" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="207"/>
-      <c r="H10" s="208"/>
-      <c r="I10" s="207"/>
-      <c r="J10" s="208"/>
+        <v>151</v>
+      </c>
+      <c r="G10" s="210"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="210"/>
+      <c r="J10" s="211"/>
     </row>
     <row r="11" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="213" t="s">
-        <v>105</v>
+      <c r="A11" s="208" t="s">
+        <v>97</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G11" s="207"/>
-      <c r="H11" s="208"/>
-      <c r="I11" s="207"/>
-      <c r="J11" s="208"/>
+        <v>151</v>
+      </c>
+      <c r="G11" s="210"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="210"/>
+      <c r="J11" s="211"/>
     </row>
     <row r="12" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="213"/>
+      <c r="A12" s="208"/>
       <c r="B12" s="10"/>
       <c r="C12" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G12" s="207"/>
-      <c r="H12" s="208"/>
-      <c r="I12" s="207"/>
-      <c r="J12" s="208"/>
+        <v>151</v>
+      </c>
+      <c r="G12" s="210"/>
+      <c r="H12" s="211"/>
+      <c r="I12" s="210"/>
+      <c r="J12" s="211"/>
     </row>
     <row r="13" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="213"/>
+      <c r="A13" s="208"/>
       <c r="B13" s="10"/>
       <c r="C13" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G13" s="207"/>
-      <c r="H13" s="208"/>
-      <c r="I13" s="207"/>
-      <c r="J13" s="208"/>
+        <v>151</v>
+      </c>
+      <c r="G13" s="210"/>
+      <c r="H13" s="211"/>
+      <c r="I13" s="210"/>
+      <c r="J13" s="211"/>
     </row>
     <row r="14" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="214" t="s">
-        <v>106</v>
+      <c r="A14" s="215" t="s">
+        <v>98</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" s="207"/>
-      <c r="H14" s="208"/>
-      <c r="I14" s="207"/>
-      <c r="J14" s="208"/>
+        <v>151</v>
+      </c>
+      <c r="G14" s="210"/>
+      <c r="H14" s="211"/>
+      <c r="I14" s="210"/>
+      <c r="J14" s="211"/>
     </row>
     <row r="15" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="215"/>
+      <c r="A15" s="216"/>
       <c r="B15" s="10"/>
       <c r="C15" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="207"/>
-      <c r="H15" s="208"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="208"/>
+        <v>151</v>
+      </c>
+      <c r="G15" s="210"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="210"/>
+      <c r="J15" s="211"/>
     </row>
     <row r="16" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="215"/>
+      <c r="A16" s="216"/>
       <c r="B16" s="10"/>
       <c r="C16" s="9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" s="207"/>
-      <c r="H16" s="208"/>
-      <c r="I16" s="207"/>
-      <c r="J16" s="208"/>
+        <v>151</v>
+      </c>
+      <c r="G16" s="210"/>
+      <c r="H16" s="211"/>
+      <c r="I16" s="210"/>
+      <c r="J16" s="211"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="215"/>
+      <c r="A17" s="216"/>
       <c r="B17" s="10"/>
       <c r="C17" s="9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="207"/>
-      <c r="H17" s="208"/>
-      <c r="I17" s="207"/>
-      <c r="J17" s="208"/>
+        <v>151</v>
+      </c>
+      <c r="G17" s="210"/>
+      <c r="H17" s="211"/>
+      <c r="I17" s="210"/>
+      <c r="J17" s="211"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="215"/>
+      <c r="A18" s="216"/>
       <c r="B18" s="10"/>
       <c r="C18" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G18" s="207"/>
-      <c r="H18" s="208"/>
-      <c r="I18" s="207"/>
-      <c r="J18" s="208"/>
+        <v>151</v>
+      </c>
+      <c r="G18" s="210"/>
+      <c r="H18" s="211"/>
+      <c r="I18" s="210"/>
+      <c r="J18" s="211"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="215"/>
+      <c r="A19" s="216"/>
       <c r="B19" s="10"/>
       <c r="C19" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" s="207"/>
-      <c r="H19" s="208"/>
-      <c r="I19" s="207"/>
-      <c r="J19" s="208"/>
+        <v>151</v>
+      </c>
+      <c r="G19" s="210"/>
+      <c r="H19" s="211"/>
+      <c r="I19" s="210"/>
+      <c r="J19" s="211"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="215"/>
+      <c r="A20" s="216"/>
       <c r="B20" s="10"/>
       <c r="C20" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G20" s="93"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="94"/>
+        <v>151</v>
+      </c>
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="92"/>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="216"/>
+      <c r="A21" s="217"/>
       <c r="B21" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="207"/>
-      <c r="H21" s="208"/>
-      <c r="I21" s="207"/>
-      <c r="J21" s="208"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="211"/>
+      <c r="I21" s="210"/>
+      <c r="J21" s="211"/>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="209" t="s">
-        <v>107</v>
+      <c r="A22" s="212" t="s">
+        <v>99</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G22" s="207"/>
-      <c r="H22" s="208"/>
-      <c r="I22" s="207"/>
-      <c r="J22" s="208"/>
+        <v>151</v>
+      </c>
+      <c r="G22" s="210"/>
+      <c r="H22" s="211"/>
+      <c r="I22" s="210"/>
+      <c r="J22" s="211"/>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="210"/>
+      <c r="A23" s="213"/>
       <c r="B23" s="12"/>
       <c r="C23" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="207"/>
-      <c r="H23" s="208"/>
-      <c r="I23" s="207"/>
-      <c r="J23" s="208"/>
+        <v>151</v>
+      </c>
+      <c r="G23" s="210"/>
+      <c r="H23" s="211"/>
+      <c r="I23" s="210"/>
+      <c r="J23" s="211"/>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="210"/>
+      <c r="A24" s="213"/>
       <c r="B24" s="12"/>
       <c r="C24" s="9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G24" s="207"/>
-      <c r="H24" s="208"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="208"/>
+        <v>151</v>
+      </c>
+      <c r="G24" s="210"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="210"/>
+      <c r="J24" s="211"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="210"/>
+      <c r="A25" s="213"/>
       <c r="B25" s="12"/>
       <c r="C25" s="9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="207"/>
-      <c r="H25" s="208"/>
-      <c r="I25" s="207"/>
-      <c r="J25" s="208"/>
+        <v>151</v>
+      </c>
+      <c r="G25" s="210"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="210"/>
+      <c r="J25" s="211"/>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="210"/>
+      <c r="A26" s="213"/>
       <c r="B26" s="12"/>
       <c r="C26" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" s="207"/>
-      <c r="H26" s="208"/>
-      <c r="I26" s="207"/>
-      <c r="J26" s="208"/>
+        <v>151</v>
+      </c>
+      <c r="G26" s="210"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="210"/>
+      <c r="J26" s="211"/>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="210"/>
+      <c r="A27" s="213"/>
       <c r="B27" s="12"/>
       <c r="C27" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" s="207"/>
-      <c r="H27" s="208"/>
-      <c r="I27" s="207"/>
-      <c r="J27" s="208"/>
+        <v>151</v>
+      </c>
+      <c r="G27" s="210"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="210"/>
+      <c r="J27" s="211"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="210"/>
+      <c r="A28" s="213"/>
       <c r="B28" s="12"/>
       <c r="C28" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="207"/>
-      <c r="H28" s="208"/>
-      <c r="I28" s="207"/>
-      <c r="J28" s="208"/>
+        <v>151</v>
+      </c>
+      <c r="G28" s="210"/>
+      <c r="H28" s="211"/>
+      <c r="I28" s="210"/>
+      <c r="J28" s="211"/>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="210"/>
+      <c r="A29" s="213"/>
       <c r="B29" s="12"/>
       <c r="C29" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G29" s="93"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="94"/>
+        <v>151</v>
+      </c>
+      <c r="G29" s="91"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="92"/>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="211"/>
+      <c r="A30" s="214"/>
       <c r="B30" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="207"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="207"/>
-      <c r="J30" s="208"/>
+      <c r="G30" s="210"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="210"/>
+      <c r="J30" s="211"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G31" s="207"/>
-      <c r="H31" s="208"/>
-      <c r="I31" s="207"/>
-      <c r="J31" s="208"/>
+        <v>151</v>
+      </c>
+      <c r="G31" s="210"/>
+      <c r="H31" s="211"/>
+      <c r="I31" s="210"/>
+      <c r="J31" s="211"/>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="D32" s="77" t="s">
-        <v>288</v>
-      </c>
-      <c r="E32" s="77" t="s">
+        <v>266</v>
+      </c>
+      <c r="D32" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="E32" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="G32" s="207"/>
-      <c r="H32" s="208"/>
-      <c r="I32" s="207"/>
-      <c r="J32" s="208"/>
+      <c r="F32" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="G32" s="210"/>
+      <c r="H32" s="211"/>
+      <c r="I32" s="210"/>
+      <c r="J32" s="211"/>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" s="77" t="s">
-        <v>180</v>
-      </c>
-      <c r="E33" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="G33" s="207"/>
-      <c r="H33" s="208"/>
-      <c r="I33" s="207"/>
-      <c r="J33" s="208"/>
+      <c r="F33" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" s="210"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="210"/>
+      <c r="J33" s="211"/>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="77" t="s">
-        <v>181</v>
-      </c>
-      <c r="E34" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" s="207"/>
-      <c r="H34" s="208"/>
-      <c r="I34" s="207"/>
-      <c r="J34" s="208"/>
+      <c r="F34" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" s="210"/>
+      <c r="H34" s="211"/>
+      <c r="I34" s="210"/>
+      <c r="J34" s="211"/>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D35" s="77" t="s">
-        <v>190</v>
-      </c>
-      <c r="E35" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="G35" s="207"/>
-      <c r="H35" s="208"/>
-      <c r="I35" s="207"/>
-      <c r="J35" s="208"/>
+      <c r="F35" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35" s="210"/>
+      <c r="H35" s="211"/>
+      <c r="I35" s="210"/>
+      <c r="J35" s="211"/>
     </row>
     <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="E36" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="E36" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="G36" s="207"/>
-      <c r="H36" s="208"/>
-      <c r="I36" s="207"/>
-      <c r="J36" s="208"/>
+      <c r="F36" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" s="210"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="210"/>
+      <c r="J36" s="211"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="E37" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="G37" s="207"/>
-      <c r="H37" s="208"/>
-      <c r="I37" s="207"/>
-      <c r="J37" s="208"/>
+      <c r="F37" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37" s="210"/>
+      <c r="H37" s="211"/>
+      <c r="I37" s="210"/>
+      <c r="J37" s="211"/>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" s="77" t="s">
-        <v>179</v>
-      </c>
-      <c r="E38" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="G38" s="207"/>
-      <c r="H38" s="208"/>
-      <c r="I38" s="207"/>
-      <c r="J38" s="208"/>
+      <c r="F38" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" s="210"/>
+      <c r="H38" s="211"/>
+      <c r="I38" s="210"/>
+      <c r="J38" s="211"/>
     </row>
     <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G39" s="207"/>
-      <c r="H39" s="208"/>
-      <c r="I39" s="207"/>
-      <c r="J39" s="208"/>
+        <v>151</v>
+      </c>
+      <c r="G39" s="210"/>
+      <c r="H39" s="211"/>
+      <c r="I39" s="210"/>
+      <c r="J39" s="211"/>
     </row>
     <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G40" s="207"/>
-      <c r="H40" s="208"/>
-      <c r="I40" s="207"/>
-      <c r="J40" s="208"/>
+        <v>151</v>
+      </c>
+      <c r="G40" s="210"/>
+      <c r="H40" s="211"/>
+      <c r="I40" s="210"/>
+      <c r="J40" s="211"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="207"/>
-      <c r="H41" s="208"/>
-      <c r="I41" s="207"/>
-      <c r="J41" s="208"/>
+      <c r="G41" s="210"/>
+      <c r="H41" s="211"/>
+      <c r="I41" s="210"/>
+      <c r="J41" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="A22:A30"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G3:H3"/>
@@ -6192,67 +6221,12 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A21"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6281,20 +6255,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="217" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
+      <c r="A1" s="218" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="217"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
+      <c r="A2" s="218"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6324,7 +6298,7 @@
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -6333,24 +6307,24 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
@@ -6359,24 +6333,24 @@
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
@@ -6385,19 +6359,19 @@
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/IP_cim_kiosztas_akutális.xlsx
+++ b/IP_cim_kiosztas_akutális.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CA6681-9C9B-4739-BA65-FB3980B56C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F369F15-8D70-4B89-97AD-B7ACE4B7D050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9270" yWindow="4560" windowWidth="16860" windowHeight="15345" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="14880" yWindow="-60" windowWidth="16860" windowHeight="15345" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="326">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -474,12 +474,6 @@
     <t>Pozsony_Laptop1</t>
   </si>
   <si>
-    <t>192.168.5.129</t>
-  </si>
-  <si>
-    <t>192.168.5.130</t>
-  </si>
-  <si>
     <t>192.168.5.65</t>
   </si>
   <si>
@@ -586,12 +580,6 @@
   </si>
   <si>
     <t>192.168.5.4</t>
-  </si>
-  <si>
-    <t>192.168.5.5</t>
-  </si>
-  <si>
-    <t>192.168.5.6</t>
   </si>
   <si>
     <t>192.168.5.11</t>
@@ -886,18 +874,6 @@
     <t>G 1/0/6</t>
   </si>
   <si>
-    <t>G 0/1</t>
-  </si>
-  <si>
-    <t>G 0/2</t>
-  </si>
-  <si>
-    <t>Fa 0/1</t>
-  </si>
-  <si>
-    <t>Fa 0/2</t>
-  </si>
-  <si>
     <t>Pozsony_VLAN_19</t>
   </si>
   <si>
@@ -928,70 +904,115 @@
     <t>Pozsony_MS, Pozsony_S2</t>
   </si>
   <si>
-    <t>192.168.5.129 - 192.168.5.130</t>
-  </si>
-  <si>
-    <t>192.168.5.131</t>
-  </si>
-  <si>
-    <t>192.168.5.132</t>
-  </si>
-  <si>
-    <t>192.168.5.133 - 192.168.5.134</t>
-  </si>
-  <si>
-    <t>192.168.5.135</t>
-  </si>
-  <si>
-    <t>192.168.5.136</t>
-  </si>
-  <si>
-    <t>192.168.5.137 - 192.168.5.138</t>
-  </si>
-  <si>
-    <t>192.168.5.139</t>
-  </si>
-  <si>
-    <t>192.168.5.140</t>
-  </si>
-  <si>
-    <t>192.168.5.141 - 192.168.5.142</t>
-  </si>
-  <si>
-    <t>192.168.5.143</t>
-  </si>
-  <si>
-    <t>192.168.5.133</t>
-  </si>
-  <si>
-    <t>192.168.5.134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.5.137 </t>
-  </si>
-  <si>
-    <t>192.168.5.138</t>
-  </si>
-  <si>
-    <t>192.168.5.141</t>
-  </si>
-  <si>
-    <t>192.168.5.142</t>
-  </si>
-  <si>
     <t>192.168.5.66</t>
   </si>
   <si>
-    <t>192.168.5.12</t>
-  </si>
-  <si>
-    <t>192.168.5.13</t>
-  </si>
-  <si>
     <t>192.168.5.67</t>
   </si>
   <si>
-    <t>192.168.5.68</t>
+    <t>Pozsony_MS, Pozsony_S1, Pozsony_S2</t>
+  </si>
+  <si>
+    <t>192.168.5.120</t>
+  </si>
+  <si>
+    <t>192.168.5.129 - 192.168.5.190</t>
+  </si>
+  <si>
+    <t>192.168.5.191</t>
+  </si>
+  <si>
+    <t>192.168.5.192</t>
+  </si>
+  <si>
+    <t>192.168.5.193 - 192.168.5.194</t>
+  </si>
+  <si>
+    <t>192.168.5.195</t>
+  </si>
+  <si>
+    <t>192.168.5.196</t>
+  </si>
+  <si>
+    <t>192.168.5.197 - 192.168.5.198</t>
+  </si>
+  <si>
+    <t>192.168.5.199</t>
+  </si>
+  <si>
+    <t>192.168.5.200</t>
+  </si>
+  <si>
+    <t>192.168.5.201 - 192.168.5.202</t>
+  </si>
+  <si>
+    <t>192.168.5.203</t>
+  </si>
+  <si>
+    <t>192.168.5.204</t>
+  </si>
+  <si>
+    <t>192.168.5.205 - 192.168.5.206</t>
+  </si>
+  <si>
+    <t>192.168.5.207</t>
+  </si>
+  <si>
+    <t>192.168.5.208</t>
+  </si>
+  <si>
+    <t>192.168.5.209 - 192.168.5.210</t>
+  </si>
+  <si>
+    <t>192.168.5.211</t>
+  </si>
+  <si>
+    <t>192.168.5.212</t>
+  </si>
+  <si>
+    <t>192.168.5.213 - 192.168.5.214</t>
+  </si>
+  <si>
+    <t>192.168.5.215</t>
+  </si>
+  <si>
+    <t>192.168.5.193</t>
+  </si>
+  <si>
+    <t>192.168.5.197</t>
+  </si>
+  <si>
+    <t>192.168.5.198</t>
+  </si>
+  <si>
+    <t>192.168.5.201</t>
+  </si>
+  <si>
+    <t>192.168.5.202</t>
+  </si>
+  <si>
+    <t>192.168.5.205</t>
+  </si>
+  <si>
+    <t>192.168.5.206</t>
+  </si>
+  <si>
+    <t>192.168.5.209</t>
+  </si>
+  <si>
+    <t>192.168.5.210</t>
+  </si>
+  <si>
+    <t>192.168.5.213</t>
+  </si>
+  <si>
+    <t>192.168.5.214</t>
+  </si>
+  <si>
+    <t>192.168.5.190</t>
+  </si>
+  <si>
+    <t>192.168.5.189</t>
   </si>
 </sst>
 </file>
@@ -1945,7 +1966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2240,13 +2261,40 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2286,76 +2334,157 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2382,21 +2511,6 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2406,155 +2520,56 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2571,6 +2586,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2583,6 +2604,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -2938,20 +2963,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="122" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="55" t="s">
@@ -2960,7 +2985,7 @@
       <c r="D2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="118" t="s">
+      <c r="E2" s="127" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="56" t="s">
@@ -2968,23 +2993,23 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="116"/>
-      <c r="E3" s="119"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="128"/>
       <c r="F3" s="57" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
-        <v>188</v>
+      <c r="A4" s="117" t="s">
+        <v>184</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C4" s="90"/>
       <c r="D4" s="90"/>
@@ -2992,15 +3017,15 @@
       <c r="F4" s="82"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
+      <c r="A5" s="117"/>
       <c r="B5" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D5" s="85" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E5" s="85"/>
       <c r="F5" s="18"/>
@@ -3015,15 +3040,15 @@
       <c r="Q5" s="60"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108"/>
+      <c r="A6" s="117"/>
       <c r="B6" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C6" s="85" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D6" s="85" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E6" s="85"/>
       <c r="F6" s="18"/>
@@ -3038,7 +3063,7 @@
       <c r="Q6" s="60"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="116" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="83"/>
@@ -3057,7 +3082,7 @@
       <c r="Q7" s="60"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
+      <c r="A8" s="126"/>
       <c r="B8" s="83"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -3074,14 +3099,14 @@
       <c r="Q8" s="60"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="107" t="s">
-        <v>205</v>
+      <c r="A9" s="116" t="s">
+        <v>201</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D9" s="85" t="s">
         <v>34</v>
@@ -3099,12 +3124,12 @@
       <c r="Q9" s="60"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="108"/>
+      <c r="A10" s="117"/>
       <c r="B10" s="84" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C10" s="85" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D10" s="85" t="s">
         <v>34</v>
@@ -3113,393 +3138,393 @@
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="84" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C11" s="85" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D11" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="85"/>
       <c r="F11" s="18"/>
-      <c r="I11" s="123" t="s">
+      <c r="I11" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="125" t="s">
+      <c r="J11" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="125" t="s">
+      <c r="K11" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="125" t="s">
+      <c r="L11" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="125" t="s">
+      <c r="M11" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="125" t="s">
+      <c r="N11" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="125" t="s">
+      <c r="O11" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="125" t="s">
+      <c r="P11" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="125" t="s">
+      <c r="Q11" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="R11" s="127" t="s">
-        <v>222</v>
+      <c r="R11" s="112" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="108"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="84" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C12" s="85" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D12" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="85"/>
       <c r="F12" s="18"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="128"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="113"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="84" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C13" s="85" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D13" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="85"/>
       <c r="F13" s="18"/>
-      <c r="I13" s="121" t="s">
+      <c r="I13" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="121">
+      <c r="J13" s="107">
         <v>7</v>
       </c>
-      <c r="K13" s="121">
+      <c r="K13" s="107">
         <v>30</v>
       </c>
-      <c r="L13" s="120" t="s">
+      <c r="L13" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="121" t="s">
+      <c r="M13" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="122" t="s">
+      <c r="N13" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="120" t="s">
+      <c r="O13" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="120" t="s">
+      <c r="P13" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="120" t="s">
+      <c r="Q13" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="R13" s="120" t="s">
-        <v>223</v>
+      <c r="R13" s="108" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="108"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="84"/>
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
       <c r="E14" s="85"/>
       <c r="F14" s="18"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="122"/>
-      <c r="O14" s="120"/>
-      <c r="P14" s="120"/>
-      <c r="Q14" s="120"/>
-      <c r="R14" s="120"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="108"/>
+      <c r="R14" s="108"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="108"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="84"/>
       <c r="C15" s="85"/>
       <c r="D15" s="85"/>
       <c r="E15" s="85"/>
       <c r="F15" s="18"/>
-      <c r="I15" s="121" t="s">
+      <c r="I15" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="121">
+      <c r="J15" s="107">
         <v>5</v>
       </c>
-      <c r="K15" s="121">
+      <c r="K15" s="107">
         <v>30</v>
       </c>
-      <c r="L15" s="120" t="s">
+      <c r="L15" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="121" t="s">
+      <c r="M15" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="122" t="s">
+      <c r="N15" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="O15" s="120" t="s">
+      <c r="O15" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="120" t="s">
+      <c r="P15" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="Q15" s="120" t="s">
+      <c r="Q15" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="R15" s="120" t="s">
-        <v>224</v>
+      <c r="R15" s="108" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="108"/>
+      <c r="A16" s="117"/>
       <c r="B16" s="84"/>
       <c r="C16" s="85"/>
       <c r="D16" s="85"/>
       <c r="E16" s="85"/>
       <c r="F16" s="18"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="120"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="108"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="107" t="s">
-        <v>216</v>
+      <c r="A17" s="116" t="s">
+        <v>212</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C17" s="85" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D17" s="85" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="85"/>
       <c r="F17" s="18"/>
-      <c r="I17" s="121" t="s">
+      <c r="I17" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="121">
+      <c r="J17" s="107">
         <v>1</v>
       </c>
-      <c r="K17" s="121">
+      <c r="K17" s="107">
         <v>6</v>
       </c>
-      <c r="L17" s="120" t="s">
+      <c r="L17" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="121" t="s">
+      <c r="M17" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="122" t="s">
+      <c r="N17" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="120" t="s">
+      <c r="O17" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="120" t="s">
+      <c r="P17" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="Q17" s="120" t="s">
+      <c r="Q17" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="R17" s="120" t="s">
-        <v>225</v>
+      <c r="R17" s="108" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108"/>
+      <c r="A18" s="117"/>
       <c r="B18" s="84" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C18" s="85" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D18" s="85" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="85"/>
       <c r="F18" s="18"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="122"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="120"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="120"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="108"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
+      <c r="A19" s="117"/>
       <c r="B19" s="84" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C19" s="85" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D19" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="85"/>
       <c r="F19" s="18"/>
-      <c r="I19" s="121" t="s">
+      <c r="I19" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="121">
+      <c r="J19" s="107">
         <v>1</v>
       </c>
-      <c r="K19" s="121">
+      <c r="K19" s="107">
         <v>6</v>
       </c>
-      <c r="L19" s="120" t="s">
+      <c r="L19" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="M19" s="121" t="s">
+      <c r="M19" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="122" t="s">
+      <c r="N19" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="120" t="s">
+      <c r="O19" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="120" t="s">
+      <c r="P19" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="Q19" s="120" t="s">
+      <c r="Q19" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="120" t="s">
-        <v>226</v>
+      <c r="R19" s="108" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="84" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C20" s="85" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D20" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="85"/>
       <c r="F20" s="18"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="122"/>
-      <c r="O20" s="120"/>
-      <c r="P20" s="120"/>
-      <c r="Q20" s="120"/>
-      <c r="R20" s="120"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="108"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
+      <c r="A21" s="117"/>
       <c r="B21" s="84" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C21" s="85" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D21" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="85"/>
       <c r="F21" s="18"/>
-      <c r="I21" s="121" t="s">
+      <c r="I21" s="107" t="s">
+        <v>223</v>
+      </c>
+      <c r="J21" s="107">
+        <v>3</v>
+      </c>
+      <c r="K21" s="107">
+        <v>6</v>
+      </c>
+      <c r="L21" s="108" t="s">
+        <v>224</v>
+      </c>
+      <c r="M21" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="108" t="s">
+        <v>225</v>
+      </c>
+      <c r="P21" s="108" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q21" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="J21" s="121">
-        <v>3</v>
-      </c>
-      <c r="K21" s="121">
-        <v>6</v>
-      </c>
-      <c r="L21" s="120" t="s">
+      <c r="R21" s="108" t="s">
         <v>228</v>
       </c>
-      <c r="M21" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="122" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" s="120" t="s">
-        <v>229</v>
-      </c>
-      <c r="P21" s="120" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q21" s="120" t="s">
-        <v>231</v>
-      </c>
-      <c r="R21" s="120" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="108"/>
+      <c r="A22" s="117"/>
       <c r="B22" s="84"/>
       <c r="C22" s="85"/>
       <c r="D22" s="85"/>
       <c r="E22" s="85"/>
       <c r="F22" s="18"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="122"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="120"/>
-      <c r="Q22" s="120"/>
-      <c r="R22" s="120"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="109"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="108"/>
+      <c r="R22" s="108"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="108"/>
+      <c r="A23" s="117"/>
       <c r="B23" s="84"/>
       <c r="C23" s="85"/>
       <c r="D23" s="85"/>
@@ -3507,7 +3532,7 @@
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="108"/>
+      <c r="A24" s="117"/>
       <c r="B24" s="84"/>
       <c r="C24" s="85"/>
       <c r="D24" s="85"/>
@@ -3516,88 +3541,88 @@
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="86" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B25" s="84"/>
       <c r="C25" s="85" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D25" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="85" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F25" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="N25" s="105"/>
+        <v>228</v>
+      </c>
+      <c r="N25" s="104"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="86" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B26" s="85"/>
       <c r="C26" s="85" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D26" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F26" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="N26" s="105"/>
+        <v>228</v>
+      </c>
+      <c r="N26" s="104"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="86" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B27" s="85"/>
       <c r="C27" s="85" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D27" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="85" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F27" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="N27" s="106"/>
+        <v>228</v>
+      </c>
+      <c r="N27" s="105"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="86" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B28" s="85" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" s="85" t="s">
         <v>257</v>
-      </c>
-      <c r="C28" s="85" t="s">
-        <v>261</v>
       </c>
       <c r="D28" s="85" t="s">
         <v>34</v>
       </c>
       <c r="E28" s="85"/>
       <c r="F28" s="85" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="86" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B29" s="85" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C29" s="85" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D29" s="85" t="s">
         <v>34</v>
@@ -3607,43 +3632,43 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="86" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B30" s="85" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C30" s="85" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D30" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="85"/>
       <c r="F30" s="85" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="86" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B31" s="85" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C31" s="85" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D31" s="85" t="s">
         <v>34</v>
       </c>
       <c r="E31" s="85"/>
       <c r="F31" s="85" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="86" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B32" s="85"/>
       <c r="C32" s="1"/>
@@ -3653,7 +3678,7 @@
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="86" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B33" s="89"/>
       <c r="C33" s="1"/>
@@ -3733,16 +3758,49 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K19:K20"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="R17:R18"/>
     <mergeCell ref="Q19:Q20"/>
@@ -3759,49 +3817,16 @@
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3810,10 +3835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3833,23 +3858,23 @@
     <col min="15" max="15" width="20" customWidth="1"/>
     <col min="16" max="16" width="25.28515625" customWidth="1"/>
     <col min="17" max="17" width="20" customWidth="1"/>
-    <col min="18" max="18" width="22" customWidth="1"/>
+    <col min="18" max="18" width="48" customWidth="1"/>
     <col min="19" max="19" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
     </row>
     <row r="2" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -3870,14 +3895,14 @@
       <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="188" t="s">
+      <c r="G2" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="189"/>
-      <c r="I2" s="188" t="s">
+      <c r="H2" s="135"/>
+      <c r="I2" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="J2" s="189"/>
+      <c r="J2" s="135"/>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
@@ -3904,7 +3929,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="136" t="s">
         <v>129</v>
       </c>
       <c r="B3" s="21"/>
@@ -3912,127 +3937,127 @@
         <v>109</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F3" s="21"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="195"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="141"/>
       <c r="L3" s="3" t="s">
-        <v>88</v>
+        <v>272</v>
       </c>
       <c r="M3" s="4">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="N3" s="4">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>297</v>
+        <v>86</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>298</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="191"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23" t="s">
         <v>110</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="197"/>
-      <c r="I4" s="196"/>
-      <c r="J4" s="198"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="144"/>
       <c r="L4" s="3" t="s">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="M4" s="4">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="N4" s="4">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>299</v>
+        <v>31</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>300</v>
+        <v>87</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>301</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="192"/>
+      <c r="A5" s="138"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
         <v>111</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>146</v>
+        <v>313</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="201"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="147"/>
       <c r="L5" s="3" t="s">
-        <v>90</v>
+        <v>274</v>
       </c>
       <c r="M5" s="4">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="N5" s="4">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>302</v>
+        <v>59</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="184" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="171" t="s">
         <v>132</v>
       </c>
       <c r="B6" s="26"/>
@@ -4040,89 +4065,89 @@
         <v>111</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>148</v>
+        <v>320</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="G6" s="204"/>
-      <c r="H6" s="205"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="206"/>
+        <v>313</v>
+      </c>
+      <c r="G6" s="150"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="152"/>
       <c r="L6" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M6" s="4">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="N6" s="4">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>32</v>
+        <v>295</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>86</v>
+        <v>296</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="185"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="172"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28" t="s">
         <v>115</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="167"/>
-      <c r="H7" s="207"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="168"/>
+        <v>313</v>
+      </c>
+      <c r="G7" s="153"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="155"/>
       <c r="L7" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M7" s="4">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="N7" s="4">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>87</v>
+        <v>299</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="169" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="156" t="s">
         <v>131</v>
       </c>
       <c r="B8" s="29"/>
@@ -4130,20 +4155,20 @@
         <v>111</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="181"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="182"/>
+        <v>313</v>
+      </c>
+      <c r="G8" s="168"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="169"/>
       <c r="L8" s="3" t="s">
-        <v>245</v>
+        <v>90</v>
       </c>
       <c r="M8" s="4">
         <v>2</v>
@@ -4152,122 +4177,194 @@
         <v>2</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="170"/>
+      <c r="A9" s="157"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
         <v>115</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>149</v>
+        <v>318</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>146</v>
+        <v>313</v>
       </c>
       <c r="G9" s="62"/>
       <c r="H9" s="63"/>
       <c r="I9" s="62"/>
       <c r="J9" s="64"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="171"/>
+      <c r="L9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="158"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D10" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="31" t="s">
         <v>313</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>146</v>
       </c>
       <c r="G10" s="65"/>
       <c r="H10" s="66"/>
       <c r="I10" s="65"/>
       <c r="J10" s="67"/>
+      <c r="L10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2</v>
+      </c>
+      <c r="N10" s="4">
+        <v>2</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="202" t="s">
+      <c r="A11" s="148" t="s">
         <v>130</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>147</v>
+        <v>314</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="175"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="177"/>
+        <v>313</v>
+      </c>
+      <c r="G11" s="162"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="164"/>
+      <c r="L11" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="M11" s="4">
+        <v>2</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="203"/>
+      <c r="A12" s="149"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="G12" s="178"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="180"/>
+        <v>313</v>
+      </c>
+      <c r="G12" s="165"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="167"/>
     </row>
     <row r="13" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="203"/>
+      <c r="A13" s="149"/>
       <c r="B13" s="97"/>
       <c r="C13" s="97" t="s">
         <v>114</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E13" s="97" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F13" s="97" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13" s="172"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="174"/>
+        <v>313</v>
+      </c>
+      <c r="G13" s="159"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="161"/>
       <c r="L13" s="61"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -4279,20 +4376,20 @@
     </row>
     <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="99" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B14" s="100"/>
       <c r="C14" s="98" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D14" s="100" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E14" s="100" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="F14" s="100" t="s">
-        <v>146</v>
+        <v>313</v>
       </c>
       <c r="G14" s="100"/>
       <c r="H14" s="100"/>
@@ -4311,16 +4408,16 @@
       <c r="A15" s="99"/>
       <c r="B15" s="100"/>
       <c r="C15" s="99" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D15" s="100" t="s">
-        <v>150</v>
+        <v>319</v>
       </c>
       <c r="E15" s="100" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="F15" s="100" t="s">
-        <v>146</v>
+        <v>313</v>
       </c>
       <c r="G15" s="100"/>
       <c r="H15" s="100"/>
@@ -4339,7 +4436,7 @@
       <c r="A16" s="99"/>
       <c r="B16" s="100"/>
       <c r="C16" s="99" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D16" s="100"/>
       <c r="E16" s="100"/>
@@ -4361,7 +4458,7 @@
       <c r="A17" s="99"/>
       <c r="B17" s="100"/>
       <c r="C17" s="99" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D17" s="100"/>
       <c r="E17" s="100"/>
@@ -4383,7 +4480,7 @@
       <c r="A18" s="99"/>
       <c r="B18" s="100"/>
       <c r="C18" s="99" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D18" s="100"/>
       <c r="E18" s="100"/>
@@ -4397,7 +4494,7 @@
       <c r="A19" s="99"/>
       <c r="B19" s="100"/>
       <c r="C19" s="99" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D19" s="100"/>
       <c r="E19" s="100"/>
@@ -4420,251 +4517,235 @@
       <c r="J20" s="100"/>
     </row>
     <row r="21" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="131" t="s">
+      <c r="A21" s="195" t="s">
         <v>133</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>276</v>
+        <v>143</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="166"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="173"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="131"/>
+      <c r="A22" s="195"/>
       <c r="B22" s="34" t="s">
-        <v>276</v>
+        <v>143</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="160"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="174"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="131"/>
+      <c r="A23" s="195"/>
       <c r="B23" s="34" t="s">
-        <v>276</v>
+        <v>143</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
       <c r="F23" s="93"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="174"/>
     </row>
     <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="131"/>
+      <c r="A24" s="195"/>
       <c r="B24" s="34" t="s">
-        <v>276</v>
+        <v>143</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
       <c r="F24" s="93"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="160"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="174"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="131"/>
+      <c r="A25" s="195"/>
       <c r="B25" s="35"/>
-      <c r="C25" s="35" t="s">
-        <v>283</v>
-      </c>
+      <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
       <c r="F25" s="93"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="174"/>
     </row>
     <row r="26" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="131"/>
+      <c r="A26" s="195"/>
       <c r="B26" s="35"/>
-      <c r="C26" s="35" t="s">
-        <v>284</v>
-      </c>
+      <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
       <c r="F26" s="93"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="160"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="174"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="131"/>
+      <c r="A27" s="195"/>
       <c r="B27" s="35"/>
-      <c r="C27" s="35" t="s">
-        <v>285</v>
-      </c>
+      <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
       <c r="F27" s="93"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="160"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="174"/>
     </row>
     <row r="28" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="132"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="94"/>
-      <c r="C28" s="36" t="s">
-        <v>286</v>
-      </c>
+      <c r="C28" s="36"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
       <c r="F28" s="94"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="161"/>
+      <c r="G28" s="191"/>
+      <c r="H28" s="191"/>
+      <c r="I28" s="191"/>
+      <c r="J28" s="191"/>
     </row>
     <row r="29" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="186" t="s">
+      <c r="A29" s="132" t="s">
         <v>134</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
-      <c r="G29" s="162"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="165"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="192"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="179"/>
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="187"/>
+      <c r="A30" s="133"/>
       <c r="B30" s="37" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="164"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="153"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="176"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="177"/>
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="187"/>
+      <c r="A31" s="133"/>
       <c r="B31" s="37" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="153"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="177"/>
     </row>
     <row r="32" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="187"/>
-      <c r="B32" s="39" t="s">
-        <v>278</v>
+      <c r="A32" s="133"/>
+      <c r="B32" s="37" t="s">
+        <v>279</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="164"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="153"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="176"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="177"/>
     </row>
     <row r="33" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="187"/>
+      <c r="A33" s="133"/>
       <c r="B33" s="39"/>
-      <c r="C33" s="40" t="s">
-        <v>283</v>
-      </c>
+      <c r="C33" s="40"/>
       <c r="D33" s="39"/>
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
-      <c r="G33" s="152"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="152"/>
-      <c r="J33" s="153"/>
+      <c r="G33" s="175"/>
+      <c r="H33" s="176"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="177"/>
     </row>
     <row r="34" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="187"/>
+      <c r="A34" s="133"/>
       <c r="B34" s="39"/>
-      <c r="C34" s="40" t="s">
-        <v>284</v>
-      </c>
+      <c r="C34" s="40"/>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
       <c r="F34" s="39"/>
-      <c r="G34" s="152"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="152"/>
-      <c r="J34" s="153"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="176"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="177"/>
     </row>
     <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="187"/>
+      <c r="A35" s="133"/>
       <c r="B35" s="41"/>
-      <c r="C35" s="42" t="s">
-        <v>285</v>
-      </c>
+      <c r="C35" s="42"/>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
-      <c r="G35" s="154"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="154"/>
-      <c r="J35" s="156"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="131"/>
     </row>
     <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="187"/>
+      <c r="A36" s="133"/>
       <c r="B36" s="41"/>
-      <c r="C36" s="42" t="s">
-        <v>286</v>
-      </c>
+      <c r="C36" s="42"/>
       <c r="D36" s="41"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
-      <c r="G36" s="154"/>
-      <c r="H36" s="155"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="156"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="131"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="133" t="s">
+      <c r="A37" s="197" t="s">
         <v>136</v>
       </c>
       <c r="B37" s="43"/>
@@ -4672,22 +4753,22 @@
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="43"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="157"/>
-      <c r="J37" s="159"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="190"/>
     </row>
     <row r="38" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="134"/>
+      <c r="A38" s="198"/>
       <c r="B38" s="44"/>
       <c r="C38" s="45"/>
       <c r="D38" s="44"/>
       <c r="E38" s="44"/>
       <c r="F38" s="44"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="148"/>
+      <c r="G38" s="182"/>
+      <c r="H38" s="183"/>
+      <c r="I38" s="182"/>
+      <c r="J38" s="184"/>
     </row>
     <row r="39" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="68" t="s">
@@ -4698,18 +4779,18 @@
         <v>124</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="G39" s="149"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="151"/>
+        <v>313</v>
+      </c>
+      <c r="G39" s="185"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="185"/>
+      <c r="J39" s="187"/>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
@@ -4719,19 +4800,19 @@
         <v>143</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="E40" s="49" t="s">
         <v>26</v>
       </c>
       <c r="F40" s="49"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="139"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="140"/>
+      <c r="G40" s="202"/>
+      <c r="H40" s="203"/>
+      <c r="I40" s="202"/>
+      <c r="J40" s="204"/>
     </row>
     <row r="41" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="50" t="s">
@@ -4741,19 +4822,19 @@
         <v>143</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D41" s="49" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="E41" s="49" t="s">
         <v>26</v>
       </c>
       <c r="F41" s="49"/>
-      <c r="G41" s="141"/>
-      <c r="H41" s="142"/>
-      <c r="I41" s="141"/>
-      <c r="J41" s="143"/>
+      <c r="G41" s="205"/>
+      <c r="H41" s="206"/>
+      <c r="I41" s="205"/>
+      <c r="J41" s="207"/>
     </row>
     <row r="42" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="50" t="s">
@@ -4763,41 +4844,41 @@
         <v>143</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E42" s="49" t="s">
         <v>26</v>
       </c>
       <c r="F42" s="49"/>
-      <c r="G42" s="135"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="135"/>
-      <c r="J42" s="137"/>
+      <c r="G42" s="199"/>
+      <c r="H42" s="200"/>
+      <c r="I42" s="199"/>
+      <c r="J42" s="201"/>
     </row>
     <row r="43" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="72" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B43" s="50" t="s">
         <v>143</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D43" s="49" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E43" s="49" t="s">
         <v>26</v>
       </c>
       <c r="F43" s="49"/>
-      <c r="G43" s="135"/>
-      <c r="H43" s="136"/>
-      <c r="I43" s="135"/>
-      <c r="J43" s="137"/>
+      <c r="G43" s="199"/>
+      <c r="H43" s="200"/>
+      <c r="I43" s="199"/>
+      <c r="J43" s="201"/>
     </row>
     <row r="44" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="70" t="s">
@@ -4807,19 +4888,19 @@
         <v>144</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D44" s="95" t="s">
-        <v>314</v>
+        <v>146</v>
       </c>
       <c r="E44" s="95" t="s">
         <v>26</v>
       </c>
       <c r="F44" s="95"/>
-      <c r="G44" s="129"/>
-      <c r="H44" s="129"/>
-      <c r="I44" s="129"/>
-      <c r="J44" s="130"/>
+      <c r="G44" s="193"/>
+      <c r="H44" s="193"/>
+      <c r="I44" s="193"/>
+      <c r="J44" s="194"/>
     </row>
     <row r="45" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="52" t="s">
@@ -4829,19 +4910,19 @@
         <v>144</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="D45" s="104" t="s">
-        <v>317</v>
+        <v>232</v>
+      </c>
+      <c r="D45" s="106" t="s">
+        <v>289</v>
       </c>
       <c r="E45" s="95" t="s">
         <v>26</v>
       </c>
       <c r="F45" s="95"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="130"/>
+      <c r="G45" s="193"/>
+      <c r="H45" s="193"/>
+      <c r="I45" s="193"/>
+      <c r="J45" s="194"/>
     </row>
     <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
@@ -4851,30 +4932,34 @@
         <v>144</v>
       </c>
       <c r="C46" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="D46" s="104" t="s">
-        <v>318</v>
+        <v>233</v>
+      </c>
+      <c r="D46" s="106" t="s">
+        <v>290</v>
       </c>
       <c r="E46" s="95" t="s">
         <v>26</v>
       </c>
       <c r="F46" s="54"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="129"/>
-      <c r="I46" s="129"/>
-      <c r="J46" s="130"/>
+      <c r="G46" s="193"/>
+      <c r="H46" s="193"/>
+      <c r="I46" s="193"/>
+      <c r="J46" s="194"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
         <v>145</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
+      <c r="D47" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>26</v>
+      </c>
       <c r="F47" s="39"/>
       <c r="G47" s="39"/>
       <c r="H47" s="39"/>
@@ -4895,11 +4980,15 @@
     </row>
     <row r="49" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="101"/>
-      <c r="B49" s="78" t="s">
-        <v>246</v>
-      </c>
-      <c r="C49" s="102"/>
-      <c r="D49" s="102"/>
+      <c r="B49" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="102" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" s="102" t="s">
+        <v>26</v>
+      </c>
       <c r="E49" s="102"/>
       <c r="F49" s="102"/>
       <c r="G49" s="102"/>
@@ -4910,40 +4999,33 @@
     <row r="50" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" s="101"/>
       <c r="B50" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" s="102"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="102"/>
+        <v>144</v>
+      </c>
+      <c r="C50" s="102" t="s">
+        <v>292</v>
+      </c>
+      <c r="D50" s="102" t="s">
+        <v>26</v>
+      </c>
       <c r="I50" s="102"/>
       <c r="J50" s="102"/>
     </row>
     <row r="51" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="101"/>
-      <c r="B51" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" s="102"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="102"/>
+      <c r="B51" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="102" t="s">
+        <v>324</v>
+      </c>
+      <c r="D51" s="102" t="s">
+        <v>26</v>
+      </c>
       <c r="I51" s="102"/>
       <c r="J51" s="102"/>
     </row>
     <row r="52" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="101"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="102"/>
       <c r="I52" s="102"/>
       <c r="J52" s="102"/>
     </row>
@@ -4952,16 +5034,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="103" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -4969,16 +5051,16 @@
         <v>11</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -4986,16 +5068,16 @@
         <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>296</v>
+      <c r="E56" s="220" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -5003,20 +5085,95 @@
         <v>19</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>296</v>
-      </c>
+      <c r="E57" s="219" t="s">
+        <v>291</v>
+      </c>
+      <c r="F57" s="219"/>
+    </row>
+    <row r="59" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E59" s="102"/>
+    </row>
+    <row r="60" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E60" s="102"/>
+    </row>
+    <row r="61" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E61" s="102"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="81">
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="A29:A36"/>
@@ -5033,70 +5190,6 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5133,14 +5226,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -5161,14 +5254,14 @@
       <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="209" t="s">
+      <c r="G2" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209" t="s">
+      <c r="H2" s="213"/>
+      <c r="I2" s="213" t="s">
         <v>128</v>
       </c>
-      <c r="J2" s="209"/>
+      <c r="J2" s="213"/>
       <c r="N2" t="s">
         <v>60</v>
       </c>
@@ -5181,24 +5274,24 @@
       <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="214" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="73" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E3" s="74" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="211"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="209"/>
       <c r="N3" s="19" t="s">
         <v>17</v>
       </c>
@@ -5225,22 +5318,22 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="208"/>
+      <c r="A4" s="214"/>
       <c r="B4" s="10"/>
       <c r="C4" s="73" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E4" s="74" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="211"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="211"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="209"/>
       <c r="N4" s="7" t="s">
         <v>61</v>
       </c>
@@ -5267,22 +5360,22 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="208"/>
+      <c r="A5" s="214"/>
       <c r="B5" s="10"/>
       <c r="C5" s="73" t="s">
         <v>111</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E5" s="75" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="211"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="211"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="209"/>
+      <c r="I5" s="208"/>
+      <c r="J5" s="209"/>
       <c r="N5" s="7" t="s">
         <v>65</v>
       </c>
@@ -5309,7 +5402,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="208" t="s">
+      <c r="A6" s="214" t="s">
         <v>95</v>
       </c>
       <c r="B6" s="10"/>
@@ -5317,18 +5410,18 @@
         <v>111</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E6" s="75" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="210"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G6" s="208"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="209"/>
       <c r="N6" s="7" t="s">
         <v>69</v>
       </c>
@@ -5355,24 +5448,24 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="208"/>
+      <c r="A7" s="214"/>
       <c r="B7" s="10"/>
       <c r="C7" s="73" t="s">
         <v>115</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E7" s="75" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="210"/>
-      <c r="H7" s="211"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G7" s="208"/>
+      <c r="H7" s="209"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="209"/>
       <c r="N7" s="7" t="s">
         <v>73</v>
       </c>
@@ -5399,7 +5492,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="208" t="s">
+      <c r="A8" s="214" t="s">
         <v>96</v>
       </c>
       <c r="B8" s="10"/>
@@ -5407,18 +5500,18 @@
         <v>111</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E8" s="75" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="210"/>
-      <c r="H8" s="211"/>
-      <c r="I8" s="210"/>
-      <c r="J8" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G8" s="208"/>
+      <c r="H8" s="209"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="209"/>
       <c r="N8" s="13" t="s">
         <v>77</v>
       </c>
@@ -5445,24 +5538,24 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="208"/>
+      <c r="A9" s="214"/>
       <c r="B9" s="10"/>
       <c r="C9" s="73" t="s">
         <v>115</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E9" s="75" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G9" s="210"/>
-      <c r="H9" s="211"/>
-      <c r="I9" s="210"/>
-      <c r="J9" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G9" s="208"/>
+      <c r="H9" s="209"/>
+      <c r="I9" s="208"/>
+      <c r="J9" s="209"/>
       <c r="L9" s="15"/>
       <c r="M9" s="16"/>
       <c r="N9" s="17" t="s">
@@ -5491,27 +5584,27 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="208"/>
+      <c r="A10" s="214"/>
       <c r="B10" s="10"/>
       <c r="C10" s="73" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E10" s="75" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="210"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="210"/>
-      <c r="J10" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G10" s="208"/>
+      <c r="H10" s="209"/>
+      <c r="I10" s="208"/>
+      <c r="J10" s="209"/>
     </row>
     <row r="11" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="208" t="s">
+      <c r="A11" s="214" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="10"/>
@@ -5519,58 +5612,58 @@
         <v>112</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G11" s="210"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="210"/>
-      <c r="J11" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G11" s="208"/>
+      <c r="H11" s="209"/>
+      <c r="I11" s="208"/>
+      <c r="J11" s="209"/>
     </row>
     <row r="12" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="208"/>
+      <c r="A12" s="214"/>
       <c r="B12" s="10"/>
       <c r="C12" s="9" t="s">
         <v>113</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G12" s="210"/>
-      <c r="H12" s="211"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G12" s="208"/>
+      <c r="H12" s="209"/>
+      <c r="I12" s="208"/>
+      <c r="J12" s="209"/>
     </row>
     <row r="13" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="208"/>
+      <c r="A13" s="214"/>
       <c r="B13" s="10"/>
       <c r="C13" s="9" t="s">
         <v>114</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="210"/>
-      <c r="H13" s="211"/>
-      <c r="I13" s="210"/>
-      <c r="J13" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G13" s="208"/>
+      <c r="H13" s="209"/>
+      <c r="I13" s="208"/>
+      <c r="J13" s="209"/>
     </row>
     <row r="14" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="215" t="s">
@@ -5581,18 +5674,18 @@
         <v>115</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="210"/>
-      <c r="H14" s="211"/>
-      <c r="I14" s="210"/>
-      <c r="J14" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G14" s="208"/>
+      <c r="H14" s="209"/>
+      <c r="I14" s="208"/>
+      <c r="J14" s="209"/>
     </row>
     <row r="15" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="216"/>
@@ -5601,18 +5694,18 @@
         <v>116</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G15" s="210"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="210"/>
-      <c r="J15" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G15" s="208"/>
+      <c r="H15" s="209"/>
+      <c r="I15" s="208"/>
+      <c r="J15" s="209"/>
     </row>
     <row r="16" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="216"/>
@@ -5621,18 +5714,18 @@
         <v>117</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="210"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="210"/>
-      <c r="J16" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G16" s="208"/>
+      <c r="H16" s="209"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="209"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="216"/>
@@ -5641,18 +5734,18 @@
         <v>118</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" s="210"/>
-      <c r="H17" s="211"/>
-      <c r="I17" s="210"/>
-      <c r="J17" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G17" s="208"/>
+      <c r="H17" s="209"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="209"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="216"/>
@@ -5661,18 +5754,18 @@
         <v>119</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="210"/>
-      <c r="H18" s="211"/>
-      <c r="I18" s="210"/>
-      <c r="J18" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G18" s="208"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="209"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="216"/>
@@ -5681,18 +5774,18 @@
         <v>120</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G19" s="210"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="210"/>
-      <c r="J19" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G19" s="208"/>
+      <c r="H19" s="209"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="209"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="216"/>
@@ -5701,13 +5794,13 @@
         <v>121</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G20" s="91"/>
       <c r="H20" s="92"/>
@@ -5720,18 +5813,18 @@
         <v>127</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="210"/>
-      <c r="H21" s="211"/>
-      <c r="I21" s="210"/>
-      <c r="J21" s="211"/>
+      <c r="G21" s="208"/>
+      <c r="H21" s="209"/>
+      <c r="I21" s="208"/>
+      <c r="J21" s="209"/>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="212" t="s">
+      <c r="A22" s="210" t="s">
         <v>99</v>
       </c>
       <c r="B22" s="12"/>
@@ -5739,153 +5832,153 @@
         <v>115</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="210"/>
-      <c r="H22" s="211"/>
-      <c r="I22" s="210"/>
-      <c r="J22" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G22" s="208"/>
+      <c r="H22" s="209"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="209"/>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="213"/>
+      <c r="A23" s="211"/>
       <c r="B23" s="12"/>
       <c r="C23" s="9" t="s">
         <v>116</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G23" s="210"/>
-      <c r="H23" s="211"/>
-      <c r="I23" s="210"/>
-      <c r="J23" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G23" s="208"/>
+      <c r="H23" s="209"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="209"/>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="213"/>
+      <c r="A24" s="211"/>
       <c r="B24" s="12"/>
       <c r="C24" s="9" t="s">
         <v>117</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" s="210"/>
-      <c r="H24" s="211"/>
-      <c r="I24" s="210"/>
-      <c r="J24" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G24" s="208"/>
+      <c r="H24" s="209"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="209"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="213"/>
+      <c r="A25" s="211"/>
       <c r="B25" s="12"/>
       <c r="C25" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G25" s="210"/>
-      <c r="H25" s="211"/>
-      <c r="I25" s="210"/>
-      <c r="J25" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G25" s="208"/>
+      <c r="H25" s="209"/>
+      <c r="I25" s="208"/>
+      <c r="J25" s="209"/>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="213"/>
+      <c r="A26" s="211"/>
       <c r="B26" s="12"/>
       <c r="C26" s="9" t="s">
         <v>119</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G26" s="210"/>
-      <c r="H26" s="211"/>
-      <c r="I26" s="210"/>
-      <c r="J26" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G26" s="208"/>
+      <c r="H26" s="209"/>
+      <c r="I26" s="208"/>
+      <c r="J26" s="209"/>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="213"/>
+      <c r="A27" s="211"/>
       <c r="B27" s="12"/>
       <c r="C27" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G27" s="210"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="210"/>
-      <c r="J27" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G27" s="208"/>
+      <c r="H27" s="209"/>
+      <c r="I27" s="208"/>
+      <c r="J27" s="209"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="213"/>
+      <c r="A28" s="211"/>
       <c r="B28" s="12"/>
       <c r="C28" s="9" t="s">
         <v>121</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G28" s="210"/>
-      <c r="H28" s="211"/>
-      <c r="I28" s="210"/>
-      <c r="J28" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G28" s="208"/>
+      <c r="H28" s="209"/>
+      <c r="I28" s="208"/>
+      <c r="J28" s="209"/>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="213"/>
+      <c r="A29" s="211"/>
       <c r="B29" s="12"/>
       <c r="C29" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G29" s="91"/>
       <c r="H29" s="92"/>
@@ -5893,42 +5986,42 @@
       <c r="J29" s="92"/>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="214"/>
+      <c r="A30" s="212"/>
       <c r="B30" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="210"/>
-      <c r="H30" s="211"/>
-      <c r="I30" s="210"/>
-      <c r="J30" s="211"/>
+      <c r="G30" s="208"/>
+      <c r="H30" s="209"/>
+      <c r="I30" s="208"/>
+      <c r="J30" s="209"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G31" s="210"/>
-      <c r="H31" s="211"/>
-      <c r="I31" s="210"/>
-      <c r="J31" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G31" s="208"/>
+      <c r="H31" s="209"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="209"/>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -5936,21 +6029,21 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E32" s="75" t="s">
         <v>29</v>
       </c>
       <c r="F32" s="75" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32" s="210"/>
-      <c r="H32" s="211"/>
-      <c r="I32" s="210"/>
-      <c r="J32" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G32" s="208"/>
+      <c r="H32" s="209"/>
+      <c r="I32" s="208"/>
+      <c r="J32" s="209"/>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -5963,18 +6056,18 @@
         <v>124</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E33" s="75" t="s">
         <v>26</v>
       </c>
       <c r="F33" s="75" t="s">
-        <v>151</v>
-      </c>
-      <c r="G33" s="210"/>
-      <c r="H33" s="211"/>
-      <c r="I33" s="210"/>
-      <c r="J33" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G33" s="208"/>
+      <c r="H33" s="209"/>
+      <c r="I33" s="208"/>
+      <c r="J33" s="209"/>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -5987,18 +6080,18 @@
         <v>124</v>
       </c>
       <c r="D34" s="75" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E34" s="75" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="75" t="s">
-        <v>151</v>
-      </c>
-      <c r="G34" s="210"/>
-      <c r="H34" s="211"/>
-      <c r="I34" s="210"/>
-      <c r="J34" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G34" s="208"/>
+      <c r="H34" s="209"/>
+      <c r="I34" s="208"/>
+      <c r="J34" s="209"/>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -6011,18 +6104,18 @@
         <v>124</v>
       </c>
       <c r="D35" s="75" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E35" s="75" t="s">
         <v>26</v>
       </c>
       <c r="F35" s="75" t="s">
-        <v>151</v>
-      </c>
-      <c r="G35" s="210"/>
-      <c r="H35" s="211"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G35" s="208"/>
+      <c r="H35" s="209"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="209"/>
     </row>
     <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -6035,18 +6128,18 @@
         <v>124</v>
       </c>
       <c r="D36" s="75" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E36" s="75" t="s">
         <v>26</v>
       </c>
       <c r="F36" s="75" t="s">
-        <v>151</v>
-      </c>
-      <c r="G36" s="210"/>
-      <c r="H36" s="211"/>
-      <c r="I36" s="210"/>
-      <c r="J36" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G36" s="208"/>
+      <c r="H36" s="209"/>
+      <c r="I36" s="208"/>
+      <c r="J36" s="209"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -6059,18 +6152,18 @@
         <v>124</v>
       </c>
       <c r="D37" s="75" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E37" s="75" t="s">
         <v>26</v>
       </c>
       <c r="F37" s="75" t="s">
-        <v>151</v>
-      </c>
-      <c r="G37" s="210"/>
-      <c r="H37" s="211"/>
-      <c r="I37" s="210"/>
-      <c r="J37" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G37" s="208"/>
+      <c r="H37" s="209"/>
+      <c r="I37" s="208"/>
+      <c r="J37" s="209"/>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -6083,18 +6176,18 @@
         <v>124</v>
       </c>
       <c r="D38" s="75" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E38" s="75" t="s">
         <v>26</v>
       </c>
       <c r="F38" s="75" t="s">
-        <v>151</v>
-      </c>
-      <c r="G38" s="210"/>
-      <c r="H38" s="211"/>
-      <c r="I38" s="210"/>
-      <c r="J38" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G38" s="208"/>
+      <c r="H38" s="209"/>
+      <c r="I38" s="208"/>
+      <c r="J38" s="209"/>
     </row>
     <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -6105,12 +6198,12 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G39" s="210"/>
-      <c r="H39" s="211"/>
-      <c r="I39" s="210"/>
-      <c r="J39" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G39" s="208"/>
+      <c r="H39" s="209"/>
+      <c r="I39" s="208"/>
+      <c r="J39" s="209"/>
     </row>
     <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -6121,12 +6214,12 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G40" s="210"/>
-      <c r="H40" s="211"/>
-      <c r="I40" s="210"/>
-      <c r="J40" s="211"/>
+        <v>149</v>
+      </c>
+      <c r="G40" s="208"/>
+      <c r="H40" s="209"/>
+      <c r="I40" s="208"/>
+      <c r="J40" s="209"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
@@ -6137,74 +6230,19 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="210"/>
-      <c r="H41" s="211"/>
-      <c r="I41" s="210"/>
-      <c r="J41" s="211"/>
+      <c r="G41" s="208"/>
+      <c r="H41" s="209"/>
+      <c r="I41" s="208"/>
+      <c r="J41" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="A22:A30"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G3:H3"/>
@@ -6221,12 +6259,67 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6256,7 +6349,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="218" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B1" s="218"/>
       <c r="C1" s="218"/>
@@ -6298,7 +6391,7 @@
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -6307,19 +6400,19 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6333,19 +6426,19 @@
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6359,19 +6452,19 @@
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/IP_cim_kiosztas_akutális.xlsx
+++ b/IP_cim_kiosztas_akutális.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Üzemeltető\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F369F15-8D70-4B89-97AD-B7ACE4B7D050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D937649-FD07-4987-B01A-3008B27C3278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="-60" windowWidth="16860" windowHeight="15345" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="326">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -1966,7 +1966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2258,43 +2258,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2334,157 +2301,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2511,6 +2400,21 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2520,56 +2424,155 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2586,12 +2589,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2604,10 +2601,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -2963,20 +2956,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="111" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="55" t="s">
@@ -2985,7 +2978,7 @@
       <c r="D2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="127" t="s">
+      <c r="E2" s="116" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="56" t="s">
@@ -2993,19 +2986,19 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="121"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="124" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="128"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="117"/>
       <c r="F3" s="57" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="106" t="s">
         <v>184</v>
       </c>
       <c r="B4" s="81" t="s">
@@ -3017,7 +3010,7 @@
       <c r="F4" s="82"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="1" t="s">
         <v>199</v>
       </c>
@@ -3040,7 +3033,7 @@
       <c r="Q5" s="60"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="117"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="1" t="s">
         <v>200</v>
       </c>
@@ -3063,7 +3056,7 @@
       <c r="Q6" s="60"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="105" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="83"/>
@@ -3082,7 +3075,7 @@
       <c r="Q7" s="60"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="126"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="83"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -3099,7 +3092,7 @@
       <c r="Q8" s="60"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="105" t="s">
         <v>201</v>
       </c>
       <c r="B9" s="84" t="s">
@@ -3124,7 +3117,7 @@
       <c r="Q9" s="60"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="117"/>
+      <c r="A10" s="106"/>
       <c r="B10" s="84" t="s">
         <v>204</v>
       </c>
@@ -3138,7 +3131,7 @@
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="117"/>
+      <c r="A11" s="106"/>
       <c r="B11" s="84" t="s">
         <v>206</v>
       </c>
@@ -3150,39 +3143,39 @@
       </c>
       <c r="E11" s="85"/>
       <c r="F11" s="18"/>
-      <c r="I11" s="114" t="s">
+      <c r="I11" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="110" t="s">
+      <c r="J11" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="110" t="s">
+      <c r="K11" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="110" t="s">
+      <c r="L11" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="110" t="s">
+      <c r="M11" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="110" t="s">
+      <c r="N11" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="110" t="s">
+      <c r="O11" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="110" t="s">
+      <c r="P11" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="110" t="s">
+      <c r="Q11" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="R11" s="112" t="s">
+      <c r="R11" s="125" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="117"/>
+      <c r="A12" s="106"/>
       <c r="B12" s="84" t="s">
         <v>208</v>
       </c>
@@ -3194,19 +3187,19 @@
       </c>
       <c r="E12" s="85"/>
       <c r="F12" s="18"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="113"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="124"/>
+      <c r="Q12" s="124"/>
+      <c r="R12" s="126"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="117"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="84" t="s">
         <v>210</v>
       </c>
@@ -3218,113 +3211,113 @@
       </c>
       <c r="E13" s="85"/>
       <c r="F13" s="18"/>
-      <c r="I13" s="107" t="s">
+      <c r="I13" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="107">
+      <c r="J13" s="119">
         <v>7</v>
       </c>
-      <c r="K13" s="107">
+      <c r="K13" s="119">
         <v>30</v>
       </c>
-      <c r="L13" s="108" t="s">
+      <c r="L13" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="107" t="s">
+      <c r="M13" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="109" t="s">
+      <c r="N13" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="108" t="s">
+      <c r="O13" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="108" t="s">
+      <c r="P13" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="108" t="s">
+      <c r="Q13" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="R13" s="108" t="s">
+      <c r="R13" s="118" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
+      <c r="A14" s="106"/>
       <c r="B14" s="84"/>
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
       <c r="E14" s="85"/>
       <c r="F14" s="18"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="108"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="118"/>
+      <c r="Q14" s="118"/>
+      <c r="R14" s="118"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
+      <c r="A15" s="106"/>
       <c r="B15" s="84"/>
       <c r="C15" s="85"/>
       <c r="D15" s="85"/>
       <c r="E15" s="85"/>
       <c r="F15" s="18"/>
-      <c r="I15" s="107" t="s">
+      <c r="I15" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="107">
+      <c r="J15" s="119">
         <v>5</v>
       </c>
-      <c r="K15" s="107">
+      <c r="K15" s="119">
         <v>30</v>
       </c>
-      <c r="L15" s="108" t="s">
+      <c r="L15" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="107" t="s">
+      <c r="M15" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="109" t="s">
+      <c r="N15" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="O15" s="108" t="s">
+      <c r="O15" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="108" t="s">
+      <c r="P15" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="Q15" s="108" t="s">
+      <c r="Q15" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="R15" s="108" t="s">
+      <c r="R15" s="118" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="117"/>
+      <c r="A16" s="106"/>
       <c r="B16" s="84"/>
       <c r="C16" s="85"/>
       <c r="D16" s="85"/>
       <c r="E16" s="85"/>
       <c r="F16" s="18"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="108"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="116" t="s">
+      <c r="A17" s="105" t="s">
         <v>212</v>
       </c>
       <c r="B17" s="84" t="s">
@@ -3338,39 +3331,39 @@
       </c>
       <c r="E17" s="85"/>
       <c r="F17" s="18"/>
-      <c r="I17" s="107" t="s">
+      <c r="I17" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="107">
+      <c r="J17" s="119">
         <v>1</v>
       </c>
-      <c r="K17" s="107">
+      <c r="K17" s="119">
         <v>6</v>
       </c>
-      <c r="L17" s="108" t="s">
+      <c r="L17" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="107" t="s">
+      <c r="M17" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="109" t="s">
+      <c r="N17" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="108" t="s">
+      <c r="O17" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="108" t="s">
+      <c r="P17" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="Q17" s="108" t="s">
+      <c r="Q17" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="R17" s="108" t="s">
+      <c r="R17" s="118" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
+      <c r="A18" s="106"/>
       <c r="B18" s="84" t="s">
         <v>204</v>
       </c>
@@ -3382,19 +3375,19 @@
       </c>
       <c r="E18" s="85"/>
       <c r="F18" s="18"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="108"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="117"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="84" t="s">
         <v>206</v>
       </c>
@@ -3406,39 +3399,39 @@
       </c>
       <c r="E19" s="85"/>
       <c r="F19" s="18"/>
-      <c r="I19" s="107" t="s">
+      <c r="I19" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="107">
+      <c r="J19" s="119">
         <v>1</v>
       </c>
-      <c r="K19" s="107">
+      <c r="K19" s="119">
         <v>6</v>
       </c>
-      <c r="L19" s="108" t="s">
+      <c r="L19" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="M19" s="107" t="s">
+      <c r="M19" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="109" t="s">
+      <c r="N19" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="108" t="s">
+      <c r="O19" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="108" t="s">
+      <c r="P19" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="Q19" s="108" t="s">
+      <c r="Q19" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="108" t="s">
+      <c r="R19" s="118" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="117"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="84" t="s">
         <v>208</v>
       </c>
@@ -3450,19 +3443,19 @@
       </c>
       <c r="E20" s="85"/>
       <c r="F20" s="18"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="108"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="117"/>
+      <c r="A21" s="106"/>
       <c r="B21" s="84" t="s">
         <v>210</v>
       </c>
@@ -3474,57 +3467,57 @@
       </c>
       <c r="E21" s="85"/>
       <c r="F21" s="18"/>
-      <c r="I21" s="107" t="s">
+      <c r="I21" s="119" t="s">
         <v>223</v>
       </c>
-      <c r="J21" s="107">
+      <c r="J21" s="119">
         <v>3</v>
       </c>
-      <c r="K21" s="107">
+      <c r="K21" s="119">
         <v>6</v>
       </c>
-      <c r="L21" s="108" t="s">
+      <c r="L21" s="118" t="s">
         <v>224</v>
       </c>
-      <c r="M21" s="107" t="s">
+      <c r="M21" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="109" t="s">
+      <c r="N21" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="O21" s="108" t="s">
+      <c r="O21" s="118" t="s">
         <v>225</v>
       </c>
-      <c r="P21" s="108" t="s">
+      <c r="P21" s="118" t="s">
         <v>226</v>
       </c>
-      <c r="Q21" s="108" t="s">
+      <c r="Q21" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="R21" s="108" t="s">
+      <c r="R21" s="118" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="117"/>
+      <c r="A22" s="106"/>
       <c r="B22" s="84"/>
       <c r="C22" s="85"/>
       <c r="D22" s="85"/>
       <c r="E22" s="85"/>
       <c r="F22" s="18"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="109"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="108"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="118"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="117"/>
+      <c r="A23" s="106"/>
       <c r="B23" s="84"/>
       <c r="C23" s="85"/>
       <c r="D23" s="85"/>
@@ -3532,7 +3525,7 @@
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="117"/>
+      <c r="A24" s="106"/>
       <c r="B24" s="84"/>
       <c r="C24" s="85"/>
       <c r="D24" s="85"/>
@@ -3556,7 +3549,7 @@
       <c r="F25" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="N25" s="104"/>
+      <c r="N25" s="103"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="86" t="s">
@@ -3575,7 +3568,7 @@
       <c r="F26" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="N26" s="104"/>
+      <c r="N26" s="103"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="86" t="s">
@@ -3594,7 +3587,6 @@
       <c r="F27" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="N27" s="105"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="86" t="s">
@@ -3758,49 +3750,16 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I17:I18"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="R17:R18"/>
     <mergeCell ref="Q19:Q20"/>
@@ -3817,16 +3776,49 @@
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="N17:N18"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3837,7 +3829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -3863,18 +3855,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="143" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
     </row>
     <row r="2" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -3895,14 +3887,14 @@
       <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="134" t="s">
+      <c r="G2" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="135"/>
-      <c r="I2" s="134" t="s">
+      <c r="H2" s="188"/>
+      <c r="I2" s="187" t="s">
         <v>128</v>
       </c>
-      <c r="J2" s="135"/>
+      <c r="J2" s="188"/>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
@@ -3928,8 +3920,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="136" t="s">
+    <row r="3" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="189" t="s">
         <v>129</v>
       </c>
       <c r="B3" s="21"/>
@@ -3943,10 +3935,10 @@
         <v>187</v>
       </c>
       <c r="F3" s="21"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="141"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="194"/>
       <c r="L3" s="3" t="s">
         <v>272</v>
       </c>
@@ -3973,7 +3965,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="137"/>
+      <c r="A4" s="190"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23" t="s">
         <v>110</v>
@@ -3985,10 +3977,10 @@
         <v>187</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="144"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="196"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="197"/>
       <c r="L4" s="3" t="s">
         <v>273</v>
       </c>
@@ -4015,7 +4007,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="138"/>
+      <c r="A5" s="191"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
         <v>111</v>
@@ -4027,10 +4019,10 @@
         <v>187</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="147"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="200"/>
       <c r="L5" s="3" t="s">
         <v>274</v>
       </c>
@@ -4057,7 +4049,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="171" t="s">
+      <c r="A6" s="183" t="s">
         <v>132</v>
       </c>
       <c r="B6" s="26"/>
@@ -4073,10 +4065,10 @@
       <c r="F6" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="G6" s="150"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="152"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="205"/>
       <c r="L6" s="3" t="s">
         <v>88</v>
       </c>
@@ -4103,7 +4095,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="172"/>
+      <c r="A7" s="184"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28" t="s">
         <v>115</v>
@@ -4117,10 +4109,10 @@
       <c r="F7" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="G7" s="153"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="155"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="206"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="167"/>
       <c r="L7" s="3" t="s">
         <v>89</v>
       </c>
@@ -4147,7 +4139,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="156" t="s">
+      <c r="A8" s="168" t="s">
         <v>131</v>
       </c>
       <c r="B8" s="29"/>
@@ -4163,10 +4155,10 @@
       <c r="F8" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="G8" s="168"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="169"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="181"/>
       <c r="L8" s="3" t="s">
         <v>90</v>
       </c>
@@ -4193,7 +4185,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="157"/>
+      <c r="A9" s="169"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
         <v>115</v>
@@ -4237,7 +4229,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="158"/>
+      <c r="A10" s="170"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31" t="s">
         <v>229</v>
@@ -4281,7 +4273,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="148" t="s">
+      <c r="A11" s="201" t="s">
         <v>130</v>
       </c>
       <c r="B11" s="32"/>
@@ -4297,10 +4289,10 @@
       <c r="F11" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="G11" s="162"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="164"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="176"/>
       <c r="L11" s="3" t="s">
         <v>241</v>
       </c>
@@ -4327,7 +4319,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="149"/>
+      <c r="A12" s="202"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33" t="s">
         <v>112</v>
@@ -4341,13 +4333,13 @@
       <c r="F12" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="G12" s="165"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="167"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="179"/>
     </row>
     <row r="13" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="149"/>
+      <c r="A13" s="202"/>
       <c r="B13" s="97"/>
       <c r="C13" s="97" t="s">
         <v>114</v>
@@ -4361,10 +4353,10 @@
       <c r="F13" s="97" t="s">
         <v>313</v>
       </c>
-      <c r="G13" s="159"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="161"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="173"/>
       <c r="L13" s="61"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -4517,7 +4509,7 @@
       <c r="J20" s="100"/>
     </row>
     <row r="21" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="195" t="s">
+      <c r="A21" s="130" t="s">
         <v>133</v>
       </c>
       <c r="B21" s="34" t="s">
@@ -4529,13 +4521,13 @@
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="173"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="195"/>
+      <c r="A22" s="130"/>
       <c r="B22" s="34" t="s">
         <v>143</v>
       </c>
@@ -4545,13 +4537,13 @@
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="174"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="159"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="195"/>
+      <c r="A23" s="130"/>
       <c r="B23" s="34" t="s">
         <v>143</v>
       </c>
@@ -4561,13 +4553,13 @@
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
       <c r="F23" s="93"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="174"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="159"/>
     </row>
     <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="195"/>
+      <c r="A24" s="130"/>
       <c r="B24" s="34" t="s">
         <v>143</v>
       </c>
@@ -4577,61 +4569,61 @@
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
       <c r="F24" s="93"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="174"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="159"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="195"/>
+      <c r="A25" s="130"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
       <c r="F25" s="93"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="174"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="159"/>
     </row>
     <row r="26" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="195"/>
+      <c r="A26" s="130"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
       <c r="F26" s="93"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="174"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="195"/>
+      <c r="A27" s="130"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
       <c r="F27" s="93"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="174"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="159"/>
     </row>
     <row r="28" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="196"/>
+      <c r="A28" s="131"/>
       <c r="B28" s="94"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
       <c r="F28" s="94"/>
-      <c r="G28" s="191"/>
-      <c r="H28" s="191"/>
-      <c r="I28" s="191"/>
-      <c r="J28" s="191"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
     </row>
     <row r="29" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="132" t="s">
+      <c r="A29" s="185" t="s">
         <v>134</v>
       </c>
       <c r="B29" s="37" t="s">
@@ -4643,13 +4635,13 @@
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="192"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="179"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="164"/>
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="133"/>
+      <c r="A30" s="186"/>
       <c r="B30" s="37" t="s">
         <v>144</v>
       </c>
@@ -4659,13 +4651,13 @@
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="177"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="152"/>
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="133"/>
+      <c r="A31" s="186"/>
       <c r="B31" s="37" t="s">
         <v>144</v>
       </c>
@@ -4675,13 +4667,13 @@
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="177"/>
+      <c r="G31" s="151"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="152"/>
     </row>
     <row r="32" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="133"/>
+      <c r="A32" s="186"/>
       <c r="B32" s="37" t="s">
         <v>279</v>
       </c>
@@ -4691,61 +4683,61 @@
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="177"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="152"/>
     </row>
     <row r="33" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="133"/>
+      <c r="A33" s="186"/>
       <c r="B33" s="39"/>
       <c r="C33" s="40"/>
       <c r="D33" s="39"/>
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="177"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="152"/>
     </row>
     <row r="34" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="133"/>
+      <c r="A34" s="186"/>
       <c r="B34" s="39"/>
       <c r="C34" s="40"/>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
       <c r="F34" s="39"/>
-      <c r="G34" s="175"/>
-      <c r="H34" s="176"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="177"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="163"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="152"/>
     </row>
     <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="133"/>
+      <c r="A35" s="186"/>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="131"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="155"/>
     </row>
     <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="133"/>
+      <c r="A36" s="186"/>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
       <c r="D36" s="41"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
-      <c r="G36" s="129"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="129"/>
-      <c r="J36" s="131"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="155"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="197" t="s">
+      <c r="A37" s="132" t="s">
         <v>136</v>
       </c>
       <c r="B37" s="43"/>
@@ -4753,22 +4745,22 @@
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="43"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="188"/>
-      <c r="J37" s="190"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="158"/>
     </row>
     <row r="38" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="198"/>
+      <c r="A38" s="133"/>
       <c r="B38" s="44"/>
       <c r="C38" s="45"/>
       <c r="D38" s="44"/>
       <c r="E38" s="44"/>
       <c r="F38" s="44"/>
-      <c r="G38" s="182"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="182"/>
-      <c r="J38" s="184"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="147"/>
     </row>
     <row r="39" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="68" t="s">
@@ -4787,10 +4779,10 @@
       <c r="F39" s="46" t="s">
         <v>313</v>
       </c>
-      <c r="G39" s="185"/>
-      <c r="H39" s="186"/>
-      <c r="I39" s="185"/>
-      <c r="J39" s="187"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="150"/>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
@@ -4809,10 +4801,10 @@
         <v>26</v>
       </c>
       <c r="F40" s="49"/>
-      <c r="G40" s="202"/>
-      <c r="H40" s="203"/>
-      <c r="I40" s="202"/>
-      <c r="J40" s="204"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="137"/>
+      <c r="J40" s="139"/>
     </row>
     <row r="41" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="50" t="s">
@@ -4831,10 +4823,10 @@
         <v>26</v>
       </c>
       <c r="F41" s="49"/>
-      <c r="G41" s="205"/>
-      <c r="H41" s="206"/>
-      <c r="I41" s="205"/>
-      <c r="J41" s="207"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="141"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="142"/>
     </row>
     <row r="42" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="50" t="s">
@@ -4853,10 +4845,10 @@
         <v>26</v>
       </c>
       <c r="F42" s="49"/>
-      <c r="G42" s="199"/>
-      <c r="H42" s="200"/>
-      <c r="I42" s="199"/>
-      <c r="J42" s="201"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="135"/>
+      <c r="I42" s="134"/>
+      <c r="J42" s="136"/>
     </row>
     <row r="43" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="72" t="s">
@@ -4875,10 +4867,10 @@
         <v>26</v>
       </c>
       <c r="F43" s="49"/>
-      <c r="G43" s="199"/>
-      <c r="H43" s="200"/>
-      <c r="I43" s="199"/>
-      <c r="J43" s="201"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="134"/>
+      <c r="J43" s="136"/>
     </row>
     <row r="44" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="70" t="s">
@@ -4897,10 +4889,10 @@
         <v>26</v>
       </c>
       <c r="F44" s="95"/>
-      <c r="G44" s="193"/>
-      <c r="H44" s="193"/>
-      <c r="I44" s="193"/>
-      <c r="J44" s="194"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="128"/>
+      <c r="J44" s="129"/>
     </row>
     <row r="45" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="52" t="s">
@@ -4912,17 +4904,17 @@
       <c r="C45" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="D45" s="106" t="s">
+      <c r="D45" s="95" t="s">
         <v>289</v>
       </c>
       <c r="E45" s="95" t="s">
         <v>26</v>
       </c>
       <c r="F45" s="95"/>
-      <c r="G45" s="193"/>
-      <c r="H45" s="193"/>
-      <c r="I45" s="193"/>
-      <c r="J45" s="194"/>
+      <c r="G45" s="128"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="128"/>
+      <c r="J45" s="129"/>
     </row>
     <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
@@ -4934,17 +4926,17 @@
       <c r="C46" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="D46" s="106" t="s">
+      <c r="D46" s="95" t="s">
         <v>290</v>
       </c>
       <c r="E46" s="95" t="s">
         <v>26</v>
       </c>
       <c r="F46" s="54"/>
-      <c r="G46" s="193"/>
-      <c r="H46" s="193"/>
-      <c r="I46" s="193"/>
-      <c r="J46" s="194"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="129"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
@@ -5033,7 +5025,7 @@
       <c r="A54" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="103" t="s">
+      <c r="B54" s="72" t="s">
         <v>280</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -5076,7 +5068,7 @@
       <c r="D56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="220" t="s">
+      <c r="E56" s="104" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5093,10 +5085,10 @@
       <c r="D57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="219" t="s">
+      <c r="E57" s="127" t="s">
         <v>291</v>
       </c>
-      <c r="F57" s="219"/>
+      <c r="F57" s="127"/>
     </row>
     <row r="59" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="E59" s="102"/>
@@ -5109,23 +5101,50 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="I38:J38"/>
@@ -5142,54 +5161,27 @@
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5199,10 +5191,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27F8DC3-BDE0-43F3-979D-2CCDC5541D2C}">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V4" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5223,19 +5215,20 @@
     <col min="18" max="18" width="20" customWidth="1"/>
     <col min="19" max="19" width="21.42578125" customWidth="1"/>
     <col min="20" max="21" width="17.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:22" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-    </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
@@ -5254,14 +5247,14 @@
       <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="213" t="s">
+      <c r="G2" s="208" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213" t="s">
+      <c r="H2" s="208"/>
+      <c r="I2" s="208" t="s">
         <v>128</v>
       </c>
-      <c r="J2" s="213"/>
+      <c r="J2" s="208"/>
       <c r="N2" t="s">
         <v>60</v>
       </c>
@@ -5273,8 +5266,8 @@
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="214" t="s">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="207" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="10"/>
@@ -5288,10 +5281,10 @@
         <v>187</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="210"/>
       <c r="N3" s="19" t="s">
         <v>17</v>
       </c>
@@ -5317,8 +5310,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="214"/>
+    <row r="4" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="207"/>
       <c r="B4" s="10"/>
       <c r="C4" s="73" t="s">
         <v>236</v>
@@ -5330,10 +5323,10 @@
         <v>187</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="209"/>
-      <c r="I4" s="208"/>
-      <c r="J4" s="209"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="210"/>
       <c r="N4" s="7" t="s">
         <v>61</v>
       </c>
@@ -5359,8 +5352,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="214"/>
+    <row r="5" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="207"/>
       <c r="B5" s="10"/>
       <c r="C5" s="73" t="s">
         <v>111</v>
@@ -5372,10 +5365,10 @@
         <v>7</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="209"/>
-      <c r="I5" s="208"/>
-      <c r="J5" s="209"/>
+      <c r="G5" s="209"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="209"/>
+      <c r="J5" s="210"/>
       <c r="N5" s="7" t="s">
         <v>65</v>
       </c>
@@ -5401,8 +5394,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="214" t="s">
+    <row r="6" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="207" t="s">
         <v>95</v>
       </c>
       <c r="B6" s="10"/>
@@ -5418,10 +5411,10 @@
       <c r="F6" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="208"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="209"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="209"/>
+      <c r="J6" s="210"/>
       <c r="N6" s="7" t="s">
         <v>69</v>
       </c>
@@ -5447,8 +5440,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="214"/>
+    <row r="7" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="207"/>
       <c r="B7" s="10"/>
       <c r="C7" s="73" t="s">
         <v>115</v>
@@ -5462,10 +5455,10 @@
       <c r="F7" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="208"/>
-      <c r="H7" s="209"/>
-      <c r="I7" s="208"/>
-      <c r="J7" s="209"/>
+      <c r="G7" s="209"/>
+      <c r="H7" s="210"/>
+      <c r="I7" s="209"/>
+      <c r="J7" s="210"/>
       <c r="N7" s="7" t="s">
         <v>73</v>
       </c>
@@ -5491,8 +5484,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="214" t="s">
+    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="207" t="s">
         <v>96</v>
       </c>
       <c r="B8" s="10"/>
@@ -5508,10 +5501,10 @@
       <c r="F8" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="208"/>
-      <c r="H8" s="209"/>
-      <c r="I8" s="208"/>
-      <c r="J8" s="209"/>
+      <c r="G8" s="209"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="209"/>
+      <c r="J8" s="210"/>
       <c r="N8" s="13" t="s">
         <v>77</v>
       </c>
@@ -5536,9 +5529,12 @@
       <c r="U8" s="14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="214"/>
+      <c r="V8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="207"/>
       <c r="B9" s="10"/>
       <c r="C9" s="73" t="s">
         <v>115</v>
@@ -5552,10 +5548,10 @@
       <c r="F9" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="208"/>
-      <c r="H9" s="209"/>
-      <c r="I9" s="208"/>
-      <c r="J9" s="209"/>
+      <c r="G9" s="209"/>
+      <c r="H9" s="210"/>
+      <c r="I9" s="209"/>
+      <c r="J9" s="210"/>
       <c r="L9" s="15"/>
       <c r="M9" s="16"/>
       <c r="N9" s="17" t="s">
@@ -5582,9 +5578,12 @@
       <c r="U9" s="18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="214"/>
+      <c r="V9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="207"/>
       <c r="B10" s="10"/>
       <c r="C10" s="73" t="s">
         <v>229</v>
@@ -5598,13 +5597,13 @@
       <c r="F10" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="208"/>
-      <c r="H10" s="209"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="209"/>
-    </row>
-    <row r="11" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="214" t="s">
+      <c r="G10" s="209"/>
+      <c r="H10" s="210"/>
+      <c r="I10" s="209"/>
+      <c r="J10" s="210"/>
+    </row>
+    <row r="11" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="207" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="10"/>
@@ -5620,13 +5619,13 @@
       <c r="F11" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G11" s="208"/>
-      <c r="H11" s="209"/>
-      <c r="I11" s="208"/>
-      <c r="J11" s="209"/>
-    </row>
-    <row r="12" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="214"/>
+      <c r="G11" s="209"/>
+      <c r="H11" s="210"/>
+      <c r="I11" s="209"/>
+      <c r="J11" s="210"/>
+    </row>
+    <row r="12" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="207"/>
       <c r="B12" s="10"/>
       <c r="C12" s="9" t="s">
         <v>113</v>
@@ -5640,13 +5639,13 @@
       <c r="F12" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G12" s="208"/>
-      <c r="H12" s="209"/>
-      <c r="I12" s="208"/>
-      <c r="J12" s="209"/>
-    </row>
-    <row r="13" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="214"/>
+      <c r="G12" s="209"/>
+      <c r="H12" s="210"/>
+      <c r="I12" s="209"/>
+      <c r="J12" s="210"/>
+    </row>
+    <row r="13" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="207"/>
       <c r="B13" s="10"/>
       <c r="C13" s="9" t="s">
         <v>114</v>
@@ -5660,13 +5659,13 @@
       <c r="F13" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G13" s="208"/>
-      <c r="H13" s="209"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="209"/>
-    </row>
-    <row r="14" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="215" t="s">
+      <c r="G13" s="209"/>
+      <c r="H13" s="210"/>
+      <c r="I13" s="209"/>
+      <c r="J13" s="210"/>
+    </row>
+    <row r="14" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="214" t="s">
         <v>98</v>
       </c>
       <c r="B14" s="10"/>
@@ -5682,13 +5681,13 @@
       <c r="F14" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G14" s="208"/>
-      <c r="H14" s="209"/>
-      <c r="I14" s="208"/>
-      <c r="J14" s="209"/>
-    </row>
-    <row r="15" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="216"/>
+      <c r="G14" s="209"/>
+      <c r="H14" s="210"/>
+      <c r="I14" s="209"/>
+      <c r="J14" s="210"/>
+    </row>
+    <row r="15" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="215"/>
       <c r="B15" s="10"/>
       <c r="C15" s="9" t="s">
         <v>116</v>
@@ -5702,13 +5701,13 @@
       <c r="F15" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="208"/>
-      <c r="H15" s="209"/>
-      <c r="I15" s="208"/>
-      <c r="J15" s="209"/>
-    </row>
-    <row r="16" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="216"/>
+      <c r="G15" s="209"/>
+      <c r="H15" s="210"/>
+      <c r="I15" s="209"/>
+      <c r="J15" s="210"/>
+    </row>
+    <row r="16" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="215"/>
       <c r="B16" s="10"/>
       <c r="C16" s="9" t="s">
         <v>117</v>
@@ -5722,13 +5721,13 @@
       <c r="F16" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G16" s="208"/>
-      <c r="H16" s="209"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="209"/>
+      <c r="G16" s="209"/>
+      <c r="H16" s="210"/>
+      <c r="I16" s="209"/>
+      <c r="J16" s="210"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="216"/>
+      <c r="A17" s="215"/>
       <c r="B17" s="10"/>
       <c r="C17" s="9" t="s">
         <v>118</v>
@@ -5742,13 +5741,13 @@
       <c r="F17" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G17" s="208"/>
-      <c r="H17" s="209"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="209"/>
+      <c r="G17" s="209"/>
+      <c r="H17" s="210"/>
+      <c r="I17" s="209"/>
+      <c r="J17" s="210"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="216"/>
+      <c r="A18" s="215"/>
       <c r="B18" s="10"/>
       <c r="C18" s="9" t="s">
         <v>119</v>
@@ -5762,13 +5761,13 @@
       <c r="F18" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G18" s="208"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="208"/>
-      <c r="J18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="210"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="216"/>
+      <c r="A19" s="215"/>
       <c r="B19" s="10"/>
       <c r="C19" s="9" t="s">
         <v>120</v>
@@ -5782,13 +5781,13 @@
       <c r="F19" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="208"/>
-      <c r="H19" s="209"/>
-      <c r="I19" s="208"/>
-      <c r="J19" s="209"/>
+      <c r="G19" s="209"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="209"/>
+      <c r="J19" s="210"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="216"/>
+      <c r="A20" s="215"/>
       <c r="B20" s="10"/>
       <c r="C20" s="9" t="s">
         <v>121</v>
@@ -5808,7 +5807,7 @@
       <c r="J20" s="92"/>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="217"/>
+      <c r="A21" s="216"/>
       <c r="B21" s="1" t="s">
         <v>127</v>
       </c>
@@ -5818,13 +5817,13 @@
       <c r="E21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="208"/>
-      <c r="H21" s="209"/>
-      <c r="I21" s="208"/>
-      <c r="J21" s="209"/>
+      <c r="G21" s="209"/>
+      <c r="H21" s="210"/>
+      <c r="I21" s="209"/>
+      <c r="J21" s="210"/>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="210" t="s">
+      <c r="A22" s="211" t="s">
         <v>99</v>
       </c>
       <c r="B22" s="12"/>
@@ -5840,13 +5839,13 @@
       <c r="F22" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G22" s="208"/>
-      <c r="H22" s="209"/>
-      <c r="I22" s="208"/>
-      <c r="J22" s="209"/>
+      <c r="G22" s="209"/>
+      <c r="H22" s="210"/>
+      <c r="I22" s="209"/>
+      <c r="J22" s="210"/>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="211"/>
+      <c r="A23" s="212"/>
       <c r="B23" s="12"/>
       <c r="C23" s="9" t="s">
         <v>116</v>
@@ -5860,13 +5859,13 @@
       <c r="F23" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G23" s="208"/>
-      <c r="H23" s="209"/>
-      <c r="I23" s="208"/>
-      <c r="J23" s="209"/>
+      <c r="G23" s="209"/>
+      <c r="H23" s="210"/>
+      <c r="I23" s="209"/>
+      <c r="J23" s="210"/>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="211"/>
+      <c r="A24" s="212"/>
       <c r="B24" s="12"/>
       <c r="C24" s="9" t="s">
         <v>117</v>
@@ -5880,13 +5879,13 @@
       <c r="F24" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="208"/>
-      <c r="H24" s="209"/>
-      <c r="I24" s="208"/>
-      <c r="J24" s="209"/>
+      <c r="G24" s="209"/>
+      <c r="H24" s="210"/>
+      <c r="I24" s="209"/>
+      <c r="J24" s="210"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="211"/>
+      <c r="A25" s="212"/>
       <c r="B25" s="12"/>
       <c r="C25" s="9" t="s">
         <v>118</v>
@@ -5900,13 +5899,13 @@
       <c r="F25" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G25" s="208"/>
-      <c r="H25" s="209"/>
-      <c r="I25" s="208"/>
-      <c r="J25" s="209"/>
+      <c r="G25" s="209"/>
+      <c r="H25" s="210"/>
+      <c r="I25" s="209"/>
+      <c r="J25" s="210"/>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="211"/>
+      <c r="A26" s="212"/>
       <c r="B26" s="12"/>
       <c r="C26" s="9" t="s">
         <v>119</v>
@@ -5920,13 +5919,13 @@
       <c r="F26" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G26" s="208"/>
-      <c r="H26" s="209"/>
-      <c r="I26" s="208"/>
-      <c r="J26" s="209"/>
+      <c r="G26" s="209"/>
+      <c r="H26" s="210"/>
+      <c r="I26" s="209"/>
+      <c r="J26" s="210"/>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="211"/>
+      <c r="A27" s="212"/>
       <c r="B27" s="12"/>
       <c r="C27" s="9" t="s">
         <v>120</v>
@@ -5940,13 +5939,13 @@
       <c r="F27" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G27" s="208"/>
-      <c r="H27" s="209"/>
-      <c r="I27" s="208"/>
-      <c r="J27" s="209"/>
+      <c r="G27" s="209"/>
+      <c r="H27" s="210"/>
+      <c r="I27" s="209"/>
+      <c r="J27" s="210"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="211"/>
+      <c r="A28" s="212"/>
       <c r="B28" s="12"/>
       <c r="C28" s="9" t="s">
         <v>121</v>
@@ -5960,13 +5959,13 @@
       <c r="F28" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G28" s="208"/>
-      <c r="H28" s="209"/>
-      <c r="I28" s="208"/>
-      <c r="J28" s="209"/>
+      <c r="G28" s="209"/>
+      <c r="H28" s="210"/>
+      <c r="I28" s="209"/>
+      <c r="J28" s="210"/>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="211"/>
+      <c r="A29" s="212"/>
       <c r="B29" s="12"/>
       <c r="C29" s="9" t="s">
         <v>122</v>
@@ -5986,7 +5985,7 @@
       <c r="J29" s="92"/>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="212"/>
+      <c r="A30" s="213"/>
       <c r="B30" s="1" t="s">
         <v>127</v>
       </c>
@@ -5996,10 +5995,10 @@
       <c r="E30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="208"/>
-      <c r="H30" s="209"/>
-      <c r="I30" s="208"/>
-      <c r="J30" s="209"/>
+      <c r="G30" s="209"/>
+      <c r="H30" s="210"/>
+      <c r="I30" s="209"/>
+      <c r="J30" s="210"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -6018,10 +6017,10 @@
       <c r="F31" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G31" s="208"/>
-      <c r="H31" s="209"/>
-      <c r="I31" s="208"/>
-      <c r="J31" s="209"/>
+      <c r="G31" s="209"/>
+      <c r="H31" s="210"/>
+      <c r="I31" s="209"/>
+      <c r="J31" s="210"/>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -6040,10 +6039,10 @@
       <c r="F32" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="G32" s="208"/>
-      <c r="H32" s="209"/>
-      <c r="I32" s="208"/>
-      <c r="J32" s="209"/>
+      <c r="G32" s="209"/>
+      <c r="H32" s="210"/>
+      <c r="I32" s="209"/>
+      <c r="J32" s="210"/>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -6064,10 +6063,10 @@
       <c r="F33" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="G33" s="208"/>
-      <c r="H33" s="209"/>
-      <c r="I33" s="208"/>
-      <c r="J33" s="209"/>
+      <c r="G33" s="209"/>
+      <c r="H33" s="210"/>
+      <c r="I33" s="209"/>
+      <c r="J33" s="210"/>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -6088,10 +6087,10 @@
       <c r="F34" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="G34" s="208"/>
-      <c r="H34" s="209"/>
-      <c r="I34" s="208"/>
-      <c r="J34" s="209"/>
+      <c r="G34" s="209"/>
+      <c r="H34" s="210"/>
+      <c r="I34" s="209"/>
+      <c r="J34" s="210"/>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -6112,10 +6111,10 @@
       <c r="F35" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="G35" s="208"/>
-      <c r="H35" s="209"/>
-      <c r="I35" s="208"/>
-      <c r="J35" s="209"/>
+      <c r="G35" s="209"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="209"/>
+      <c r="J35" s="210"/>
     </row>
     <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -6136,10 +6135,10 @@
       <c r="F36" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="G36" s="208"/>
-      <c r="H36" s="209"/>
-      <c r="I36" s="208"/>
-      <c r="J36" s="209"/>
+      <c r="G36" s="209"/>
+      <c r="H36" s="210"/>
+      <c r="I36" s="209"/>
+      <c r="J36" s="210"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -6160,10 +6159,10 @@
       <c r="F37" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="G37" s="208"/>
-      <c r="H37" s="209"/>
-      <c r="I37" s="208"/>
-      <c r="J37" s="209"/>
+      <c r="G37" s="209"/>
+      <c r="H37" s="210"/>
+      <c r="I37" s="209"/>
+      <c r="J37" s="210"/>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -6184,10 +6183,10 @@
       <c r="F38" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="G38" s="208"/>
-      <c r="H38" s="209"/>
-      <c r="I38" s="208"/>
-      <c r="J38" s="209"/>
+      <c r="G38" s="209"/>
+      <c r="H38" s="210"/>
+      <c r="I38" s="209"/>
+      <c r="J38" s="210"/>
     </row>
     <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -6200,10 +6199,10 @@
       <c r="F39" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G39" s="208"/>
-      <c r="H39" s="209"/>
-      <c r="I39" s="208"/>
-      <c r="J39" s="209"/>
+      <c r="G39" s="209"/>
+      <c r="H39" s="210"/>
+      <c r="I39" s="209"/>
+      <c r="J39" s="210"/>
     </row>
     <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -6216,10 +6215,10 @@
       <c r="F40" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G40" s="208"/>
-      <c r="H40" s="209"/>
-      <c r="I40" s="208"/>
-      <c r="J40" s="209"/>
+      <c r="G40" s="209"/>
+      <c r="H40" s="210"/>
+      <c r="I40" s="209"/>
+      <c r="J40" s="210"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
@@ -6230,19 +6229,74 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="208"/>
-      <c r="H41" s="209"/>
-      <c r="I41" s="208"/>
-      <c r="J41" s="209"/>
+      <c r="G41" s="209"/>
+      <c r="H41" s="210"/>
+      <c r="I41" s="209"/>
+      <c r="J41" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="A22:A30"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G3:H3"/>
@@ -6259,67 +6313,12 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A21"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6348,20 +6347,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="217" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="218"/>
-      <c r="B2" s="218"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
+      <c r="A2" s="217"/>
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">

--- a/IP_cim_kiosztas_akutális.xlsx
+++ b/IP_cim_kiosztas_akutális.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Üzemeltető\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D937649-FD07-4987-B01A-3008B27C3278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E402BE2-3822-4DDF-8282-7743053C2022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="2985" yWindow="555" windowWidth="16860" windowHeight="15345" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="313">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -291,9 +291,6 @@
     <t>192.168.0.127</t>
   </si>
   <si>
-    <t>Pozsony_E</t>
-  </si>
-  <si>
     <t>192.168.5.1 - 192.168.5.62</t>
   </si>
   <si>
@@ -430,9 +427,6 @@
   </si>
   <si>
     <t>Pozsony_R3</t>
-  </si>
-  <si>
-    <t>Pozsony_R2</t>
   </si>
   <si>
     <t>Pozsony_S1</t>
@@ -760,9 +754,6 @@
     <t>130.10.10.2</t>
   </si>
   <si>
-    <t>Pozsony_F</t>
-  </si>
-  <si>
     <t>Felügyeleti_VLAN_19</t>
   </si>
   <si>
@@ -940,9 +931,6 @@
     <t>192.168.5.199</t>
   </si>
   <si>
-    <t>192.168.5.200</t>
-  </si>
-  <si>
     <t>192.168.5.201 - 192.168.5.202</t>
   </si>
   <si>
@@ -958,24 +946,9 @@
     <t>192.168.5.207</t>
   </si>
   <si>
-    <t>192.168.5.208</t>
-  </si>
-  <si>
-    <t>192.168.5.209 - 192.168.5.210</t>
-  </si>
-  <si>
-    <t>192.168.5.211</t>
-  </si>
-  <si>
     <t>192.168.5.212</t>
   </si>
   <si>
-    <t>192.168.5.213 - 192.168.5.214</t>
-  </si>
-  <si>
-    <t>192.168.5.215</t>
-  </si>
-  <si>
     <t>192.168.5.193</t>
   </si>
   <si>
@@ -995,18 +968,6 @@
   </si>
   <si>
     <t>192.168.5.206</t>
-  </si>
-  <si>
-    <t>192.168.5.209</t>
-  </si>
-  <si>
-    <t>192.168.5.210</t>
-  </si>
-  <si>
-    <t>192.168.5.213</t>
-  </si>
-  <si>
-    <t>192.168.5.214</t>
   </si>
   <si>
     <t>192.168.5.190</t>
@@ -2262,6 +2223,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2301,279 +2289,246 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2588,6 +2543,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2956,20 +2917,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="120" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="55" t="s">
@@ -2978,7 +2939,7 @@
       <c r="D2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="116" t="s">
+      <c r="E2" s="125" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="56" t="s">
@@ -2986,23 +2947,23 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113" t="s">
+      <c r="A3" s="119"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="117"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="126"/>
       <c r="F3" s="57" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
-        <v>184</v>
+      <c r="A4" s="115" t="s">
+        <v>182</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C4" s="90"/>
       <c r="D4" s="90"/>
@@ -3010,15 +2971,15 @@
       <c r="F4" s="82"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D5" s="85" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E5" s="85"/>
       <c r="F5" s="18"/>
@@ -3033,15 +2994,15 @@
       <c r="Q5" s="60"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
+      <c r="A6" s="115"/>
       <c r="B6" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" s="85" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D6" s="85" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E6" s="85"/>
       <c r="F6" s="18"/>
@@ -3056,7 +3017,7 @@
       <c r="Q6" s="60"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="114" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="83"/>
@@ -3075,7 +3036,7 @@
       <c r="Q7" s="60"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="115"/>
+      <c r="A8" s="124"/>
       <c r="B8" s="83"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -3092,14 +3053,14 @@
       <c r="Q8" s="60"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="85" t="s">
         <v>201</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>203</v>
       </c>
       <c r="D9" s="85" t="s">
         <v>34</v>
@@ -3117,12 +3078,12 @@
       <c r="Q9" s="60"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="84" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C10" s="85" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D10" s="85" t="s">
         <v>34</v>
@@ -3131,393 +3092,393 @@
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="84" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C11" s="85" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D11" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="85"/>
       <c r="F11" s="18"/>
-      <c r="I11" s="121" t="s">
+      <c r="I11" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="123" t="s">
+      <c r="J11" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="123" t="s">
+      <c r="K11" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="123" t="s">
+      <c r="L11" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="123" t="s">
+      <c r="M11" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="123" t="s">
+      <c r="N11" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="123" t="s">
+      <c r="O11" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="123" t="s">
+      <c r="P11" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="123" t="s">
+      <c r="Q11" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="R11" s="125" t="s">
-        <v>218</v>
+      <c r="R11" s="110" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="84" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C12" s="85" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D12" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="85"/>
       <c r="F12" s="18"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="124"/>
-      <c r="P12" s="124"/>
-      <c r="Q12" s="124"/>
-      <c r="R12" s="126"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="111"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="84" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C13" s="85" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D13" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="85"/>
       <c r="F13" s="18"/>
-      <c r="I13" s="119" t="s">
+      <c r="I13" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="119">
+      <c r="J13" s="105">
         <v>7</v>
       </c>
-      <c r="K13" s="119">
+      <c r="K13" s="105">
         <v>30</v>
       </c>
-      <c r="L13" s="118" t="s">
+      <c r="L13" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="119" t="s">
+      <c r="M13" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="120" t="s">
+      <c r="N13" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="118" t="s">
+      <c r="O13" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="118" t="s">
+      <c r="P13" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="118" t="s">
+      <c r="Q13" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="R13" s="118" t="s">
-        <v>219</v>
+      <c r="R13" s="106" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="84"/>
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
       <c r="E14" s="85"/>
       <c r="F14" s="18"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="120"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="106"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="84"/>
       <c r="C15" s="85"/>
       <c r="D15" s="85"/>
       <c r="E15" s="85"/>
       <c r="F15" s="18"/>
-      <c r="I15" s="119" t="s">
+      <c r="I15" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="119">
+      <c r="J15" s="105">
         <v>5</v>
       </c>
-      <c r="K15" s="119">
+      <c r="K15" s="105">
         <v>30</v>
       </c>
-      <c r="L15" s="118" t="s">
+      <c r="L15" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="119" t="s">
+      <c r="M15" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="120" t="s">
+      <c r="N15" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="O15" s="118" t="s">
+      <c r="O15" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="118" t="s">
+      <c r="P15" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="Q15" s="118" t="s">
+      <c r="Q15" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="R15" s="118" t="s">
-        <v>220</v>
+      <c r="R15" s="106" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="84"/>
       <c r="C16" s="85"/>
       <c r="D16" s="85"/>
       <c r="E16" s="85"/>
       <c r="F16" s="18"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="105" t="s">
-        <v>212</v>
+      <c r="A17" s="114" t="s">
+        <v>210</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C17" s="85" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D17" s="85" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="85"/>
       <c r="F17" s="18"/>
-      <c r="I17" s="119" t="s">
+      <c r="I17" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="119">
+      <c r="J17" s="105">
         <v>1</v>
       </c>
-      <c r="K17" s="119">
+      <c r="K17" s="105">
         <v>6</v>
       </c>
-      <c r="L17" s="118" t="s">
+      <c r="L17" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="119" t="s">
+      <c r="M17" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="120" t="s">
+      <c r="N17" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="118" t="s">
+      <c r="O17" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="118" t="s">
+      <c r="P17" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="Q17" s="118" t="s">
+      <c r="Q17" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="R17" s="118" t="s">
-        <v>221</v>
+      <c r="R17" s="106" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="84" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C18" s="85" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D18" s="85" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="85"/>
       <c r="F18" s="18"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="118"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="106"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
+      <c r="A19" s="115"/>
       <c r="B19" s="84" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C19" s="85" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D19" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="85"/>
       <c r="F19" s="18"/>
-      <c r="I19" s="119" t="s">
+      <c r="I19" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="119">
+      <c r="J19" s="105">
         <v>1</v>
       </c>
-      <c r="K19" s="119">
+      <c r="K19" s="105">
         <v>6</v>
       </c>
-      <c r="L19" s="118" t="s">
+      <c r="L19" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="M19" s="119" t="s">
+      <c r="M19" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="120" t="s">
+      <c r="N19" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="118" t="s">
+      <c r="O19" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="118" t="s">
+      <c r="P19" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="Q19" s="118" t="s">
+      <c r="Q19" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="118" t="s">
-        <v>222</v>
+      <c r="R19" s="106" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
+      <c r="A20" s="115"/>
       <c r="B20" s="84" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C20" s="85" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D20" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="85"/>
       <c r="F20" s="18"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="118"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="106"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
+      <c r="A21" s="115"/>
       <c r="B21" s="84" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C21" s="85" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D21" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="85"/>
       <c r="F21" s="18"/>
-      <c r="I21" s="119" t="s">
+      <c r="I21" s="105" t="s">
+        <v>221</v>
+      </c>
+      <c r="J21" s="105">
+        <v>3</v>
+      </c>
+      <c r="K21" s="105">
+        <v>6</v>
+      </c>
+      <c r="L21" s="106" t="s">
+        <v>222</v>
+      </c>
+      <c r="M21" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="106" t="s">
         <v>223</v>
       </c>
-      <c r="J21" s="119">
-        <v>3</v>
-      </c>
-      <c r="K21" s="119">
-        <v>6</v>
-      </c>
-      <c r="L21" s="118" t="s">
+      <c r="P21" s="106" t="s">
         <v>224</v>
       </c>
-      <c r="M21" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="120" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" s="118" t="s">
+      <c r="Q21" s="106" t="s">
         <v>225</v>
       </c>
-      <c r="P21" s="118" t="s">
+      <c r="R21" s="106" t="s">
         <v>226</v>
       </c>
-      <c r="Q21" s="118" t="s">
-        <v>227</v>
-      </c>
-      <c r="R21" s="118" t="s">
-        <v>228</v>
-      </c>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
+      <c r="A22" s="115"/>
       <c r="B22" s="84"/>
       <c r="C22" s="85"/>
       <c r="D22" s="85"/>
       <c r="E22" s="85"/>
       <c r="F22" s="18"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="118"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="118"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="106"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
+      <c r="A23" s="115"/>
       <c r="B23" s="84"/>
       <c r="C23" s="85"/>
       <c r="D23" s="85"/>
@@ -3525,7 +3486,7 @@
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="106"/>
+      <c r="A24" s="115"/>
       <c r="B24" s="84"/>
       <c r="C24" s="85"/>
       <c r="D24" s="85"/>
@@ -3534,87 +3495,87 @@
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="86" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B25" s="84"/>
       <c r="C25" s="85" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D25" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="85" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F25" s="85" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N25" s="103"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="86" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B26" s="85"/>
       <c r="C26" s="85" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D26" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F26" s="85" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N26" s="103"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="86" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B27" s="85"/>
       <c r="C27" s="85" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D27" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="85" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F27" s="85" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="86" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B28" s="85" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C28" s="85" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D28" s="85" t="s">
         <v>34</v>
       </c>
       <c r="E28" s="85"/>
       <c r="F28" s="85" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="86" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B29" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="85" t="s">
         <v>253</v>
-      </c>
-      <c r="C29" s="85" t="s">
-        <v>256</v>
       </c>
       <c r="D29" s="85" t="s">
         <v>34</v>
@@ -3624,43 +3585,43 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="86" t="s">
+        <v>252</v>
+      </c>
+      <c r="B30" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="C30" s="85" t="s">
         <v>255</v>
-      </c>
-      <c r="B30" s="85" t="s">
-        <v>253</v>
-      </c>
-      <c r="C30" s="85" t="s">
-        <v>258</v>
       </c>
       <c r="D30" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="85"/>
       <c r="F30" s="85" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="86" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B31" s="85" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C31" s="85" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D31" s="85" t="s">
         <v>34</v>
       </c>
       <c r="E31" s="85"/>
       <c r="F31" s="85" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="86" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B32" s="85"/>
       <c r="C32" s="1"/>
@@ -3670,7 +3631,7 @@
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="86" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B33" s="89"/>
       <c r="C33" s="1"/>
@@ -3750,16 +3711,49 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K19:K20"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="R17:R18"/>
     <mergeCell ref="Q19:Q20"/>
@@ -3776,49 +3770,16 @@
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3829,8 +3790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3855,18 +3816,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="143" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
+      <c r="A1" s="178" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="179"/>
+      <c r="I1" s="179"/>
+      <c r="J1" s="179"/>
     </row>
     <row r="2" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -3887,14 +3848,14 @@
       <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="187" t="s">
+      <c r="G2" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="188"/>
-      <c r="I2" s="187" t="s">
-        <v>128</v>
-      </c>
-      <c r="J2" s="188"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="133"/>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
@@ -3921,26 +3882,26 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="189" t="s">
-        <v>129</v>
+      <c r="A3" s="134" t="s">
+        <v>128</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F3" s="21"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="194"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="139"/>
       <c r="L3" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M3" s="4">
         <v>40</v>
@@ -3958,31 +3919,31 @@
         <v>26</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="190"/>
+      <c r="A4" s="135"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="195"/>
-      <c r="H4" s="196"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="197"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="142"/>
       <c r="L4" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M4" s="4">
         <v>40</v>
@@ -4000,31 +3961,31 @@
         <v>26</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="191"/>
+      <c r="A5" s="136"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="200"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="145"/>
       <c r="L5" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M5" s="4">
         <v>40</v>
@@ -4042,35 +4003,25 @@
         <v>26</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="183" t="s">
-        <v>132</v>
-      </c>
+      <c r="A6" s="169"/>
       <c r="B6" s="26"/>
-      <c r="C6" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="G6" s="203"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="203"/>
-      <c r="J6" s="205"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="150"/>
       <c r="L6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M6" s="4">
         <v>2</v>
@@ -4079,42 +4030,34 @@
         <v>2</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="184"/>
+      <c r="A7" s="170"/>
       <c r="B7" s="28"/>
-      <c r="C7" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="G7" s="166"/>
-      <c r="H7" s="206"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="167"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="153"/>
       <c r="L7" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M7" s="4">
         <v>2</v>
@@ -4123,44 +4066,44 @@
         <v>2</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="168" t="s">
-        <v>131</v>
+      <c r="A8" s="154" t="s">
+        <v>130</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="G8" s="180"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="181"/>
+        <v>304</v>
+      </c>
+      <c r="G8" s="166"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="167"/>
       <c r="L8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M8" s="4">
         <v>2</v>
@@ -4169,42 +4112,42 @@
         <v>2</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="169"/>
+      <c r="A9" s="155"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G9" s="62"/>
       <c r="H9" s="63"/>
       <c r="I9" s="62"/>
       <c r="J9" s="64"/>
       <c r="L9" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M9" s="4">
         <v>2</v>
@@ -4213,150 +4156,103 @@
         <v>2</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="170"/>
+      <c r="A10" s="156"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G10" s="65"/>
       <c r="H10" s="66"/>
       <c r="I10" s="65"/>
       <c r="J10" s="67"/>
-      <c r="L10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M10" s="4">
-        <v>2</v>
-      </c>
-      <c r="N10" s="4">
-        <v>2</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>309</v>
-      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="201" t="s">
-        <v>130</v>
+      <c r="A11" s="146" t="s">
+        <v>129</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="G11" s="174"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="176"/>
-      <c r="L11" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="M11" s="4">
-        <v>2</v>
-      </c>
-      <c r="N11" s="4">
-        <v>2</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>312</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G11" s="160"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="162"/>
+      <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="202"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="G12" s="177"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="179"/>
+        <v>304</v>
+      </c>
+      <c r="G12" s="163"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="165"/>
     </row>
     <row r="13" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="202"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="97"/>
-      <c r="C13" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="97" t="s">
-        <v>316</v>
-      </c>
-      <c r="E13" s="97" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" s="97" t="s">
-        <v>313</v>
-      </c>
-      <c r="G13" s="171"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="173"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="159"/>
       <c r="L13" s="61"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -4368,21 +4264,15 @@
     </row>
     <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="99" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B14" s="100"/>
       <c r="C14" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D14" s="100" t="s">
-        <v>321</v>
-      </c>
-      <c r="E14" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="100" t="s">
-        <v>313</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
       <c r="G14" s="100"/>
       <c r="H14" s="100"/>
       <c r="I14" s="100"/>
@@ -4400,16 +4290,16 @@
       <c r="A15" s="99"/>
       <c r="B15" s="100"/>
       <c r="C15" s="99" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D15" s="100" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E15" s="100" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F15" s="100" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G15" s="100"/>
       <c r="H15" s="100"/>
@@ -4428,7 +4318,7 @@
       <c r="A16" s="99"/>
       <c r="B16" s="100"/>
       <c r="C16" s="99" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D16" s="100"/>
       <c r="E16" s="100"/>
@@ -4450,7 +4340,7 @@
       <c r="A17" s="99"/>
       <c r="B17" s="100"/>
       <c r="C17" s="99" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D17" s="100"/>
       <c r="E17" s="100"/>
@@ -4472,7 +4362,7 @@
       <c r="A18" s="99"/>
       <c r="B18" s="100"/>
       <c r="C18" s="99" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D18" s="100"/>
       <c r="E18" s="100"/>
@@ -4486,7 +4376,7 @@
       <c r="A19" s="99"/>
       <c r="B19" s="100"/>
       <c r="C19" s="99" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D19" s="100"/>
       <c r="E19" s="100"/>
@@ -4509,445 +4399,445 @@
       <c r="J20" s="100"/>
     </row>
     <row r="21" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="130" t="s">
-        <v>133</v>
+      <c r="A21" s="191" t="s">
+        <v>131</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="165"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="171"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
+      <c r="A22" s="191"/>
       <c r="B22" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="159"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="172"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="130"/>
+      <c r="A23" s="191"/>
       <c r="B23" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
       <c r="F23" s="93"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="159"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="172"/>
     </row>
     <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="130"/>
+      <c r="A24" s="191"/>
       <c r="B24" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
       <c r="F24" s="93"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="159"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="172"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="130"/>
+      <c r="A25" s="191"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
       <c r="F25" s="93"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="159"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="172"/>
     </row>
     <row r="26" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="130"/>
+      <c r="A26" s="191"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
       <c r="F26" s="93"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="159"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="172"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="130"/>
+      <c r="A27" s="191"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
       <c r="F27" s="93"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="159"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="172"/>
     </row>
     <row r="28" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="131"/>
+      <c r="A28" s="192"/>
       <c r="B28" s="94"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
       <c r="F28" s="94"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="189"/>
+      <c r="I28" s="189"/>
+      <c r="J28" s="189"/>
     </row>
     <row r="29" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="185" t="s">
-        <v>134</v>
+      <c r="A29" s="130" t="s">
+        <v>132</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="162"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="164"/>
+      <c r="G29" s="173"/>
+      <c r="H29" s="190"/>
+      <c r="I29" s="173"/>
+      <c r="J29" s="174"/>
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="186"/>
+      <c r="A30" s="131"/>
       <c r="B30" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="152"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="176"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="177"/>
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="186"/>
+      <c r="A31" s="131"/>
       <c r="B31" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="152"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="177"/>
     </row>
     <row r="32" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="186"/>
+      <c r="A32" s="131"/>
       <c r="B32" s="37" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="152"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="176"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="177"/>
     </row>
     <row r="33" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="186"/>
+      <c r="A33" s="131"/>
       <c r="B33" s="39"/>
       <c r="C33" s="40"/>
       <c r="D33" s="39"/>
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="163"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="152"/>
+      <c r="G33" s="175"/>
+      <c r="H33" s="176"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="177"/>
     </row>
     <row r="34" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="186"/>
+      <c r="A34" s="131"/>
       <c r="B34" s="39"/>
       <c r="C34" s="40"/>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
       <c r="F34" s="39"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="163"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="152"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="176"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="177"/>
     </row>
     <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="186"/>
+      <c r="A35" s="131"/>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="154"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="155"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="129"/>
     </row>
     <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="186"/>
+      <c r="A36" s="131"/>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
       <c r="D36" s="41"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="154"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="155"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="129"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="132" t="s">
-        <v>136</v>
+      <c r="A37" s="193" t="s">
+        <v>134</v>
       </c>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="43"/>
-      <c r="G37" s="156"/>
-      <c r="H37" s="157"/>
-      <c r="I37" s="156"/>
-      <c r="J37" s="158"/>
+      <c r="G37" s="186"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="186"/>
+      <c r="J37" s="188"/>
     </row>
     <row r="38" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="133"/>
+      <c r="A38" s="194"/>
       <c r="B38" s="44"/>
       <c r="C38" s="45"/>
       <c r="D38" s="44"/>
       <c r="E38" s="44"/>
       <c r="F38" s="44"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="147"/>
+      <c r="G38" s="180"/>
+      <c r="H38" s="181"/>
+      <c r="I38" s="180"/>
+      <c r="J38" s="182"/>
     </row>
     <row r="39" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B39" s="69"/>
       <c r="C39" s="47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="G39" s="148"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="148"/>
-      <c r="J39" s="150"/>
+        <v>304</v>
+      </c>
+      <c r="G39" s="183"/>
+      <c r="H39" s="184"/>
+      <c r="I39" s="183"/>
+      <c r="J39" s="185"/>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B40" s="50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E40" s="49" t="s">
         <v>26</v>
       </c>
       <c r="F40" s="49"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="137"/>
-      <c r="J40" s="139"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="201"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="202"/>
     </row>
     <row r="41" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B41" s="50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D41" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E41" s="49" t="s">
         <v>26</v>
       </c>
       <c r="F41" s="49"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="141"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="142"/>
+      <c r="G41" s="203"/>
+      <c r="H41" s="204"/>
+      <c r="I41" s="203"/>
+      <c r="J41" s="205"/>
     </row>
     <row r="42" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E42" s="49" t="s">
         <v>26</v>
       </c>
       <c r="F42" s="49"/>
-      <c r="G42" s="134"/>
-      <c r="H42" s="135"/>
-      <c r="I42" s="134"/>
-      <c r="J42" s="136"/>
+      <c r="G42" s="195"/>
+      <c r="H42" s="196"/>
+      <c r="I42" s="195"/>
+      <c r="J42" s="197"/>
     </row>
     <row r="43" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="72" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D43" s="49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E43" s="49" t="s">
         <v>26</v>
       </c>
       <c r="F43" s="49"/>
-      <c r="G43" s="134"/>
-      <c r="H43" s="135"/>
-      <c r="I43" s="134"/>
-      <c r="J43" s="136"/>
+      <c r="G43" s="195"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="195"/>
+      <c r="J43" s="197"/>
     </row>
     <row r="44" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B44" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="D44" s="95" t="s">
         <v>144</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="D44" s="95" t="s">
-        <v>146</v>
       </c>
       <c r="E44" s="95" t="s">
         <v>26</v>
       </c>
       <c r="F44" s="95"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
-      <c r="J44" s="129"/>
+      <c r="G44" s="198"/>
+      <c r="H44" s="198"/>
+      <c r="I44" s="198"/>
+      <c r="J44" s="199"/>
     </row>
     <row r="45" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B45" s="59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D45" s="95" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E45" s="95" t="s">
         <v>26</v>
       </c>
       <c r="F45" s="95"/>
-      <c r="G45" s="128"/>
-      <c r="H45" s="128"/>
-      <c r="I45" s="128"/>
-      <c r="J45" s="129"/>
+      <c r="G45" s="198"/>
+      <c r="H45" s="198"/>
+      <c r="I45" s="198"/>
+      <c r="J45" s="199"/>
     </row>
     <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="B46" s="58" t="s">
-        <v>144</v>
-      </c>
       <c r="C46" s="51" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D46" s="95" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E46" s="95" t="s">
         <v>26</v>
       </c>
       <c r="F46" s="54"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="128"/>
-      <c r="I46" s="128"/>
-      <c r="J46" s="129"/>
+      <c r="G46" s="198"/>
+      <c r="H46" s="198"/>
+      <c r="I46" s="198"/>
+      <c r="J46" s="199"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C47" s="39"/>
       <c r="D47" s="39" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E47" s="39" t="s">
         <v>26</v>
@@ -4973,10 +4863,10 @@
     <row r="49" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="101"/>
       <c r="B49" s="72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C49" s="102" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D49" s="102" t="s">
         <v>26</v>
@@ -4991,10 +4881,10 @@
     <row r="50" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" s="101"/>
       <c r="B50" s="72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C50" s="102" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D50" s="102" t="s">
         <v>26</v>
@@ -5005,10 +4895,10 @@
     <row r="51" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="101"/>
       <c r="B51" s="78" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C51" s="102" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="D51" s="102" t="s">
         <v>26</v>
@@ -5026,16 +4916,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -5043,16 +4933,16 @@
         <v>11</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -5060,16 +4950,16 @@
         <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E56" s="104" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -5077,18 +4967,18 @@
         <v>19</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="127" t="s">
-        <v>291</v>
-      </c>
-      <c r="F57" s="127"/>
+      <c r="E57" s="206" t="s">
+        <v>288</v>
+      </c>
+      <c r="F57" s="206"/>
     </row>
     <row r="59" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="E59" s="102"/>
@@ -5101,6 +4991,71 @@
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="A29:A36"/>
@@ -5117,71 +5072,6 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5193,7 +5083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27F8DC3-BDE0-43F3-979D-2CCDC5541D2C}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V4" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
@@ -5219,14 +5109,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
+      <c r="A1" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -5247,14 +5137,14 @@
       <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="208" t="s">
+      <c r="G2" s="212" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208" t="s">
-        <v>128</v>
-      </c>
-      <c r="J2" s="208"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="212"/>
       <c r="N2" t="s">
         <v>60</v>
       </c>
@@ -5267,24 +5157,24 @@
       <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="207" t="s">
-        <v>94</v>
+      <c r="A3" s="213" t="s">
+        <v>93</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="73" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E3" s="74" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="210"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="208"/>
       <c r="N3" s="19" t="s">
         <v>17</v>
       </c>
@@ -5311,22 +5201,22 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="207"/>
+      <c r="A4" s="213"/>
       <c r="B4" s="10"/>
       <c r="C4" s="73" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E4" s="74" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="209"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="209"/>
-      <c r="J4" s="210"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="208"/>
       <c r="N4" s="7" t="s">
         <v>61</v>
       </c>
@@ -5353,22 +5243,22 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="207"/>
+      <c r="A5" s="213"/>
       <c r="B5" s="10"/>
       <c r="C5" s="73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E5" s="75" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="209"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="209"/>
-      <c r="J5" s="210"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="208"/>
+      <c r="I5" s="207"/>
+      <c r="J5" s="208"/>
       <c r="N5" s="7" t="s">
         <v>65</v>
       </c>
@@ -5395,26 +5285,26 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="207" t="s">
-        <v>95</v>
+      <c r="A6" s="213" t="s">
+        <v>94</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E6" s="75" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="209"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="209"/>
-      <c r="J6" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G6" s="207"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="208"/>
       <c r="N6" s="7" t="s">
         <v>69</v>
       </c>
@@ -5441,24 +5331,24 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="207"/>
+      <c r="A7" s="213"/>
       <c r="B7" s="10"/>
       <c r="C7" s="73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E7" s="75" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" s="209"/>
-      <c r="H7" s="210"/>
-      <c r="I7" s="209"/>
-      <c r="J7" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G7" s="207"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="208"/>
       <c r="N7" s="7" t="s">
         <v>73</v>
       </c>
@@ -5485,26 +5375,26 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="207" t="s">
-        <v>96</v>
+      <c r="A8" s="213" t="s">
+        <v>95</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E8" s="75" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" s="209"/>
-      <c r="H8" s="210"/>
-      <c r="I8" s="209"/>
-      <c r="J8" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G8" s="207"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="207"/>
+      <c r="J8" s="208"/>
       <c r="N8" s="13" t="s">
         <v>77</v>
       </c>
@@ -5530,28 +5420,28 @@
         <v>80</v>
       </c>
       <c r="V8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="207"/>
+      <c r="A9" s="213"/>
       <c r="B9" s="10"/>
       <c r="C9" s="73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E9" s="75" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" s="209"/>
-      <c r="H9" s="210"/>
-      <c r="I9" s="209"/>
-      <c r="J9" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G9" s="207"/>
+      <c r="H9" s="208"/>
+      <c r="I9" s="207"/>
+      <c r="J9" s="208"/>
       <c r="L9" s="15"/>
       <c r="M9" s="16"/>
       <c r="N9" s="17" t="s">
@@ -5579,227 +5469,227 @@
         <v>84</v>
       </c>
       <c r="V9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="207"/>
+      <c r="A10" s="213"/>
       <c r="B10" s="10"/>
       <c r="C10" s="73" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E10" s="75" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" s="209"/>
-      <c r="H10" s="210"/>
-      <c r="I10" s="209"/>
-      <c r="J10" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G10" s="207"/>
+      <c r="H10" s="208"/>
+      <c r="I10" s="207"/>
+      <c r="J10" s="208"/>
     </row>
     <row r="11" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="207" t="s">
-        <v>97</v>
+      <c r="A11" s="213" t="s">
+        <v>96</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" s="209"/>
-      <c r="H11" s="210"/>
-      <c r="I11" s="209"/>
-      <c r="J11" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G11" s="207"/>
+      <c r="H11" s="208"/>
+      <c r="I11" s="207"/>
+      <c r="J11" s="208"/>
     </row>
     <row r="12" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="207"/>
+      <c r="A12" s="213"/>
       <c r="B12" s="10"/>
       <c r="C12" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" s="209"/>
-      <c r="H12" s="210"/>
-      <c r="I12" s="209"/>
-      <c r="J12" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G12" s="207"/>
+      <c r="H12" s="208"/>
+      <c r="I12" s="207"/>
+      <c r="J12" s="208"/>
     </row>
     <row r="13" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="207"/>
+      <c r="A13" s="213"/>
       <c r="B13" s="10"/>
       <c r="C13" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" s="209"/>
-      <c r="H13" s="210"/>
-      <c r="I13" s="209"/>
-      <c r="J13" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G13" s="207"/>
+      <c r="H13" s="208"/>
+      <c r="I13" s="207"/>
+      <c r="J13" s="208"/>
     </row>
     <row r="14" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="214" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" s="209"/>
-      <c r="H14" s="210"/>
-      <c r="I14" s="209"/>
-      <c r="J14" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G14" s="207"/>
+      <c r="H14" s="208"/>
+      <c r="I14" s="207"/>
+      <c r="J14" s="208"/>
     </row>
     <row r="15" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="215"/>
       <c r="B15" s="10"/>
       <c r="C15" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G15" s="209"/>
-      <c r="H15" s="210"/>
-      <c r="I15" s="209"/>
-      <c r="J15" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G15" s="207"/>
+      <c r="H15" s="208"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="208"/>
     </row>
     <row r="16" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="215"/>
       <c r="B16" s="10"/>
       <c r="C16" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="209"/>
-      <c r="H16" s="210"/>
-      <c r="I16" s="209"/>
-      <c r="J16" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G16" s="207"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="207"/>
+      <c r="J16" s="208"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="215"/>
       <c r="B17" s="10"/>
       <c r="C17" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="209"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="209"/>
-      <c r="J17" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G17" s="207"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="207"/>
+      <c r="J17" s="208"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="215"/>
       <c r="B18" s="10"/>
       <c r="C18" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G18" s="209"/>
-      <c r="H18" s="210"/>
-      <c r="I18" s="209"/>
-      <c r="J18" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G18" s="207"/>
+      <c r="H18" s="208"/>
+      <c r="I18" s="207"/>
+      <c r="J18" s="208"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="215"/>
       <c r="B19" s="10"/>
       <c r="C19" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G19" s="209"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="209"/>
-      <c r="J19" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G19" s="207"/>
+      <c r="H19" s="208"/>
+      <c r="I19" s="207"/>
+      <c r="J19" s="208"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="215"/>
       <c r="B20" s="10"/>
       <c r="C20" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G20" s="91"/>
       <c r="H20" s="92"/>
@@ -5809,175 +5699,175 @@
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="216"/>
       <c r="B21" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="209"/>
-      <c r="H21" s="210"/>
-      <c r="I21" s="209"/>
-      <c r="J21" s="210"/>
+      <c r="G21" s="207"/>
+      <c r="H21" s="208"/>
+      <c r="I21" s="207"/>
+      <c r="J21" s="208"/>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="211" t="s">
-        <v>99</v>
+      <c r="A22" s="209" t="s">
+        <v>98</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="209"/>
-      <c r="H22" s="210"/>
-      <c r="I22" s="209"/>
-      <c r="J22" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G22" s="207"/>
+      <c r="H22" s="208"/>
+      <c r="I22" s="207"/>
+      <c r="J22" s="208"/>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="212"/>
+      <c r="A23" s="210"/>
       <c r="B23" s="12"/>
       <c r="C23" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G23" s="209"/>
-      <c r="H23" s="210"/>
-      <c r="I23" s="209"/>
-      <c r="J23" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G23" s="207"/>
+      <c r="H23" s="208"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="208"/>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="212"/>
+      <c r="A24" s="210"/>
       <c r="B24" s="12"/>
       <c r="C24" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="209"/>
-      <c r="H24" s="210"/>
-      <c r="I24" s="209"/>
-      <c r="J24" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G24" s="207"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="208"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="212"/>
+      <c r="A25" s="210"/>
       <c r="B25" s="12"/>
       <c r="C25" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G25" s="209"/>
-      <c r="H25" s="210"/>
-      <c r="I25" s="209"/>
-      <c r="J25" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G25" s="207"/>
+      <c r="H25" s="208"/>
+      <c r="I25" s="207"/>
+      <c r="J25" s="208"/>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="212"/>
+      <c r="A26" s="210"/>
       <c r="B26" s="12"/>
       <c r="C26" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="209"/>
-      <c r="H26" s="210"/>
-      <c r="I26" s="209"/>
-      <c r="J26" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G26" s="207"/>
+      <c r="H26" s="208"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="208"/>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="212"/>
+      <c r="A27" s="210"/>
       <c r="B27" s="12"/>
       <c r="C27" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G27" s="209"/>
-      <c r="H27" s="210"/>
-      <c r="I27" s="209"/>
-      <c r="J27" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G27" s="207"/>
+      <c r="H27" s="208"/>
+      <c r="I27" s="207"/>
+      <c r="J27" s="208"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="212"/>
+      <c r="A28" s="210"/>
       <c r="B28" s="12"/>
       <c r="C28" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G28" s="209"/>
-      <c r="H28" s="210"/>
-      <c r="I28" s="209"/>
-      <c r="J28" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G28" s="207"/>
+      <c r="H28" s="208"/>
+      <c r="I28" s="207"/>
+      <c r="J28" s="208"/>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="212"/>
+      <c r="A29" s="210"/>
       <c r="B29" s="12"/>
       <c r="C29" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G29" s="91"/>
       <c r="H29" s="92"/>
@@ -5985,318 +5875,263 @@
       <c r="J29" s="92"/>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="213"/>
+      <c r="A30" s="211"/>
       <c r="B30" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="209"/>
-      <c r="H30" s="210"/>
-      <c r="I30" s="209"/>
-      <c r="J30" s="210"/>
+      <c r="G30" s="207"/>
+      <c r="H30" s="208"/>
+      <c r="I30" s="207"/>
+      <c r="J30" s="208"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G31" s="209"/>
-      <c r="H31" s="210"/>
-      <c r="I31" s="209"/>
-      <c r="J31" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G31" s="207"/>
+      <c r="H31" s="208"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="208"/>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E32" s="75" t="s">
         <v>29</v>
       </c>
       <c r="F32" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="G32" s="209"/>
-      <c r="H32" s="210"/>
-      <c r="I32" s="209"/>
-      <c r="J32" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G32" s="207"/>
+      <c r="H32" s="208"/>
+      <c r="I32" s="207"/>
+      <c r="J32" s="208"/>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E33" s="75" t="s">
         <v>26</v>
       </c>
       <c r="F33" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="G33" s="209"/>
-      <c r="H33" s="210"/>
-      <c r="I33" s="209"/>
-      <c r="J33" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G33" s="207"/>
+      <c r="H33" s="208"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="208"/>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D34" s="75" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E34" s="75" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="G34" s="209"/>
-      <c r="H34" s="210"/>
-      <c r="I34" s="209"/>
-      <c r="J34" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G34" s="207"/>
+      <c r="H34" s="208"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="208"/>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D35" s="75" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E35" s="75" t="s">
         <v>26</v>
       </c>
       <c r="F35" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="G35" s="209"/>
-      <c r="H35" s="210"/>
-      <c r="I35" s="209"/>
-      <c r="J35" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G35" s="207"/>
+      <c r="H35" s="208"/>
+      <c r="I35" s="207"/>
+      <c r="J35" s="208"/>
     </row>
     <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D36" s="75" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E36" s="75" t="s">
         <v>26</v>
       </c>
       <c r="F36" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="G36" s="209"/>
-      <c r="H36" s="210"/>
-      <c r="I36" s="209"/>
-      <c r="J36" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G36" s="207"/>
+      <c r="H36" s="208"/>
+      <c r="I36" s="207"/>
+      <c r="J36" s="208"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D37" s="75" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E37" s="75" t="s">
         <v>26</v>
       </c>
       <c r="F37" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="G37" s="209"/>
-      <c r="H37" s="210"/>
-      <c r="I37" s="209"/>
-      <c r="J37" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G37" s="207"/>
+      <c r="H37" s="208"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="208"/>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" s="75" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E38" s="75" t="s">
         <v>26</v>
       </c>
       <c r="F38" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="G38" s="209"/>
-      <c r="H38" s="210"/>
-      <c r="I38" s="209"/>
-      <c r="J38" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G38" s="207"/>
+      <c r="H38" s="208"/>
+      <c r="I38" s="207"/>
+      <c r="J38" s="208"/>
     </row>
     <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G39" s="209"/>
-      <c r="H39" s="210"/>
-      <c r="I39" s="209"/>
-      <c r="J39" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G39" s="207"/>
+      <c r="H39" s="208"/>
+      <c r="I39" s="207"/>
+      <c r="J39" s="208"/>
     </row>
     <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G40" s="209"/>
-      <c r="H40" s="210"/>
-      <c r="I40" s="209"/>
-      <c r="J40" s="210"/>
+        <v>147</v>
+      </c>
+      <c r="G40" s="207"/>
+      <c r="H40" s="208"/>
+      <c r="I40" s="207"/>
+      <c r="J40" s="208"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="209"/>
-      <c r="H41" s="210"/>
-      <c r="I41" s="209"/>
-      <c r="J41" s="210"/>
+      <c r="G41" s="207"/>
+      <c r="H41" s="208"/>
+      <c r="I41" s="207"/>
+      <c r="J41" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="A22:A30"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G3:H3"/>
@@ -6313,12 +6148,67 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6348,7 +6238,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="217" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="217"/>
       <c r="C1" s="217"/>
@@ -6390,7 +6280,7 @@
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -6399,24 +6289,24 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
@@ -6425,24 +6315,24 @@
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
@@ -6451,19 +6341,19 @@
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/IP_cim_kiosztas_akutális.xlsx
+++ b/IP_cim_kiosztas_akutális.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E402BE2-3822-4DDF-8282-7743053C2022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5A9043-D4A9-4D51-810D-B206C1961ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="555" windowWidth="16860" windowHeight="15345" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -1163,7 +1163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1173,12 +1173,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1927,7 +1921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2005,8 +1999,8 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2017,76 +2011,67 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2098,10 +2083,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2110,46 +2095,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2193,28 +2178,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2223,33 +2208,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2289,147 +2247,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2440,6 +2320,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2448,86 +2337,164 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2543,12 +2510,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2917,843 +2878,810 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="125" t="s">
+      <c r="E2" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="53" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="119"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="122" t="s">
+      <c r="A3" s="107"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="123"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="57" t="s">
+      <c r="D3" s="111"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="54" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="82"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="79"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="82" t="s">
         <v>237</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="85"/>
+      <c r="E5" s="82"/>
       <c r="F5" s="18"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115"/>
+      <c r="A6" s="103"/>
       <c r="B6" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="82" t="s">
         <v>238</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="85"/>
+      <c r="E6" s="82"/>
       <c r="F6" s="18"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="85"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="124"/>
-      <c r="B8" s="83"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="82" t="s">
         <v>201</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="85"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="18"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="115"/>
-      <c r="B10" s="84" t="s">
+      <c r="A10" s="103"/>
+      <c r="B10" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="85"/>
+      <c r="E10" s="82"/>
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
-      <c r="B11" s="84" t="s">
+      <c r="A11" s="103"/>
+      <c r="B11" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="85"/>
+      <c r="E11" s="82"/>
       <c r="F11" s="18"/>
-      <c r="I11" s="112" t="s">
+      <c r="I11" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="108" t="s">
+      <c r="J11" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="108" t="s">
+      <c r="K11" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="108" t="s">
+      <c r="L11" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="108" t="s">
+      <c r="M11" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="108" t="s">
+      <c r="N11" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="108" t="s">
+      <c r="O11" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="108" t="s">
+      <c r="P11" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="108" t="s">
+      <c r="Q11" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="R11" s="110" t="s">
+      <c r="R11" s="122" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
-      <c r="B12" s="84" t="s">
+      <c r="A12" s="103"/>
+      <c r="B12" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="85"/>
+      <c r="E12" s="82"/>
       <c r="F12" s="18"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="111"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="123"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
-      <c r="B13" s="84" t="s">
+      <c r="A13" s="103"/>
+      <c r="B13" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="82" t="s">
         <v>209</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="85"/>
+      <c r="E13" s="82"/>
       <c r="F13" s="18"/>
-      <c r="I13" s="105" t="s">
+      <c r="I13" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="105">
+      <c r="J13" s="116">
         <v>7</v>
       </c>
-      <c r="K13" s="105">
+      <c r="K13" s="116">
         <v>30</v>
       </c>
-      <c r="L13" s="106" t="s">
+      <c r="L13" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="105" t="s">
+      <c r="M13" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="107" t="s">
+      <c r="N13" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="106" t="s">
+      <c r="O13" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="106" t="s">
+      <c r="P13" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="106" t="s">
+      <c r="Q13" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="R13" s="106" t="s">
+      <c r="R13" s="115" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
       <c r="F14" s="18"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="115"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
       <c r="F15" s="18"/>
-      <c r="I15" s="105" t="s">
+      <c r="I15" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="105">
+      <c r="J15" s="116">
         <v>5</v>
       </c>
-      <c r="K15" s="105">
+      <c r="K15" s="116">
         <v>30</v>
       </c>
-      <c r="L15" s="106" t="s">
+      <c r="L15" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="105" t="s">
+      <c r="M15" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="107" t="s">
+      <c r="N15" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="O15" s="106" t="s">
+      <c r="O15" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="106" t="s">
+      <c r="P15" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="Q15" s="106" t="s">
+      <c r="Q15" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="R15" s="106" t="s">
+      <c r="R15" s="115" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="115"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
       <c r="F16" s="18"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="106"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="115"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="114" t="s">
+      <c r="A17" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="82" t="s">
         <v>211</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="85"/>
+      <c r="E17" s="82"/>
       <c r="F17" s="18"/>
-      <c r="I17" s="105" t="s">
+      <c r="I17" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="105">
+      <c r="J17" s="116">
         <v>1</v>
       </c>
-      <c r="K17" s="105">
+      <c r="K17" s="116">
         <v>6</v>
       </c>
-      <c r="L17" s="106" t="s">
+      <c r="L17" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="105" t="s">
+      <c r="M17" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="107" t="s">
+      <c r="N17" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="106" t="s">
+      <c r="O17" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="106" t="s">
+      <c r="P17" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="Q17" s="106" t="s">
+      <c r="Q17" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="R17" s="106" t="s">
+      <c r="R17" s="115" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
-      <c r="B18" s="84" t="s">
+      <c r="A18" s="103"/>
+      <c r="B18" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="82" t="s">
         <v>212</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="85"/>
+      <c r="E18" s="82"/>
       <c r="F18" s="18"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="106"/>
-      <c r="R18" s="106"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
+      <c r="R18" s="115"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="115"/>
-      <c r="B19" s="84" t="s">
+      <c r="A19" s="103"/>
+      <c r="B19" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="82" t="s">
         <v>213</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="85"/>
+      <c r="E19" s="82"/>
       <c r="F19" s="18"/>
-      <c r="I19" s="105" t="s">
+      <c r="I19" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="105">
+      <c r="J19" s="116">
         <v>1</v>
       </c>
-      <c r="K19" s="105">
+      <c r="K19" s="116">
         <v>6</v>
       </c>
-      <c r="L19" s="106" t="s">
+      <c r="L19" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="M19" s="105" t="s">
+      <c r="M19" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="107" t="s">
+      <c r="N19" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="106" t="s">
+      <c r="O19" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="106" t="s">
+      <c r="P19" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="Q19" s="106" t="s">
+      <c r="Q19" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="106" t="s">
+      <c r="R19" s="115" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="115"/>
-      <c r="B20" s="84" t="s">
+      <c r="A20" s="103"/>
+      <c r="B20" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="82" t="s">
         <v>214</v>
       </c>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="85"/>
+      <c r="E20" s="82"/>
       <c r="F20" s="18"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="106"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="115"/>
+      <c r="R20" s="115"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="115"/>
-      <c r="B21" s="84" t="s">
+      <c r="A21" s="103"/>
+      <c r="B21" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="85"/>
+      <c r="E21" s="82"/>
       <c r="F21" s="18"/>
-      <c r="I21" s="105" t="s">
+      <c r="I21" s="116" t="s">
         <v>221</v>
       </c>
-      <c r="J21" s="105">
+      <c r="J21" s="116">
         <v>3</v>
       </c>
-      <c r="K21" s="105">
+      <c r="K21" s="116">
         <v>6</v>
       </c>
-      <c r="L21" s="106" t="s">
+      <c r="L21" s="115" t="s">
         <v>222</v>
       </c>
-      <c r="M21" s="105" t="s">
+      <c r="M21" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="107" t="s">
+      <c r="N21" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="O21" s="106" t="s">
+      <c r="O21" s="115" t="s">
         <v>223</v>
       </c>
-      <c r="P21" s="106" t="s">
+      <c r="P21" s="115" t="s">
         <v>224</v>
       </c>
-      <c r="Q21" s="106" t="s">
+      <c r="Q21" s="115" t="s">
         <v>225</v>
       </c>
-      <c r="R21" s="106" t="s">
+      <c r="R21" s="115" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="115"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
       <c r="F22" s="18"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="106"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="115"/>
+      <c r="R22" s="115"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="115"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
+      <c r="A23" s="103"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="115"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
+      <c r="A24" s="103"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="83" t="s">
         <v>241</v>
       </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="85" t="s">
+      <c r="B25" s="81"/>
+      <c r="C25" s="82" t="s">
         <v>242</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="85" t="s">
+      <c r="E25" s="82" t="s">
         <v>245</v>
       </c>
-      <c r="F25" s="85" t="s">
+      <c r="F25" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="N25" s="103"/>
+      <c r="N25" s="100"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85" t="s">
+      <c r="B26" s="82"/>
+      <c r="C26" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="D26" s="85" t="s">
+      <c r="D26" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="85" t="s">
+      <c r="E26" s="82" t="s">
         <v>245</v>
       </c>
-      <c r="F26" s="85" t="s">
+      <c r="F26" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="N26" s="103"/>
+      <c r="N26" s="100"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85" t="s">
+      <c r="B27" s="82"/>
+      <c r="C27" s="82" t="s">
         <v>244</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="85" t="s">
+      <c r="E27" s="82" t="s">
         <v>245</v>
       </c>
-      <c r="F27" s="85" t="s">
+      <c r="F27" s="82" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="86" t="s">
+      <c r="A28" s="83" t="s">
         <v>249</v>
       </c>
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="82" t="s">
         <v>254</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85" t="s">
+      <c r="E28" s="82"/>
+      <c r="F28" s="82" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="82" t="s">
         <v>253</v>
       </c>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="86" t="s">
+      <c r="A30" s="83" t="s">
         <v>252</v>
       </c>
-      <c r="B30" s="85" t="s">
+      <c r="B30" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="82" t="s">
         <v>255</v>
       </c>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85" t="s">
+      <c r="E30" s="82"/>
+      <c r="F30" s="82" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="83" t="s">
         <v>251</v>
       </c>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="C31" s="85" t="s">
+      <c r="C31" s="82" t="s">
         <v>256</v>
       </c>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85" t="s">
+      <c r="E31" s="82"/>
+      <c r="F31" s="82" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="83" t="s">
         <v>257</v>
       </c>
-      <c r="B32" s="85"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="88"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="85"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="86" t="s">
+      <c r="A33" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="B33" s="89"/>
+      <c r="B33" s="86"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="88"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="85"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="86" t="s">
+      <c r="A34" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="89"/>
+      <c r="B34" s="86"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="88"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="85"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="89"/>
+      <c r="B35" s="86"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="88"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="86" t="s">
+      <c r="A36" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="89"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="88"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="85"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="86" t="s">
+      <c r="A37" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="89"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="88"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="85"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="86" t="s">
+      <c r="A38" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="89"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="88"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="85"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="86" t="s">
+      <c r="A39" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="89"/>
+      <c r="B39" s="86"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="88"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="85"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="86" t="s">
+      <c r="A40" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="89"/>
+      <c r="B40" s="86"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="88"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I17:I18"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="R17:R18"/>
     <mergeCell ref="Q19:Q20"/>
@@ -3770,16 +3698,49 @@
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="N17:N18"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3788,10 +3749,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3816,18 +3777,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="143" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
     </row>
     <row r="2" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -3848,14 +3809,14 @@
       <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="132" t="s">
+      <c r="G2" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="132" t="s">
+      <c r="H2" s="181"/>
+      <c r="I2" s="180" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="133"/>
+      <c r="J2" s="181"/>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
@@ -3882,24 +3843,24 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="182" t="s">
         <v>128</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="74" t="s">
         <v>194</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>185</v>
       </c>
       <c r="F3" s="21"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="139"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="187"/>
       <c r="L3" s="3" t="s">
         <v>269</v>
       </c>
@@ -3926,22 +3887,22 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="135"/>
+      <c r="A4" s="183"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="73" t="s">
         <v>236</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>185</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="142"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="190"/>
       <c r="L4" s="3" t="s">
         <v>270</v>
       </c>
@@ -3968,7 +3929,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="136"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
         <v>110</v>
@@ -3980,10 +3941,10 @@
         <v>185</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="145"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="191"/>
+      <c r="J5" s="193"/>
       <c r="L5" s="3" t="s">
         <v>271</v>
       </c>
@@ -4010,16 +3971,26 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="169"/>
+      <c r="A6" s="163" t="s">
+        <v>130</v>
+      </c>
       <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="150"/>
+      <c r="C6" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="G6" s="175"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="176"/>
       <c r="L6" s="3" t="s">
         <v>87</v>
       </c>
@@ -4045,17 +4016,25 @@
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="170"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="153"/>
+    <row r="7" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="164"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="61"/>
       <c r="L7" s="3" t="s">
         <v>88</v>
       </c>
@@ -4081,27 +4060,25 @@
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="154" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="E8" s="29" t="s">
+    <row r="8" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="165"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="G8" s="166"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="167"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="64"/>
       <c r="L8" s="3" t="s">
         <v>89</v>
       </c>
@@ -4128,24 +4105,26 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="155"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="E9" s="30" t="s">
+      <c r="A9" s="194" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="64"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="171"/>
       <c r="L9" s="3" t="s">
         <v>90</v>
       </c>
@@ -4171,25 +4150,25 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="156"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="E10" s="31" t="s">
+    <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="195"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="67"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="174"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -4200,60 +4179,54 @@
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="146" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="E11" s="32" t="s">
+      <c r="A11" s="195"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="168"/>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="96" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" s="97"/>
+      <c r="C12" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+    </row>
+    <row r="13" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="96"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" s="97" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F13" s="97" t="s">
         <v>304</v>
       </c>
-      <c r="G11" s="160"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="162"/>
-      <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="147"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="G12" s="163"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="165"/>
-    </row>
-    <row r="13" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="147"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="159"/>
-      <c r="L13" s="61"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="L13" s="58"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -4263,21 +4236,19 @@
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="99" t="s">
-        <v>262</v>
-      </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="98" t="s">
-        <v>264</v>
-      </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="L14" s="61"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="96" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="L14" s="58"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -4287,25 +4258,19 @@
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="99"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="99" t="s">
-        <v>263</v>
-      </c>
-      <c r="D15" s="100" t="s">
-        <v>310</v>
-      </c>
-      <c r="E15" s="100" t="s">
-        <v>185</v>
-      </c>
-      <c r="F15" s="100" t="s">
-        <v>304</v>
-      </c>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="L15" s="61"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="96" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="L15" s="58"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -4315,19 +4280,19 @@
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="99"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="99" t="s">
-        <v>272</v>
-      </c>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="L16" s="61"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="96" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="L16" s="58"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -4337,19 +4302,19 @@
       <c r="S16" s="6"/>
     </row>
     <row r="17" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="99"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="99" t="s">
-        <v>273</v>
-      </c>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="L17" s="61"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="96" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="L17" s="58"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -4359,706 +4324,613 @@
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="99"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="99" t="s">
-        <v>274</v>
-      </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-    </row>
-    <row r="19" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="99"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="99" t="s">
-        <v>275</v>
-      </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-    </row>
-    <row r="20" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="99"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+    </row>
+    <row r="19" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="127" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="162"/>
+    </row>
+    <row r="20" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="127"/>
+      <c r="B20" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="157"/>
     </row>
     <row r="21" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="191" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="34" t="s">
+      <c r="A21" s="127"/>
+      <c r="B21" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="157"/>
+    </row>
+    <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="127"/>
+      <c r="B22" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+    </row>
+    <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="127"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="157"/>
+    </row>
+    <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="127"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="157"/>
+    </row>
+    <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="127"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="157"/>
+    </row>
+    <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="128"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="158"/>
+    </row>
+    <row r="27" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="178" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
-    </row>
-    <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="191"/>
-      <c r="B22" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="34" t="s">
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="161"/>
+    </row>
+    <row r="28" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="179"/>
+      <c r="B28" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="172"/>
-    </row>
-    <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="191"/>
-      <c r="B23" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="172"/>
-    </row>
-    <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="191"/>
-      <c r="B24" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
-    </row>
-    <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="191"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="172"/>
-    </row>
-    <row r="26" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="191"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="172"/>
-    </row>
-    <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="191"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="172"/>
-    </row>
-    <row r="28" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="192"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="36"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="189"/>
-      <c r="H28" s="189"/>
-      <c r="I28" s="189"/>
-      <c r="J28" s="189"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="142"/>
     </row>
     <row r="29" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="130" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="37" t="s">
+      <c r="A29" s="179"/>
+      <c r="B29" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="190"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="174"/>
-    </row>
-    <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="131"/>
-      <c r="B30" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="177"/>
-    </row>
-    <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="131"/>
-      <c r="B31" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="38" t="s">
+      <c r="C29" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="177"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="142"/>
+    </row>
+    <row r="30" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="179"/>
+      <c r="B30" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="142"/>
+    </row>
+    <row r="31" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="179"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="142"/>
     </row>
     <row r="32" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="131"/>
-      <c r="B32" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="177"/>
-    </row>
-    <row r="33" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="131"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="177"/>
-    </row>
-    <row r="34" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="131"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="175"/>
-      <c r="H34" s="176"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="177"/>
-    </row>
-    <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="131"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="127"/>
-      <c r="J35" s="129"/>
+      <c r="A32" s="179"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="142"/>
+    </row>
+    <row r="33" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="179"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="153"/>
+    </row>
+    <row r="34" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="179"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="153"/>
+    </row>
+    <row r="35" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="156"/>
     </row>
     <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="131"/>
+      <c r="A36" s="130"/>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
       <c r="D36" s="41"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="127"/>
-      <c r="J36" s="129"/>
-    </row>
-    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="193" t="s">
-        <v>134</v>
-      </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="186"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="186"/>
-      <c r="J37" s="188"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="147"/>
+    </row>
+    <row r="37" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="66"/>
+      <c r="C37" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="G37" s="148"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="150"/>
     </row>
     <row r="38" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="194"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="180"/>
-      <c r="H38" s="181"/>
-      <c r="I38" s="180"/>
-      <c r="J38" s="182"/>
+      <c r="A38" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="46"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="135"/>
+      <c r="I38" s="134"/>
+      <c r="J38" s="136"/>
     </row>
     <row r="39" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="47" t="s">
-        <v>123</v>
+      <c r="A39" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>230</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>308</v>
+        <v>146</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="F39" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="G39" s="183"/>
-      <c r="H39" s="184"/>
-      <c r="I39" s="183"/>
-      <c r="J39" s="185"/>
+        <v>26</v>
+      </c>
+      <c r="F39" s="46"/>
+      <c r="G39" s="137"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="137"/>
+      <c r="J39" s="139"/>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="B40" s="50" t="s">
+      <c r="A40" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="46"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="132"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="133"/>
+    </row>
+    <row r="41" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="46"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="132"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="133"/>
+    </row>
+    <row r="42" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="D40" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" s="49" t="s">
+      <c r="D42" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="49"/>
-      <c r="G40" s="200"/>
-      <c r="H40" s="201"/>
-      <c r="I40" s="200"/>
-      <c r="J40" s="202"/>
-    </row>
-    <row r="41" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="B41" s="50" t="s">
+      <c r="F42" s="92"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="126"/>
+    </row>
+    <row r="43" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" s="92" t="s">
+        <v>286</v>
+      </c>
+      <c r="E43" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="92"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="125"/>
+      <c r="J43" s="126"/>
+    </row>
+    <row r="44" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="92" t="s">
+        <v>287</v>
+      </c>
+      <c r="E44" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="51"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="126"/>
+    </row>
+    <row r="45" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+    </row>
+    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="93"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="93"/>
+      <c r="I46" s="93"/>
+      <c r="J46" s="93"/>
+    </row>
+    <row r="47" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="98"/>
+      <c r="B47" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="D41" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="E41" s="49" t="s">
+      <c r="C47" s="99" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="49"/>
-      <c r="G41" s="203"/>
-      <c r="H41" s="204"/>
-      <c r="I41" s="203"/>
-      <c r="J41" s="205"/>
-    </row>
-    <row r="42" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="D42" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="E42" s="49" t="s">
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="99"/>
+    </row>
+    <row r="48" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="98"/>
+      <c r="B48" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="99" t="s">
+        <v>289</v>
+      </c>
+      <c r="D48" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="49"/>
-      <c r="G42" s="195"/>
-      <c r="H42" s="196"/>
-      <c r="I42" s="195"/>
-      <c r="J42" s="197"/>
-    </row>
-    <row r="43" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="72" t="s">
-        <v>228</v>
-      </c>
-      <c r="B43" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="D43" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E43" s="49" t="s">
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+    </row>
+    <row r="49" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="98"/>
+      <c r="B49" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="C49" s="99" t="s">
+        <v>311</v>
+      </c>
+      <c r="D49" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="195"/>
-      <c r="H43" s="196"/>
-      <c r="I43" s="195"/>
-      <c r="J43" s="197"/>
-    </row>
-    <row r="44" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="D44" s="95" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" s="95" t="s">
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
+    </row>
+    <row r="50" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="98"/>
+      <c r="I50" s="99"/>
+      <c r="J50" s="99"/>
+    </row>
+    <row r="52" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="69" t="s">
+        <v>277</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <v>11</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="95"/>
-      <c r="G44" s="198"/>
-      <c r="H44" s="198"/>
-      <c r="I44" s="198"/>
-      <c r="J44" s="199"/>
-    </row>
-    <row r="45" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="B45" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>230</v>
-      </c>
-      <c r="D45" s="95" t="s">
-        <v>286</v>
-      </c>
-      <c r="E45" s="95" t="s">
+      <c r="E53" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="95"/>
-      <c r="G45" s="198"/>
-      <c r="H45" s="198"/>
-      <c r="I45" s="198"/>
-      <c r="J45" s="199"/>
-    </row>
-    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="B46" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="D46" s="95" t="s">
-        <v>287</v>
-      </c>
-      <c r="E46" s="95" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="54"/>
-      <c r="G46" s="198"/>
-      <c r="H46" s="198"/>
-      <c r="I46" s="198"/>
-      <c r="J46" s="199"/>
-    </row>
-    <row r="47" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-    </row>
-    <row r="48" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="96"/>
-      <c r="B48" s="96"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="96"/>
-    </row>
-    <row r="49" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="101"/>
-      <c r="B49" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="D49" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="102"/>
-      <c r="J49" s="102"/>
-    </row>
-    <row r="50" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="101"/>
-      <c r="B50" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="102" t="s">
-        <v>289</v>
-      </c>
-      <c r="D50" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="I50" s="102"/>
-      <c r="J50" s="102"/>
-    </row>
-    <row r="51" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="101"/>
-      <c r="B51" s="78" t="s">
-        <v>239</v>
-      </c>
-      <c r="C51" s="102" t="s">
-        <v>311</v>
-      </c>
-      <c r="D51" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="102"/>
-      <c r="J51" s="102"/>
-    </row>
-    <row r="52" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="101"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="102"/>
-    </row>
-    <row r="54" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>280</v>
+      <c r="E54" s="101" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>180</v>
+        <v>311</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="12">
-        <v>12</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="104" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="12">
-        <v>19</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="206" t="s">
+      <c r="E55" s="124" t="s">
         <v>288</v>
       </c>
-      <c r="F57" s="206"/>
+      <c r="F55" s="124"/>
+    </row>
+    <row r="57" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E57" s="99"/>
+    </row>
+    <row r="58" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E58" s="99"/>
     </row>
     <row r="59" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="E59" s="102"/>
-    </row>
-    <row r="60" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="E60" s="102"/>
-    </row>
-    <row r="61" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="E61" s="102"/>
+      <c r="E59" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
+  <mergeCells count="76">
+    <mergeCell ref="G34:H34"/>
     <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A27:A34"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A3:A5"/>
@@ -5068,10 +4940,70 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5109,14 +5041,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -5137,14 +5069,14 @@
       <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="212" t="s">
+      <c r="G2" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212" t="s">
+      <c r="H2" s="197"/>
+      <c r="I2" s="197" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="212"/>
+      <c r="J2" s="197"/>
       <c r="N2" t="s">
         <v>60</v>
       </c>
@@ -5157,24 +5089,24 @@
       <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="196" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="70" t="s">
         <v>233</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="71" t="s">
         <v>185</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="208"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="199"/>
       <c r="N3" s="19" t="s">
         <v>17</v>
       </c>
@@ -5201,22 +5133,22 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="213"/>
+      <c r="A4" s="196"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="70" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="72" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="74" t="s">
+      <c r="E4" s="71" t="s">
         <v>185</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="208"/>
+      <c r="G4" s="198"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="199"/>
       <c r="N4" s="7" t="s">
         <v>61</v>
       </c>
@@ -5243,22 +5175,22 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="213"/>
+      <c r="A5" s="196"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="72" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="208"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="199"/>
       <c r="N5" s="7" t="s">
         <v>65</v>
       </c>
@@ -5285,26 +5217,26 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="213" t="s">
+      <c r="A6" s="196" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="72" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G6" s="207"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="207"/>
-      <c r="J6" s="208"/>
+      <c r="G6" s="198"/>
+      <c r="H6" s="199"/>
+      <c r="I6" s="198"/>
+      <c r="J6" s="199"/>
       <c r="N6" s="7" t="s">
         <v>69</v>
       </c>
@@ -5331,24 +5263,24 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="213"/>
+      <c r="A7" s="196"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="72" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="207"/>
-      <c r="H7" s="208"/>
-      <c r="I7" s="207"/>
-      <c r="J7" s="208"/>
+      <c r="G7" s="198"/>
+      <c r="H7" s="199"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="199"/>
       <c r="N7" s="7" t="s">
         <v>73</v>
       </c>
@@ -5375,26 +5307,26 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="213" t="s">
+      <c r="A8" s="196" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="72" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="207"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="207"/>
-      <c r="J8" s="208"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="199"/>
       <c r="N8" s="13" t="s">
         <v>77</v>
       </c>
@@ -5424,24 +5356,24 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="213"/>
+      <c r="A9" s="196"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="72" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G9" s="207"/>
-      <c r="H9" s="208"/>
-      <c r="I9" s="207"/>
-      <c r="J9" s="208"/>
+      <c r="G9" s="198"/>
+      <c r="H9" s="199"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="199"/>
       <c r="L9" s="15"/>
       <c r="M9" s="16"/>
       <c r="N9" s="17" t="s">
@@ -5473,27 +5405,27 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="213"/>
+      <c r="A10" s="196"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="72" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G10" s="207"/>
-      <c r="H10" s="208"/>
-      <c r="I10" s="207"/>
-      <c r="J10" s="208"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="199"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="199"/>
     </row>
     <row r="11" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="213" t="s">
+      <c r="A11" s="196" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="10"/>
@@ -5509,13 +5441,13 @@
       <c r="F11" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G11" s="207"/>
-      <c r="H11" s="208"/>
-      <c r="I11" s="207"/>
-      <c r="J11" s="208"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="199"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="199"/>
     </row>
     <row r="12" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="213"/>
+      <c r="A12" s="196"/>
       <c r="B12" s="10"/>
       <c r="C12" s="9" t="s">
         <v>112</v>
@@ -5529,13 +5461,13 @@
       <c r="F12" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="207"/>
-      <c r="H12" s="208"/>
-      <c r="I12" s="207"/>
-      <c r="J12" s="208"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="199"/>
     </row>
     <row r="13" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="213"/>
+      <c r="A13" s="196"/>
       <c r="B13" s="10"/>
       <c r="C13" s="9" t="s">
         <v>113</v>
@@ -5549,13 +5481,13 @@
       <c r="F13" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="207"/>
-      <c r="H13" s="208"/>
-      <c r="I13" s="207"/>
-      <c r="J13" s="208"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="199"/>
     </row>
     <row r="14" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="214" t="s">
+      <c r="A14" s="203" t="s">
         <v>97</v>
       </c>
       <c r="B14" s="10"/>
@@ -5571,13 +5503,13 @@
       <c r="F14" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G14" s="207"/>
-      <c r="H14" s="208"/>
-      <c r="I14" s="207"/>
-      <c r="J14" s="208"/>
+      <c r="G14" s="198"/>
+      <c r="H14" s="199"/>
+      <c r="I14" s="198"/>
+      <c r="J14" s="199"/>
     </row>
     <row r="15" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="215"/>
+      <c r="A15" s="204"/>
       <c r="B15" s="10"/>
       <c r="C15" s="9" t="s">
         <v>115</v>
@@ -5591,13 +5523,13 @@
       <c r="F15" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G15" s="207"/>
-      <c r="H15" s="208"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="208"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="199"/>
     </row>
     <row r="16" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="215"/>
+      <c r="A16" s="204"/>
       <c r="B16" s="10"/>
       <c r="C16" s="9" t="s">
         <v>116</v>
@@ -5611,13 +5543,13 @@
       <c r="F16" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G16" s="207"/>
-      <c r="H16" s="208"/>
-      <c r="I16" s="207"/>
-      <c r="J16" s="208"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="199"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="215"/>
+      <c r="A17" s="204"/>
       <c r="B17" s="10"/>
       <c r="C17" s="9" t="s">
         <v>117</v>
@@ -5631,13 +5563,13 @@
       <c r="F17" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="207"/>
-      <c r="H17" s="208"/>
-      <c r="I17" s="207"/>
-      <c r="J17" s="208"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="199"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="215"/>
+      <c r="A18" s="204"/>
       <c r="B18" s="10"/>
       <c r="C18" s="9" t="s">
         <v>118</v>
@@ -5651,13 +5583,13 @@
       <c r="F18" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G18" s="207"/>
-      <c r="H18" s="208"/>
-      <c r="I18" s="207"/>
-      <c r="J18" s="208"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="199"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="215"/>
+      <c r="A19" s="204"/>
       <c r="B19" s="10"/>
       <c r="C19" s="9" t="s">
         <v>119</v>
@@ -5671,13 +5603,13 @@
       <c r="F19" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G19" s="207"/>
-      <c r="H19" s="208"/>
-      <c r="I19" s="207"/>
-      <c r="J19" s="208"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="199"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="215"/>
+      <c r="A20" s="204"/>
       <c r="B20" s="10"/>
       <c r="C20" s="9" t="s">
         <v>120</v>
@@ -5691,13 +5623,13 @@
       <c r="F20" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="92"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="89"/>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="216"/>
+      <c r="A21" s="205"/>
       <c r="B21" s="1" t="s">
         <v>126</v>
       </c>
@@ -5707,13 +5639,13 @@
       <c r="E21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="207"/>
-      <c r="H21" s="208"/>
-      <c r="I21" s="207"/>
-      <c r="J21" s="208"/>
+      <c r="G21" s="198"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="198"/>
+      <c r="J21" s="199"/>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="209" t="s">
+      <c r="A22" s="200" t="s">
         <v>98</v>
       </c>
       <c r="B22" s="12"/>
@@ -5729,13 +5661,13 @@
       <c r="F22" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G22" s="207"/>
-      <c r="H22" s="208"/>
-      <c r="I22" s="207"/>
-      <c r="J22" s="208"/>
+      <c r="G22" s="198"/>
+      <c r="H22" s="199"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="199"/>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="210"/>
+      <c r="A23" s="201"/>
       <c r="B23" s="12"/>
       <c r="C23" s="9" t="s">
         <v>115</v>
@@ -5749,13 +5681,13 @@
       <c r="F23" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G23" s="207"/>
-      <c r="H23" s="208"/>
-      <c r="I23" s="207"/>
-      <c r="J23" s="208"/>
+      <c r="G23" s="198"/>
+      <c r="H23" s="199"/>
+      <c r="I23" s="198"/>
+      <c r="J23" s="199"/>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="210"/>
+      <c r="A24" s="201"/>
       <c r="B24" s="12"/>
       <c r="C24" s="9" t="s">
         <v>116</v>
@@ -5769,13 +5701,13 @@
       <c r="F24" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G24" s="207"/>
-      <c r="H24" s="208"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="208"/>
+      <c r="G24" s="198"/>
+      <c r="H24" s="199"/>
+      <c r="I24" s="198"/>
+      <c r="J24" s="199"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="210"/>
+      <c r="A25" s="201"/>
       <c r="B25" s="12"/>
       <c r="C25" s="9" t="s">
         <v>117</v>
@@ -5789,13 +5721,13 @@
       <c r="F25" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G25" s="207"/>
-      <c r="H25" s="208"/>
-      <c r="I25" s="207"/>
-      <c r="J25" s="208"/>
+      <c r="G25" s="198"/>
+      <c r="H25" s="199"/>
+      <c r="I25" s="198"/>
+      <c r="J25" s="199"/>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="210"/>
+      <c r="A26" s="201"/>
       <c r="B26" s="12"/>
       <c r="C26" s="9" t="s">
         <v>118</v>
@@ -5809,13 +5741,13 @@
       <c r="F26" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G26" s="207"/>
-      <c r="H26" s="208"/>
-      <c r="I26" s="207"/>
-      <c r="J26" s="208"/>
+      <c r="G26" s="198"/>
+      <c r="H26" s="199"/>
+      <c r="I26" s="198"/>
+      <c r="J26" s="199"/>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="210"/>
+      <c r="A27" s="201"/>
       <c r="B27" s="12"/>
       <c r="C27" s="9" t="s">
         <v>119</v>
@@ -5829,13 +5761,13 @@
       <c r="F27" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G27" s="207"/>
-      <c r="H27" s="208"/>
-      <c r="I27" s="207"/>
-      <c r="J27" s="208"/>
+      <c r="G27" s="198"/>
+      <c r="H27" s="199"/>
+      <c r="I27" s="198"/>
+      <c r="J27" s="199"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="210"/>
+      <c r="A28" s="201"/>
       <c r="B28" s="12"/>
       <c r="C28" s="9" t="s">
         <v>120</v>
@@ -5849,13 +5781,13 @@
       <c r="F28" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G28" s="207"/>
-      <c r="H28" s="208"/>
-      <c r="I28" s="207"/>
-      <c r="J28" s="208"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="198"/>
+      <c r="J28" s="199"/>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="210"/>
+      <c r="A29" s="201"/>
       <c r="B29" s="12"/>
       <c r="C29" s="9" t="s">
         <v>121</v>
@@ -5869,13 +5801,13 @@
       <c r="F29" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G29" s="91"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="92"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="89"/>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="211"/>
+      <c r="A30" s="202"/>
       <c r="B30" s="1" t="s">
         <v>126</v>
       </c>
@@ -5885,10 +5817,10 @@
       <c r="E30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="207"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="207"/>
-      <c r="J30" s="208"/>
+      <c r="G30" s="198"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="198"/>
+      <c r="J30" s="199"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -5907,10 +5839,10 @@
       <c r="F31" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G31" s="207"/>
-      <c r="H31" s="208"/>
-      <c r="I31" s="207"/>
-      <c r="J31" s="208"/>
+      <c r="G31" s="198"/>
+      <c r="H31" s="199"/>
+      <c r="I31" s="198"/>
+      <c r="J31" s="199"/>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -5920,19 +5852,19 @@
       <c r="C32" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="E32" s="75" t="s">
+      <c r="E32" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="75" t="s">
+      <c r="F32" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="G32" s="207"/>
-      <c r="H32" s="208"/>
-      <c r="I32" s="207"/>
-      <c r="J32" s="208"/>
+      <c r="G32" s="198"/>
+      <c r="H32" s="199"/>
+      <c r="I32" s="198"/>
+      <c r="J32" s="199"/>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -5944,19 +5876,19 @@
       <c r="C33" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="75" t="s">
+      <c r="D33" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="E33" s="75" t="s">
+      <c r="E33" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="75" t="s">
+      <c r="F33" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="G33" s="207"/>
-      <c r="H33" s="208"/>
-      <c r="I33" s="207"/>
-      <c r="J33" s="208"/>
+      <c r="G33" s="198"/>
+      <c r="H33" s="199"/>
+      <c r="I33" s="198"/>
+      <c r="J33" s="199"/>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -5968,19 +5900,19 @@
       <c r="C34" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="75" t="s">
+      <c r="D34" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="75" t="s">
+      <c r="E34" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="75" t="s">
+      <c r="F34" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="G34" s="207"/>
-      <c r="H34" s="208"/>
-      <c r="I34" s="207"/>
-      <c r="J34" s="208"/>
+      <c r="G34" s="198"/>
+      <c r="H34" s="199"/>
+      <c r="I34" s="198"/>
+      <c r="J34" s="199"/>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -5992,19 +5924,19 @@
       <c r="C35" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="75" t="s">
+      <c r="D35" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="E35" s="75" t="s">
+      <c r="E35" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="75" t="s">
+      <c r="F35" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="G35" s="207"/>
-      <c r="H35" s="208"/>
-      <c r="I35" s="207"/>
-      <c r="J35" s="208"/>
+      <c r="G35" s="198"/>
+      <c r="H35" s="199"/>
+      <c r="I35" s="198"/>
+      <c r="J35" s="199"/>
     </row>
     <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -6016,19 +5948,19 @@
       <c r="C36" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="75" t="s">
+      <c r="D36" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="E36" s="75" t="s">
+      <c r="E36" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="75" t="s">
+      <c r="F36" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="G36" s="207"/>
-      <c r="H36" s="208"/>
-      <c r="I36" s="207"/>
-      <c r="J36" s="208"/>
+      <c r="G36" s="198"/>
+      <c r="H36" s="199"/>
+      <c r="I36" s="198"/>
+      <c r="J36" s="199"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -6040,19 +5972,19 @@
       <c r="C37" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="75" t="s">
+      <c r="D37" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="E37" s="75" t="s">
+      <c r="E37" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="75" t="s">
+      <c r="F37" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="G37" s="207"/>
-      <c r="H37" s="208"/>
-      <c r="I37" s="207"/>
-      <c r="J37" s="208"/>
+      <c r="G37" s="198"/>
+      <c r="H37" s="199"/>
+      <c r="I37" s="198"/>
+      <c r="J37" s="199"/>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -6064,19 +5996,19 @@
       <c r="C38" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="75" t="s">
+      <c r="D38" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="E38" s="75" t="s">
+      <c r="E38" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="75" t="s">
+      <c r="F38" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="G38" s="207"/>
-      <c r="H38" s="208"/>
-      <c r="I38" s="207"/>
-      <c r="J38" s="208"/>
+      <c r="G38" s="198"/>
+      <c r="H38" s="199"/>
+      <c r="I38" s="198"/>
+      <c r="J38" s="199"/>
     </row>
     <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -6089,10 +6021,10 @@
       <c r="F39" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G39" s="207"/>
-      <c r="H39" s="208"/>
-      <c r="I39" s="207"/>
-      <c r="J39" s="208"/>
+      <c r="G39" s="198"/>
+      <c r="H39" s="199"/>
+      <c r="I39" s="198"/>
+      <c r="J39" s="199"/>
     </row>
     <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -6105,10 +6037,10 @@
       <c r="F40" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G40" s="207"/>
-      <c r="H40" s="208"/>
-      <c r="I40" s="207"/>
-      <c r="J40" s="208"/>
+      <c r="G40" s="198"/>
+      <c r="H40" s="199"/>
+      <c r="I40" s="198"/>
+      <c r="J40" s="199"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
@@ -6119,19 +6051,74 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="207"/>
-      <c r="H41" s="208"/>
-      <c r="I41" s="207"/>
-      <c r="J41" s="208"/>
+      <c r="G41" s="198"/>
+      <c r="H41" s="199"/>
+      <c r="I41" s="198"/>
+      <c r="J41" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="A22:A30"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G3:H3"/>
@@ -6148,67 +6135,12 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A21"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6237,20 +6169,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="206" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="217"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
+      <c r="A2" s="206"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">

--- a/IP_cim_kiosztas_akutális.xlsx
+++ b/IP_cim_kiosztas_akutális.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Üzemeltető\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5A9043-D4A9-4D51-810D-B206C1961ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120B6CCD-DC0E-4381-AB4E-CAFF648A1151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="306">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -504,27 +504,6 @@
     <t>192.168.0.1</t>
   </si>
   <si>
-    <t>192.168.0.2</t>
-  </si>
-  <si>
-    <t>192.168.0.3</t>
-  </si>
-  <si>
-    <t>192.168.0.4</t>
-  </si>
-  <si>
-    <t>192.168.0.5</t>
-  </si>
-  <si>
-    <t>192.168.0.6</t>
-  </si>
-  <si>
-    <t>192.168.0.7</t>
-  </si>
-  <si>
-    <t>192.168.0.8</t>
-  </si>
-  <si>
     <t>192.168.0.9</t>
   </si>
   <si>
@@ -532,30 +511,6 @@
   </si>
   <si>
     <t>192.168.0.11</t>
-  </si>
-  <si>
-    <t>192.168.0.66</t>
-  </si>
-  <si>
-    <t>192.168.0.67</t>
-  </si>
-  <si>
-    <t>192.168.0.68</t>
-  </si>
-  <si>
-    <t>192.168.0.69</t>
-  </si>
-  <si>
-    <t>192.168.0.70</t>
-  </si>
-  <si>
-    <t>192.168.0.71</t>
-  </si>
-  <si>
-    <t>192.168.0.72</t>
-  </si>
-  <si>
-    <t>192.168.0.73</t>
   </si>
   <si>
     <t>192.168.0.74</t>
@@ -974,6 +929,30 @@
   </si>
   <si>
     <t>192.168.5.189</t>
+  </si>
+  <si>
+    <t>HRSP</t>
+  </si>
+  <si>
+    <t>/24</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>192.168.1.1 - 192.168.1.254</t>
+  </si>
+  <si>
+    <t>192.168.1.255</t>
+  </si>
+  <si>
+    <t>G0/1.10</t>
+  </si>
+  <si>
+    <t>G0/1.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1921,7 +1900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2208,6 +2187,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2247,255 +2253,222 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2511,6 +2484,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2522,6 +2501,16 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2878,20 +2867,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="117" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="52" t="s">
@@ -2900,7 +2889,7 @@
       <c r="D2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="113" t="s">
+      <c r="E2" s="122" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="53" t="s">
@@ -2908,23 +2897,23 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="107"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="110" t="s">
+      <c r="A3" s="116"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="114"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="123"/>
       <c r="F3" s="54" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
-        <v>182</v>
+      <c r="A4" s="112" t="s">
+        <v>167</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="87"/>
@@ -2932,15 +2921,15 @@
       <c r="F4" s="79"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D5" s="82" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="18"/>
@@ -2955,15 +2944,15 @@
       <c r="Q5" s="57"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="103"/>
+      <c r="A6" s="112"/>
       <c r="B6" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="E6" s="82"/>
       <c r="F6" s="18"/>
@@ -2978,7 +2967,7 @@
       <c r="Q6" s="57"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="111" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="80"/>
@@ -2997,7 +2986,7 @@
       <c r="Q7" s="57"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="112"/>
+      <c r="A8" s="121"/>
       <c r="B8" s="80"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -3014,14 +3003,14 @@
       <c r="Q8" s="57"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
-        <v>199</v>
+      <c r="A9" s="111" t="s">
+        <v>184</v>
       </c>
       <c r="B9" s="81" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D9" s="82" t="s">
         <v>34</v>
@@ -3039,12 +3028,12 @@
       <c r="Q9" s="57"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="103"/>
+      <c r="A10" s="112"/>
       <c r="B10" s="81" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D10" s="82" t="s">
         <v>34</v>
@@ -3053,393 +3042,393 @@
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="103"/>
+      <c r="A11" s="112"/>
       <c r="B11" s="81" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D11" s="82" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="82"/>
       <c r="F11" s="18"/>
-      <c r="I11" s="118" t="s">
+      <c r="I11" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="120" t="s">
+      <c r="J11" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="120" t="s">
+      <c r="K11" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="120" t="s">
+      <c r="L11" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="120" t="s">
+      <c r="M11" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="120" t="s">
+      <c r="N11" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="120" t="s">
+      <c r="O11" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="120" t="s">
+      <c r="P11" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="120" t="s">
+      <c r="Q11" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="R11" s="122" t="s">
-        <v>216</v>
+      <c r="R11" s="107" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="103"/>
+      <c r="A12" s="112"/>
       <c r="B12" s="81" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D12" s="82" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="82"/>
       <c r="F12" s="18"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="121"/>
-      <c r="R12" s="123"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="108"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="103"/>
+      <c r="A13" s="112"/>
       <c r="B13" s="81" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D13" s="82" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="82"/>
       <c r="F13" s="18"/>
-      <c r="I13" s="116" t="s">
+      <c r="I13" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="116">
+      <c r="J13" s="102">
         <v>7</v>
       </c>
-      <c r="K13" s="116">
+      <c r="K13" s="102">
         <v>30</v>
       </c>
-      <c r="L13" s="115" t="s">
+      <c r="L13" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="116" t="s">
+      <c r="M13" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="117" t="s">
+      <c r="N13" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="115" t="s">
+      <c r="O13" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="115" t="s">
+      <c r="P13" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="115" t="s">
+      <c r="Q13" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="R13" s="115" t="s">
-        <v>217</v>
+      <c r="R13" s="103" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="103"/>
+      <c r="A14" s="112"/>
       <c r="B14" s="81"/>
       <c r="C14" s="82"/>
       <c r="D14" s="82"/>
       <c r="E14" s="82"/>
       <c r="F14" s="18"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="115"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="103"/>
+      <c r="A15" s="112"/>
       <c r="B15" s="81"/>
       <c r="C15" s="82"/>
       <c r="D15" s="82"/>
       <c r="E15" s="82"/>
       <c r="F15" s="18"/>
-      <c r="I15" s="116" t="s">
+      <c r="I15" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="116">
+      <c r="J15" s="102">
         <v>5</v>
       </c>
-      <c r="K15" s="116">
+      <c r="K15" s="102">
         <v>30</v>
       </c>
-      <c r="L15" s="115" t="s">
+      <c r="L15" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="116" t="s">
+      <c r="M15" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="117" t="s">
+      <c r="N15" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="O15" s="115" t="s">
+      <c r="O15" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="115" t="s">
+      <c r="P15" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="Q15" s="115" t="s">
+      <c r="Q15" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="R15" s="115" t="s">
-        <v>218</v>
+      <c r="R15" s="103" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="103"/>
+      <c r="A16" s="112"/>
       <c r="B16" s="81"/>
       <c r="C16" s="82"/>
       <c r="D16" s="82"/>
       <c r="E16" s="82"/>
       <c r="F16" s="18"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="115"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="115"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="103"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="102" t="s">
-        <v>210</v>
+      <c r="A17" s="111" t="s">
+        <v>195</v>
       </c>
       <c r="B17" s="81" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C17" s="82" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D17" s="82" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="82"/>
       <c r="F17" s="18"/>
-      <c r="I17" s="116" t="s">
+      <c r="I17" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="116">
+      <c r="J17" s="102">
         <v>1</v>
       </c>
-      <c r="K17" s="116">
+      <c r="K17" s="102">
         <v>6</v>
       </c>
-      <c r="L17" s="115" t="s">
+      <c r="L17" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="116" t="s">
+      <c r="M17" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="117" t="s">
+      <c r="N17" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="115" t="s">
+      <c r="O17" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="115" t="s">
+      <c r="P17" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="Q17" s="115" t="s">
+      <c r="Q17" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="R17" s="115" t="s">
-        <v>219</v>
+      <c r="R17" s="103" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="103"/>
+      <c r="A18" s="112"/>
       <c r="B18" s="81" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D18" s="82" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="82"/>
       <c r="F18" s="18"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="115"/>
-      <c r="R18" s="115"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="103"/>
+      <c r="A19" s="112"/>
       <c r="B19" s="81" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D19" s="82" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="18"/>
-      <c r="I19" s="116" t="s">
+      <c r="I19" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="116">
+      <c r="J19" s="102">
         <v>1</v>
       </c>
-      <c r="K19" s="116">
+      <c r="K19" s="102">
         <v>6</v>
       </c>
-      <c r="L19" s="115" t="s">
+      <c r="L19" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="M19" s="116" t="s">
+      <c r="M19" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="117" t="s">
+      <c r="N19" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="115" t="s">
+      <c r="O19" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="115" t="s">
+      <c r="P19" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="Q19" s="115" t="s">
+      <c r="Q19" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="115" t="s">
-        <v>220</v>
+      <c r="R19" s="103" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="103"/>
+      <c r="A20" s="112"/>
       <c r="B20" s="81" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C20" s="82" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="D20" s="82" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="82"/>
       <c r="F20" s="18"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="115"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="103"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="103"/>
+      <c r="A21" s="112"/>
       <c r="B21" s="81" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D21" s="82" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="82"/>
       <c r="F21" s="18"/>
-      <c r="I21" s="116" t="s">
-        <v>221</v>
-      </c>
-      <c r="J21" s="116">
+      <c r="I21" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" s="102">
         <v>3</v>
       </c>
-      <c r="K21" s="116">
+      <c r="K21" s="102">
         <v>6</v>
       </c>
-      <c r="L21" s="115" t="s">
-        <v>222</v>
-      </c>
-      <c r="M21" s="116" t="s">
+      <c r="L21" s="103" t="s">
+        <v>207</v>
+      </c>
+      <c r="M21" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="117" t="s">
+      <c r="N21" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="O21" s="115" t="s">
-        <v>223</v>
-      </c>
-      <c r="P21" s="115" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q21" s="115" t="s">
-        <v>225</v>
-      </c>
-      <c r="R21" s="115" t="s">
-        <v>226</v>
+      <c r="O21" s="103" t="s">
+        <v>208</v>
+      </c>
+      <c r="P21" s="103" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q21" s="103" t="s">
+        <v>210</v>
+      </c>
+      <c r="R21" s="103" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="103"/>
+      <c r="A22" s="112"/>
       <c r="B22" s="81"/>
       <c r="C22" s="82"/>
       <c r="D22" s="82"/>
       <c r="E22" s="82"/>
       <c r="F22" s="18"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="115"/>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="115"/>
-      <c r="R22" s="115"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="103"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="103"/>
+      <c r="R22" s="103"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="103"/>
+      <c r="A23" s="112"/>
       <c r="B23" s="81"/>
       <c r="C23" s="82"/>
       <c r="D23" s="82"/>
@@ -3447,7 +3436,7 @@
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="103"/>
+      <c r="A24" s="112"/>
       <c r="B24" s="81"/>
       <c r="C24" s="82"/>
       <c r="D24" s="82"/>
@@ -3456,87 +3445,87 @@
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="83" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B25" s="81"/>
       <c r="C25" s="82" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D25" s="82" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="F25" s="82" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="N25" s="100"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="83" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B26" s="82"/>
       <c r="C26" s="82" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D26" s="82" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="F26" s="82" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="N26" s="100"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="83" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B27" s="82"/>
       <c r="C27" s="82" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D27" s="82" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="F27" s="82" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="83" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B28" s="82" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C28" s="82" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D28" s="82" t="s">
         <v>34</v>
       </c>
       <c r="E28" s="82"/>
       <c r="F28" s="82" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="83" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B29" s="82" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C29" s="82" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D29" s="82" t="s">
         <v>34</v>
@@ -3546,43 +3535,43 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="83" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B30" s="82" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C30" s="82" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="D30" s="82" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="82"/>
       <c r="F30" s="82" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="83" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B31" s="82" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C31" s="82" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D31" s="82" t="s">
         <v>34</v>
       </c>
       <c r="E31" s="82"/>
       <c r="F31" s="82" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="83" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B32" s="82"/>
       <c r="C32" s="1"/>
@@ -3592,7 +3581,7 @@
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="83" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B33" s="86"/>
       <c r="C33" s="1"/>
@@ -3672,16 +3661,49 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K19:K20"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="R17:R18"/>
     <mergeCell ref="Q19:Q20"/>
@@ -3698,49 +3720,16 @@
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3751,7 +3740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -3777,18 +3766,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
     </row>
     <row r="2" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -3809,14 +3798,14 @@
       <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="180" t="s">
+      <c r="G2" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="181"/>
-      <c r="I2" s="180" t="s">
+      <c r="H2" s="130"/>
+      <c r="I2" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="181"/>
+      <c r="J2" s="130"/>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
@@ -3843,7 +3832,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="131" t="s">
         <v>128</v>
       </c>
       <c r="B3" s="21"/>
@@ -3851,18 +3840,18 @@
         <v>108</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F3" s="21"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="187"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="136"/>
       <c r="L3" s="3" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="M3" s="4">
         <v>40</v>
@@ -3887,24 +3876,24 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23" t="s">
         <v>109</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="188"/>
-      <c r="J4" s="190"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="139"/>
       <c r="L4" s="3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="M4" s="4">
         <v>40</v>
@@ -3929,24 +3918,24 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="184"/>
+      <c r="A5" s="133"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
         <v>110</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="191"/>
-      <c r="H5" s="192"/>
-      <c r="I5" s="191"/>
-      <c r="J5" s="193"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="142"/>
       <c r="L5" s="3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="M5" s="4">
         <v>40</v>
@@ -3964,14 +3953,14 @@
         <v>26</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="145" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="26"/>
@@ -3979,18 +3968,18 @@
         <v>110</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="G6" s="175"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="176"/>
+        <v>289</v>
+      </c>
+      <c r="G6" s="157"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="158"/>
       <c r="L6" s="3" t="s">
         <v>87</v>
       </c>
@@ -4001,35 +3990,35 @@
         <v>2</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="164"/>
+      <c r="A7" s="146"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="G7" s="59"/>
       <c r="H7" s="60"/>
@@ -4045,35 +4034,35 @@
         <v>2</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="165"/>
+      <c r="A8" s="147"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="G8" s="62"/>
       <c r="H8" s="63"/>
@@ -4089,23 +4078,23 @@
         <v>2</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="143" t="s">
         <v>129</v>
       </c>
       <c r="B9" s="29"/>
@@ -4113,18 +4102,18 @@
         <v>112</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="G9" s="169"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="171"/>
+        <v>289</v>
+      </c>
+      <c r="G9" s="151"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="153"/>
       <c r="L9" s="3" t="s">
         <v>90</v>
       </c>
@@ -4135,40 +4124,40 @@
         <v>2</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="195"/>
+      <c r="A10" s="144"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
         <v>111</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="G10" s="172"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="174"/>
+        <v>289</v>
+      </c>
+      <c r="G10" s="154"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="156"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -4179,25 +4168,25 @@
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="195"/>
+      <c r="A11" s="144"/>
       <c r="B11" s="94"/>
       <c r="C11" s="94"/>
       <c r="D11" s="94"/>
       <c r="E11" s="94"/>
       <c r="F11" s="94"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="168"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="150"/>
       <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="96" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B12" s="97"/>
       <c r="C12" s="95" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D12" s="97"/>
       <c r="E12" s="97"/>
@@ -4211,16 +4200,16 @@
       <c r="A13" s="96"/>
       <c r="B13" s="97"/>
       <c r="C13" s="96" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="E13" s="97" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F13" s="97" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="G13" s="97"/>
       <c r="H13" s="97"/>
@@ -4239,7 +4228,7 @@
       <c r="A14" s="96"/>
       <c r="B14" s="97"/>
       <c r="C14" s="96" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D14" s="97"/>
       <c r="E14" s="97"/>
@@ -4261,7 +4250,7 @@
       <c r="A15" s="96"/>
       <c r="B15" s="97"/>
       <c r="C15" s="96" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D15" s="97"/>
       <c r="E15" s="97"/>
@@ -4283,7 +4272,7 @@
       <c r="A16" s="96"/>
       <c r="B16" s="97"/>
       <c r="C16" s="96" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D16" s="97"/>
       <c r="E16" s="97"/>
@@ -4305,7 +4294,7 @@
       <c r="A17" s="96"/>
       <c r="B17" s="97"/>
       <c r="C17" s="96" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D17" s="97"/>
       <c r="E17" s="97"/>
@@ -4336,235 +4325,235 @@
       <c r="J18" s="97"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="127" t="s">
+      <c r="A19" s="180" t="s">
         <v>131</v>
       </c>
       <c r="B19" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="162"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
     </row>
     <row r="20" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="127"/>
+      <c r="A20" s="180"/>
       <c r="B20" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="157"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
     </row>
     <row r="21" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="127"/>
+      <c r="A21" s="180"/>
       <c r="B21" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="90"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="157"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="127"/>
+      <c r="A22" s="180"/>
       <c r="B22" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="90"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="161"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="127"/>
+      <c r="A23" s="180"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="90"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="157"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
     </row>
     <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="127"/>
+      <c r="A24" s="180"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
       <c r="F24" s="90"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="157"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="161"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="127"/>
+      <c r="A25" s="180"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="90"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="157"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="161"/>
     </row>
     <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="128"/>
+      <c r="A26" s="181"/>
       <c r="B26" s="91"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="91"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="178"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="178" t="s">
+      <c r="A27" s="127" t="s">
         <v>132</v>
       </c>
       <c r="B27" s="34" t="s">
         <v>142</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="161"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="163"/>
     </row>
     <row r="28" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="179"/>
+      <c r="A28" s="128"/>
       <c r="B28" s="34" t="s">
         <v>142</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
       <c r="F28" s="36"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="142"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="166"/>
     </row>
     <row r="29" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="179"/>
+      <c r="A29" s="128"/>
       <c r="B29" s="34" t="s">
         <v>142</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D29" s="36"/>
       <c r="E29" s="36"/>
       <c r="F29" s="36"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="142"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="166"/>
     </row>
     <row r="30" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="179"/>
+      <c r="A30" s="128"/>
       <c r="B30" s="34" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D30" s="36"/>
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="142"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="166"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="179"/>
+      <c r="A31" s="128"/>
       <c r="B31" s="36"/>
       <c r="C31" s="37"/>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="142"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="166"/>
     </row>
     <row r="32" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="179"/>
+      <c r="A32" s="128"/>
       <c r="B32" s="36"/>
       <c r="C32" s="37"/>
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
       <c r="F32" s="36"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="142"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="166"/>
     </row>
     <row r="33" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="179"/>
+      <c r="A33" s="128"/>
       <c r="B33" s="38"/>
       <c r="C33" s="39"/>
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="153"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="126"/>
     </row>
     <row r="34" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="179"/>
+      <c r="A34" s="128"/>
       <c r="B34" s="38"/>
       <c r="C34" s="39"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="153"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="124"/>
+      <c r="J34" s="126"/>
     </row>
     <row r="35" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="129" t="s">
+      <c r="A35" s="182" t="s">
         <v>134</v>
       </c>
       <c r="B35" s="40"/>
@@ -4572,22 +4561,22 @@
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
       <c r="F35" s="40"/>
-      <c r="G35" s="154"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="154"/>
-      <c r="J35" s="156"/>
+      <c r="G35" s="175"/>
+      <c r="H35" s="176"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="177"/>
     </row>
     <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="130"/>
+      <c r="A36" s="183"/>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
       <c r="D36" s="41"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="145"/>
-      <c r="J36" s="147"/>
+      <c r="G36" s="169"/>
+      <c r="H36" s="170"/>
+      <c r="I36" s="169"/>
+      <c r="J36" s="171"/>
     </row>
     <row r="37" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="65" t="s">
@@ -4598,18 +4587,18 @@
         <v>123</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>304</v>
-      </c>
-      <c r="G37" s="148"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="150"/>
+        <v>289</v>
+      </c>
+      <c r="G37" s="172"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="172"/>
+      <c r="J37" s="174"/>
     </row>
     <row r="38" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
@@ -4619,7 +4608,7 @@
         <v>141</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D38" s="46" t="s">
         <v>145</v>
@@ -4628,10 +4617,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="46"/>
-      <c r="G38" s="134"/>
-      <c r="H38" s="135"/>
-      <c r="I38" s="134"/>
-      <c r="J38" s="136"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="190"/>
+      <c r="I38" s="189"/>
+      <c r="J38" s="191"/>
     </row>
     <row r="39" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
@@ -4641,7 +4630,7 @@
         <v>141</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="D39" s="46" t="s">
         <v>146</v>
@@ -4650,10 +4639,10 @@
         <v>26</v>
       </c>
       <c r="F39" s="46"/>
-      <c r="G39" s="137"/>
-      <c r="H39" s="138"/>
-      <c r="I39" s="137"/>
-      <c r="J39" s="139"/>
+      <c r="G39" s="192"/>
+      <c r="H39" s="193"/>
+      <c r="I39" s="192"/>
+      <c r="J39" s="194"/>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
@@ -4663,41 +4652,41 @@
         <v>141</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D40" s="46" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="E40" s="46" t="s">
         <v>26</v>
       </c>
       <c r="F40" s="46"/>
-      <c r="G40" s="131"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="131"/>
-      <c r="J40" s="133"/>
+      <c r="G40" s="184"/>
+      <c r="H40" s="185"/>
+      <c r="I40" s="184"/>
+      <c r="J40" s="186"/>
     </row>
     <row r="41" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="69" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B41" s="47" t="s">
         <v>141</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="E41" s="46" t="s">
         <v>26</v>
       </c>
       <c r="F41" s="46"/>
-      <c r="G41" s="131"/>
-      <c r="H41" s="132"/>
-      <c r="I41" s="131"/>
-      <c r="J41" s="133"/>
+      <c r="G41" s="184"/>
+      <c r="H41" s="185"/>
+      <c r="I41" s="184"/>
+      <c r="J41" s="186"/>
     </row>
     <row r="42" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="67" t="s">
@@ -4707,7 +4696,7 @@
         <v>142</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D42" s="92" t="s">
         <v>144</v>
@@ -4716,10 +4705,10 @@
         <v>26</v>
       </c>
       <c r="F42" s="92"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="126"/>
+      <c r="G42" s="187"/>
+      <c r="H42" s="187"/>
+      <c r="I42" s="187"/>
+      <c r="J42" s="188"/>
     </row>
     <row r="43" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="49" t="s">
@@ -4729,19 +4718,19 @@
         <v>142</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="D43" s="92" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E43" s="92" t="s">
         <v>26</v>
       </c>
       <c r="F43" s="92"/>
-      <c r="G43" s="125"/>
-      <c r="H43" s="125"/>
-      <c r="I43" s="125"/>
-      <c r="J43" s="126"/>
+      <c r="G43" s="187"/>
+      <c r="H43" s="187"/>
+      <c r="I43" s="187"/>
+      <c r="J43" s="188"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
@@ -4751,30 +4740,30 @@
         <v>142</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D44" s="92" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="E44" s="92" t="s">
         <v>26</v>
       </c>
       <c r="F44" s="51"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="126"/>
+      <c r="G44" s="187"/>
+      <c r="H44" s="187"/>
+      <c r="I44" s="187"/>
+      <c r="J44" s="188"/>
     </row>
     <row r="45" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
         <v>143</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C45" s="36"/>
       <c r="D45" s="36" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="E45" s="36" t="s">
         <v>26</v>
@@ -4803,7 +4792,7 @@
         <v>141</v>
       </c>
       <c r="C47" s="99" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D47" s="99" t="s">
         <v>26</v>
@@ -4821,7 +4810,7 @@
         <v>142</v>
       </c>
       <c r="C48" s="99" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D48" s="99" t="s">
         <v>26</v>
@@ -4832,10 +4821,10 @@
     <row r="49" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="98"/>
       <c r="B49" s="75" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C49" s="99" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="D49" s="99" t="s">
         <v>26</v>
@@ -4853,16 +4842,16 @@
         <v>57</v>
       </c>
       <c r="B52" s="69" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -4870,16 +4859,16 @@
         <v>11</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -4887,16 +4876,16 @@
         <v>12</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="101" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -4904,18 +4893,18 @@
         <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="F55" s="124"/>
+      <c r="E55" s="195" t="s">
+        <v>273</v>
+      </c>
+      <c r="F55" s="195"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="E57" s="99"/>
@@ -4928,6 +4917,66 @@
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="A27:A34"/>
@@ -4944,66 +4993,6 @@
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5013,10 +5002,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27F8DC3-BDE0-43F3-979D-2CCDC5541D2C}">
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V4" sqref="V1:V1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5041,14 +5030,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -5069,14 +5058,14 @@
       <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="197" t="s">
+      <c r="G2" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197" t="s">
+      <c r="H2" s="201"/>
+      <c r="I2" s="201" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="197"/>
+      <c r="J2" s="201"/>
       <c r="N2" t="s">
         <v>60</v>
       </c>
@@ -5089,24 +5078,24 @@
       <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="202" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="70" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="198"/>
-      <c r="J3" s="199"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="197"/>
       <c r="N3" s="19" t="s">
         <v>17</v>
       </c>
@@ -5133,22 +5122,22 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="196"/>
+      <c r="A4" s="202"/>
       <c r="B4" s="10"/>
       <c r="C4" s="70" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="198"/>
-      <c r="J4" s="199"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="197"/>
       <c r="N4" s="7" t="s">
         <v>61</v>
       </c>
@@ -5175,7 +5164,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="196"/>
+      <c r="A5" s="202"/>
       <c r="B5" s="10"/>
       <c r="C5" s="70" t="s">
         <v>110</v>
@@ -5187,10 +5176,10 @@
         <v>7</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="199"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="196"/>
+      <c r="J5" s="197"/>
       <c r="N5" s="7" t="s">
         <v>65</v>
       </c>
@@ -5217,7 +5206,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="202" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="10"/>
@@ -5230,13 +5219,11 @@
       <c r="E6" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="198"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="199"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="197"/>
       <c r="N6" s="7" t="s">
         <v>69</v>
       </c>
@@ -5263,24 +5250,22 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="196"/>
+      <c r="A7" s="202"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="210" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="72" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="198"/>
-      <c r="H7" s="199"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="199"/>
+      <c r="D7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="197"/>
       <c r="N7" s="7" t="s">
         <v>73</v>
       </c>
@@ -5307,7 +5292,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="196" t="s">
+      <c r="A8" s="202" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="10"/>
@@ -5320,13 +5305,11 @@
       <c r="E8" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="198"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="199"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="197"/>
       <c r="N8" s="13" t="s">
         <v>77</v>
       </c>
@@ -5355,11 +5338,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="196"/>
+    <row r="9" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="202"/>
       <c r="B9" s="10"/>
       <c r="C9" s="70" t="s">
-        <v>114</v>
+        <v>303</v>
       </c>
       <c r="D9" s="72" t="s">
         <v>155</v>
@@ -5367,604 +5350,518 @@
       <c r="E9" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" s="198"/>
-      <c r="H9" s="199"/>
-      <c r="I9" s="198"/>
-      <c r="J9" s="199"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" s="18">
-        <v>48</v>
-      </c>
-      <c r="P9" s="18">
-        <v>62</v>
-      </c>
-      <c r="Q9" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="R9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="S9" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="T9" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="U9" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="V9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="196"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="89"/>
+      <c r="N9" s="207"/>
+      <c r="O9" s="208"/>
+      <c r="P9" s="208"/>
+      <c r="Q9" s="208"/>
+      <c r="R9" s="208"/>
+      <c r="S9" s="208"/>
+      <c r="T9" s="208"/>
+      <c r="U9" s="208"/>
+    </row>
+    <row r="10" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="202"/>
       <c r="B10" s="10"/>
       <c r="C10" s="70" t="s">
-        <v>227</v>
+        <v>304</v>
       </c>
       <c r="D10" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="89"/>
+      <c r="N10" s="207"/>
+      <c r="O10" s="208"/>
+      <c r="P10" s="208"/>
+      <c r="Q10" s="208"/>
+      <c r="R10" s="208"/>
+      <c r="S10" s="208"/>
+      <c r="T10" s="208"/>
+      <c r="U10" s="208"/>
+    </row>
+    <row r="11" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="202"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="210" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="209" t="s">
+        <v>305</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="197"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" s="18">
+        <v>48</v>
+      </c>
+      <c r="P11" s="18">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="R11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="U11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="V11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="202"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E12" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="198"/>
-      <c r="H10" s="199"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="199"/>
-    </row>
-    <row r="11" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="196" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="197"/>
+      <c r="N12" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="P12" s="16">
+        <v>254</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="202" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="198"/>
-      <c r="H11" s="199"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="199"/>
-    </row>
-    <row r="12" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="196"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="198"/>
-      <c r="H12" s="199"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="199"/>
-    </row>
-    <row r="13" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="196"/>
       <c r="B13" s="10"/>
       <c r="C13" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="198"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="198"/>
-      <c r="J13" s="199"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="197"/>
     </row>
     <row r="14" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="203" t="s">
-        <v>97</v>
-      </c>
+      <c r="A14" s="202"/>
       <c r="B14" s="10"/>
       <c r="C14" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="198"/>
-      <c r="H14" s="199"/>
-      <c r="I14" s="198"/>
-      <c r="J14" s="199"/>
+        <v>7</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="197"/>
     </row>
     <row r="15" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="204"/>
+      <c r="A15" s="202"/>
       <c r="B15" s="10"/>
       <c r="C15" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="198"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="199"/>
+        <v>7</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="197"/>
     </row>
     <row r="16" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="204"/>
+      <c r="A16" s="203" t="s">
+        <v>97</v>
+      </c>
       <c r="B16" s="10"/>
       <c r="C16" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="198"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="199"/>
+        <v>114</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="197"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="204"/>
       <c r="B17" s="10"/>
       <c r="C17" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="198"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="199"/>
+        <v>115</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="197"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="204"/>
       <c r="B18" s="10"/>
       <c r="C18" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" s="198"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="199"/>
+        <v>116</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="197"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="204"/>
       <c r="B19" s="10"/>
       <c r="C19" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="198"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="199"/>
+        <v>117</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="197"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="204"/>
       <c r="B20" s="10"/>
       <c r="C20" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="196"/>
+      <c r="J20" s="197"/>
+    </row>
+    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="204"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="197"/>
+    </row>
+    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="204"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G20" s="88"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="89"/>
-    </row>
-    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="205"/>
-      <c r="B21" s="1" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="89"/>
+    </row>
+    <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="205"/>
+      <c r="B23" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="198"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="198"/>
-      <c r="J21" s="199"/>
-    </row>
-    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="200" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="198"/>
-      <c r="H22" s="199"/>
-      <c r="I22" s="198"/>
-      <c r="J22" s="199"/>
-    </row>
-    <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="201"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="D23" s="8" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G23" s="198"/>
-      <c r="H23" s="199"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="199"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="197"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="197"/>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="201"/>
+      <c r="A24" s="198" t="s">
+        <v>98</v>
+      </c>
       <c r="B24" s="12"/>
       <c r="C24" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="198"/>
-      <c r="H24" s="199"/>
-      <c r="I24" s="198"/>
-      <c r="J24" s="199"/>
+        <v>114</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="197"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="201"/>
+      <c r="A25" s="199"/>
       <c r="B25" s="12"/>
       <c r="C25" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="198"/>
-      <c r="H25" s="199"/>
-      <c r="I25" s="198"/>
-      <c r="J25" s="199"/>
+        <v>115</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="196"/>
+      <c r="J25" s="197"/>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="201"/>
+      <c r="A26" s="199"/>
       <c r="B26" s="12"/>
       <c r="C26" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G26" s="198"/>
-      <c r="H26" s="199"/>
-      <c r="I26" s="198"/>
-      <c r="J26" s="199"/>
+        <v>116</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="196"/>
+      <c r="J26" s="197"/>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="201"/>
+      <c r="A27" s="199"/>
       <c r="B27" s="12"/>
       <c r="C27" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G27" s="198"/>
-      <c r="H27" s="199"/>
-      <c r="I27" s="198"/>
-      <c r="J27" s="199"/>
+        <v>117</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="197"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="197"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="201"/>
+      <c r="A28" s="199"/>
       <c r="B28" s="12"/>
       <c r="C28" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G28" s="198"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="198"/>
-      <c r="J28" s="199"/>
+        <v>118</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="197"/>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="201"/>
+      <c r="A29" s="199"/>
       <c r="B29" s="12"/>
       <c r="C29" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="197"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="197"/>
+    </row>
+    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="199"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="197"/>
+    </row>
+    <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="199"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E29" s="8" t="s">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="89"/>
+    </row>
+    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="200"/>
+      <c r="B32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G29" s="88"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="89"/>
-    </row>
-    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="202"/>
-      <c r="B30" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="198"/>
-      <c r="H30" s="199"/>
-      <c r="I30" s="198"/>
-      <c r="J30" s="199"/>
-    </row>
-    <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="198"/>
-      <c r="H31" s="199"/>
-      <c r="I31" s="198"/>
-      <c r="J31" s="199"/>
-    </row>
-    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="D32" s="72" t="s">
-        <v>260</v>
-      </c>
-      <c r="E32" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="G32" s="198"/>
-      <c r="H32" s="199"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="199"/>
+      <c r="G32" s="196"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="197"/>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="E33" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="G33" s="198"/>
-      <c r="H33" s="199"/>
-      <c r="I33" s="198"/>
-      <c r="J33" s="199"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="197"/>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" t="s">
-        <v>125</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="9" t="s">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="D34" s="72" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="E34" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="G34" s="198"/>
-      <c r="H34" s="199"/>
-      <c r="I34" s="198"/>
-      <c r="J34" s="199"/>
+        <v>29</v>
+      </c>
+      <c r="F34" s="72"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="197"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="197"/>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>123</v>
       </c>
       <c r="D35" s="72" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="E35" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="G35" s="198"/>
-      <c r="H35" s="199"/>
-      <c r="I35" s="198"/>
-      <c r="J35" s="199"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="197"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="197"/>
     </row>
     <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>123</v>
       </c>
       <c r="D36" s="72" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="E36" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="G36" s="198"/>
-      <c r="H36" s="199"/>
-      <c r="I36" s="198"/>
-      <c r="J36" s="199"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="197"/>
+      <c r="I36" s="196"/>
+      <c r="J36" s="197"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B37" t="s">
         <v>124</v>
@@ -5973,153 +5870,134 @@
         <v>123</v>
       </c>
       <c r="D37" s="72" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E37" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="G37" s="198"/>
-      <c r="H37" s="199"/>
-      <c r="I37" s="198"/>
-      <c r="J37" s="199"/>
-    </row>
-    <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="72"/>
+      <c r="G37" s="196"/>
+      <c r="H37" s="197"/>
+      <c r="I37" s="196"/>
+      <c r="J37" s="197"/>
+    </row>
+    <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>123</v>
       </c>
       <c r="D38" s="72" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E38" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="G38" s="198"/>
-      <c r="H38" s="199"/>
-      <c r="I38" s="198"/>
-      <c r="J38" s="199"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="196"/>
+      <c r="H38" s="197"/>
+      <c r="I38" s="196"/>
+      <c r="J38" s="197"/>
     </row>
     <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="72"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="197"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="197"/>
+    </row>
+    <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="72"/>
+      <c r="G40" s="196"/>
+      <c r="H40" s="197"/>
+      <c r="I40" s="196"/>
+      <c r="J40" s="197"/>
+    </row>
+    <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G39" s="198"/>
-      <c r="H39" s="199"/>
-      <c r="I39" s="198"/>
-      <c r="J39" s="199"/>
-    </row>
-    <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="197"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="197"/>
+    </row>
+    <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G40" s="198"/>
-      <c r="H40" s="199"/>
-      <c r="I40" s="198"/>
-      <c r="J40" s="199"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="196"/>
+      <c r="J42" s="197"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="198"/>
-      <c r="H41" s="199"/>
-      <c r="I41" s="198"/>
-      <c r="J41" s="199"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="197"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A5"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="A24:A32"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
@@ -6133,14 +6011,69 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6170,7 +6103,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="206" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B1" s="206"/>
       <c r="C1" s="206"/>
@@ -6212,7 +6145,7 @@
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -6221,19 +6154,19 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6247,19 +6180,19 @@
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6273,19 +6206,19 @@
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/IP_cim_kiosztas_akutális.xlsx
+++ b/IP_cim_kiosztas_akutális.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Üzemeltető\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tibi\Documents\GitHub\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120B6CCD-DC0E-4381-AB4E-CAFF648A1151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE641520-1438-43EF-BBF5-5B6B7739B96E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -2187,321 +2187,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2511,6 +2196,321 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2842,8 +2842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00720853-46FD-4EE1-97EA-B1AFFEF5B41E}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2867,20 +2867,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="112" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="52" t="s">
@@ -2889,7 +2889,7 @@
       <c r="D2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="E2" s="117" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="53" t="s">
@@ -2897,19 +2897,19 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="116"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="119" t="s">
+      <c r="A3" s="111"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="120"/>
-      <c r="E3" s="123"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="118"/>
       <c r="F3" s="54" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="107" t="s">
         <v>167</v>
       </c>
       <c r="B4" s="78" t="s">
@@ -2921,7 +2921,7 @@
       <c r="F4" s="79"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="1" t="s">
         <v>182</v>
       </c>
@@ -2944,7 +2944,7 @@
       <c r="Q5" s="57"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="1" t="s">
         <v>183</v>
       </c>
@@ -2967,7 +2967,7 @@
       <c r="Q6" s="57"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="106" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="80"/>
@@ -2986,7 +2986,7 @@
       <c r="Q7" s="57"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="121"/>
+      <c r="A8" s="116"/>
       <c r="B8" s="80"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -3003,7 +3003,7 @@
       <c r="Q8" s="57"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="106" t="s">
         <v>184</v>
       </c>
       <c r="B9" s="81" t="s">
@@ -3028,7 +3028,7 @@
       <c r="Q9" s="57"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="112"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="81" t="s">
         <v>187</v>
       </c>
@@ -3042,7 +3042,7 @@
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="112"/>
+      <c r="A11" s="107"/>
       <c r="B11" s="81" t="s">
         <v>189</v>
       </c>
@@ -3054,39 +3054,39 @@
       </c>
       <c r="E11" s="82"/>
       <c r="F11" s="18"/>
-      <c r="I11" s="109" t="s">
+      <c r="I11" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="105" t="s">
+      <c r="J11" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="105" t="s">
+      <c r="K11" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="105" t="s">
+      <c r="L11" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="105" t="s">
+      <c r="M11" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="105" t="s">
+      <c r="N11" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="105" t="s">
+      <c r="O11" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="105" t="s">
+      <c r="P11" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="105" t="s">
+      <c r="Q11" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="R11" s="107" t="s">
+      <c r="R11" s="126" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
+      <c r="A12" s="107"/>
       <c r="B12" s="81" t="s">
         <v>191</v>
       </c>
@@ -3098,19 +3098,19 @@
       </c>
       <c r="E12" s="82"/>
       <c r="F12" s="18"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="108"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="125"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="125"/>
+      <c r="R12" s="127"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
+      <c r="A13" s="107"/>
       <c r="B13" s="81" t="s">
         <v>193</v>
       </c>
@@ -3122,113 +3122,113 @@
       </c>
       <c r="E13" s="82"/>
       <c r="F13" s="18"/>
-      <c r="I13" s="102" t="s">
+      <c r="I13" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="102">
+      <c r="J13" s="120">
         <v>7</v>
       </c>
-      <c r="K13" s="102">
+      <c r="K13" s="120">
         <v>30</v>
       </c>
-      <c r="L13" s="103" t="s">
+      <c r="L13" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="102" t="s">
+      <c r="M13" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="104" t="s">
+      <c r="N13" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="103" t="s">
+      <c r="O13" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="103" t="s">
+      <c r="P13" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="103" t="s">
+      <c r="Q13" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="R13" s="103" t="s">
+      <c r="R13" s="119" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
+      <c r="A14" s="107"/>
       <c r="B14" s="81"/>
       <c r="C14" s="82"/>
       <c r="D14" s="82"/>
       <c r="E14" s="82"/>
       <c r="F14" s="18"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="103"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="112"/>
+      <c r="A15" s="107"/>
       <c r="B15" s="81"/>
       <c r="C15" s="82"/>
       <c r="D15" s="82"/>
       <c r="E15" s="82"/>
       <c r="F15" s="18"/>
-      <c r="I15" s="102" t="s">
+      <c r="I15" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="102">
+      <c r="J15" s="120">
         <v>5</v>
       </c>
-      <c r="K15" s="102">
+      <c r="K15" s="120">
         <v>30</v>
       </c>
-      <c r="L15" s="103" t="s">
+      <c r="L15" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="102" t="s">
+      <c r="M15" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="104" t="s">
+      <c r="N15" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="O15" s="103" t="s">
+      <c r="O15" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="103" t="s">
+      <c r="P15" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="Q15" s="103" t="s">
+      <c r="Q15" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="R15" s="103" t="s">
+      <c r="R15" s="119" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="81"/>
       <c r="C16" s="82"/>
       <c r="D16" s="82"/>
       <c r="E16" s="82"/>
       <c r="F16" s="18"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="103"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="106" t="s">
         <v>195</v>
       </c>
       <c r="B17" s="81" t="s">
@@ -3242,39 +3242,39 @@
       </c>
       <c r="E17" s="82"/>
       <c r="F17" s="18"/>
-      <c r="I17" s="102" t="s">
+      <c r="I17" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="102">
+      <c r="J17" s="120">
         <v>1</v>
       </c>
-      <c r="K17" s="102">
+      <c r="K17" s="120">
         <v>6</v>
       </c>
-      <c r="L17" s="103" t="s">
+      <c r="L17" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="102" t="s">
+      <c r="M17" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="104" t="s">
+      <c r="N17" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="103" t="s">
+      <c r="O17" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="103" t="s">
+      <c r="P17" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="Q17" s="103" t="s">
+      <c r="Q17" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="R17" s="103" t="s">
+      <c r="R17" s="119" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
+      <c r="A18" s="107"/>
       <c r="B18" s="81" t="s">
         <v>187</v>
       </c>
@@ -3286,19 +3286,19 @@
       </c>
       <c r="E18" s="82"/>
       <c r="F18" s="18"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="103"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="119"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="119"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="112"/>
+      <c r="A19" s="107"/>
       <c r="B19" s="81" t="s">
         <v>189</v>
       </c>
@@ -3310,39 +3310,39 @@
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="18"/>
-      <c r="I19" s="102" t="s">
+      <c r="I19" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="102">
+      <c r="J19" s="120">
         <v>1</v>
       </c>
-      <c r="K19" s="102">
+      <c r="K19" s="120">
         <v>6</v>
       </c>
-      <c r="L19" s="103" t="s">
+      <c r="L19" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="M19" s="102" t="s">
+      <c r="M19" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="104" t="s">
+      <c r="N19" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="103" t="s">
+      <c r="O19" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="103" t="s">
+      <c r="P19" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="Q19" s="103" t="s">
+      <c r="Q19" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="103" t="s">
+      <c r="R19" s="119" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
+      <c r="A20" s="107"/>
       <c r="B20" s="81" t="s">
         <v>191</v>
       </c>
@@ -3354,19 +3354,19 @@
       </c>
       <c r="E20" s="82"/>
       <c r="F20" s="18"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="103"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
+      <c r="A21" s="107"/>
       <c r="B21" s="81" t="s">
         <v>193</v>
       </c>
@@ -3378,57 +3378,57 @@
       </c>
       <c r="E21" s="82"/>
       <c r="F21" s="18"/>
-      <c r="I21" s="102" t="s">
+      <c r="I21" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="J21" s="102">
+      <c r="J21" s="120">
         <v>3</v>
       </c>
-      <c r="K21" s="102">
+      <c r="K21" s="120">
         <v>6</v>
       </c>
-      <c r="L21" s="103" t="s">
+      <c r="L21" s="119" t="s">
         <v>207</v>
       </c>
-      <c r="M21" s="102" t="s">
+      <c r="M21" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="104" t="s">
+      <c r="N21" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="O21" s="103" t="s">
+      <c r="O21" s="119" t="s">
         <v>208</v>
       </c>
-      <c r="P21" s="103" t="s">
+      <c r="P21" s="119" t="s">
         <v>209</v>
       </c>
-      <c r="Q21" s="103" t="s">
+      <c r="Q21" s="119" t="s">
         <v>210</v>
       </c>
-      <c r="R21" s="103" t="s">
+      <c r="R21" s="119" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="112"/>
+      <c r="A22" s="107"/>
       <c r="B22" s="81"/>
       <c r="C22" s="82"/>
       <c r="D22" s="82"/>
       <c r="E22" s="82"/>
       <c r="F22" s="18"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="103"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="112"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="81"/>
       <c r="C23" s="82"/>
       <c r="D23" s="82"/>
@@ -3436,7 +3436,7 @@
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
+      <c r="A24" s="107"/>
       <c r="B24" s="81"/>
       <c r="C24" s="82"/>
       <c r="D24" s="82"/>
@@ -3661,49 +3661,16 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I17:I18"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="R17:R18"/>
     <mergeCell ref="Q19:Q20"/>
@@ -3720,16 +3687,49 @@
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="N17:N18"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3766,18 +3766,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="147" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
     </row>
     <row r="2" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -3798,14 +3798,14 @@
       <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="129" t="s">
+      <c r="G2" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="130"/>
-      <c r="I2" s="129" t="s">
+      <c r="H2" s="179"/>
+      <c r="I2" s="178" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="130"/>
+      <c r="J2" s="179"/>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
@@ -3832,7 +3832,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="180" t="s">
         <v>128</v>
       </c>
       <c r="B3" s="21"/>
@@ -3846,10 +3846,10 @@
         <v>170</v>
       </c>
       <c r="F3" s="21"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="136"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="185"/>
       <c r="L3" s="3" t="s">
         <v>254</v>
       </c>
@@ -3876,7 +3876,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
+      <c r="A4" s="181"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23" t="s">
         <v>109</v>
@@ -3888,10 +3888,10 @@
         <v>170</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="139"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="188"/>
       <c r="L4" s="3" t="s">
         <v>255</v>
       </c>
@@ -3918,7 +3918,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="133"/>
+      <c r="A5" s="182"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
         <v>110</v>
@@ -3930,10 +3930,10 @@
         <v>170</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="142"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="190"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="191"/>
       <c r="L5" s="3" t="s">
         <v>256</v>
       </c>
@@ -3960,7 +3960,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="194" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="26"/>
@@ -3976,10 +3976,10 @@
       <c r="F6" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="G6" s="157"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="158"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="174"/>
       <c r="L6" s="3" t="s">
         <v>87</v>
       </c>
@@ -4006,7 +4006,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="146"/>
+      <c r="A7" s="195"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
@@ -4050,7 +4050,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="147"/>
+      <c r="A8" s="196"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28" t="s">
         <v>212</v>
@@ -4094,7 +4094,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="192" t="s">
         <v>129</v>
       </c>
       <c r="B9" s="29"/>
@@ -4110,10 +4110,10 @@
       <c r="F9" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="G9" s="151"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="153"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="169"/>
       <c r="L9" s="3" t="s">
         <v>90</v>
       </c>
@@ -4140,7 +4140,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="144"/>
+      <c r="A10" s="193"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
         <v>111</v>
@@ -4154,10 +4154,10 @@
       <c r="F10" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="G10" s="154"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="156"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="172"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -4168,16 +4168,16 @@
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="144"/>
+      <c r="A11" s="193"/>
       <c r="B11" s="94"/>
       <c r="C11" s="94"/>
       <c r="D11" s="94"/>
       <c r="E11" s="94"/>
       <c r="F11" s="94"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="150"/>
+      <c r="G11" s="197"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="197"/>
+      <c r="J11" s="199"/>
       <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
@@ -4325,7 +4325,7 @@
       <c r="J18" s="97"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="180" t="s">
+      <c r="A19" s="131" t="s">
         <v>131</v>
       </c>
       <c r="B19" s="31" t="s">
@@ -4337,13 +4337,13 @@
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
     </row>
     <row r="20" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="180"/>
+      <c r="A20" s="131"/>
       <c r="B20" s="31" t="s">
         <v>141</v>
       </c>
@@ -4359,7 +4359,7 @@
       <c r="J20" s="161"/>
     </row>
     <row r="21" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="180"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="31" t="s">
         <v>141</v>
       </c>
@@ -4375,7 +4375,7 @@
       <c r="J21" s="161"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="180"/>
+      <c r="A22" s="131"/>
       <c r="B22" s="31" t="s">
         <v>141</v>
       </c>
@@ -4391,7 +4391,7 @@
       <c r="J22" s="161"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="180"/>
+      <c r="A23" s="131"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
@@ -4403,7 +4403,7 @@
       <c r="J23" s="161"/>
     </row>
     <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="180"/>
+      <c r="A24" s="131"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
@@ -4415,7 +4415,7 @@
       <c r="J24" s="161"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="180"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
@@ -4427,19 +4427,19 @@
       <c r="J25" s="161"/>
     </row>
     <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="181"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="91"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="91"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="178"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="162"/>
+      <c r="J26" s="162"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="127" t="s">
+      <c r="A27" s="176" t="s">
         <v>132</v>
       </c>
       <c r="B27" s="34" t="s">
@@ -4451,13 +4451,13 @@
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
-      <c r="G27" s="162"/>
-      <c r="H27" s="179"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="165"/>
     </row>
     <row r="28" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="128"/>
+      <c r="A28" s="177"/>
       <c r="B28" s="34" t="s">
         <v>142</v>
       </c>
@@ -4467,13 +4467,13 @@
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
       <c r="F28" s="36"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="164"/>
-      <c r="J28" s="166"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="146"/>
     </row>
     <row r="29" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="128"/>
+      <c r="A29" s="177"/>
       <c r="B29" s="34" t="s">
         <v>142</v>
       </c>
@@ -4483,13 +4483,13 @@
       <c r="D29" s="36"/>
       <c r="E29" s="36"/>
       <c r="F29" s="36"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="166"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="146"/>
     </row>
     <row r="30" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="128"/>
+      <c r="A30" s="177"/>
       <c r="B30" s="34" t="s">
         <v>261</v>
       </c>
@@ -4499,61 +4499,61 @@
       <c r="D30" s="36"/>
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="165"/>
-      <c r="I30" s="164"/>
-      <c r="J30" s="166"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="146"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="128"/>
+      <c r="A31" s="177"/>
       <c r="B31" s="36"/>
       <c r="C31" s="37"/>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="165"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="166"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="146"/>
     </row>
     <row r="32" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="128"/>
+      <c r="A32" s="177"/>
       <c r="B32" s="36"/>
       <c r="C32" s="37"/>
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
       <c r="F32" s="36"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="165"/>
-      <c r="I32" s="164"/>
-      <c r="J32" s="166"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="146"/>
     </row>
     <row r="33" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="128"/>
+      <c r="A33" s="177"/>
       <c r="B33" s="38"/>
       <c r="C33" s="39"/>
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
-      <c r="G33" s="124"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="124"/>
-      <c r="J33" s="126"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="157"/>
     </row>
     <row r="34" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="128"/>
+      <c r="A34" s="177"/>
       <c r="B34" s="38"/>
       <c r="C34" s="39"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="124"/>
-      <c r="J34" s="126"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="157"/>
     </row>
     <row r="35" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="182" t="s">
+      <c r="A35" s="133" t="s">
         <v>134</v>
       </c>
       <c r="B35" s="40"/>
@@ -4561,22 +4561,22 @@
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
       <c r="F35" s="40"/>
-      <c r="G35" s="175"/>
-      <c r="H35" s="176"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="177"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="160"/>
     </row>
     <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="183"/>
+      <c r="A36" s="134"/>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
       <c r="D36" s="41"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
-      <c r="G36" s="169"/>
-      <c r="H36" s="170"/>
-      <c r="I36" s="169"/>
-      <c r="J36" s="171"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="151"/>
     </row>
     <row r="37" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="65" t="s">
@@ -4595,10 +4595,10 @@
       <c r="F37" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="G37" s="172"/>
-      <c r="H37" s="173"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="174"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="154"/>
     </row>
     <row r="38" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
@@ -4617,10 +4617,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="46"/>
-      <c r="G38" s="189"/>
-      <c r="H38" s="190"/>
-      <c r="I38" s="189"/>
-      <c r="J38" s="191"/>
+      <c r="G38" s="138"/>
+      <c r="H38" s="139"/>
+      <c r="I38" s="138"/>
+      <c r="J38" s="140"/>
     </row>
     <row r="39" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
@@ -4639,10 +4639,10 @@
         <v>26</v>
       </c>
       <c r="F39" s="46"/>
-      <c r="G39" s="192"/>
-      <c r="H39" s="193"/>
-      <c r="I39" s="192"/>
-      <c r="J39" s="194"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="142"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="143"/>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
@@ -4661,10 +4661,10 @@
         <v>26</v>
       </c>
       <c r="F40" s="46"/>
-      <c r="G40" s="184"/>
-      <c r="H40" s="185"/>
-      <c r="I40" s="184"/>
-      <c r="J40" s="186"/>
+      <c r="G40" s="135"/>
+      <c r="H40" s="136"/>
+      <c r="I40" s="135"/>
+      <c r="J40" s="137"/>
     </row>
     <row r="41" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="69" t="s">
@@ -4683,10 +4683,10 @@
         <v>26</v>
       </c>
       <c r="F41" s="46"/>
-      <c r="G41" s="184"/>
-      <c r="H41" s="185"/>
-      <c r="I41" s="184"/>
-      <c r="J41" s="186"/>
+      <c r="G41" s="135"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="137"/>
     </row>
     <row r="42" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="67" t="s">
@@ -4705,10 +4705,10 @@
         <v>26</v>
       </c>
       <c r="F42" s="92"/>
-      <c r="G42" s="187"/>
-      <c r="H42" s="187"/>
-      <c r="I42" s="187"/>
-      <c r="J42" s="188"/>
+      <c r="G42" s="129"/>
+      <c r="H42" s="129"/>
+      <c r="I42" s="129"/>
+      <c r="J42" s="130"/>
     </row>
     <row r="43" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="49" t="s">
@@ -4727,10 +4727,10 @@
         <v>26</v>
       </c>
       <c r="F43" s="92"/>
-      <c r="G43" s="187"/>
-      <c r="H43" s="187"/>
-      <c r="I43" s="187"/>
-      <c r="J43" s="188"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="130"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
@@ -4749,10 +4749,10 @@
         <v>26</v>
       </c>
       <c r="F44" s="51"/>
-      <c r="G44" s="187"/>
-      <c r="H44" s="187"/>
-      <c r="I44" s="187"/>
-      <c r="J44" s="188"/>
+      <c r="G44" s="129"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="130"/>
     </row>
     <row r="45" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
@@ -4901,10 +4901,10 @@
       <c r="D55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="195" t="s">
+      <c r="E55" s="128" t="s">
         <v>273</v>
       </c>
-      <c r="F55" s="195"/>
+      <c r="F55" s="128"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="E57" s="99"/>
@@ -4917,11 +4917,61 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="A19:A26"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="G40:H40"/>
@@ -4938,61 +4988,11 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5004,7 +5004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27F8DC3-BDE0-43F3-979D-2CCDC5541D2C}">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -5030,14 +5030,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -5078,7 +5078,7 @@
       <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="200" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="10"/>
@@ -5092,10 +5092,10 @@
         <v>170</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="196"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="196"/>
-      <c r="J3" s="197"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="203"/>
       <c r="N3" s="19" t="s">
         <v>17</v>
       </c>
@@ -5122,7 +5122,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="202"/>
+      <c r="A4" s="200"/>
       <c r="B4" s="10"/>
       <c r="C4" s="70" t="s">
         <v>219</v>
@@ -5134,10 +5134,10 @@
         <v>170</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="197"/>
-      <c r="I4" s="196"/>
-      <c r="J4" s="197"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="203"/>
       <c r="N4" s="7" t="s">
         <v>61</v>
       </c>
@@ -5164,7 +5164,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="202"/>
+      <c r="A5" s="200"/>
       <c r="B5" s="10"/>
       <c r="C5" s="70" t="s">
         <v>110</v>
@@ -5176,10 +5176,10 @@
         <v>7</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="196"/>
-      <c r="H5" s="197"/>
-      <c r="I5" s="196"/>
-      <c r="J5" s="197"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="203"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="203"/>
       <c r="N5" s="7" t="s">
         <v>65</v>
       </c>
@@ -5206,7 +5206,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="202" t="s">
+      <c r="A6" s="200" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="10"/>
@@ -5220,10 +5220,10 @@
         <v>7</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="197"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="203"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="203"/>
       <c r="N6" s="7" t="s">
         <v>69</v>
       </c>
@@ -5250,9 +5250,9 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="202"/>
+      <c r="A7" s="200"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="210" t="s">
+      <c r="C7" s="105" t="s">
         <v>114</v>
       </c>
       <c r="D7" t="s">
@@ -5262,10 +5262,10 @@
         <v>305</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="196"/>
-      <c r="J7" s="197"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="203"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="203"/>
       <c r="N7" s="7" t="s">
         <v>73</v>
       </c>
@@ -5292,7 +5292,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="202" t="s">
+      <c r="A8" s="200" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="10"/>
@@ -5306,10 +5306,10 @@
         <v>7</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="197"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="203"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="203"/>
       <c r="N8" s="13" t="s">
         <v>77</v>
       </c>
@@ -5339,7 +5339,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="202"/>
+      <c r="A9" s="200"/>
       <c r="B9" s="10"/>
       <c r="C9" s="70" t="s">
         <v>303</v>
@@ -5355,17 +5355,17 @@
       <c r="H9" s="89"/>
       <c r="I9" s="88"/>
       <c r="J9" s="89"/>
-      <c r="N9" s="207"/>
-      <c r="O9" s="208"/>
-      <c r="P9" s="208"/>
-      <c r="Q9" s="208"/>
-      <c r="R9" s="208"/>
-      <c r="S9" s="208"/>
-      <c r="T9" s="208"/>
-      <c r="U9" s="208"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="103"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="103"/>
+      <c r="T9" s="103"/>
+      <c r="U9" s="103"/>
     </row>
     <row r="10" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="202"/>
+      <c r="A10" s="200"/>
       <c r="B10" s="10"/>
       <c r="C10" s="70" t="s">
         <v>304</v>
@@ -5381,29 +5381,29 @@
       <c r="H10" s="89"/>
       <c r="I10" s="88"/>
       <c r="J10" s="89"/>
-      <c r="N10" s="207"/>
-      <c r="O10" s="208"/>
-      <c r="P10" s="208"/>
-      <c r="Q10" s="208"/>
-      <c r="R10" s="208"/>
-      <c r="S10" s="208"/>
-      <c r="T10" s="208"/>
-      <c r="U10" s="208"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="103"/>
+      <c r="U10" s="103"/>
     </row>
     <row r="11" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="202"/>
+      <c r="A11" s="200"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="210" t="s">
+      <c r="C11" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="209" t="s">
+      <c r="E11" s="104" t="s">
         <v>305</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="197"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="203"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="203"/>
       <c r="L11" s="15"/>
       <c r="M11" s="16"/>
       <c r="N11" s="17" t="s">
@@ -5435,7 +5435,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="202"/>
+      <c r="A12" s="200"/>
       <c r="B12" s="10"/>
       <c r="C12" s="70" t="s">
         <v>212</v>
@@ -5447,10 +5447,10 @@
         <v>29</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="197"/>
+      <c r="G12" s="202"/>
+      <c r="H12" s="203"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="203"/>
       <c r="N12" s="15" t="s">
         <v>298</v>
       </c>
@@ -5474,7 +5474,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="202" t="s">
+      <c r="A13" s="200" t="s">
         <v>96</v>
       </c>
       <c r="B13" s="10"/>
@@ -5488,13 +5488,13 @@
         <v>7</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="197"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="203"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="203"/>
     </row>
     <row r="14" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="202"/>
+      <c r="A14" s="200"/>
       <c r="B14" s="10"/>
       <c r="C14" s="9" t="s">
         <v>112</v>
@@ -5506,13 +5506,13 @@
         <v>7</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="196"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="197"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="203"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="203"/>
     </row>
     <row r="15" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="202"/>
+      <c r="A15" s="200"/>
       <c r="B15" s="10"/>
       <c r="C15" s="9" t="s">
         <v>113</v>
@@ -5524,13 +5524,13 @@
         <v>7</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="196"/>
-      <c r="J15" s="197"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="203"/>
+      <c r="I15" s="202"/>
+      <c r="J15" s="203"/>
     </row>
     <row r="16" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="203" t="s">
+      <c r="A16" s="207" t="s">
         <v>97</v>
       </c>
       <c r="B16" s="10"/>
@@ -5540,13 +5540,13 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="196"/>
-      <c r="J16" s="197"/>
+      <c r="G16" s="202"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="203"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="204"/>
+      <c r="A17" s="208"/>
       <c r="B17" s="10"/>
       <c r="C17" s="9" t="s">
         <v>115</v>
@@ -5554,13 +5554,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="196"/>
-      <c r="J17" s="197"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="203"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="203"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="204"/>
+      <c r="A18" s="208"/>
       <c r="B18" s="10"/>
       <c r="C18" s="9" t="s">
         <v>116</v>
@@ -5568,13 +5568,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="197"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="203"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="203"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="204"/>
+      <c r="A19" s="208"/>
       <c r="B19" s="10"/>
       <c r="C19" s="9" t="s">
         <v>117</v>
@@ -5582,13 +5582,13 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="197"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="203"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="204"/>
+      <c r="A20" s="208"/>
       <c r="B20" s="10"/>
       <c r="C20" s="9" t="s">
         <v>118</v>
@@ -5596,13 +5596,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="196"/>
-      <c r="J20" s="197"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="203"/>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="204"/>
+      <c r="A21" s="208"/>
       <c r="B21" s="10"/>
       <c r="C21" s="9" t="s">
         <v>119</v>
@@ -5610,13 +5610,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="196"/>
-      <c r="J21" s="197"/>
+      <c r="G21" s="202"/>
+      <c r="H21" s="203"/>
+      <c r="I21" s="202"/>
+      <c r="J21" s="203"/>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="204"/>
+      <c r="A22" s="208"/>
       <c r="B22" s="10"/>
       <c r="C22" s="9" t="s">
         <v>120</v>
@@ -5630,7 +5630,7 @@
       <c r="J22" s="89"/>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="205"/>
+      <c r="A23" s="209"/>
       <c r="B23" s="1" t="s">
         <v>126</v>
       </c>
@@ -5640,13 +5640,13 @@
       <c r="E23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="196"/>
-      <c r="H23" s="197"/>
-      <c r="I23" s="196"/>
-      <c r="J23" s="197"/>
+      <c r="G23" s="202"/>
+      <c r="H23" s="203"/>
+      <c r="I23" s="202"/>
+      <c r="J23" s="203"/>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="198" t="s">
+      <c r="A24" s="204" t="s">
         <v>98</v>
       </c>
       <c r="B24" s="12"/>
@@ -5656,13 +5656,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="196"/>
-      <c r="H24" s="197"/>
-      <c r="I24" s="196"/>
-      <c r="J24" s="197"/>
+      <c r="G24" s="202"/>
+      <c r="H24" s="203"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="203"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="199"/>
+      <c r="A25" s="205"/>
       <c r="B25" s="12"/>
       <c r="C25" s="9" t="s">
         <v>115</v>
@@ -5670,13 +5670,13 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="196"/>
-      <c r="H25" s="197"/>
-      <c r="I25" s="196"/>
-      <c r="J25" s="197"/>
+      <c r="G25" s="202"/>
+      <c r="H25" s="203"/>
+      <c r="I25" s="202"/>
+      <c r="J25" s="203"/>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="199"/>
+      <c r="A26" s="205"/>
       <c r="B26" s="12"/>
       <c r="C26" s="9" t="s">
         <v>116</v>
@@ -5684,13 +5684,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="196"/>
-      <c r="H26" s="197"/>
-      <c r="I26" s="196"/>
-      <c r="J26" s="197"/>
+      <c r="G26" s="202"/>
+      <c r="H26" s="203"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="203"/>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="199"/>
+      <c r="A27" s="205"/>
       <c r="B27" s="12"/>
       <c r="C27" s="9" t="s">
         <v>117</v>
@@ -5698,13 +5698,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="196"/>
-      <c r="H27" s="197"/>
-      <c r="I27" s="196"/>
-      <c r="J27" s="197"/>
+      <c r="G27" s="202"/>
+      <c r="H27" s="203"/>
+      <c r="I27" s="202"/>
+      <c r="J27" s="203"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="199"/>
+      <c r="A28" s="205"/>
       <c r="B28" s="12"/>
       <c r="C28" s="9" t="s">
         <v>118</v>
@@ -5712,13 +5712,13 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="197"/>
-      <c r="I28" s="196"/>
-      <c r="J28" s="197"/>
+      <c r="G28" s="202"/>
+      <c r="H28" s="203"/>
+      <c r="I28" s="202"/>
+      <c r="J28" s="203"/>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="199"/>
+      <c r="A29" s="205"/>
       <c r="B29" s="12"/>
       <c r="C29" s="9" t="s">
         <v>119</v>
@@ -5726,13 +5726,13 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="197"/>
-      <c r="I29" s="196"/>
-      <c r="J29" s="197"/>
+      <c r="G29" s="202"/>
+      <c r="H29" s="203"/>
+      <c r="I29" s="202"/>
+      <c r="J29" s="203"/>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="199"/>
+      <c r="A30" s="205"/>
       <c r="B30" s="12"/>
       <c r="C30" s="9" t="s">
         <v>120</v>
@@ -5740,13 +5740,13 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="196"/>
-      <c r="J30" s="197"/>
+      <c r="G30" s="202"/>
+      <c r="H30" s="203"/>
+      <c r="I30" s="202"/>
+      <c r="J30" s="203"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="199"/>
+      <c r="A31" s="205"/>
       <c r="B31" s="12"/>
       <c r="C31" s="9" t="s">
         <v>121</v>
@@ -5760,7 +5760,7 @@
       <c r="J31" s="89"/>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="200"/>
+      <c r="A32" s="206"/>
       <c r="B32" s="1" t="s">
         <v>126</v>
       </c>
@@ -5770,10 +5770,10 @@
       <c r="E32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="196"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="197"/>
+      <c r="G32" s="202"/>
+      <c r="H32" s="203"/>
+      <c r="I32" s="202"/>
+      <c r="J32" s="203"/>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -5790,10 +5790,10 @@
         <v>26</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="196"/>
-      <c r="H33" s="197"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="197"/>
+      <c r="G33" s="202"/>
+      <c r="H33" s="203"/>
+      <c r="I33" s="202"/>
+      <c r="J33" s="203"/>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -5810,10 +5810,10 @@
         <v>29</v>
       </c>
       <c r="F34" s="72"/>
-      <c r="G34" s="196"/>
-      <c r="H34" s="197"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="197"/>
+      <c r="G34" s="202"/>
+      <c r="H34" s="203"/>
+      <c r="I34" s="202"/>
+      <c r="J34" s="203"/>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -5832,10 +5832,10 @@
         <v>26</v>
       </c>
       <c r="F35" s="72"/>
-      <c r="G35" s="196"/>
-      <c r="H35" s="197"/>
-      <c r="I35" s="196"/>
-      <c r="J35" s="197"/>
+      <c r="G35" s="202"/>
+      <c r="H35" s="203"/>
+      <c r="I35" s="202"/>
+      <c r="J35" s="203"/>
     </row>
     <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -5854,10 +5854,10 @@
         <v>26</v>
       </c>
       <c r="F36" s="72"/>
-      <c r="G36" s="196"/>
-      <c r="H36" s="197"/>
-      <c r="I36" s="196"/>
-      <c r="J36" s="197"/>
+      <c r="G36" s="202"/>
+      <c r="H36" s="203"/>
+      <c r="I36" s="202"/>
+      <c r="J36" s="203"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -5876,10 +5876,10 @@
         <v>26</v>
       </c>
       <c r="F37" s="72"/>
-      <c r="G37" s="196"/>
-      <c r="H37" s="197"/>
-      <c r="I37" s="196"/>
-      <c r="J37" s="197"/>
+      <c r="G37" s="202"/>
+      <c r="H37" s="203"/>
+      <c r="I37" s="202"/>
+      <c r="J37" s="203"/>
     </row>
     <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -5898,10 +5898,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="72"/>
-      <c r="G38" s="196"/>
-      <c r="H38" s="197"/>
-      <c r="I38" s="196"/>
-      <c r="J38" s="197"/>
+      <c r="G38" s="202"/>
+      <c r="H38" s="203"/>
+      <c r="I38" s="202"/>
+      <c r="J38" s="203"/>
     </row>
     <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -5920,10 +5920,10 @@
         <v>26</v>
       </c>
       <c r="F39" s="72"/>
-      <c r="G39" s="196"/>
-      <c r="H39" s="197"/>
-      <c r="I39" s="196"/>
-      <c r="J39" s="197"/>
+      <c r="G39" s="202"/>
+      <c r="H39" s="203"/>
+      <c r="I39" s="202"/>
+      <c r="J39" s="203"/>
     </row>
     <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -5942,10 +5942,10 @@
         <v>26</v>
       </c>
       <c r="F40" s="72"/>
-      <c r="G40" s="196"/>
-      <c r="H40" s="197"/>
-      <c r="I40" s="196"/>
-      <c r="J40" s="197"/>
+      <c r="G40" s="202"/>
+      <c r="H40" s="203"/>
+      <c r="I40" s="202"/>
+      <c r="J40" s="203"/>
     </row>
     <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -5956,10 +5956,10 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="196"/>
-      <c r="H41" s="197"/>
-      <c r="I41" s="196"/>
-      <c r="J41" s="197"/>
+      <c r="G41" s="202"/>
+      <c r="H41" s="203"/>
+      <c r="I41" s="202"/>
+      <c r="J41" s="203"/>
     </row>
     <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -5970,10 +5970,10 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="196"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="196"/>
-      <c r="J42" s="197"/>
+      <c r="G42" s="202"/>
+      <c r="H42" s="203"/>
+      <c r="I42" s="202"/>
+      <c r="J42" s="203"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
@@ -5984,19 +5984,74 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="196"/>
-      <c r="H43" s="197"/>
-      <c r="I43" s="196"/>
-      <c r="J43" s="197"/>
+      <c r="G43" s="202"/>
+      <c r="H43" s="203"/>
+      <c r="I43" s="202"/>
+      <c r="J43" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="A24:A32"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G3:H3"/>
@@ -6013,67 +6068,12 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A23"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6102,20 +6102,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="210" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="206"/>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
+      <c r="A2" s="210"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">

--- a/IP_cim_kiosztas_akutális.xlsx
+++ b/IP_cim_kiosztas_akutális.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tibi\Documents\GitHub\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE641520-1438-43EF-BBF5-5B6B7739B96E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA195608-B000-4029-8E6B-B56A7833B2D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="309">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -579,9 +579,6 @@
     <t>130.10.10.6</t>
   </si>
   <si>
-    <t>GigabitEthernet0/0</t>
-  </si>
-  <si>
     <t>Serial0/0/0</t>
   </si>
   <si>
@@ -953,6 +950,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>GigabitEthernet0/1</t>
+  </si>
+  <si>
+    <t>GigabitEthernet0/2</t>
+  </si>
+  <si>
+    <t>10.10.10.1</t>
+  </si>
+  <si>
+    <t>10.10.20.1</t>
   </si>
 </sst>
 </file>
@@ -1900,7 +1909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2197,6 +2206,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2236,255 +2272,222 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2500,6 +2503,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2511,6 +2520,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2840,10 +2852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00720853-46FD-4EE1-97EA-B1AFFEF5B41E}">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2867,20 +2879,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="121" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="52" t="s">
@@ -2889,7 +2901,7 @@
       <c r="D2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="117" t="s">
+      <c r="E2" s="126" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="53" t="s">
@@ -2897,83 +2909,82 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="114" t="s">
+      <c r="A3" s="120"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="118"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="127"/>
       <c r="F3" s="54" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="211"/>
+      <c r="B4" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="79"/>
-    </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="82" t="s">
-        <v>222</v>
+      <c r="B5" s="78" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>308</v>
       </c>
       <c r="D5" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="18"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="79"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D6" s="82" t="s">
         <v>170</v>
       </c>
       <c r="E6" s="82"/>
       <c r="F6" s="18"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
       <c r="L6" s="57"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="77"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
       <c r="O6" s="57"/>
       <c r="P6" s="57"/>
       <c r="Q6" s="57"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="82"/>
       <c r="F7" s="18"/>
       <c r="I7" s="76"/>
       <c r="J7" s="76"/>
@@ -2986,9 +2997,11 @@
       <c r="Q7" s="57"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="116"/>
+      <c r="A8" s="115" t="s">
+        <v>9</v>
+      </c>
       <c r="B8" s="80"/>
-      <c r="C8" s="18"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
@@ -3003,19 +3016,11 @@
       <c r="Q8" s="57"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="106" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="82" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="82"/>
+      <c r="A9" s="125"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="I9" s="76"/>
       <c r="J9" s="76"/>
@@ -3027,494 +3032,501 @@
       <c r="P9" s="57"/>
       <c r="Q9" s="57"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="107"/>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="115" t="s">
+        <v>183</v>
+      </c>
       <c r="B10" s="81" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D10" s="82" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="82"/>
       <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="116"/>
       <c r="B11" s="81" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D11" s="82" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E11" s="82"/>
       <c r="F11" s="18"/>
-      <c r="I11" s="122" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="124" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="124" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="124" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="124" t="s">
-        <v>23</v>
-      </c>
-      <c r="P11" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" s="124" t="s">
-        <v>57</v>
-      </c>
-      <c r="R11" s="126" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="81" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D12" s="82" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="82"/>
       <c r="F12" s="18"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="125"/>
-      <c r="R12" s="127"/>
+      <c r="I12" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12" s="111" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="107"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="81" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D13" s="82" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="82"/>
       <c r="F13" s="18"/>
-      <c r="I13" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="120">
-        <v>7</v>
-      </c>
-      <c r="K13" s="120">
-        <v>30</v>
-      </c>
-      <c r="L13" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="120" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="121" t="s">
-        <v>40</v>
-      </c>
-      <c r="O13" s="119" t="s">
-        <v>42</v>
-      </c>
-      <c r="P13" s="119" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q13" s="119" t="s">
-        <v>53</v>
-      </c>
-      <c r="R13" s="119" t="s">
-        <v>202</v>
-      </c>
+      <c r="I13" s="114"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="112"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="81" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>29</v>
+      </c>
       <c r="E14" s="82"/>
       <c r="F14" s="18"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="120"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
+      <c r="I14" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="106">
+        <v>7</v>
+      </c>
+      <c r="K14" s="106">
+        <v>30</v>
+      </c>
+      <c r="L14" s="107" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="107" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="R14" s="107" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="107"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="81"/>
       <c r="C15" s="82"/>
       <c r="D15" s="82"/>
       <c r="E15" s="82"/>
       <c r="F15" s="18"/>
-      <c r="I15" s="120" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="120">
-        <v>5</v>
-      </c>
-      <c r="K15" s="120">
-        <v>30</v>
-      </c>
-      <c r="L15" s="119" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" s="120" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="121" t="s">
-        <v>40</v>
-      </c>
-      <c r="O15" s="119" t="s">
-        <v>45</v>
-      </c>
-      <c r="P15" s="119" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q15" s="119" t="s">
-        <v>54</v>
-      </c>
-      <c r="R15" s="119" t="s">
-        <v>203</v>
-      </c>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
+      <c r="A16" s="116"/>
       <c r="B16" s="81"/>
       <c r="C16" s="82"/>
       <c r="D16" s="82"/>
       <c r="E16" s="82"/>
       <c r="F16" s="18"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
+      <c r="I16" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="106">
+        <v>5</v>
+      </c>
+      <c r="K16" s="106">
+        <v>30</v>
+      </c>
+      <c r="L16" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" s="107" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="106" t="s">
-        <v>195</v>
-      </c>
-      <c r="B17" s="81" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="82" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="82" t="s">
-        <v>34</v>
-      </c>
+      <c r="A17" s="116"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="82"/>
       <c r="F17" s="18"/>
-      <c r="I17" s="120" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="120">
-        <v>1</v>
-      </c>
-      <c r="K17" s="120">
-        <v>6</v>
-      </c>
-      <c r="L17" s="119" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" s="120" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" s="121" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" s="119" t="s">
-        <v>48</v>
-      </c>
-      <c r="P17" s="119" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q17" s="119" t="s">
-        <v>55</v>
-      </c>
-      <c r="R17" s="119" t="s">
-        <v>204</v>
-      </c>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="107"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
+      <c r="A18" s="115" t="s">
+        <v>194</v>
+      </c>
       <c r="B18" s="81" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D18" s="82" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="82"/>
       <c r="F18" s="18"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="119"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="119"/>
+      <c r="I18" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="106">
+        <v>1</v>
+      </c>
+      <c r="K18" s="106">
+        <v>6</v>
+      </c>
+      <c r="L18" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="P18" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" s="107" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" s="107" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="81" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D19" s="82" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="18"/>
-      <c r="I19" s="120" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="120">
-        <v>1</v>
-      </c>
-      <c r="K19" s="120">
-        <v>6</v>
-      </c>
-      <c r="L19" s="119" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="120" t="s">
-        <v>28</v>
-      </c>
-      <c r="N19" s="121" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="119" t="s">
-        <v>51</v>
-      </c>
-      <c r="P19" s="119" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q19" s="119" t="s">
-        <v>56</v>
-      </c>
-      <c r="R19" s="119" t="s">
-        <v>205</v>
-      </c>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="107"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="81" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C20" s="82" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D20" s="82" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="82"/>
       <c r="F20" s="18"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
+      <c r="I20" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="106">
+        <v>1</v>
+      </c>
+      <c r="K20" s="106">
+        <v>6</v>
+      </c>
+      <c r="L20" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" s="107" t="s">
+        <v>56</v>
+      </c>
+      <c r="R20" s="107" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="107"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="81" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D21" s="82" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="82"/>
       <c r="F21" s="18"/>
-      <c r="I21" s="120" t="s">
-        <v>206</v>
-      </c>
-      <c r="J21" s="120">
-        <v>3</v>
-      </c>
-      <c r="K21" s="120">
-        <v>6</v>
-      </c>
-      <c r="L21" s="119" t="s">
-        <v>207</v>
-      </c>
-      <c r="M21" s="120" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="121" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" s="119" t="s">
-        <v>208</v>
-      </c>
-      <c r="P21" s="119" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q21" s="119" t="s">
-        <v>210</v>
-      </c>
-      <c r="R21" s="119" t="s">
-        <v>211</v>
-      </c>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="107"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
+      <c r="A22" s="116"/>
+      <c r="B22" s="81" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>29</v>
+      </c>
       <c r="E22" s="82"/>
       <c r="F22" s="18"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
+      <c r="I22" s="106" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" s="106">
+        <v>3</v>
+      </c>
+      <c r="K22" s="106">
+        <v>6</v>
+      </c>
+      <c r="L22" s="107" t="s">
+        <v>206</v>
+      </c>
+      <c r="M22" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="107" t="s">
+        <v>207</v>
+      </c>
+      <c r="P22" s="107" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q22" s="107" t="s">
+        <v>209</v>
+      </c>
+      <c r="R22" s="107" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="107"/>
+      <c r="A23" s="116"/>
       <c r="B23" s="81"/>
       <c r="C23" s="82"/>
       <c r="D23" s="82"/>
       <c r="E23" s="82"/>
       <c r="F23" s="18"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="107"/>
+      <c r="R23" s="107"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="107"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="81"/>
       <c r="C24" s="82"/>
       <c r="D24" s="82"/>
       <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="83" t="s">
-        <v>226</v>
-      </c>
+      <c r="A25" s="116"/>
       <c r="B25" s="81"/>
-      <c r="C25" s="82" t="s">
-        <v>227</v>
-      </c>
-      <c r="D25" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="82" t="s">
-        <v>230</v>
-      </c>
-      <c r="F25" s="82" t="s">
-        <v>211</v>
-      </c>
-      <c r="N25" s="100"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="83" t="s">
-        <v>231</v>
-      </c>
-      <c r="B26" s="82"/>
+        <v>225</v>
+      </c>
+      <c r="B26" s="81"/>
       <c r="C26" s="82" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D26" s="82" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F26" s="82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N26" s="100"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="83" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B27" s="82"/>
       <c r="C27" s="82" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D27" s="82" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F27" s="82" t="s">
-        <v>211</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N27" s="100"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="83" t="s">
-        <v>234</v>
-      </c>
-      <c r="B28" s="82" t="s">
-        <v>235</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B28" s="82"/>
       <c r="C28" s="82" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D28" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="82"/>
+        <v>29</v>
+      </c>
+      <c r="E28" s="82" t="s">
+        <v>229</v>
+      </c>
       <c r="F28" s="82" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3522,7 +3534,7 @@
         <v>233</v>
       </c>
       <c r="B29" s="82" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29" s="82" t="s">
         <v>238</v>
@@ -3531,59 +3543,67 @@
         <v>34</v>
       </c>
       <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
+      <c r="F29" s="82" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="82" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" s="82" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="82" t="s">
-        <v>235</v>
-      </c>
-      <c r="C30" s="82" t="s">
-        <v>240</v>
-      </c>
       <c r="D30" s="82" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E30" s="82"/>
-      <c r="F30" s="82" t="s">
-        <v>205</v>
-      </c>
+      <c r="F30" s="82"/>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="83" t="s">
         <v>236</v>
       </c>
       <c r="B31" s="82" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C31" s="82" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D31" s="82" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E31" s="82"/>
       <c r="F31" s="82" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="83" t="s">
-        <v>242</v>
-      </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="85"/>
+        <v>235</v>
+      </c>
+      <c r="B32" s="82" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" s="82" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="B33" s="86"/>
+        <v>241</v>
+      </c>
+      <c r="B33" s="82"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="84"/>
@@ -3591,7 +3611,7 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="83" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="B34" s="86"/>
       <c r="C34" s="1"/>
@@ -3601,7 +3621,7 @@
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" s="86"/>
       <c r="C35" s="1"/>
@@ -3611,7 +3631,7 @@
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="86"/>
       <c r="C36" s="1"/>
@@ -3621,7 +3641,7 @@
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="86"/>
       <c r="C37" s="1"/>
@@ -3631,7 +3651,7 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="86"/>
       <c r="C38" s="1"/>
@@ -3641,7 +3661,7 @@
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" s="86"/>
       <c r="C39" s="1"/>
@@ -3651,7 +3671,7 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" s="86"/>
       <c r="C40" s="1"/>
@@ -3659,77 +3679,87 @@
       <c r="E40" s="84"/>
       <c r="F40" s="85"/>
     </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="86"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="85"/>
+    </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A25"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="K18:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3766,18 +3796,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="171" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
     </row>
     <row r="2" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -3798,14 +3828,14 @@
       <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="178" t="s">
+      <c r="G2" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="179"/>
-      <c r="I2" s="178" t="s">
+      <c r="H2" s="134"/>
+      <c r="I2" s="133" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="179"/>
+      <c r="J2" s="134"/>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
@@ -3832,7 +3862,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="135" t="s">
         <v>128</v>
       </c>
       <c r="B3" s="21"/>
@@ -3846,12 +3876,12 @@
         <v>170</v>
       </c>
       <c r="F3" s="21"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="184"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="185"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="140"/>
       <c r="L3" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M3" s="4">
         <v>40</v>
@@ -3876,24 +3906,24 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="181"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23" t="s">
         <v>109</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>170</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="186"/>
-      <c r="J4" s="188"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="143"/>
       <c r="L4" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M4" s="4">
         <v>40</v>
@@ -3918,24 +3948,24 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="182"/>
+      <c r="A5" s="137"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
         <v>110</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>170</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="190"/>
-      <c r="I5" s="189"/>
-      <c r="J5" s="191"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="146"/>
       <c r="L5" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M5" s="4">
         <v>40</v>
@@ -3953,14 +3983,14 @@
         <v>26</v>
       </c>
       <c r="R5" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>276</v>
-      </c>
     </row>
     <row r="6" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="149" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="26"/>
@@ -3968,18 +3998,18 @@
         <v>110</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>170</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="G6" s="173"/>
-      <c r="H6" s="175"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="174"/>
+        <v>288</v>
+      </c>
+      <c r="G6" s="161"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="162"/>
       <c r="L6" s="3" t="s">
         <v>87</v>
       </c>
@@ -3990,7 +4020,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>169</v>
@@ -3999,26 +4029,26 @@
         <v>170</v>
       </c>
       <c r="R6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>279</v>
-      </c>
     </row>
     <row r="7" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="195"/>
+      <c r="A7" s="150"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>170</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G7" s="59"/>
       <c r="H7" s="60"/>
@@ -4034,7 +4064,7 @@
         <v>2</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>169</v>
@@ -4043,26 +4073,26 @@
         <v>170</v>
       </c>
       <c r="R7" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="S7" s="4" t="s">
-        <v>282</v>
-      </c>
     </row>
     <row r="8" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="196"/>
+      <c r="A8" s="151"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>170</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G8" s="62"/>
       <c r="H8" s="63"/>
@@ -4078,7 +4108,7 @@
         <v>2</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>169</v>
@@ -4087,14 +4117,14 @@
         <v>170</v>
       </c>
       <c r="R8" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="S8" s="4" t="s">
-        <v>284</v>
-      </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="192" t="s">
+      <c r="A9" s="147" t="s">
         <v>129</v>
       </c>
       <c r="B9" s="29"/>
@@ -4102,18 +4132,18 @@
         <v>112</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>170</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="G9" s="167"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="169"/>
+        <v>288</v>
+      </c>
+      <c r="G9" s="155"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="157"/>
       <c r="L9" s="3" t="s">
         <v>90</v>
       </c>
@@ -4124,7 +4154,7 @@
         <v>2</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>169</v>
@@ -4133,31 +4163,31 @@
         <v>170</v>
       </c>
       <c r="R9" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="S9" s="4" t="s">
-        <v>287</v>
-      </c>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="193"/>
+      <c r="A10" s="148"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
         <v>111</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>170</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="G10" s="170"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="172"/>
+        <v>288</v>
+      </c>
+      <c r="G10" s="158"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="160"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -4168,25 +4198,25 @@
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="193"/>
+      <c r="A11" s="148"/>
       <c r="B11" s="94"/>
       <c r="C11" s="94"/>
       <c r="D11" s="94"/>
       <c r="E11" s="94"/>
       <c r="F11" s="94"/>
-      <c r="G11" s="197"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="197"/>
-      <c r="J11" s="199"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="154"/>
       <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="96" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B12" s="97"/>
       <c r="C12" s="95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D12" s="97"/>
       <c r="E12" s="97"/>
@@ -4200,16 +4230,16 @@
       <c r="A13" s="96"/>
       <c r="B13" s="97"/>
       <c r="C13" s="96" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E13" s="97" t="s">
         <v>170</v>
       </c>
       <c r="F13" s="97" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G13" s="97"/>
       <c r="H13" s="97"/>
@@ -4228,7 +4258,7 @@
       <c r="A14" s="96"/>
       <c r="B14" s="97"/>
       <c r="C14" s="96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D14" s="97"/>
       <c r="E14" s="97"/>
@@ -4250,7 +4280,7 @@
       <c r="A15" s="96"/>
       <c r="B15" s="97"/>
       <c r="C15" s="96" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D15" s="97"/>
       <c r="E15" s="97"/>
@@ -4272,7 +4302,7 @@
       <c r="A16" s="96"/>
       <c r="B16" s="97"/>
       <c r="C16" s="96" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D16" s="97"/>
       <c r="E16" s="97"/>
@@ -4294,7 +4324,7 @@
       <c r="A17" s="96"/>
       <c r="B17" s="97"/>
       <c r="C17" s="96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D17" s="97"/>
       <c r="E17" s="97"/>
@@ -4325,235 +4355,235 @@
       <c r="J18" s="97"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="131" t="s">
+      <c r="A19" s="184" t="s">
         <v>131</v>
       </c>
       <c r="B19" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
-      <c r="G19" s="166"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="166"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="164"/>
     </row>
     <row r="20" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="131"/>
+      <c r="A20" s="184"/>
       <c r="B20" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
     </row>
     <row r="21" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="131"/>
+      <c r="A21" s="184"/>
       <c r="B21" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="90"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="131"/>
+      <c r="A22" s="184"/>
       <c r="B22" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="90"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="131"/>
+      <c r="A23" s="184"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="90"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="161"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
     </row>
     <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="131"/>
+      <c r="A24" s="184"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
       <c r="F24" s="90"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="161"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="131"/>
+      <c r="A25" s="184"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="90"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="161"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
     </row>
     <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="132"/>
+      <c r="A26" s="185"/>
       <c r="B26" s="91"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="91"/>
-      <c r="G26" s="162"/>
-      <c r="H26" s="162"/>
-      <c r="I26" s="162"/>
-      <c r="J26" s="162"/>
+      <c r="G26" s="182"/>
+      <c r="H26" s="182"/>
+      <c r="I26" s="182"/>
+      <c r="J26" s="182"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="176" t="s">
+      <c r="A27" s="131" t="s">
         <v>132</v>
       </c>
       <c r="B27" s="34" t="s">
         <v>142</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="165"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="167"/>
     </row>
     <row r="28" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="177"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="34" t="s">
         <v>142</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
       <c r="F28" s="36"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="146"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="168"/>
+      <c r="J28" s="170"/>
     </row>
     <row r="29" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="177"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="34" t="s">
         <v>142</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D29" s="36"/>
       <c r="E29" s="36"/>
       <c r="F29" s="36"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="146"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="170"/>
     </row>
     <row r="30" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="177"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D30" s="36"/>
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="146"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="170"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="177"/>
+      <c r="A31" s="132"/>
       <c r="B31" s="36"/>
       <c r="C31" s="37"/>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="146"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="170"/>
     </row>
     <row r="32" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="177"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="36"/>
       <c r="C32" s="37"/>
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
       <c r="F32" s="36"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="146"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="169"/>
+      <c r="I32" s="168"/>
+      <c r="J32" s="170"/>
     </row>
     <row r="33" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="177"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="38"/>
       <c r="C33" s="39"/>
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="157"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="130"/>
     </row>
     <row r="34" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="177"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="38"/>
       <c r="C34" s="39"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="157"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="130"/>
     </row>
     <row r="35" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="133" t="s">
+      <c r="A35" s="186" t="s">
         <v>134</v>
       </c>
       <c r="B35" s="40"/>
@@ -4561,22 +4591,22 @@
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
       <c r="F35" s="40"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="159"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="160"/>
+      <c r="G35" s="179"/>
+      <c r="H35" s="180"/>
+      <c r="I35" s="179"/>
+      <c r="J35" s="181"/>
     </row>
     <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="134"/>
+      <c r="A36" s="187"/>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
       <c r="D36" s="41"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="151"/>
+      <c r="G36" s="173"/>
+      <c r="H36" s="174"/>
+      <c r="I36" s="173"/>
+      <c r="J36" s="175"/>
     </row>
     <row r="37" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="65" t="s">
@@ -4587,18 +4617,18 @@
         <v>123</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E37" s="43" t="s">
         <v>170</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>289</v>
-      </c>
-      <c r="G37" s="152"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="154"/>
+        <v>288</v>
+      </c>
+      <c r="G37" s="176"/>
+      <c r="H37" s="177"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="178"/>
     </row>
     <row r="38" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
@@ -4608,7 +4638,7 @@
         <v>141</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D38" s="46" t="s">
         <v>145</v>
@@ -4617,10 +4647,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="46"/>
-      <c r="G38" s="138"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="138"/>
-      <c r="J38" s="140"/>
+      <c r="G38" s="193"/>
+      <c r="H38" s="194"/>
+      <c r="I38" s="193"/>
+      <c r="J38" s="195"/>
     </row>
     <row r="39" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
@@ -4630,7 +4660,7 @@
         <v>141</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D39" s="46" t="s">
         <v>146</v>
@@ -4639,10 +4669,10 @@
         <v>26</v>
       </c>
       <c r="F39" s="46"/>
-      <c r="G39" s="141"/>
-      <c r="H39" s="142"/>
-      <c r="I39" s="141"/>
-      <c r="J39" s="143"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="197"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="198"/>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
@@ -4652,7 +4682,7 @@
         <v>141</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D40" s="46" t="s">
         <v>163</v>
@@ -4661,20 +4691,20 @@
         <v>26</v>
       </c>
       <c r="F40" s="46"/>
-      <c r="G40" s="135"/>
-      <c r="H40" s="136"/>
-      <c r="I40" s="135"/>
-      <c r="J40" s="137"/>
+      <c r="G40" s="188"/>
+      <c r="H40" s="189"/>
+      <c r="I40" s="188"/>
+      <c r="J40" s="190"/>
     </row>
     <row r="41" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B41" s="47" t="s">
         <v>141</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D41" s="46" t="s">
         <v>164</v>
@@ -4683,10 +4713,10 @@
         <v>26</v>
       </c>
       <c r="F41" s="46"/>
-      <c r="G41" s="135"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="135"/>
-      <c r="J41" s="137"/>
+      <c r="G41" s="188"/>
+      <c r="H41" s="189"/>
+      <c r="I41" s="188"/>
+      <c r="J41" s="190"/>
     </row>
     <row r="42" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="67" t="s">
@@ -4696,7 +4726,7 @@
         <v>142</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D42" s="92" t="s">
         <v>144</v>
@@ -4705,10 +4735,10 @@
         <v>26</v>
       </c>
       <c r="F42" s="92"/>
-      <c r="G42" s="129"/>
-      <c r="H42" s="129"/>
-      <c r="I42" s="129"/>
-      <c r="J42" s="130"/>
+      <c r="G42" s="191"/>
+      <c r="H42" s="191"/>
+      <c r="I42" s="191"/>
+      <c r="J42" s="192"/>
     </row>
     <row r="43" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="49" t="s">
@@ -4718,19 +4748,19 @@
         <v>142</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D43" s="92" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E43" s="92" t="s">
         <v>26</v>
       </c>
       <c r="F43" s="92"/>
-      <c r="G43" s="129"/>
-      <c r="H43" s="129"/>
-      <c r="I43" s="129"/>
-      <c r="J43" s="130"/>
+      <c r="G43" s="191"/>
+      <c r="H43" s="191"/>
+      <c r="I43" s="191"/>
+      <c r="J43" s="192"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
@@ -4740,30 +4770,30 @@
         <v>142</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D44" s="92" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E44" s="92" t="s">
         <v>26</v>
       </c>
       <c r="F44" s="51"/>
-      <c r="G44" s="129"/>
-      <c r="H44" s="129"/>
-      <c r="I44" s="129"/>
-      <c r="J44" s="130"/>
+      <c r="G44" s="191"/>
+      <c r="H44" s="191"/>
+      <c r="I44" s="191"/>
+      <c r="J44" s="192"/>
     </row>
     <row r="45" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
         <v>143</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C45" s="36"/>
       <c r="D45" s="36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E45" s="36" t="s">
         <v>26</v>
@@ -4810,7 +4840,7 @@
         <v>142</v>
       </c>
       <c r="C48" s="99" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D48" s="99" t="s">
         <v>26</v>
@@ -4821,10 +4851,10 @@
     <row r="49" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="98"/>
       <c r="B49" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C49" s="99" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D49" s="99" t="s">
         <v>26</v>
@@ -4842,16 +4872,16 @@
         <v>57</v>
       </c>
       <c r="B52" s="69" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -4859,7 +4889,7 @@
         <v>11</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>165</v>
@@ -4868,7 +4898,7 @@
         <v>26</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -4876,16 +4906,16 @@
         <v>12</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="101" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -4893,18 +4923,18 @@
         <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="128" t="s">
-        <v>273</v>
-      </c>
-      <c r="F55" s="128"/>
+      <c r="E55" s="199" t="s">
+        <v>272</v>
+      </c>
+      <c r="F55" s="199"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="E57" s="99"/>
@@ -4917,6 +4947,66 @@
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="A27:A34"/>
@@ -4933,66 +5023,6 @@
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5030,14 +5060,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -5058,14 +5088,14 @@
       <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="201" t="s">
+      <c r="G2" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201" t="s">
+      <c r="H2" s="205"/>
+      <c r="I2" s="205" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="201"/>
+      <c r="J2" s="205"/>
       <c r="N2" t="s">
         <v>60</v>
       </c>
@@ -5078,12 +5108,12 @@
       <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="200" t="s">
+      <c r="A3" s="206" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="70" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D3" s="71" t="s">
         <v>180</v>
@@ -5092,10 +5122,10 @@
         <v>170</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="203"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="201"/>
       <c r="N3" s="19" t="s">
         <v>17</v>
       </c>
@@ -5122,22 +5152,22 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="200"/>
+      <c r="A4" s="206"/>
       <c r="B4" s="10"/>
       <c r="C4" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="72" t="s">
         <v>219</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>220</v>
       </c>
       <c r="E4" s="71" t="s">
         <v>170</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="203"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="201"/>
       <c r="N4" s="7" t="s">
         <v>61</v>
       </c>
@@ -5164,7 +5194,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="200"/>
+      <c r="A5" s="206"/>
       <c r="B5" s="10"/>
       <c r="C5" s="70" t="s">
         <v>110</v>
@@ -5176,10 +5206,10 @@
         <v>7</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="203"/>
-      <c r="I5" s="202"/>
-      <c r="J5" s="203"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="200"/>
+      <c r="J5" s="201"/>
       <c r="N5" s="7" t="s">
         <v>65</v>
       </c>
@@ -5206,7 +5236,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="200" t="s">
+      <c r="A6" s="206" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="10"/>
@@ -5220,10 +5250,10 @@
         <v>7</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="203"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="203"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="201"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="201"/>
       <c r="N6" s="7" t="s">
         <v>69</v>
       </c>
@@ -5250,22 +5280,22 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="200"/>
+      <c r="A7" s="206"/>
       <c r="B7" s="10"/>
       <c r="C7" s="105" t="s">
         <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="203"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="203"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="201"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="201"/>
       <c r="N7" s="7" t="s">
         <v>73</v>
       </c>
@@ -5292,7 +5322,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="200" t="s">
+      <c r="A8" s="206" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="10"/>
@@ -5306,10 +5336,10 @@
         <v>7</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="203"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="203"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="201"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="201"/>
       <c r="N8" s="13" t="s">
         <v>77</v>
       </c>
@@ -5339,10 +5369,10 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="200"/>
+      <c r="A9" s="206"/>
       <c r="B9" s="10"/>
       <c r="C9" s="70" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D9" s="72" t="s">
         <v>155</v>
@@ -5365,10 +5395,10 @@
       <c r="U9" s="103"/>
     </row>
     <row r="10" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="200"/>
+      <c r="A10" s="206"/>
       <c r="B10" s="10"/>
       <c r="C10" s="70" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D10" s="72" t="s">
         <v>153</v>
@@ -5391,19 +5421,19 @@
       <c r="U10" s="103"/>
     </row>
     <row r="11" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="200"/>
+      <c r="A11" s="206"/>
       <c r="B11" s="10"/>
       <c r="C11" s="105" t="s">
         <v>114</v>
       </c>
       <c r="E11" s="104" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="203"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="203"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="201"/>
       <c r="L11" s="15"/>
       <c r="M11" s="16"/>
       <c r="N11" s="17" t="s">
@@ -5435,10 +5465,10 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="200"/>
+      <c r="A12" s="206"/>
       <c r="B12" s="10"/>
       <c r="C12" s="70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D12" s="72" t="s">
         <v>154</v>
@@ -5447,12 +5477,12 @@
         <v>29</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="202"/>
-      <c r="H12" s="203"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="203"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="201"/>
+      <c r="I12" s="200"/>
+      <c r="J12" s="201"/>
       <c r="N12" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P12" s="16">
         <v>254</v>
@@ -5461,20 +5491,20 @@
         <v>41</v>
       </c>
       <c r="R12" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="S12" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="S12" s="16" t="s">
+      <c r="T12" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="T12" s="16" t="s">
+      <c r="U12" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="13" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="200" t="s">
+      <c r="A13" s="206" t="s">
         <v>96</v>
       </c>
       <c r="B13" s="10"/>
@@ -5488,13 +5518,13 @@
         <v>7</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="203"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="203"/>
+      <c r="G13" s="200"/>
+      <c r="H13" s="201"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="201"/>
     </row>
     <row r="14" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="200"/>
+      <c r="A14" s="206"/>
       <c r="B14" s="10"/>
       <c r="C14" s="9" t="s">
         <v>112</v>
@@ -5506,13 +5536,13 @@
         <v>7</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="203"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="203"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="201"/>
     </row>
     <row r="15" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="200"/>
+      <c r="A15" s="206"/>
       <c r="B15" s="10"/>
       <c r="C15" s="9" t="s">
         <v>113</v>
@@ -5524,10 +5554,10 @@
         <v>7</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="203"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="203"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="201"/>
     </row>
     <row r="16" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="207" t="s">
@@ -5540,10 +5570,10 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="203"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="201"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="201"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="208"/>
@@ -5554,10 +5584,10 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="203"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="203"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="201"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="208"/>
@@ -5568,10 +5598,10 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="203"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="203"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="201"/>
+      <c r="I18" s="200"/>
+      <c r="J18" s="201"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="208"/>
@@ -5582,10 +5612,10 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="203"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="201"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="208"/>
@@ -5596,10 +5626,10 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="203"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="200"/>
+      <c r="J20" s="201"/>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="208"/>
@@ -5610,10 +5640,10 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="202"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="202"/>
-      <c r="J21" s="203"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="201"/>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="208"/>
@@ -5635,18 +5665,18 @@
         <v>126</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="202"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="202"/>
-      <c r="J23" s="203"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="200"/>
+      <c r="J23" s="201"/>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="204" t="s">
+      <c r="A24" s="202" t="s">
         <v>98</v>
       </c>
       <c r="B24" s="12"/>
@@ -5656,13 +5686,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="202"/>
-      <c r="H24" s="203"/>
-      <c r="I24" s="202"/>
-      <c r="J24" s="203"/>
+      <c r="G24" s="200"/>
+      <c r="H24" s="201"/>
+      <c r="I24" s="200"/>
+      <c r="J24" s="201"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="205"/>
+      <c r="A25" s="203"/>
       <c r="B25" s="12"/>
       <c r="C25" s="9" t="s">
         <v>115</v>
@@ -5670,13 +5700,13 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="202"/>
-      <c r="H25" s="203"/>
-      <c r="I25" s="202"/>
-      <c r="J25" s="203"/>
+      <c r="G25" s="200"/>
+      <c r="H25" s="201"/>
+      <c r="I25" s="200"/>
+      <c r="J25" s="201"/>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="205"/>
+      <c r="A26" s="203"/>
       <c r="B26" s="12"/>
       <c r="C26" s="9" t="s">
         <v>116</v>
@@ -5684,13 +5714,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="202"/>
-      <c r="H26" s="203"/>
-      <c r="I26" s="202"/>
-      <c r="J26" s="203"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="201"/>
+      <c r="I26" s="200"/>
+      <c r="J26" s="201"/>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="205"/>
+      <c r="A27" s="203"/>
       <c r="B27" s="12"/>
       <c r="C27" s="9" t="s">
         <v>117</v>
@@ -5698,13 +5728,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="202"/>
-      <c r="H27" s="203"/>
-      <c r="I27" s="202"/>
-      <c r="J27" s="203"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="201"/>
+      <c r="I27" s="200"/>
+      <c r="J27" s="201"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="205"/>
+      <c r="A28" s="203"/>
       <c r="B28" s="12"/>
       <c r="C28" s="9" t="s">
         <v>118</v>
@@ -5712,13 +5742,13 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="203"/>
-      <c r="I28" s="202"/>
-      <c r="J28" s="203"/>
+      <c r="G28" s="200"/>
+      <c r="H28" s="201"/>
+      <c r="I28" s="200"/>
+      <c r="J28" s="201"/>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="205"/>
+      <c r="A29" s="203"/>
       <c r="B29" s="12"/>
       <c r="C29" s="9" t="s">
         <v>119</v>
@@ -5726,13 +5756,13 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="202"/>
-      <c r="H29" s="203"/>
-      <c r="I29" s="202"/>
-      <c r="J29" s="203"/>
+      <c r="G29" s="200"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="200"/>
+      <c r="J29" s="201"/>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="205"/>
+      <c r="A30" s="203"/>
       <c r="B30" s="12"/>
       <c r="C30" s="9" t="s">
         <v>120</v>
@@ -5740,13 +5770,13 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="203"/>
-      <c r="I30" s="202"/>
-      <c r="J30" s="203"/>
+      <c r="G30" s="200"/>
+      <c r="H30" s="201"/>
+      <c r="I30" s="200"/>
+      <c r="J30" s="201"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="205"/>
+      <c r="A31" s="203"/>
       <c r="B31" s="12"/>
       <c r="C31" s="9" t="s">
         <v>121</v>
@@ -5760,24 +5790,24 @@
       <c r="J31" s="89"/>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="206"/>
+      <c r="A32" s="204"/>
       <c r="B32" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="202"/>
-      <c r="H32" s="203"/>
-      <c r="I32" s="202"/>
-      <c r="J32" s="203"/>
+      <c r="G32" s="200"/>
+      <c r="H32" s="201"/>
+      <c r="I32" s="200"/>
+      <c r="J32" s="201"/>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
@@ -5790,10 +5820,10 @@
         <v>26</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="202"/>
-      <c r="H33" s="203"/>
-      <c r="I33" s="202"/>
-      <c r="J33" s="203"/>
+      <c r="G33" s="200"/>
+      <c r="H33" s="201"/>
+      <c r="I33" s="200"/>
+      <c r="J33" s="201"/>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -5801,19 +5831,19 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D34" s="72" t="s">
         <v>244</v>
-      </c>
-      <c r="D34" s="72" t="s">
-        <v>245</v>
       </c>
       <c r="E34" s="72" t="s">
         <v>29</v>
       </c>
       <c r="F34" s="72"/>
-      <c r="G34" s="202"/>
-      <c r="H34" s="203"/>
-      <c r="I34" s="202"/>
-      <c r="J34" s="203"/>
+      <c r="G34" s="200"/>
+      <c r="H34" s="201"/>
+      <c r="I34" s="200"/>
+      <c r="J34" s="201"/>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -5832,10 +5862,10 @@
         <v>26</v>
       </c>
       <c r="F35" s="72"/>
-      <c r="G35" s="202"/>
-      <c r="H35" s="203"/>
-      <c r="I35" s="202"/>
-      <c r="J35" s="203"/>
+      <c r="G35" s="200"/>
+      <c r="H35" s="201"/>
+      <c r="I35" s="200"/>
+      <c r="J35" s="201"/>
     </row>
     <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -5854,10 +5884,10 @@
         <v>26</v>
       </c>
       <c r="F36" s="72"/>
-      <c r="G36" s="202"/>
-      <c r="H36" s="203"/>
-      <c r="I36" s="202"/>
-      <c r="J36" s="203"/>
+      <c r="G36" s="200"/>
+      <c r="H36" s="201"/>
+      <c r="I36" s="200"/>
+      <c r="J36" s="201"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -5876,10 +5906,10 @@
         <v>26</v>
       </c>
       <c r="F37" s="72"/>
-      <c r="G37" s="202"/>
-      <c r="H37" s="203"/>
-      <c r="I37" s="202"/>
-      <c r="J37" s="203"/>
+      <c r="G37" s="200"/>
+      <c r="H37" s="201"/>
+      <c r="I37" s="200"/>
+      <c r="J37" s="201"/>
     </row>
     <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -5898,10 +5928,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="72"/>
-      <c r="G38" s="202"/>
-      <c r="H38" s="203"/>
-      <c r="I38" s="202"/>
-      <c r="J38" s="203"/>
+      <c r="G38" s="200"/>
+      <c r="H38" s="201"/>
+      <c r="I38" s="200"/>
+      <c r="J38" s="201"/>
     </row>
     <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -5920,10 +5950,10 @@
         <v>26</v>
       </c>
       <c r="F39" s="72"/>
-      <c r="G39" s="202"/>
-      <c r="H39" s="203"/>
-      <c r="I39" s="202"/>
-      <c r="J39" s="203"/>
+      <c r="G39" s="200"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="200"/>
+      <c r="J39" s="201"/>
     </row>
     <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -5942,10 +5972,10 @@
         <v>26</v>
       </c>
       <c r="F40" s="72"/>
-      <c r="G40" s="202"/>
-      <c r="H40" s="203"/>
-      <c r="I40" s="202"/>
-      <c r="J40" s="203"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="201"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="201"/>
     </row>
     <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -5956,10 +5986,10 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="202"/>
-      <c r="H41" s="203"/>
-      <c r="I41" s="202"/>
-      <c r="J41" s="203"/>
+      <c r="G41" s="200"/>
+      <c r="H41" s="201"/>
+      <c r="I41" s="200"/>
+      <c r="J41" s="201"/>
     </row>
     <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -5970,10 +6000,10 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="202"/>
-      <c r="H42" s="203"/>
-      <c r="I42" s="202"/>
-      <c r="J42" s="203"/>
+      <c r="G42" s="200"/>
+      <c r="H42" s="201"/>
+      <c r="I42" s="200"/>
+      <c r="J42" s="201"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
@@ -5984,74 +6014,19 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="202"/>
-      <c r="H43" s="203"/>
-      <c r="I43" s="202"/>
-      <c r="J43" s="203"/>
+      <c r="G43" s="200"/>
+      <c r="H43" s="201"/>
+      <c r="I43" s="200"/>
+      <c r="J43" s="201"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="A24:A32"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G3:H3"/>
@@ -6068,12 +6043,67 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A23"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IP_cim_kiosztas_akutális.xlsx
+++ b/IP_cim_kiosztas_akutális.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Üzemeltető\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA752A9-9933-4397-B08D-FF1F7E3513AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9538E19-C082-4031-BDCE-3F93AE9F010F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="16095" yWindow="-60" windowWidth="16860" windowHeight="15345" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="307">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -270,18 +270,12 @@
     <t>192.168.5.65 - 192.168.5.126</t>
   </si>
   <si>
-    <t>Pozsony_A</t>
-  </si>
-  <si>
     <t>Pozsony_B</t>
   </si>
   <si>
     <t>Pozsony_C</t>
   </si>
   <si>
-    <t>Pozsony_D</t>
-  </si>
-  <si>
     <t>Pozsony - Áruház</t>
   </si>
   <si>
@@ -339,12 +333,6 @@
     <t>G0/0</t>
   </si>
   <si>
-    <t>G1/2</t>
-  </si>
-  <si>
-    <t>G1/1</t>
-  </si>
-  <si>
     <t>G0/1</t>
   </si>
   <si>
@@ -388,12 +376,6 @@
   </si>
   <si>
     <t>Pozsony_R1</t>
-  </si>
-  <si>
-    <t>Pozsony_ASA</t>
-  </si>
-  <si>
-    <t>Pozsony_R3</t>
   </si>
   <si>
     <t>Pozsony_S1</t>
@@ -739,9 +721,6 @@
     <t>Vlan 12</t>
   </si>
   <si>
-    <t>Vlan 19</t>
-  </si>
-  <si>
     <t>G 1/0/3</t>
   </si>
   <si>
@@ -826,24 +805,9 @@
     <t>192.168.5.203</t>
   </si>
   <si>
-    <t>192.168.5.204</t>
-  </si>
-  <si>
-    <t>192.168.5.205 - 192.168.5.206</t>
-  </si>
-  <si>
-    <t>192.168.5.207</t>
-  </si>
-  <si>
-    <t>192.168.5.212</t>
-  </si>
-  <si>
     <t>192.168.5.193</t>
   </si>
   <si>
-    <t>192.168.5.197</t>
-  </si>
-  <si>
     <t>192.168.5.198</t>
   </si>
   <si>
@@ -980,6 +944,18 @@
   </si>
   <si>
     <t>192.168.0.12</t>
+  </si>
+  <si>
+    <t>Vlan 13</t>
+  </si>
+  <si>
+    <t>Pozony_A</t>
+  </si>
+  <si>
+    <t>192.168.5.200</t>
+  </si>
+  <si>
+    <t>Pozsony_R2</t>
   </si>
 </sst>
 </file>
@@ -2194,307 +2170,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2504,46 +2183,31 @@
     <xf numFmtId="0" fontId="24" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2558,9 +2222,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2569,20 +2230,335 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2940,20 +2916,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="128" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="41" t="s">
@@ -2962,7 +2938,7 @@
       <c r="D2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="133" t="s">
         <v>55</v>
       </c>
       <c r="F2" s="42" t="s">
@@ -2970,13 +2946,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="92"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="95" t="s">
+      <c r="A3" s="127"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="99"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="134"/>
       <c r="F3" s="43" t="s">
         <v>6</v>
       </c>
@@ -2984,43 +2960,43 @@
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="86"/>
       <c r="B4" s="64" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
-        <v>149</v>
+      <c r="A5" s="123" t="s">
+        <v>143</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E5" s="73"/>
       <c r="F5" s="65"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="8"/>
@@ -3035,15 +3011,15 @@
       <c r="Q6" s="46"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="8"/>
@@ -3058,7 +3034,7 @@
       <c r="Q7" s="46"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="122" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="66"/>
@@ -3077,7 +3053,7 @@
       <c r="Q8" s="46"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="66"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -3094,14 +3070,14 @@
       <c r="Q9" s="46"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87" t="s">
-        <v>165</v>
+      <c r="A10" s="122" t="s">
+        <v>159</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D10" s="68" t="s">
         <v>32</v>
@@ -3119,12 +3095,12 @@
       <c r="Q10" s="46"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="88"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="67" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D11" s="68" t="s">
         <v>32</v>
@@ -3133,393 +3109,393 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="67" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D12" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="8"/>
-      <c r="I12" s="103" t="s">
+      <c r="I12" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="105" t="s">
+      <c r="J12" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="105" t="s">
+      <c r="K12" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="105" t="s">
+      <c r="L12" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="105" t="s">
+      <c r="M12" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="105" t="s">
+      <c r="N12" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="105" t="s">
+      <c r="O12" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="105" t="s">
+      <c r="P12" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="105" t="s">
+      <c r="Q12" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="R12" s="107" t="s">
-        <v>182</v>
+      <c r="R12" s="118" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="67" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D13" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="68"/>
       <c r="F13" s="8"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="108"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="119"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="67" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D14" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="68"/>
       <c r="F14" s="8"/>
-      <c r="I14" s="101" t="s">
+      <c r="I14" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="101">
+      <c r="J14" s="113">
         <v>7</v>
       </c>
-      <c r="K14" s="101">
+      <c r="K14" s="113">
         <v>30</v>
       </c>
-      <c r="L14" s="100" t="s">
+      <c r="L14" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="101" t="s">
+      <c r="M14" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="102" t="s">
+      <c r="N14" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="100" t="s">
+      <c r="O14" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="P14" s="100" t="s">
+      <c r="P14" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="100" t="s">
+      <c r="Q14" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="R14" s="100" t="s">
-        <v>183</v>
+      <c r="R14" s="114" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="67"/>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
       <c r="F15" s="8"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="114"/>
+      <c r="R15" s="114"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
+      <c r="A16" s="123"/>
       <c r="B16" s="67"/>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
       <c r="F16" s="8"/>
-      <c r="I16" s="101" t="s">
+      <c r="I16" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="101">
+      <c r="J16" s="113">
         <v>5</v>
       </c>
-      <c r="K16" s="101">
+      <c r="K16" s="113">
         <v>30</v>
       </c>
-      <c r="L16" s="100" t="s">
+      <c r="L16" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="101" t="s">
+      <c r="M16" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="102" t="s">
+      <c r="N16" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="100" t="s">
+      <c r="O16" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="P16" s="100" t="s">
+      <c r="P16" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="Q16" s="100" t="s">
+      <c r="Q16" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="100" t="s">
-        <v>184</v>
+      <c r="R16" s="114" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="67"/>
       <c r="C17" s="68"/>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
       <c r="F17" s="8"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="100"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="114"/>
+      <c r="R17" s="114"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
-        <v>176</v>
+      <c r="A18" s="122" t="s">
+        <v>170</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D18" s="68" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="68"/>
       <c r="F18" s="8"/>
-      <c r="I18" s="101" t="s">
+      <c r="I18" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="101">
+      <c r="J18" s="113">
         <v>1</v>
       </c>
-      <c r="K18" s="101">
+      <c r="K18" s="113">
         <v>6</v>
       </c>
-      <c r="L18" s="100" t="s">
+      <c r="L18" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="M18" s="101" t="s">
+      <c r="M18" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="102" t="s">
+      <c r="N18" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="100" t="s">
+      <c r="O18" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="P18" s="100" t="s">
+      <c r="P18" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="Q18" s="100" t="s">
+      <c r="Q18" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="100" t="s">
-        <v>185</v>
+      <c r="R18" s="114" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="88"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="67" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D19" s="68" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="68"/>
       <c r="F19" s="8"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="102"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="100"/>
-      <c r="R19" s="100"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="114"/>
+      <c r="R19" s="114"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
+      <c r="A20" s="123"/>
       <c r="B20" s="67" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D20" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="68"/>
       <c r="F20" s="8"/>
-      <c r="I20" s="101" t="s">
+      <c r="I20" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="101">
+      <c r="J20" s="113">
         <v>1</v>
       </c>
-      <c r="K20" s="101">
+      <c r="K20" s="113">
         <v>6</v>
       </c>
-      <c r="L20" s="100" t="s">
+      <c r="L20" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="M20" s="101" t="s">
+      <c r="M20" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="102" t="s">
+      <c r="N20" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="100" t="s">
+      <c r="O20" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="P20" s="100" t="s">
+      <c r="P20" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="Q20" s="100" t="s">
+      <c r="Q20" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="R20" s="100" t="s">
-        <v>186</v>
+      <c r="R20" s="114" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="67" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D21" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="68"/>
       <c r="F21" s="8"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="102"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="100"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="114"/>
+      <c r="R21" s="114"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="88"/>
+      <c r="A22" s="123"/>
       <c r="B22" s="67" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D22" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="68"/>
       <c r="F22" s="8"/>
-      <c r="I22" s="101" t="s">
-        <v>187</v>
-      </c>
-      <c r="J22" s="101">
+      <c r="I22" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" s="113">
         <v>3</v>
       </c>
-      <c r="K22" s="101">
+      <c r="K22" s="113">
         <v>6</v>
       </c>
-      <c r="L22" s="100" t="s">
-        <v>188</v>
-      </c>
-      <c r="M22" s="101" t="s">
+      <c r="L22" s="114" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="102" t="s">
+      <c r="N22" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="O22" s="100" t="s">
-        <v>189</v>
-      </c>
-      <c r="P22" s="100" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q22" s="100" t="s">
-        <v>191</v>
-      </c>
-      <c r="R22" s="100" t="s">
-        <v>192</v>
+      <c r="O22" s="114" t="s">
+        <v>183</v>
+      </c>
+      <c r="P22" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q22" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="R22" s="114" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="88"/>
+      <c r="A23" s="123"/>
       <c r="B23" s="67"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
       <c r="F23" s="8"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="100"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="114"/>
+      <c r="Q23" s="114"/>
+      <c r="R23" s="114"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="88"/>
+      <c r="A24" s="123"/>
       <c r="B24" s="67"/>
       <c r="C24" s="68"/>
       <c r="D24" s="68"/>
@@ -3527,7 +3503,7 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="88"/>
+      <c r="A25" s="123"/>
       <c r="B25" s="67"/>
       <c r="C25" s="68"/>
       <c r="D25" s="68"/>
@@ -3536,87 +3512,87 @@
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="69" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B26" s="67"/>
       <c r="C26" s="68" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D26" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="N26" s="84"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B27" s="68"/>
       <c r="C27" s="68" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D27" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="68" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="N27" s="84"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="69" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B28" s="68"/>
       <c r="C28" s="68" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D28" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F28" s="68" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="69" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B29" s="68" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D29" s="68" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="68"/>
       <c r="F29" s="68" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="69" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B30" s="68" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C30" s="68" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D30" s="68" t="s">
         <v>32</v>
@@ -3626,43 +3602,43 @@
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="69" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B31" s="68" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D31" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="68"/>
       <c r="F31" s="68" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="69" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B32" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" s="68" t="s">
         <v>216</v>
-      </c>
-      <c r="C32" s="68" t="s">
-        <v>222</v>
       </c>
       <c r="D32" s="68" t="s">
         <v>32</v>
       </c>
       <c r="E32" s="68"/>
       <c r="F32" s="68" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B33" s="68"/>
       <c r="C33" s="1"/>
@@ -3672,7 +3648,7 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="69" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B34" s="72"/>
       <c r="C34" s="1"/>
@@ -3752,16 +3728,49 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K20:K21"/>
     <mergeCell ref="M22:M23"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="Q20:Q21"/>
@@ -3778,49 +3787,16 @@
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="K18:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3831,8 +3807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3857,18 +3833,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="128" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
+      <c r="A1" s="178" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="179"/>
+      <c r="I1" s="179"/>
+      <c r="J1" s="179"/>
     </row>
     <row r="2" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -3889,14 +3865,14 @@
       <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="159" t="s">
+      <c r="G2" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="160"/>
-      <c r="I2" s="159" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="160"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="140" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="141"/>
       <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
@@ -3923,26 +3899,26 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="161" t="s">
-        <v>117</v>
+      <c r="A3" s="142" t="s">
+        <v>113</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="166"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="147"/>
       <c r="L3" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M3" s="4">
         <v>40</v>
@@ -3967,24 +3943,24 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="162"/>
+      <c r="A4" s="143"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="169"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="150"/>
       <c r="L4" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M4" s="4">
         <v>40</v>
@@ -4009,24 +3985,24 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="163"/>
+      <c r="A5" s="144"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F5" s="13"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="172"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="153"/>
       <c r="L5" s="3" t="s">
-        <v>234</v>
+        <v>303</v>
       </c>
       <c r="M5" s="4">
         <v>40</v>
@@ -4044,35 +4020,35 @@
         <v>25</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="175" t="s">
-        <v>119</v>
+      <c r="A6" s="156" t="s">
+        <v>306</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="G6" s="154"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="155"/>
+        <v>256</v>
+      </c>
+      <c r="G6" s="168"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="169"/>
       <c r="L6" s="3" t="s">
-        <v>78</v>
+        <v>304</v>
       </c>
       <c r="M6" s="4">
         <v>2</v>
@@ -4081,42 +4057,42 @@
         <v>2</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="176"/>
+      <c r="A7" s="157"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="49"/>
       <c r="I7" s="48"/>
       <c r="J7" s="50"/>
       <c r="L7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="4">
         <v>2</v>
@@ -4125,42 +4101,42 @@
         <v>2</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="177"/>
+      <c r="A8" s="158"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="G8" s="51"/>
       <c r="H8" s="52"/>
       <c r="I8" s="51"/>
       <c r="J8" s="53"/>
       <c r="L8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M8" s="4">
         <v>2</v>
@@ -4169,86 +4145,52 @@
         <v>2</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="173" t="s">
-        <v>118</v>
-      </c>
+      <c r="A9" s="154"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="G9" s="148"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="150"/>
-      <c r="L9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="4">
-        <v>2</v>
-      </c>
-      <c r="N9" s="4">
-        <v>2</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>265</v>
-      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="164"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="174"/>
+      <c r="A10" s="155"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="G10" s="151"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="153"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="167"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -4259,25 +4201,25 @@
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="174"/>
+      <c r="A11" s="155"/>
       <c r="B11" s="78"/>
       <c r="C11" s="78"/>
       <c r="D11" s="78"/>
       <c r="E11" s="78"/>
       <c r="F11" s="78"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="180"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="161"/>
       <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="80" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B12" s="81"/>
       <c r="C12" s="79" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D12" s="81"/>
       <c r="E12" s="81"/>
@@ -4291,16 +4233,16 @@
       <c r="A13" s="80"/>
       <c r="B13" s="81"/>
       <c r="C13" s="80" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F13" s="81" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="G13" s="81"/>
       <c r="H13" s="81"/>
@@ -4319,7 +4261,7 @@
       <c r="A14" s="80"/>
       <c r="B14" s="81"/>
       <c r="C14" s="80" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D14" s="81"/>
       <c r="E14" s="81"/>
@@ -4341,7 +4283,7 @@
       <c r="A15" s="80"/>
       <c r="B15" s="81"/>
       <c r="C15" s="80" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D15" s="81"/>
       <c r="E15" s="81"/>
@@ -4363,7 +4305,7 @@
       <c r="A16" s="80"/>
       <c r="B16" s="81"/>
       <c r="C16" s="80" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D16" s="81"/>
       <c r="E16" s="81"/>
@@ -4385,7 +4327,7 @@
       <c r="A17" s="80"/>
       <c r="B17" s="81"/>
       <c r="C17" s="80" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D17" s="81"/>
       <c r="E17" s="81"/>
@@ -4416,445 +4358,445 @@
       <c r="J18" s="81"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="112" t="s">
-        <v>120</v>
+      <c r="A19" s="191" t="s">
+        <v>114</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="171"/>
     </row>
     <row r="20" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
+      <c r="A20" s="191"/>
       <c r="B20" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="172"/>
     </row>
     <row r="21" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
+      <c r="A21" s="191"/>
       <c r="B21" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="74"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="172"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="112"/>
+      <c r="A22" s="191"/>
       <c r="B22" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="74"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="172"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="112"/>
+      <c r="A23" s="191"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="74"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="172"/>
     </row>
     <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
+      <c r="A24" s="191"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="74"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="142"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="172"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="112"/>
+      <c r="A25" s="191"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="74"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="142"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="172"/>
     </row>
     <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="113"/>
+      <c r="A26" s="192"/>
       <c r="B26" s="75"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="75"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
+      <c r="G26" s="189"/>
+      <c r="H26" s="189"/>
+      <c r="I26" s="189"/>
+      <c r="J26" s="189"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="157" t="s">
-        <v>121</v>
+      <c r="A27" s="138" t="s">
+        <v>115</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="146"/>
+      <c r="G27" s="173"/>
+      <c r="H27" s="190"/>
+      <c r="I27" s="173"/>
+      <c r="J27" s="174"/>
     </row>
     <row r="28" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="158"/>
+      <c r="A28" s="139"/>
       <c r="B28" s="23" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="127"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="176"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="177"/>
     </row>
     <row r="29" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="158"/>
+      <c r="A29" s="139"/>
       <c r="B29" s="23" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="127"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="176"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="177"/>
     </row>
     <row r="30" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="158"/>
+      <c r="A30" s="139"/>
       <c r="B30" s="23" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="127"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="176"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="177"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="158"/>
+      <c r="A31" s="139"/>
       <c r="B31" s="25"/>
       <c r="C31" s="26"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="127"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="177"/>
     </row>
     <row r="32" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="158"/>
+      <c r="A32" s="139"/>
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="127"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="176"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="177"/>
     </row>
     <row r="33" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="158"/>
+      <c r="A33" s="139"/>
       <c r="B33" s="27"/>
       <c r="C33" s="28"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
-      <c r="G33" s="136"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="138"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="137"/>
     </row>
     <row r="34" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="158"/>
+      <c r="A34" s="139"/>
       <c r="B34" s="27"/>
       <c r="C34" s="28"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="136"/>
-      <c r="J34" s="138"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="135"/>
+      <c r="J34" s="137"/>
     </row>
     <row r="35" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="114" t="s">
-        <v>123</v>
+      <c r="A35" s="193" t="s">
+        <v>117</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
       <c r="F35" s="29"/>
-      <c r="G35" s="139"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="139"/>
-      <c r="J35" s="141"/>
+      <c r="G35" s="186"/>
+      <c r="H35" s="187"/>
+      <c r="I35" s="186"/>
+      <c r="J35" s="188"/>
     </row>
     <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="115"/>
+      <c r="A36" s="194"/>
       <c r="B36" s="30"/>
       <c r="C36" s="31"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="130"/>
-      <c r="J36" s="132"/>
+      <c r="G36" s="180"/>
+      <c r="H36" s="181"/>
+      <c r="I36" s="180"/>
+      <c r="J36" s="182"/>
     </row>
     <row r="37" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="54" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B37" s="55"/>
       <c r="C37" s="33" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="G37" s="133"/>
-      <c r="H37" s="134"/>
-      <c r="I37" s="133"/>
-      <c r="J37" s="135"/>
+        <v>256</v>
+      </c>
+      <c r="G37" s="183"/>
+      <c r="H37" s="184"/>
+      <c r="I37" s="183"/>
+      <c r="J37" s="185"/>
     </row>
     <row r="38" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>130</v>
-      </c>
       <c r="C38" s="34" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E38" s="35" t="s">
         <v>25</v>
       </c>
       <c r="F38" s="35"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="121"/>
+      <c r="G38" s="200"/>
+      <c r="H38" s="201"/>
+      <c r="I38" s="200"/>
+      <c r="J38" s="202"/>
     </row>
     <row r="39" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E39" s="35" t="s">
         <v>25</v>
       </c>
       <c r="F39" s="35"/>
-      <c r="G39" s="122"/>
-      <c r="H39" s="123"/>
-      <c r="I39" s="122"/>
-      <c r="J39" s="124"/>
+      <c r="G39" s="203"/>
+      <c r="H39" s="204"/>
+      <c r="I39" s="203"/>
+      <c r="J39" s="205"/>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="36" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E40" s="35" t="s">
         <v>25</v>
       </c>
       <c r="F40" s="35"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="118"/>
+      <c r="G40" s="195"/>
+      <c r="H40" s="196"/>
+      <c r="I40" s="195"/>
+      <c r="J40" s="197"/>
     </row>
     <row r="41" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="58" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E41" s="35" t="s">
         <v>25</v>
       </c>
       <c r="F41" s="35"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="116"/>
-      <c r="J41" s="118"/>
+      <c r="G41" s="195"/>
+      <c r="H41" s="196"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="197"/>
     </row>
     <row r="42" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" s="76" t="s">
         <v>127</v>
-      </c>
-      <c r="B42" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="D42" s="76" t="s">
-        <v>133</v>
       </c>
       <c r="E42" s="76" t="s">
         <v>25</v>
       </c>
       <c r="F42" s="76"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="111"/>
+      <c r="G42" s="198"/>
+      <c r="H42" s="198"/>
+      <c r="I42" s="198"/>
+      <c r="J42" s="199"/>
     </row>
     <row r="43" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="38" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D43" s="76" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E43" s="76" t="s">
         <v>25</v>
       </c>
       <c r="F43" s="76"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="110"/>
-      <c r="J43" s="111"/>
+      <c r="G43" s="198"/>
+      <c r="H43" s="198"/>
+      <c r="I43" s="198"/>
+      <c r="J43" s="199"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D44" s="76" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E44" s="76" t="s">
         <v>25</v>
       </c>
       <c r="F44" s="40"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="111"/>
+      <c r="G44" s="198"/>
+      <c r="H44" s="198"/>
+      <c r="I44" s="198"/>
+      <c r="J44" s="199"/>
     </row>
     <row r="45" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="25" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="E45" s="25" t="s">
         <v>25</v>
@@ -4880,10 +4822,10 @@
     <row r="47" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="82"/>
       <c r="B47" s="58" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C47" s="83" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D47" s="83" t="s">
         <v>25</v>
@@ -4898,10 +4840,10 @@
     <row r="48" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="82"/>
       <c r="B48" s="58" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C48" s="83" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D48" s="83" t="s">
         <v>25</v>
@@ -4912,10 +4854,10 @@
     <row r="49" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="82"/>
       <c r="B49" s="61" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C49" s="83" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D49" s="83" t="s">
         <v>25</v>
@@ -4933,16 +4875,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="58" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -4950,16 +4892,16 @@
         <v>11</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -4967,16 +4909,16 @@
         <v>12</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -4984,18 +4926,18 @@
         <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="109" t="s">
-        <v>251</v>
-      </c>
-      <c r="F55" s="109"/>
+      <c r="E55" s="206" t="s">
+        <v>244</v>
+      </c>
+      <c r="F55" s="206"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="E57" s="83"/>
@@ -5008,6 +4950,66 @@
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="A27:A34"/>
@@ -5024,66 +5026,6 @@
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5095,1256 +5037,1232 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27F8DC3-BDE0-43F3-979D-2CCDC5541D2C}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="184" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="184" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="184" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="184" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="184" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="184" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="184" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="184" customWidth="1"/>
-    <col min="13" max="13" width="32.42578125" style="184" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="184" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" style="184" customWidth="1"/>
-    <col min="16" max="16" width="20" style="184" customWidth="1"/>
-    <col min="17" max="17" width="21.42578125" style="184" customWidth="1"/>
-    <col min="18" max="19" width="17.28515625" style="184" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="184" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="184"/>
+    <col min="1" max="1" width="32.42578125" style="87" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="87" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="87" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="87" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="87" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="87" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" style="87" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="87" customWidth="1"/>
+    <col min="13" max="13" width="32.42578125" style="87" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="87" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" style="87" customWidth="1"/>
+    <col min="16" max="16" width="20" style="87" customWidth="1"/>
+    <col min="17" max="17" width="21.42578125" style="87" customWidth="1"/>
+    <col min="18" max="19" width="17.28515625" style="87" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="87" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="87"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="216" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="215" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="215"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="218" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="89"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="208"/>
+      <c r="L3" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+    </row>
+    <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="218"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="90" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="93" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="89"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="208"/>
+      <c r="L4" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="95" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="218"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="96" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="99"/>
+      <c r="L5" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="95">
+        <v>4</v>
+      </c>
+      <c r="N5" s="95">
+        <v>6</v>
+      </c>
+      <c r="O5" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="S5" s="95" t="s">
+        <v>271</v>
+      </c>
+      <c r="T5" s="95" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="218"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="89"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="208"/>
+      <c r="L6" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="95">
+        <v>4</v>
+      </c>
+      <c r="N6" s="95">
+        <v>6</v>
+      </c>
+      <c r="O6" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="P6" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="95" t="s">
+        <v>275</v>
+      </c>
+      <c r="S6" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="95" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="212" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-    </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="185" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="185" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="185" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="185" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="185" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="185" t="s">
+      <c r="B7" s="89"/>
+      <c r="C7" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="97"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="208"/>
+      <c r="L7" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="95">
         <v>4</v>
       </c>
-      <c r="G2" s="186" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="186"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="187" t="s">
+      <c r="N7" s="95">
+        <v>6</v>
+      </c>
+      <c r="O7" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="95" t="s">
+        <v>277</v>
+      </c>
+      <c r="S7" s="95" t="s">
+        <v>278</v>
+      </c>
+      <c r="T7" s="95" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="213"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>279</v>
+      </c>
+      <c r="E8" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="97"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="99"/>
+      <c r="L8" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="95">
+        <v>4</v>
+      </c>
+      <c r="N8" s="95">
+        <v>6</v>
+      </c>
+      <c r="O8" s="95" t="s">
+        <v>280</v>
+      </c>
+      <c r="P8" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="95" t="s">
+        <v>281</v>
+      </c>
+      <c r="S8" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="T8" s="95" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="214"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="97"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="99"/>
+      <c r="L9" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="95">
+        <v>4</v>
+      </c>
+      <c r="N9" s="95">
+        <v>6</v>
+      </c>
+      <c r="O9" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" s="95" t="s">
+        <v>282</v>
+      </c>
+      <c r="S9" s="95" t="s">
+        <v>283</v>
+      </c>
+      <c r="T9" s="95" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="218" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="189" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="190" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="190" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" s="188"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="192"/>
-      <c r="L3" s="184" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="193"/>
-      <c r="N3" s="193"/>
-      <c r="O3" s="193"/>
-      <c r="P3" s="193"/>
-      <c r="Q3" s="193"/>
-      <c r="R3" s="193"/>
-      <c r="S3" s="193"/>
-    </row>
-    <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="187"/>
-      <c r="B4" s="188"/>
-      <c r="C4" s="189" t="s">
+      <c r="B10" s="89"/>
+      <c r="C10" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="97"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="208"/>
+      <c r="I10" s="207"/>
+      <c r="J10" s="208"/>
+      <c r="L10" s="100" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="95">
+        <v>54</v>
+      </c>
+      <c r="N10" s="95">
+        <v>62</v>
+      </c>
+      <c r="O10" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="S10" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="T10" s="95" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="218"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="93" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="102"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="208"/>
+      <c r="I11" s="207"/>
+      <c r="J11" s="208"/>
+      <c r="L11" s="100" t="s">
+        <v>286</v>
+      </c>
+      <c r="M11" s="95">
+        <v>54</v>
+      </c>
+      <c r="N11" s="95">
+        <v>62</v>
+      </c>
+      <c r="O11" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="S11" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" s="95" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="218"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="93" t="s">
+        <v>287</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="102"/>
+      <c r="G12" s="207"/>
+      <c r="H12" s="208"/>
+      <c r="I12" s="207"/>
+      <c r="J12" s="208"/>
+      <c r="L12" s="103"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="T12" s="105"/>
+    </row>
+    <row r="13" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="209" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" s="97"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="99"/>
+      <c r="L13" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="107"/>
+      <c r="N13" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" s="108" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" s="105"/>
+    </row>
+    <row r="14" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="210"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106" t="s">
+        <v>290</v>
+      </c>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="99"/>
+      <c r="L14" s="107" t="s">
+        <v>109</v>
+      </c>
+      <c r="M14" s="107"/>
+      <c r="N14" s="108" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" s="108" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="105"/>
+    </row>
+    <row r="15" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="210"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="109" t="s">
+        <v>291</v>
+      </c>
+      <c r="D15" s="93" t="s">
+        <v>292</v>
+      </c>
+      <c r="E15" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="102"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="99"/>
+      <c r="L15" s="107" t="s">
+        <v>293</v>
+      </c>
+      <c r="M15" s="107"/>
+      <c r="N15" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" s="108" t="s">
+        <v>25</v>
+      </c>
+      <c r="T15" s="105"/>
+    </row>
+    <row r="16" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="210"/>
+      <c r="B16" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="106"/>
+      <c r="D16" s="110" t="s">
+        <v>294</v>
+      </c>
+      <c r="E16" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="102"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="99"/>
+      <c r="L16" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" s="108" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" s="105"/>
+    </row>
+    <row r="17" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="211"/>
+      <c r="B17" s="107" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="108" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="108" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="102"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="99"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+    </row>
+    <row r="18" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="209" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" s="106"/>
+      <c r="C18" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="D18" s="97"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="99"/>
+      <c r="L18" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" s="87" t="s">
+        <v>288</v>
+      </c>
+      <c r="N18" s="108" t="s">
+        <v>294</v>
+      </c>
+      <c r="O18" s="108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="210"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106" t="s">
+        <v>290</v>
+      </c>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="99"/>
+      <c r="L19" s="107" t="s">
+        <v>109</v>
+      </c>
+      <c r="M19" s="87" t="s">
+        <v>288</v>
+      </c>
+      <c r="N19" s="108" t="s">
+        <v>296</v>
+      </c>
+      <c r="O19" s="108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="210"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="D20" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="102"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="99"/>
+      <c r="M20" s="111"/>
+    </row>
+    <row r="21" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="210"/>
+      <c r="B21" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="107"/>
+      <c r="D21" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="102"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="99"/>
+      <c r="L21" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="M21" s="87" t="s">
+        <v>297</v>
+      </c>
+      <c r="N21" s="108" t="s">
+        <v>298</v>
+      </c>
+      <c r="O21" s="108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="211"/>
+      <c r="B22" s="107" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="107"/>
+      <c r="D22" s="110" t="s">
+        <v>299</v>
+      </c>
+      <c r="E22" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="102"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="99"/>
+      <c r="L22" s="107" t="s">
+        <v>109</v>
+      </c>
+      <c r="M22" s="87" t="s">
+        <v>297</v>
+      </c>
+      <c r="N22" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="O22" s="108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="212" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="89"/>
+      <c r="C23" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="208"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="208"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="105"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="105"/>
+    </row>
+    <row r="24" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="213"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="208"/>
+    </row>
+    <row r="25" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="213"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="207"/>
+      <c r="H25" s="208"/>
+      <c r="I25" s="207"/>
+      <c r="J25" s="208"/>
+    </row>
+    <row r="26" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="213"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="207"/>
+      <c r="H26" s="208"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="208"/>
+    </row>
+    <row r="27" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="213"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="207"/>
+      <c r="H27" s="208"/>
+      <c r="I27" s="207"/>
+      <c r="J27" s="208"/>
+    </row>
+    <row r="28" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="213"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="208"/>
+      <c r="I28" s="207"/>
+      <c r="J28" s="208"/>
+    </row>
+    <row r="29" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="213"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="99"/>
+    </row>
+    <row r="30" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="214"/>
+      <c r="B30" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="G30" s="207"/>
+      <c r="H30" s="208"/>
+      <c r="I30" s="207"/>
+      <c r="J30" s="208"/>
+    </row>
+    <row r="31" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="209" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="112"/>
+      <c r="C31" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="208"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="208"/>
+    </row>
+    <row r="32" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="210"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="207"/>
+      <c r="H32" s="208"/>
+      <c r="I32" s="207"/>
+      <c r="J32" s="208"/>
+    </row>
+    <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="210"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="207"/>
+      <c r="H33" s="208"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="208"/>
+    </row>
+    <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="210"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="207"/>
+      <c r="H34" s="208"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="208"/>
+    </row>
+    <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="210"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="207"/>
+      <c r="H35" s="208"/>
+      <c r="I35" s="207"/>
+      <c r="J35" s="208"/>
+    </row>
+    <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="210"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="207"/>
+      <c r="H36" s="208"/>
+      <c r="I36" s="207"/>
+      <c r="J36" s="208"/>
+    </row>
+    <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="210"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="207"/>
+      <c r="H37" s="208"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="208"/>
+    </row>
+    <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="210"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="99"/>
+    </row>
+    <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="211"/>
+      <c r="B39" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="G39" s="207"/>
+      <c r="H39" s="208"/>
+      <c r="I39" s="207"/>
+      <c r="J39" s="208"/>
+    </row>
+    <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="106" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="194" t="s">
-        <v>201</v>
-      </c>
-      <c r="E4" s="190" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="188"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="192"/>
-      <c r="L4" s="195" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="195" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="195" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="195" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="195" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="195" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="195" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="195" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="196" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="187"/>
-      <c r="B5" s="188"/>
-      <c r="C5" s="197" t="s">
-        <v>276</v>
-      </c>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="188"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="200"/>
-      <c r="L5" s="201" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" s="196">
-        <v>4</v>
-      </c>
-      <c r="N5" s="196">
-        <v>6</v>
-      </c>
-      <c r="O5" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" s="196" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="196" t="s">
+      <c r="B40" s="106"/>
+      <c r="C40" s="106" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="207"/>
+      <c r="H40" s="208"/>
+      <c r="I40" s="207"/>
+      <c r="J40" s="208"/>
+    </row>
+    <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="106" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="106"/>
+      <c r="C41" s="96" t="s">
+        <v>300</v>
+      </c>
+      <c r="D41" s="93" t="s">
+        <v>301</v>
+      </c>
+      <c r="E41" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="196" t="s">
-        <v>282</v>
-      </c>
-      <c r="S5" s="196" t="s">
-        <v>283</v>
-      </c>
-      <c r="T5" s="196" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="187"/>
-      <c r="B6" s="188"/>
-      <c r="C6" s="197" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="198" t="s">
-        <v>285</v>
-      </c>
-      <c r="E6" s="196" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="188"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="192"/>
-      <c r="L6" s="201" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="196">
-        <v>4</v>
-      </c>
-      <c r="N6" s="196">
-        <v>6</v>
-      </c>
-      <c r="O6" s="196" t="s">
-        <v>286</v>
-      </c>
-      <c r="P6" s="196" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" s="196" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="196" t="s">
-        <v>287</v>
-      </c>
-      <c r="S6" s="196" t="s">
-        <v>61</v>
-      </c>
-      <c r="T6" s="196" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="202" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="188"/>
-      <c r="C7" s="197" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="198" t="s">
-        <v>288</v>
-      </c>
-      <c r="E7" s="196" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="198"/>
-      <c r="G7" s="191"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="191"/>
-      <c r="J7" s="192"/>
-      <c r="L7" s="201" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="196">
-        <v>4</v>
-      </c>
-      <c r="N7" s="196">
-        <v>6</v>
-      </c>
-      <c r="O7" s="196" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" s="196" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="196" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" s="196" t="s">
-        <v>289</v>
-      </c>
-      <c r="S7" s="196" t="s">
-        <v>290</v>
-      </c>
-      <c r="T7" s="196" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="203"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="197" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="198" t="s">
-        <v>291</v>
-      </c>
-      <c r="E8" s="196" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="198"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="200"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="200"/>
-      <c r="L8" s="201" t="s">
-        <v>67</v>
-      </c>
-      <c r="M8" s="196">
-        <v>4</v>
-      </c>
-      <c r="N8" s="196">
-        <v>6</v>
-      </c>
-      <c r="O8" s="196" t="s">
-        <v>292</v>
-      </c>
-      <c r="P8" s="196" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" s="196" t="s">
-        <v>27</v>
-      </c>
-      <c r="R8" s="196" t="s">
-        <v>293</v>
-      </c>
-      <c r="S8" s="196" t="s">
-        <v>64</v>
-      </c>
-      <c r="T8" s="196" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="204"/>
-      <c r="B9" s="188"/>
-      <c r="C9" s="197" t="s">
-        <v>193</v>
-      </c>
-      <c r="D9" s="198" t="s">
+      <c r="F41" s="93" t="s">
+        <v>279</v>
+      </c>
+      <c r="G41" s="207"/>
+      <c r="H41" s="208"/>
+      <c r="I41" s="207"/>
+      <c r="J41" s="208"/>
+    </row>
+    <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="106" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="G42" s="207"/>
+      <c r="H42" s="208"/>
+      <c r="I42" s="207"/>
+      <c r="J42" s="208"/>
+    </row>
+    <row r="43" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="106" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="93" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="207"/>
+      <c r="H43" s="208"/>
+      <c r="I43" s="207"/>
+      <c r="J43" s="208"/>
+    </row>
+    <row r="44" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="106" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="G44" s="207"/>
+      <c r="H44" s="208"/>
+      <c r="I44" s="207"/>
+      <c r="J44" s="208"/>
+    </row>
+    <row r="45" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="E9" s="196" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="198"/>
-      <c r="G9" s="199"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="199"/>
-      <c r="J9" s="200"/>
-      <c r="L9" s="201" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" s="196">
-        <v>4</v>
-      </c>
-      <c r="N9" s="196">
-        <v>6</v>
-      </c>
-      <c r="O9" s="196" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9" s="196" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" s="196" t="s">
-        <v>27</v>
-      </c>
-      <c r="R9" s="196" t="s">
-        <v>294</v>
-      </c>
-      <c r="S9" s="196" t="s">
-        <v>295</v>
-      </c>
-      <c r="T9" s="196" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="187" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="188"/>
-      <c r="C10" s="189" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="194" t="s">
+      <c r="E45" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="G45" s="207"/>
+      <c r="H45" s="208"/>
+      <c r="I45" s="207"/>
+      <c r="J45" s="208"/>
+    </row>
+    <row r="46" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="106" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="93" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="205" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="198"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="192"/>
-      <c r="L10" s="201" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" s="196">
-        <v>54</v>
-      </c>
-      <c r="N10" s="196">
-        <v>62</v>
-      </c>
-      <c r="O10" s="196" t="s">
-        <v>69</v>
-      </c>
-      <c r="P10" s="196" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="196" t="s">
+      <c r="E46" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="196" t="s">
-        <v>70</v>
-      </c>
-      <c r="S10" s="196" t="s">
-        <v>71</v>
-      </c>
-      <c r="T10" s="196" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="187"/>
-      <c r="B11" s="188"/>
-      <c r="C11" s="189" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="194" t="s">
-        <v>297</v>
-      </c>
-      <c r="E11" s="205" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="206"/>
-      <c r="G11" s="191"/>
-      <c r="H11" s="192"/>
-      <c r="I11" s="191"/>
-      <c r="J11" s="192"/>
-      <c r="L11" s="201" t="s">
-        <v>298</v>
-      </c>
-      <c r="M11" s="196">
-        <v>54</v>
-      </c>
-      <c r="N11" s="196">
-        <v>62</v>
-      </c>
-      <c r="O11" s="196" t="s">
-        <v>73</v>
-      </c>
-      <c r="P11" s="196" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" s="196" t="s">
+      <c r="F46" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" s="207"/>
+      <c r="H46" s="208"/>
+      <c r="I46" s="207"/>
+      <c r="J46" s="208"/>
+    </row>
+    <row r="47" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="106" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="93" t="s">
+        <v>302</v>
+      </c>
+      <c r="E47" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="R11" s="196" t="s">
-        <v>74</v>
-      </c>
-      <c r="S11" s="196" t="s">
-        <v>75</v>
-      </c>
-      <c r="T11" s="196" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="187"/>
-      <c r="B12" s="188"/>
-      <c r="C12" s="189" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="194" t="s">
-        <v>299</v>
-      </c>
-      <c r="E12" s="205" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="206"/>
-      <c r="G12" s="191"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="191"/>
-      <c r="J12" s="192"/>
-      <c r="L12" s="207"/>
-      <c r="O12" s="208"/>
-      <c r="P12" s="208"/>
-      <c r="Q12" s="208"/>
-      <c r="T12" s="209"/>
-    </row>
-    <row r="13" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="210" t="s">
-        <v>300</v>
-      </c>
-      <c r="B13" s="211"/>
-      <c r="C13" s="211" t="s">
-        <v>301</v>
-      </c>
-      <c r="D13" s="198"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="206"/>
-      <c r="G13" s="199"/>
-      <c r="H13" s="200"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="200"/>
-      <c r="L13" s="212" t="s">
-        <v>114</v>
-      </c>
-      <c r="M13" s="212"/>
-      <c r="N13" s="213" t="s">
-        <v>69</v>
-      </c>
-      <c r="O13" s="213" t="s">
-        <v>25</v>
-      </c>
-      <c r="T13" s="209"/>
-    </row>
-    <row r="14" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="214"/>
-      <c r="B14" s="211"/>
-      <c r="C14" s="211" t="s">
-        <v>302</v>
-      </c>
-      <c r="D14" s="198"/>
-      <c r="E14" s="198"/>
-      <c r="F14" s="206"/>
-      <c r="G14" s="199"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="200"/>
-      <c r="L14" s="212" t="s">
-        <v>113</v>
-      </c>
-      <c r="M14" s="212"/>
-      <c r="N14" s="213" t="s">
-        <v>73</v>
-      </c>
-      <c r="O14" s="213" t="s">
-        <v>25</v>
-      </c>
-      <c r="T14" s="209"/>
-    </row>
-    <row r="15" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="214"/>
-      <c r="B15" s="211"/>
-      <c r="C15" s="215" t="s">
-        <v>303</v>
-      </c>
-      <c r="D15" s="194" t="s">
-        <v>304</v>
-      </c>
-      <c r="E15" s="205" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="206"/>
-      <c r="G15" s="199"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="200"/>
-      <c r="L15" s="212" t="s">
-        <v>305</v>
-      </c>
-      <c r="M15" s="212"/>
-      <c r="N15" s="213" t="s">
-        <v>139</v>
-      </c>
-      <c r="O15" s="213" t="s">
-        <v>25</v>
-      </c>
-      <c r="T15" s="209"/>
-    </row>
-    <row r="16" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="214"/>
-      <c r="B16" s="212" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="211"/>
-      <c r="D16" s="216" t="s">
-        <v>306</v>
-      </c>
-      <c r="E16" s="216" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="206"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="200"/>
-      <c r="L16" s="212" t="s">
-        <v>307</v>
-      </c>
-      <c r="M16" s="213"/>
-      <c r="N16" s="213" t="s">
-        <v>138</v>
-      </c>
-      <c r="O16" s="213" t="s">
-        <v>25</v>
-      </c>
-      <c r="T16" s="209"/>
-    </row>
-    <row r="17" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="217"/>
-      <c r="B17" s="212" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="213" t="s">
-        <v>308</v>
-      </c>
-      <c r="E17" s="213" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="206"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="200"/>
-      <c r="N17" s="208"/>
-      <c r="O17" s="208"/>
-    </row>
-    <row r="18" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="210" t="s">
-        <v>309</v>
-      </c>
-      <c r="B18" s="211"/>
-      <c r="C18" s="206" t="s">
-        <v>301</v>
-      </c>
-      <c r="D18" s="198"/>
-      <c r="E18" s="196"/>
-      <c r="F18" s="206"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="200"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="200"/>
-      <c r="L18" s="212" t="s">
-        <v>114</v>
-      </c>
-      <c r="M18" s="184" t="s">
-        <v>300</v>
-      </c>
-      <c r="N18" s="213" t="s">
-        <v>306</v>
-      </c>
-      <c r="O18" s="213" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="214"/>
-      <c r="B19" s="211"/>
-      <c r="C19" s="211" t="s">
-        <v>302</v>
-      </c>
-      <c r="D19" s="198"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="206"/>
-      <c r="G19" s="199"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="200"/>
-      <c r="L19" s="212" t="s">
-        <v>113</v>
-      </c>
-      <c r="M19" s="184" t="s">
-        <v>300</v>
-      </c>
-      <c r="N19" s="213" t="s">
-        <v>308</v>
-      </c>
-      <c r="O19" s="213" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="214"/>
-      <c r="B20" s="211"/>
-      <c r="C20" s="211" t="s">
-        <v>303</v>
-      </c>
-      <c r="D20" s="194" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="194" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="206"/>
-      <c r="G20" s="199"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="200"/>
-      <c r="M20" s="218"/>
-    </row>
-    <row r="21" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="214"/>
-      <c r="B21" s="212" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="212"/>
-      <c r="D21" s="216" t="s">
-        <v>310</v>
-      </c>
-      <c r="E21" s="216" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="206"/>
-      <c r="G21" s="199"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="200"/>
-      <c r="L21" s="212" t="s">
-        <v>114</v>
-      </c>
-      <c r="M21" s="184" t="s">
-        <v>309</v>
-      </c>
-      <c r="N21" s="213" t="s">
-        <v>310</v>
-      </c>
-      <c r="O21" s="213" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="217"/>
-      <c r="B22" s="212" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="212"/>
-      <c r="D22" s="216" t="s">
-        <v>311</v>
-      </c>
-      <c r="E22" s="216" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="206"/>
-      <c r="G22" s="199"/>
-      <c r="H22" s="200"/>
-      <c r="I22" s="199"/>
-      <c r="J22" s="200"/>
-      <c r="L22" s="212" t="s">
-        <v>113</v>
-      </c>
-      <c r="M22" s="184" t="s">
-        <v>309</v>
-      </c>
-      <c r="N22" s="213" t="s">
-        <v>311</v>
-      </c>
-      <c r="O22" s="213" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="202" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="188"/>
-      <c r="C23" s="212" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="198"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="206"/>
-      <c r="G23" s="191"/>
-      <c r="H23" s="192"/>
-      <c r="I23" s="191"/>
-      <c r="J23" s="192"/>
-      <c r="P23" s="209"/>
-      <c r="Q23" s="209"/>
-      <c r="R23" s="209"/>
-      <c r="S23" s="209"/>
-    </row>
-    <row r="24" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="203"/>
-      <c r="B24" s="188"/>
-      <c r="C24" s="197" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="198"/>
-      <c r="E24" s="198"/>
-      <c r="F24" s="206"/>
-      <c r="G24" s="191"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="191"/>
-      <c r="J24" s="192"/>
-    </row>
-    <row r="25" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="203"/>
-      <c r="B25" s="188"/>
-      <c r="C25" s="197" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="198"/>
-      <c r="E25" s="198"/>
-      <c r="F25" s="206"/>
-      <c r="G25" s="191"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="191"/>
-      <c r="J25" s="192"/>
-    </row>
-    <row r="26" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="203"/>
-      <c r="B26" s="188"/>
-      <c r="C26" s="197" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="198"/>
-      <c r="E26" s="198"/>
-      <c r="F26" s="198"/>
-      <c r="G26" s="191"/>
-      <c r="H26" s="192"/>
-      <c r="I26" s="191"/>
-      <c r="J26" s="192"/>
-    </row>
-    <row r="27" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="203"/>
-      <c r="B27" s="188"/>
-      <c r="C27" s="197" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="198"/>
-      <c r="E27" s="198"/>
-      <c r="F27" s="198"/>
-      <c r="G27" s="191"/>
-      <c r="H27" s="192"/>
-      <c r="I27" s="191"/>
-      <c r="J27" s="192"/>
-    </row>
-    <row r="28" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="203"/>
-      <c r="B28" s="188"/>
-      <c r="C28" s="197" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="198"/>
-      <c r="E28" s="198"/>
-      <c r="F28" s="198"/>
-      <c r="G28" s="191"/>
-      <c r="H28" s="192"/>
-      <c r="I28" s="191"/>
-      <c r="J28" s="192"/>
-    </row>
-    <row r="29" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="203"/>
-      <c r="B29" s="188"/>
-      <c r="C29" s="197" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="198"/>
-      <c r="E29" s="198"/>
-      <c r="F29" s="198"/>
-      <c r="G29" s="199"/>
-      <c r="H29" s="200"/>
-      <c r="I29" s="199"/>
-      <c r="J29" s="200"/>
-    </row>
-    <row r="30" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="204"/>
-      <c r="B30" s="211" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="198"/>
-      <c r="E30" s="198"/>
-      <c r="G30" s="191"/>
-      <c r="H30" s="192"/>
-      <c r="I30" s="191"/>
-      <c r="J30" s="192"/>
-    </row>
-    <row r="31" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="210" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="219"/>
-      <c r="C31" s="197" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="198"/>
-      <c r="E31" s="198"/>
-      <c r="F31" s="198"/>
-      <c r="G31" s="191"/>
-      <c r="H31" s="192"/>
-      <c r="I31" s="191"/>
-      <c r="J31" s="192"/>
-    </row>
-    <row r="32" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="214"/>
-      <c r="B32" s="219"/>
-      <c r="C32" s="197" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="198"/>
-      <c r="E32" s="198"/>
-      <c r="F32" s="198"/>
-      <c r="G32" s="191"/>
-      <c r="H32" s="192"/>
-      <c r="I32" s="191"/>
-      <c r="J32" s="192"/>
-    </row>
-    <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="214"/>
-      <c r="B33" s="219"/>
-      <c r="C33" s="197" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="198"/>
-      <c r="E33" s="198"/>
-      <c r="F33" s="198"/>
-      <c r="G33" s="191"/>
-      <c r="H33" s="192"/>
-      <c r="I33" s="191"/>
-      <c r="J33" s="192"/>
-    </row>
-    <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="214"/>
-      <c r="B34" s="219"/>
-      <c r="C34" s="197" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="198"/>
-      <c r="E34" s="198"/>
-      <c r="F34" s="198"/>
-      <c r="G34" s="191"/>
-      <c r="H34" s="192"/>
-      <c r="I34" s="191"/>
-      <c r="J34" s="192"/>
-    </row>
-    <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="214"/>
-      <c r="B35" s="219"/>
-      <c r="C35" s="197" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="198"/>
-      <c r="E35" s="198"/>
-      <c r="F35" s="198"/>
-      <c r="G35" s="191"/>
-      <c r="H35" s="192"/>
-      <c r="I35" s="191"/>
-      <c r="J35" s="192"/>
-    </row>
-    <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="214"/>
-      <c r="B36" s="219"/>
-      <c r="C36" s="197" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="198"/>
-      <c r="E36" s="198"/>
-      <c r="F36" s="198"/>
-      <c r="G36" s="191"/>
-      <c r="H36" s="192"/>
-      <c r="I36" s="191"/>
-      <c r="J36" s="192"/>
-    </row>
-    <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="214"/>
-      <c r="B37" s="219"/>
-      <c r="C37" s="197" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="198"/>
-      <c r="E37" s="198"/>
-      <c r="F37" s="198"/>
-      <c r="G37" s="191"/>
-      <c r="H37" s="192"/>
-      <c r="I37" s="191"/>
-      <c r="J37" s="192"/>
-    </row>
-    <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="214"/>
-      <c r="B38" s="219"/>
-      <c r="C38" s="197" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="198"/>
-      <c r="E38" s="198"/>
-      <c r="F38" s="198"/>
-      <c r="G38" s="199"/>
-      <c r="H38" s="200"/>
-      <c r="I38" s="199"/>
-      <c r="J38" s="200"/>
-    </row>
-    <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="217"/>
-      <c r="B39" s="211" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="198"/>
-      <c r="E39" s="198"/>
-      <c r="G39" s="191"/>
-      <c r="H39" s="192"/>
-      <c r="I39" s="191"/>
-      <c r="J39" s="192"/>
-    </row>
-    <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="211" t="s">
-        <v>206</v>
-      </c>
-      <c r="B40" s="211"/>
-      <c r="C40" s="211" t="s">
+      <c r="F47" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="G47" s="207"/>
+      <c r="H47" s="208"/>
+      <c r="I47" s="207"/>
+      <c r="J47" s="208"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="106" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="106"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="207"/>
+      <c r="H48" s="208"/>
+      <c r="I48" s="207"/>
+      <c r="J48" s="208"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="106"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="207"/>
+      <c r="H49" s="208"/>
+      <c r="I49" s="207"/>
+      <c r="J49" s="208"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="106"/>
+      <c r="B50" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="198"/>
-      <c r="E40" s="198"/>
-      <c r="F40" s="198"/>
-      <c r="G40" s="191"/>
-      <c r="H40" s="192"/>
-      <c r="I40" s="191"/>
-      <c r="J40" s="192"/>
-    </row>
-    <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="211" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="211"/>
-      <c r="C41" s="197" t="s">
-        <v>312</v>
-      </c>
-      <c r="D41" s="194" t="s">
-        <v>313</v>
-      </c>
-      <c r="E41" s="205" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="194" t="s">
-        <v>291</v>
-      </c>
-      <c r="G41" s="191"/>
-      <c r="H41" s="192"/>
-      <c r="I41" s="191"/>
-      <c r="J41" s="192"/>
-    </row>
-    <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="211" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="211" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="197" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="194" t="s">
-        <v>140</v>
-      </c>
-      <c r="E42" s="216" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" s="216" t="s">
-        <v>139</v>
-      </c>
-      <c r="G42" s="191"/>
-      <c r="H42" s="192"/>
-      <c r="I42" s="191"/>
-      <c r="J42" s="192"/>
-    </row>
-    <row r="43" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="211" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="211" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="197" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="194" t="s">
-        <v>141</v>
-      </c>
-      <c r="E43" s="216" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" s="216" t="s">
-        <v>139</v>
-      </c>
-      <c r="G43" s="191"/>
-      <c r="H43" s="192"/>
-      <c r="I43" s="191"/>
-      <c r="J43" s="192"/>
-    </row>
-    <row r="44" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="211" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="211" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="197" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="194" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" s="216" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="216" t="s">
-        <v>138</v>
-      </c>
-      <c r="G44" s="191"/>
-      <c r="H44" s="192"/>
-      <c r="I44" s="191"/>
-      <c r="J44" s="192"/>
-    </row>
-    <row r="45" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="211" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="211" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="197" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="194" t="s">
-        <v>142</v>
-      </c>
-      <c r="E45" s="216" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" s="216" t="s">
-        <v>138</v>
-      </c>
-      <c r="G45" s="191"/>
-      <c r="H45" s="192"/>
-      <c r="I45" s="191"/>
-      <c r="J45" s="192"/>
-    </row>
-    <row r="46" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="211" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="211" t="s">
-        <v>113</v>
-      </c>
-      <c r="C46" s="197" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="194" t="s">
-        <v>143</v>
-      </c>
-      <c r="E46" s="216" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="216" t="s">
-        <v>138</v>
-      </c>
-      <c r="G46" s="191"/>
-      <c r="H46" s="192"/>
-      <c r="I46" s="191"/>
-      <c r="J46" s="192"/>
-    </row>
-    <row r="47" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="211" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="211" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" s="197" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" s="194" t="s">
-        <v>314</v>
-      </c>
-      <c r="E47" s="216" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" s="216" t="s">
-        <v>139</v>
-      </c>
-      <c r="G47" s="191"/>
-      <c r="H47" s="192"/>
-      <c r="I47" s="191"/>
-      <c r="J47" s="192"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="211" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="211"/>
-      <c r="C48" s="211"/>
-      <c r="D48" s="198"/>
-      <c r="E48" s="198"/>
-      <c r="F48" s="213"/>
-      <c r="G48" s="191"/>
-      <c r="H48" s="192"/>
-      <c r="I48" s="191"/>
-      <c r="J48" s="192"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="211" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="211"/>
-      <c r="C49" s="211"/>
-      <c r="D49" s="198"/>
-      <c r="E49" s="198"/>
-      <c r="F49" s="198"/>
-      <c r="G49" s="191"/>
-      <c r="H49" s="192"/>
-      <c r="I49" s="191"/>
-      <c r="J49" s="192"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="211"/>
-      <c r="B50" s="211" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="211"/>
-      <c r="D50" s="211"/>
-      <c r="E50" s="211"/>
-      <c r="F50" s="211"/>
-      <c r="G50" s="191"/>
-      <c r="H50" s="192"/>
-      <c r="I50" s="191"/>
-      <c r="J50" s="192"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="106"/>
+      <c r="G50" s="207"/>
+      <c r="H50" s="208"/>
+      <c r="I50" s="207"/>
+      <c r="J50" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="G28:H28"/>
@@ -6355,27 +6273,51 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6404,20 +6346,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="181" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
+      <c r="A1" s="219" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="181"/>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
+      <c r="A2" s="219"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6447,7 +6389,7 @@
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -6456,24 +6398,24 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
@@ -6482,24 +6424,24 @@
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
@@ -6508,19 +6450,19 @@
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/IP_cim_kiosztas_akutális.xlsx
+++ b/IP_cim_kiosztas_akutális.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9538E19-C082-4031-BDCE-3F93AE9F010F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180D11D9-6061-4F85-81ED-F9656DF3F90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16095" yWindow="-60" windowWidth="16860" windowHeight="15345" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="297">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -276,9 +276,6 @@
     <t>Pozsony_C</t>
   </si>
   <si>
-    <t>Pozsony - Áruház</t>
-  </si>
-  <si>
     <t>SOPRON - Raktár</t>
   </si>
   <si>
@@ -378,16 +375,7 @@
     <t>Pozsony_R1</t>
   </si>
   <si>
-    <t>Pozsony_S1</t>
-  </si>
-  <si>
-    <t>Pozsony_S2</t>
-  </si>
-  <si>
     <t>Pozsony_Server1</t>
-  </si>
-  <si>
-    <t>Pozsony_AP1 (Access Point)</t>
   </si>
   <si>
     <t>Pozsony_PC1</t>
@@ -634,9 +622,6 @@
     <t>130.10.10.2</t>
   </si>
   <si>
-    <t>Felügyeleti_VLAN_19</t>
-  </si>
-  <si>
     <t>Sopron_Wireless Router</t>
   </si>
   <si>
@@ -697,42 +682,15 @@
     <t>Pozsony_MS</t>
   </si>
   <si>
-    <t>G 1/0/2</t>
-  </si>
-  <si>
     <t>G 1/0/1</t>
   </si>
   <si>
-    <t>Fa 0/4</t>
-  </si>
-  <si>
-    <t>Fa 0/5</t>
-  </si>
-  <si>
-    <t>Fa 0/6</t>
-  </si>
-  <si>
-    <t>Fa 0/7</t>
-  </si>
-  <si>
     <t>Vlan 11</t>
   </si>
   <si>
     <t>Vlan 12</t>
   </si>
   <si>
-    <t>G 1/0/3</t>
-  </si>
-  <si>
-    <t>G 1/0/4</t>
-  </si>
-  <si>
-    <t>G 1/0/5</t>
-  </si>
-  <si>
-    <t>G 1/0/6</t>
-  </si>
-  <si>
     <t>Pozsony_VLAN_19</t>
   </si>
   <si>
@@ -748,12 +706,6 @@
     <t>Eszközök</t>
   </si>
   <si>
-    <t>Vevoszolgalat</t>
-  </si>
-  <si>
-    <t>Humaneroforras</t>
-  </si>
-  <si>
     <t>Vezetoseg</t>
   </si>
   <si>
@@ -817,18 +769,9 @@
     <t>192.168.5.202</t>
   </si>
   <si>
-    <t>192.168.5.205</t>
-  </si>
-  <si>
-    <t>192.168.5.206</t>
-  </si>
-  <si>
     <t>192.168.5.190</t>
   </si>
   <si>
-    <t>192.168.5.189</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -946,9 +889,6 @@
     <t>192.168.0.12</t>
   </si>
   <si>
-    <t>Vlan 13</t>
-  </si>
-  <si>
     <t>Pozony_A</t>
   </si>
   <si>
@@ -956,6 +896,36 @@
   </si>
   <si>
     <t>Pozsony_R2</t>
+  </si>
+  <si>
+    <t>Vlan 19</t>
+  </si>
+  <si>
+    <t>192.168.5.194</t>
+  </si>
+  <si>
+    <t>192.168.5.197</t>
+  </si>
+  <si>
+    <t>Pozsony_Mobil POS</t>
+  </si>
+  <si>
+    <t>192.168.5.5</t>
+  </si>
+  <si>
+    <t>Pozsony_Printer_2</t>
+  </si>
+  <si>
+    <t>F0/9</t>
+  </si>
+  <si>
+    <t>192.168.5.68</t>
+  </si>
+  <si>
+    <t>Penztar/Vevoszolgalat</t>
+  </si>
+  <si>
+    <t>Keszletgazdalkodas</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1241,8 +1211,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5F5F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="53">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1924,11 +1906,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2240,33 +2252,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2306,124 +2291,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2459,6 +2399,15 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2468,59 +2417,125 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2528,38 +2543,144 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2916,20 +3037,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="119" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="41" t="s">
@@ -2938,7 +3059,7 @@
       <c r="D2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="133" t="s">
+      <c r="E2" s="124" t="s">
         <v>55</v>
       </c>
       <c r="F2" s="42" t="s">
@@ -2946,13 +3067,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="127"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="130" t="s">
+      <c r="A3" s="118"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="134"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="125"/>
       <c r="F3" s="43" t="s">
         <v>6</v>
       </c>
@@ -2960,43 +3081,43 @@
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="86"/>
       <c r="B4" s="64" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="123" t="s">
-        <v>143</v>
+      <c r="A5" s="114" t="s">
+        <v>139</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E5" s="73"/>
       <c r="F5" s="65"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="123"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="8"/>
@@ -3011,15 +3132,15 @@
       <c r="Q6" s="46"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="123"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="8"/>
@@ -3034,7 +3155,7 @@
       <c r="Q7" s="46"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="113" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="66"/>
@@ -3053,7 +3174,7 @@
       <c r="Q8" s="46"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="132"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="66"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -3070,14 +3191,14 @@
       <c r="Q9" s="46"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
-        <v>159</v>
+      <c r="A10" s="113" t="s">
+        <v>155</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D10" s="68" t="s">
         <v>32</v>
@@ -3095,12 +3216,12 @@
       <c r="Q10" s="46"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="123"/>
+      <c r="A11" s="114"/>
       <c r="B11" s="67" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D11" s="68" t="s">
         <v>32</v>
@@ -3109,393 +3230,393 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="123"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="67" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D12" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="8"/>
-      <c r="I12" s="120" t="s">
+      <c r="I12" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="116" t="s">
+      <c r="J12" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="116" t="s">
+      <c r="K12" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="116" t="s">
+      <c r="L12" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="116" t="s">
+      <c r="M12" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="116" t="s">
+      <c r="N12" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="116" t="s">
+      <c r="O12" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="116" t="s">
+      <c r="P12" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="116" t="s">
+      <c r="Q12" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="R12" s="118" t="s">
-        <v>176</v>
+      <c r="R12" s="133" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="123"/>
+      <c r="A13" s="114"/>
       <c r="B13" s="67" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D13" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="68"/>
       <c r="F13" s="8"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="117"/>
-      <c r="R13" s="119"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="134"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="123"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="67" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D14" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="68"/>
       <c r="F14" s="8"/>
-      <c r="I14" s="113" t="s">
+      <c r="I14" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="113">
+      <c r="J14" s="127">
         <v>7</v>
       </c>
-      <c r="K14" s="113">
+      <c r="K14" s="127">
         <v>30</v>
       </c>
-      <c r="L14" s="114" t="s">
+      <c r="L14" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="113" t="s">
+      <c r="M14" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="115" t="s">
+      <c r="N14" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="114" t="s">
+      <c r="O14" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="P14" s="114" t="s">
+      <c r="P14" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="114" t="s">
+      <c r="Q14" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="R14" s="114" t="s">
-        <v>177</v>
+      <c r="R14" s="126" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="123"/>
+      <c r="A15" s="114"/>
       <c r="B15" s="67"/>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
       <c r="F15" s="8"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="113"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="114"/>
-      <c r="Q15" s="114"/>
-      <c r="R15" s="114"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="126"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="123"/>
+      <c r="A16" s="114"/>
       <c r="B16" s="67"/>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
       <c r="F16" s="8"/>
-      <c r="I16" s="113" t="s">
+      <c r="I16" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="113">
+      <c r="J16" s="127">
         <v>5</v>
       </c>
-      <c r="K16" s="113">
+      <c r="K16" s="127">
         <v>30</v>
       </c>
-      <c r="L16" s="114" t="s">
+      <c r="L16" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="113" t="s">
+      <c r="M16" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="115" t="s">
+      <c r="N16" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="114" t="s">
+      <c r="O16" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="P16" s="114" t="s">
+      <c r="P16" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="Q16" s="114" t="s">
+      <c r="Q16" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="114" t="s">
-        <v>178</v>
+      <c r="R16" s="126" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="123"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="67"/>
       <c r="C17" s="68"/>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
       <c r="F17" s="8"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="114"/>
-      <c r="Q17" s="114"/>
-      <c r="R17" s="114"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="126"/>
+      <c r="P17" s="126"/>
+      <c r="Q17" s="126"/>
+      <c r="R17" s="126"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="122" t="s">
-        <v>170</v>
+      <c r="A18" s="113" t="s">
+        <v>166</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D18" s="68" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="68"/>
       <c r="F18" s="8"/>
-      <c r="I18" s="113" t="s">
+      <c r="I18" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="113">
+      <c r="J18" s="127">
         <v>1</v>
       </c>
-      <c r="K18" s="113">
+      <c r="K18" s="127">
         <v>6</v>
       </c>
-      <c r="L18" s="114" t="s">
+      <c r="L18" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="M18" s="113" t="s">
+      <c r="M18" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="115" t="s">
+      <c r="N18" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="114" t="s">
+      <c r="O18" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="P18" s="114" t="s">
+      <c r="P18" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="Q18" s="114" t="s">
+      <c r="Q18" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="114" t="s">
-        <v>179</v>
+      <c r="R18" s="126" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="123"/>
+      <c r="A19" s="114"/>
       <c r="B19" s="67" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D19" s="68" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="68"/>
       <c r="F19" s="8"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="114"/>
-      <c r="Q19" s="114"/>
-      <c r="R19" s="114"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="127"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="126"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="123"/>
+      <c r="A20" s="114"/>
       <c r="B20" s="67" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D20" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="68"/>
       <c r="F20" s="8"/>
-      <c r="I20" s="113" t="s">
+      <c r="I20" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="113">
+      <c r="J20" s="127">
         <v>1</v>
       </c>
-      <c r="K20" s="113">
+      <c r="K20" s="127">
         <v>6</v>
       </c>
-      <c r="L20" s="114" t="s">
+      <c r="L20" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="M20" s="113" t="s">
+      <c r="M20" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="115" t="s">
+      <c r="N20" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="114" t="s">
+      <c r="O20" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="P20" s="114" t="s">
+      <c r="P20" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="Q20" s="114" t="s">
+      <c r="Q20" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="R20" s="114" t="s">
-        <v>180</v>
+      <c r="R20" s="126" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="123"/>
+      <c r="A21" s="114"/>
       <c r="B21" s="67" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D21" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="68"/>
       <c r="F21" s="8"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="114"/>
-      <c r="Q21" s="114"/>
-      <c r="R21" s="114"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="126"/>
+      <c r="P21" s="126"/>
+      <c r="Q21" s="126"/>
+      <c r="R21" s="126"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="123"/>
+      <c r="A22" s="114"/>
       <c r="B22" s="67" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D22" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="68"/>
       <c r="F22" s="8"/>
-      <c r="I22" s="113" t="s">
+      <c r="I22" s="127" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" s="127">
+        <v>3</v>
+      </c>
+      <c r="K22" s="127">
+        <v>6</v>
+      </c>
+      <c r="L22" s="126" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="O22" s="126" t="s">
+        <v>179</v>
+      </c>
+      <c r="P22" s="126" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q22" s="126" t="s">
         <v>181</v>
       </c>
-      <c r="J22" s="113">
-        <v>3</v>
-      </c>
-      <c r="K22" s="113">
-        <v>6</v>
-      </c>
-      <c r="L22" s="114" t="s">
+      <c r="R22" s="126" t="s">
         <v>182</v>
       </c>
-      <c r="M22" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" s="115" t="s">
-        <v>37</v>
-      </c>
-      <c r="O22" s="114" t="s">
-        <v>183</v>
-      </c>
-      <c r="P22" s="114" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q22" s="114" t="s">
-        <v>185</v>
-      </c>
-      <c r="R22" s="114" t="s">
-        <v>186</v>
-      </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="123"/>
+      <c r="A23" s="114"/>
       <c r="B23" s="67"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
       <c r="F23" s="8"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="115"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="114"/>
-      <c r="R23" s="114"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="127"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="126"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="126"/>
+      <c r="R23" s="126"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="123"/>
+      <c r="A24" s="114"/>
       <c r="B24" s="67"/>
       <c r="C24" s="68"/>
       <c r="D24" s="68"/>
@@ -3503,7 +3624,7 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="123"/>
+      <c r="A25" s="114"/>
       <c r="B25" s="67"/>
       <c r="C25" s="68"/>
       <c r="D25" s="68"/>
@@ -3512,87 +3633,87 @@
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="69" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B26" s="67"/>
       <c r="C26" s="68" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D26" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N26" s="84"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B27" s="68"/>
       <c r="C27" s="68" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D27" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="68" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N27" s="84"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="69" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B28" s="68"/>
       <c r="C28" s="68" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D28" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F28" s="68" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="69" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="68" t="s">
         <v>209</v>
-      </c>
-      <c r="B29" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="C29" s="68" t="s">
-        <v>214</v>
       </c>
       <c r="D29" s="68" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="68"/>
       <c r="F29" s="68" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="68" t="s">
         <v>208</v>
-      </c>
-      <c r="B30" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="C30" s="68" t="s">
-        <v>213</v>
       </c>
       <c r="D30" s="68" t="s">
         <v>32</v>
@@ -3602,43 +3723,43 @@
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="69" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B31" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="68" t="s">
         <v>210</v>
-      </c>
-      <c r="C31" s="68" t="s">
-        <v>215</v>
       </c>
       <c r="D31" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="68"/>
       <c r="F31" s="68" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="B32" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="68" t="s">
         <v>211</v>
-      </c>
-      <c r="B32" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="68" t="s">
-        <v>216</v>
       </c>
       <c r="D32" s="68" t="s">
         <v>32</v>
       </c>
       <c r="E32" s="68"/>
       <c r="F32" s="68" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="69" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B33" s="68"/>
       <c r="C33" s="1"/>
@@ -3648,7 +3769,7 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="69" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B34" s="72"/>
       <c r="C34" s="1"/>
@@ -3728,49 +3849,16 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="I18:I19"/>
     <mergeCell ref="M22:M23"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="Q20:Q21"/>
@@ -3787,16 +3875,49 @@
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="N18:N19"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3805,10 +3926,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3833,344 +3954,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="178" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
-    </row>
-    <row r="2" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="140" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="141"/>
-      <c r="I2" s="140" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="141"/>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A1" s="154"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+    </row>
+    <row r="2" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="186"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="142" t="s">
-        <v>113</v>
-      </c>
+      <c r="A3" s="187"/>
       <c r="B3" s="10"/>
-      <c r="C3" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>146</v>
-      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="147"/>
-      <c r="L3" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="M3" s="4">
-        <v>40</v>
-      </c>
-      <c r="N3" s="4">
-        <v>62</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="G3" s="190"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="192"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="143"/>
+      <c r="A4" s="188"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>146</v>
-      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="150"/>
-      <c r="L4" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="M4" s="4">
-        <v>40</v>
-      </c>
-      <c r="N4" s="4">
-        <v>62</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="G4" s="193"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="195"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="144"/>
+      <c r="A5" s="189"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>146</v>
-      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="153"/>
-      <c r="L5" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="M5" s="4">
-        <v>40</v>
-      </c>
-      <c r="N5" s="4">
-        <v>62</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="G5" s="196"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="196"/>
+      <c r="J5" s="198"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="156" t="s">
-        <v>306</v>
-      </c>
+      <c r="A6" s="201"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="G6" s="168"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="169"/>
-      <c r="L6" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="M6" s="4">
-        <v>2</v>
-      </c>
-      <c r="N6" s="4">
-        <v>2</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>250</v>
-      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="181"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="157"/>
+      <c r="A7" s="202"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>256</v>
-      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="48"/>
       <c r="H7" s="49"/>
       <c r="I7" s="48"/>
       <c r="J7" s="50"/>
-      <c r="L7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M7" s="4">
-        <v>2</v>
-      </c>
-      <c r="N7" s="4">
-        <v>2</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>253</v>
-      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="158"/>
+      <c r="A8" s="203"/>
       <c r="B8" s="17"/>
-      <c r="C8" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>256</v>
-      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="51"/>
       <c r="H8" s="52"/>
       <c r="I8" s="51"/>
       <c r="J8" s="53"/>
-      <c r="L8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" s="4">
-        <v>2</v>
-      </c>
-      <c r="N8" s="4">
-        <v>2</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>255</v>
-      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="154"/>
+      <c r="A9" s="199"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="164"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="176"/>
       <c r="L9" s="3"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -4181,16 +4126,16 @@
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155"/>
+      <c r="A10" s="200"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="166"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="167"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="179"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -4201,26 +4146,22 @@
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
+      <c r="A11" s="200"/>
       <c r="B11" s="78"/>
       <c r="C11" s="78"/>
       <c r="D11" s="78"/>
       <c r="E11" s="78"/>
       <c r="F11" s="78"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="161"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="205"/>
+      <c r="I11" s="204"/>
+      <c r="J11" s="206"/>
       <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="80" t="s">
-        <v>219</v>
-      </c>
+      <c r="A12" s="80"/>
       <c r="B12" s="81"/>
-      <c r="C12" s="79" t="s">
-        <v>221</v>
-      </c>
+      <c r="C12" s="79"/>
       <c r="D12" s="81"/>
       <c r="E12" s="81"/>
       <c r="F12" s="81"/>
@@ -4232,18 +4173,10 @@
     <row r="13" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="80"/>
       <c r="B13" s="81"/>
-      <c r="C13" s="80" t="s">
-        <v>220</v>
-      </c>
-      <c r="D13" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="E13" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" s="81" t="s">
-        <v>256</v>
-      </c>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
       <c r="G13" s="81"/>
       <c r="H13" s="81"/>
       <c r="I13" s="81"/>
@@ -4260,9 +4193,7 @@
     <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="80"/>
       <c r="B14" s="81"/>
-      <c r="C14" s="80" t="s">
-        <v>228</v>
-      </c>
+      <c r="C14" s="80"/>
       <c r="D14" s="81"/>
       <c r="E14" s="81"/>
       <c r="F14" s="81"/>
@@ -4282,9 +4213,7 @@
     <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="80"/>
       <c r="B15" s="81"/>
-      <c r="C15" s="80" t="s">
-        <v>229</v>
-      </c>
+      <c r="C15" s="80"/>
       <c r="D15" s="81"/>
       <c r="E15" s="81"/>
       <c r="F15" s="81"/>
@@ -4304,9 +4233,7 @@
     <row r="16" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="80"/>
       <c r="B16" s="81"/>
-      <c r="C16" s="80" t="s">
-        <v>230</v>
-      </c>
+      <c r="C16" s="80"/>
       <c r="D16" s="81"/>
       <c r="E16" s="81"/>
       <c r="F16" s="81"/>
@@ -4326,9 +4253,7 @@
     <row r="17" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="80"/>
       <c r="B17" s="81"/>
-      <c r="C17" s="80" t="s">
-        <v>231</v>
-      </c>
+      <c r="C17" s="80"/>
       <c r="D17" s="81"/>
       <c r="E17" s="81"/>
       <c r="F17" s="81"/>
@@ -4358,449 +4283,323 @@
       <c r="J18" s="81"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="191" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>222</v>
-      </c>
+      <c r="A19" s="138"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="173"/>
     </row>
     <row r="20" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="191"/>
-      <c r="B20" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>223</v>
-      </c>
+      <c r="A20" s="138"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="172"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="168"/>
     </row>
     <row r="21" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="191"/>
-      <c r="B21" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>224</v>
-      </c>
+      <c r="A21" s="138"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="74"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="172"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="168"/>
+      <c r="I21" s="168"/>
+      <c r="J21" s="168"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="191"/>
-      <c r="B22" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>225</v>
-      </c>
+      <c r="A22" s="138"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="74"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="172"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="168"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="191"/>
+      <c r="A23" s="138"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="74"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="172"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="168"/>
+      <c r="J23" s="168"/>
     </row>
     <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="191"/>
+      <c r="A24" s="138"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="74"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="168"/>
+      <c r="J24" s="168"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="191"/>
+      <c r="A25" s="138"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="74"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="172"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="168"/>
+      <c r="I25" s="168"/>
+      <c r="J25" s="168"/>
     </row>
     <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="192"/>
+      <c r="A26" s="139"/>
       <c r="B26" s="75"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="75"/>
-      <c r="G26" s="189"/>
-      <c r="H26" s="189"/>
-      <c r="I26" s="189"/>
-      <c r="J26" s="189"/>
+      <c r="G26" s="169"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="169"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="138" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>222</v>
-      </c>
+      <c r="A27" s="183"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="190"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="174"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="172"/>
     </row>
     <row r="28" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="139"/>
-      <c r="B28" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>223</v>
-      </c>
+      <c r="A28" s="184"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="177"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="153"/>
     </row>
     <row r="29" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="139"/>
-      <c r="B29" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>224</v>
-      </c>
+      <c r="A29" s="184"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="176"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="177"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="153"/>
     </row>
     <row r="30" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="139"/>
-      <c r="B30" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>225</v>
-      </c>
+      <c r="A30" s="184"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="177"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="153"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="139"/>
+      <c r="A31" s="184"/>
       <c r="B31" s="25"/>
       <c r="C31" s="26"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="177"/>
+      <c r="G31" s="151"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="153"/>
     </row>
     <row r="32" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="139"/>
+      <c r="A32" s="184"/>
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="177"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="153"/>
     </row>
     <row r="33" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="139"/>
+      <c r="A33" s="184"/>
       <c r="B33" s="27"/>
       <c r="C33" s="28"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="137"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="162"/>
+      <c r="J33" s="164"/>
     </row>
     <row r="34" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="139"/>
+      <c r="A34" s="184"/>
       <c r="B34" s="27"/>
       <c r="C34" s="28"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="137"/>
+      <c r="G34" s="162"/>
+      <c r="H34" s="163"/>
+      <c r="I34" s="162"/>
+      <c r="J34" s="164"/>
     </row>
     <row r="35" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="193" t="s">
-        <v>117</v>
-      </c>
+      <c r="A35" s="140"/>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
       <c r="F35" s="29"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="187"/>
-      <c r="I35" s="186"/>
-      <c r="J35" s="188"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="166"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="167"/>
     </row>
     <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="194"/>
+      <c r="A36" s="141"/>
       <c r="B36" s="30"/>
       <c r="C36" s="31"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
-      <c r="G36" s="180"/>
-      <c r="H36" s="181"/>
-      <c r="I36" s="180"/>
-      <c r="J36" s="182"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="158"/>
     </row>
     <row r="37" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="54" t="s">
-        <v>116</v>
-      </c>
+      <c r="A37" s="54"/>
       <c r="B37" s="55"/>
-      <c r="C37" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="G37" s="183"/>
-      <c r="H37" s="184"/>
-      <c r="I37" s="183"/>
-      <c r="J37" s="185"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="160"/>
+      <c r="I37" s="159"/>
+      <c r="J37" s="161"/>
     </row>
     <row r="38" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>25</v>
-      </c>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
       <c r="F38" s="35"/>
-      <c r="G38" s="200"/>
-      <c r="H38" s="201"/>
-      <c r="I38" s="200"/>
-      <c r="J38" s="202"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="147"/>
     </row>
     <row r="39" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>25</v>
-      </c>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
       <c r="F39" s="35"/>
-      <c r="G39" s="203"/>
-      <c r="H39" s="204"/>
-      <c r="I39" s="203"/>
-      <c r="J39" s="205"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="150"/>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>25</v>
-      </c>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
       <c r="F40" s="35"/>
-      <c r="G40" s="195"/>
-      <c r="H40" s="196"/>
-      <c r="I40" s="195"/>
-      <c r="J40" s="197"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="144"/>
     </row>
     <row r="41" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="B41" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>25</v>
-      </c>
+      <c r="A41" s="58"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
       <c r="F41" s="35"/>
-      <c r="G41" s="195"/>
-      <c r="H41" s="196"/>
-      <c r="I41" s="195"/>
-      <c r="J41" s="197"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="142"/>
+      <c r="J41" s="144"/>
     </row>
     <row r="42" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="D42" s="76" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="76" t="s">
-        <v>25</v>
-      </c>
+      <c r="A42" s="56"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
       <c r="F42" s="76"/>
-      <c r="G42" s="198"/>
-      <c r="H42" s="198"/>
-      <c r="I42" s="198"/>
-      <c r="J42" s="199"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="137"/>
     </row>
     <row r="43" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="D43" s="76" t="s">
-        <v>242</v>
-      </c>
-      <c r="E43" s="76" t="s">
-        <v>25</v>
-      </c>
+      <c r="A43" s="38"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
       <c r="F43" s="76"/>
-      <c r="G43" s="198"/>
-      <c r="H43" s="198"/>
-      <c r="I43" s="198"/>
-      <c r="J43" s="199"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="136"/>
+      <c r="I43" s="136"/>
+      <c r="J43" s="137"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D44" s="76" t="s">
-        <v>243</v>
-      </c>
-      <c r="E44" s="76" t="s">
-        <v>25</v>
-      </c>
+      <c r="A44" s="39"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
       <c r="F44" s="40"/>
-      <c r="G44" s="198"/>
-      <c r="H44" s="198"/>
-      <c r="I44" s="198"/>
-      <c r="J44" s="199"/>
+      <c r="G44" s="136"/>
+      <c r="H44" s="136"/>
+      <c r="I44" s="136"/>
+      <c r="J44" s="137"/>
     </row>
     <row r="45" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>232</v>
-      </c>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>25</v>
-      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
@@ -4821,15 +4620,9 @@
     </row>
     <row r="47" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="82"/>
-      <c r="B47" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="83" t="s">
-        <v>25</v>
-      </c>
+      <c r="B47" s="58"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
       <c r="E47" s="83"/>
       <c r="F47" s="83"/>
       <c r="G47" s="83"/>
@@ -4839,29 +4632,17 @@
     </row>
     <row r="48" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="82"/>
-      <c r="B48" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="83" t="s">
-        <v>245</v>
-      </c>
-      <c r="D48" s="83" t="s">
-        <v>25</v>
-      </c>
+      <c r="B48" s="58"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
       <c r="I48" s="83"/>
       <c r="J48" s="83"/>
     </row>
     <row r="49" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="82"/>
-      <c r="B49" s="61" t="s">
-        <v>199</v>
-      </c>
-      <c r="C49" s="83" t="s">
-        <v>262</v>
-      </c>
-      <c r="D49" s="83" t="s">
-        <v>25</v>
-      </c>
+      <c r="B49" s="61"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="83"/>
       <c r="I49" s="83"/>
       <c r="J49" s="83"/>
     </row>
@@ -4871,73 +4652,33 @@
       <c r="J50" s="83"/>
     </row>
     <row r="52" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>236</v>
-      </c>
+      <c r="A52" s="7"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>11</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>240</v>
-      </c>
+      <c r="A53" s="7"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>12</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="85" t="s">
-        <v>241</v>
-      </c>
+      <c r="A54" s="7"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="85"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
-        <v>19</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="206" t="s">
-        <v>244</v>
-      </c>
-      <c r="F55" s="206"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="135"/>
+      <c r="F55" s="135"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="E57" s="83"/>
@@ -4948,13 +4689,833 @@
     <row r="59" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="E59" s="83"/>
     </row>
+    <row r="66" spans="1:19" ht="33" x14ac:dyDescent="0.25">
+      <c r="A66" s="220" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="220" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="220" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="220" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="220" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="220" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="221" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="221"/>
+      <c r="I66" s="221" t="s">
+        <v>111</v>
+      </c>
+      <c r="J66" s="221"/>
+      <c r="L66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="222" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" s="223" t="s">
+        <v>151</v>
+      </c>
+      <c r="E67" s="224" t="s">
+        <v>142</v>
+      </c>
+      <c r="F67" s="12"/>
+      <c r="G67" s="225"/>
+      <c r="H67" s="225"/>
+      <c r="I67" s="225"/>
+      <c r="J67" s="225"/>
+      <c r="L67" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="M67" s="4">
+        <v>40</v>
+      </c>
+      <c r="N67" s="4">
+        <v>62</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q67" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R67" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S67" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="222"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F68" s="12"/>
+      <c r="G68" s="225"/>
+      <c r="H68" s="225"/>
+      <c r="I68" s="225"/>
+      <c r="J68" s="225"/>
+      <c r="L68" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="M68" s="4">
+        <v>40</v>
+      </c>
+      <c r="N68" s="4">
+        <v>62</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P68" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R68" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S68" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="222"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="224" t="s">
+        <v>240</v>
+      </c>
+      <c r="E69" s="224" t="s">
+        <v>142</v>
+      </c>
+      <c r="F69" s="12"/>
+      <c r="G69" s="225"/>
+      <c r="H69" s="225"/>
+      <c r="I69" s="225"/>
+      <c r="J69" s="225"/>
+      <c r="L69" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M69" s="4">
+        <v>40</v>
+      </c>
+      <c r="N69" s="4">
+        <v>62</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R69" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="S69" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="226" t="s">
+        <v>286</v>
+      </c>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="G70" s="227"/>
+      <c r="H70" s="227"/>
+      <c r="I70" s="227"/>
+      <c r="J70" s="227"/>
+      <c r="L70" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="M70" s="4">
+        <v>2</v>
+      </c>
+      <c r="N70" s="4">
+        <v>2</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q70" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="R70" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="S70" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="226"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="G71" s="228"/>
+      <c r="H71" s="228"/>
+      <c r="I71" s="228"/>
+      <c r="J71" s="228"/>
+      <c r="L71" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M71" s="4">
+        <v>2</v>
+      </c>
+      <c r="N71" s="4">
+        <v>2</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q71" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="R71" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="S71" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="226"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="G72" s="228"/>
+      <c r="H72" s="228"/>
+      <c r="I72" s="228"/>
+      <c r="J72" s="228"/>
+      <c r="L72" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M72" s="4">
+        <v>2</v>
+      </c>
+      <c r="N72" s="4">
+        <v>2</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q72" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="R72" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="S72" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="229" t="s">
+        <v>214</v>
+      </c>
+      <c r="B73" s="79"/>
+      <c r="C73" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" s="79" t="s">
+        <v>243</v>
+      </c>
+      <c r="E73" s="79" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" s="79" t="s">
+        <v>240</v>
+      </c>
+      <c r="G73" s="230"/>
+      <c r="H73" s="230"/>
+      <c r="I73" s="230"/>
+      <c r="J73" s="230"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+    </row>
+    <row r="74" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="231" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" s="231"/>
+      <c r="C74" s="232" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="231" t="s">
+        <v>241</v>
+      </c>
+      <c r="E74" s="231" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" s="231" t="s">
+        <v>240</v>
+      </c>
+      <c r="G74" s="233"/>
+      <c r="H74" s="233"/>
+      <c r="I74" s="233"/>
+      <c r="J74" s="233"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+    </row>
+    <row r="75" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="G75" s="234"/>
+      <c r="H75" s="234"/>
+      <c r="I75" s="234"/>
+      <c r="J75" s="234"/>
+      <c r="S75" s="4"/>
+    </row>
+    <row r="76" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="235" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" s="235" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" s="236" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76" s="235" t="s">
+        <v>124</v>
+      </c>
+      <c r="E76" s="235" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" s="237" t="s">
+        <v>240</v>
+      </c>
+      <c r="G76" s="237"/>
+      <c r="H76" s="237"/>
+      <c r="I76" s="237"/>
+      <c r="J76" s="237"/>
+    </row>
+    <row r="77" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A77" s="235" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="235" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="236" t="s">
+        <v>186</v>
+      </c>
+      <c r="D77" s="235" t="s">
+        <v>125</v>
+      </c>
+      <c r="E77" s="235" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="237" t="s">
+        <v>240</v>
+      </c>
+      <c r="G77" s="237"/>
+      <c r="H77" s="237"/>
+      <c r="I77" s="237"/>
+      <c r="J77" s="237"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+    </row>
+    <row r="78" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A78" s="235" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" s="235" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="236" t="s">
+        <v>187</v>
+      </c>
+      <c r="D78" s="235" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78" s="235" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" s="237" t="s">
+        <v>240</v>
+      </c>
+      <c r="G78" s="237"/>
+      <c r="H78" s="237"/>
+      <c r="I78" s="237"/>
+      <c r="J78" s="237"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+    </row>
+    <row r="79" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A79" s="238" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" s="235" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" s="236" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" s="235" t="s">
+        <v>136</v>
+      </c>
+      <c r="E79" s="235" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" s="237" t="s">
+        <v>240</v>
+      </c>
+      <c r="G79" s="237"/>
+      <c r="H79" s="237"/>
+      <c r="I79" s="237"/>
+      <c r="J79" s="237"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+    </row>
+    <row r="80" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A80" s="235" t="s">
+        <v>290</v>
+      </c>
+      <c r="B80" s="235" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="235"/>
+      <c r="D80" s="235" t="s">
+        <v>291</v>
+      </c>
+      <c r="E80" s="235" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" s="237" t="s">
+        <v>240</v>
+      </c>
+      <c r="G80" s="237"/>
+      <c r="H80" s="237"/>
+      <c r="I80" s="237"/>
+      <c r="J80" s="237"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+    </row>
+    <row r="81" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A81" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="239" t="s">
+        <v>185</v>
+      </c>
+      <c r="D81" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E81" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" s="240" t="s">
+        <v>240</v>
+      </c>
+      <c r="G81" s="240"/>
+      <c r="H81" s="240"/>
+      <c r="I81" s="240"/>
+      <c r="J81" s="240"/>
+      <c r="L81" s="47"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+    </row>
+    <row r="82" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A82" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" s="239" t="s">
+        <v>186</v>
+      </c>
+      <c r="D82" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="E82" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" s="240" t="s">
+        <v>240</v>
+      </c>
+      <c r="G82" s="240"/>
+      <c r="H82" s="240"/>
+      <c r="I82" s="240"/>
+      <c r="J82" s="240"/>
+    </row>
+    <row r="83" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" s="239" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E83" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="239" t="s">
+        <v>240</v>
+      </c>
+      <c r="G83" s="241"/>
+      <c r="H83" s="241"/>
+      <c r="I83" s="241"/>
+      <c r="J83" s="241"/>
+    </row>
+    <row r="84" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="242" t="s">
+        <v>292</v>
+      </c>
+      <c r="B84" s="243" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" s="244" t="s">
+        <v>293</v>
+      </c>
+      <c r="D84" s="243" t="s">
+        <v>294</v>
+      </c>
+      <c r="E84" s="243" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="244" t="s">
+        <v>240</v>
+      </c>
+      <c r="G84" s="245"/>
+      <c r="H84" s="245"/>
+      <c r="I84" s="245"/>
+      <c r="J84" s="245"/>
+    </row>
+    <row r="85" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A85" s="246" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" s="247" t="s">
+        <v>219</v>
+      </c>
+      <c r="C85" s="248" t="s">
+        <v>220</v>
+      </c>
+      <c r="D85" s="248" t="s">
+        <v>221</v>
+      </c>
+      <c r="E85" s="248" t="s">
+        <v>222</v>
+      </c>
+      <c r="F85" s="248"/>
+      <c r="G85" s="249"/>
+      <c r="H85" s="249"/>
+      <c r="I85" s="249"/>
+      <c r="J85" s="250"/>
+    </row>
+    <row r="86" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="251">
+        <v>11</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="252"/>
+      <c r="H86" s="252"/>
+      <c r="I86" s="252"/>
+      <c r="J86" s="253"/>
+    </row>
+    <row r="87" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="251">
+        <v>12</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="252"/>
+      <c r="H87" s="252"/>
+      <c r="I87" s="252"/>
+      <c r="J87" s="253"/>
+    </row>
+    <row r="88" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="254">
+        <v>19</v>
+      </c>
+      <c r="B88" s="255" t="s">
+        <v>223</v>
+      </c>
+      <c r="C88" s="255" t="s">
+        <v>244</v>
+      </c>
+      <c r="D88" s="255" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="256" t="s">
+        <v>228</v>
+      </c>
+      <c r="F88" s="256"/>
+      <c r="G88" s="257"/>
+      <c r="H88" s="257"/>
+      <c r="I88" s="257"/>
+      <c r="J88" s="258"/>
+    </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
+  <mergeCells count="107">
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="A19:A26"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="G40:H40"/>
@@ -4971,61 +5532,11 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5062,14 +5573,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="216" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
+      <c r="A1" s="210" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="88" t="s">
@@ -5090,34 +5601,34 @@
       <c r="F2" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="215" t="s">
+      <c r="G2" s="212" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="215"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="212"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="218" t="s">
-        <v>82</v>
+      <c r="A3" s="207" t="s">
+        <v>81</v>
       </c>
       <c r="B3" s="89"/>
       <c r="C3" s="90" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D3" s="91" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E3" s="91" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F3" s="89"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="209"/>
       <c r="L3" s="87" t="s">
         <v>58</v>
       </c>
@@ -5130,22 +5641,22 @@
       <c r="S3" s="92"/>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="218"/>
+      <c r="A4" s="207"/>
       <c r="B4" s="89"/>
       <c r="C4" s="90" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D4" s="93" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E4" s="91" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F4" s="89"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="209"/>
       <c r="L4" s="94" t="s">
         <v>16</v>
       </c>
@@ -5171,14 +5682,14 @@
         <v>23</v>
       </c>
       <c r="T4" s="95" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="218"/>
+      <c r="A5" s="207"/>
       <c r="B5" s="89"/>
       <c r="C5" s="96" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="D5" s="97"/>
       <c r="E5" s="97"/>
@@ -5206,32 +5717,32 @@
         <v>27</v>
       </c>
       <c r="R5" s="95" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="S5" s="95" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="T5" s="95" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="218"/>
+      <c r="A6" s="207"/>
       <c r="B6" s="89"/>
       <c r="C6" s="96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="97" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="E6" s="95" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="89"/>
-      <c r="G6" s="207"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="207"/>
-      <c r="J6" s="208"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="209"/>
       <c r="L6" s="100" t="s">
         <v>62</v>
       </c>
@@ -5242,7 +5753,7 @@
         <v>6</v>
       </c>
       <c r="O6" s="95" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="P6" s="95" t="s">
         <v>26</v>
@@ -5251,34 +5762,34 @@
         <v>27</v>
       </c>
       <c r="R6" s="95" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="S6" s="95" t="s">
         <v>61</v>
       </c>
       <c r="T6" s="95" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="212" t="s">
-        <v>83</v>
+      <c r="A7" s="213" t="s">
+        <v>82</v>
       </c>
       <c r="B7" s="89"/>
       <c r="C7" s="96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="97" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="E7" s="95" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="97"/>
-      <c r="G7" s="207"/>
-      <c r="H7" s="208"/>
-      <c r="I7" s="207"/>
-      <c r="J7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="209"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="209"/>
       <c r="L7" s="100" t="s">
         <v>65</v>
       </c>
@@ -5298,23 +5809,23 @@
         <v>27</v>
       </c>
       <c r="R7" s="95" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="S7" s="95" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="T7" s="95" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="213"/>
+      <c r="A8" s="214"/>
       <c r="B8" s="89"/>
       <c r="C8" s="96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="97" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="E8" s="95" t="s">
         <v>27</v>
@@ -5334,7 +5845,7 @@
         <v>6</v>
       </c>
       <c r="O8" s="95" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="P8" s="95" t="s">
         <v>26</v>
@@ -5343,23 +5854,23 @@
         <v>27</v>
       </c>
       <c r="R8" s="95" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="S8" s="95" t="s">
         <v>64</v>
       </c>
       <c r="T8" s="95" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="214"/>
+      <c r="A9" s="215"/>
       <c r="B9" s="89"/>
       <c r="C9" s="96" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D9" s="97" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E9" s="95" t="s">
         <v>27</v>
@@ -5388,34 +5899,34 @@
         <v>27</v>
       </c>
       <c r="R9" s="95" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="S9" s="95" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="T9" s="95" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="218" t="s">
-        <v>84</v>
+      <c r="A10" s="207" t="s">
+        <v>83</v>
       </c>
       <c r="B10" s="89"/>
       <c r="C10" s="90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="93" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E10" s="101" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="97"/>
-      <c r="G10" s="207"/>
-      <c r="H10" s="208"/>
-      <c r="I10" s="207"/>
-      <c r="J10" s="208"/>
+      <c r="G10" s="208"/>
+      <c r="H10" s="209"/>
+      <c r="I10" s="208"/>
+      <c r="J10" s="209"/>
       <c r="L10" s="100" t="s">
         <v>72</v>
       </c>
@@ -5441,28 +5952,28 @@
         <v>71</v>
       </c>
       <c r="T10" s="95" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="218"/>
+      <c r="A11" s="207"/>
       <c r="B11" s="89"/>
       <c r="C11" s="90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="93" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="E11" s="101" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="102"/>
-      <c r="G11" s="207"/>
-      <c r="H11" s="208"/>
-      <c r="I11" s="207"/>
-      <c r="J11" s="208"/>
+      <c r="G11" s="208"/>
+      <c r="H11" s="209"/>
+      <c r="I11" s="208"/>
+      <c r="J11" s="209"/>
       <c r="L11" s="100" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="M11" s="95">
         <v>54</v>
@@ -5486,26 +5997,26 @@
         <v>75</v>
       </c>
       <c r="T11" s="95" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="218"/>
+      <c r="A12" s="207"/>
       <c r="B12" s="89"/>
       <c r="C12" s="90" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D12" s="93" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="E12" s="101" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="102"/>
-      <c r="G12" s="207"/>
-      <c r="H12" s="208"/>
-      <c r="I12" s="207"/>
-      <c r="J12" s="208"/>
+      <c r="G12" s="208"/>
+      <c r="H12" s="209"/>
+      <c r="I12" s="208"/>
+      <c r="J12" s="209"/>
       <c r="L12" s="103"/>
       <c r="O12" s="104"/>
       <c r="P12" s="104"/>
@@ -5513,12 +6024,12 @@
       <c r="T12" s="105"/>
     </row>
     <row r="13" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="209" t="s">
-        <v>288</v>
+      <c r="A13" s="216" t="s">
+        <v>269</v>
       </c>
       <c r="B13" s="106"/>
       <c r="C13" s="106" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D13" s="97"/>
       <c r="E13" s="95"/>
@@ -5528,7 +6039,7 @@
       <c r="I13" s="98"/>
       <c r="J13" s="99"/>
       <c r="L13" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M13" s="107"/>
       <c r="N13" s="108" t="s">
@@ -5540,10 +6051,10 @@
       <c r="T13" s="105"/>
     </row>
     <row r="14" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="210"/>
+      <c r="A14" s="217"/>
       <c r="B14" s="106"/>
       <c r="C14" s="106" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="D14" s="97"/>
       <c r="E14" s="97"/>
@@ -5553,7 +6064,7 @@
       <c r="I14" s="98"/>
       <c r="J14" s="99"/>
       <c r="L14" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M14" s="107"/>
       <c r="N14" s="108" t="s">
@@ -5565,13 +6076,13 @@
       <c r="T14" s="105"/>
     </row>
     <row r="15" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="210"/>
+      <c r="A15" s="217"/>
       <c r="B15" s="106"/>
       <c r="C15" s="109" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="D15" s="93" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="E15" s="101" t="s">
         <v>27</v>
@@ -5582,11 +6093,11 @@
       <c r="I15" s="98"/>
       <c r="J15" s="99"/>
       <c r="L15" s="107" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="M15" s="107"/>
       <c r="N15" s="108" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O15" s="108" t="s">
         <v>25</v>
@@ -5594,13 +6105,13 @@
       <c r="T15" s="105"/>
     </row>
     <row r="16" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="210"/>
+      <c r="A16" s="217"/>
       <c r="B16" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="106"/>
       <c r="D16" s="110" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E16" s="110" t="s">
         <v>25</v>
@@ -5611,11 +6122,11 @@
       <c r="I16" s="98"/>
       <c r="J16" s="99"/>
       <c r="L16" s="107" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="M16" s="108"/>
       <c r="N16" s="108" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O16" s="108" t="s">
         <v>25</v>
@@ -5623,12 +6134,12 @@
       <c r="T16" s="105"/>
     </row>
     <row r="17" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="211"/>
+      <c r="A17" s="218"/>
       <c r="B17" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="108" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="E17" s="108" t="s">
         <v>25</v>
@@ -5642,12 +6153,12 @@
       <c r="O17" s="104"/>
     </row>
     <row r="18" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="209" t="s">
-        <v>297</v>
+      <c r="A18" s="216" t="s">
+        <v>278</v>
       </c>
       <c r="B18" s="106"/>
       <c r="C18" s="102" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D18" s="97"/>
       <c r="E18" s="95"/>
@@ -5657,23 +6168,23 @@
       <c r="I18" s="98"/>
       <c r="J18" s="99"/>
       <c r="L18" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M18" s="87" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="N18" s="108" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="O18" s="108" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="210"/>
+      <c r="A19" s="217"/>
       <c r="B19" s="106"/>
       <c r="C19" s="106" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="D19" s="97"/>
       <c r="E19" s="97"/>
@@ -5683,23 +6194,23 @@
       <c r="I19" s="98"/>
       <c r="J19" s="99"/>
       <c r="L19" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M19" s="87" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="N19" s="108" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="O19" s="108" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="210"/>
+      <c r="A20" s="217"/>
       <c r="B20" s="106"/>
       <c r="C20" s="106" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="D20" s="93" t="s">
         <v>66</v>
@@ -5715,13 +6226,13 @@
       <c r="M20" s="111"/>
     </row>
     <row r="21" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="210"/>
+      <c r="A21" s="217"/>
       <c r="B21" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" s="107"/>
       <c r="D21" s="110" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="E21" s="110" t="s">
         <v>25</v>
@@ -5732,26 +6243,26 @@
       <c r="I21" s="98"/>
       <c r="J21" s="99"/>
       <c r="L21" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M21" s="87" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="N21" s="108" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="O21" s="108" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="211"/>
+      <c r="A22" s="218"/>
       <c r="B22" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="107"/>
       <c r="D22" s="110" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="E22" s="110" t="s">
         <v>25</v>
@@ -5762,113 +6273,113 @@
       <c r="I22" s="98"/>
       <c r="J22" s="99"/>
       <c r="L22" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M22" s="87" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="N22" s="108" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="O22" s="108" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="212" t="s">
-        <v>85</v>
+      <c r="A23" s="213" t="s">
+        <v>84</v>
       </c>
       <c r="B23" s="89"/>
       <c r="C23" s="107" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" s="97"/>
       <c r="E23" s="97"/>
       <c r="F23" s="102"/>
-      <c r="G23" s="207"/>
-      <c r="H23" s="208"/>
-      <c r="I23" s="207"/>
-      <c r="J23" s="208"/>
+      <c r="G23" s="208"/>
+      <c r="H23" s="209"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="209"/>
       <c r="P23" s="105"/>
       <c r="Q23" s="105"/>
       <c r="R23" s="105"/>
       <c r="S23" s="105"/>
     </row>
     <row r="24" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="213"/>
+      <c r="A24" s="214"/>
       <c r="B24" s="89"/>
       <c r="C24" s="96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" s="97"/>
       <c r="E24" s="97"/>
       <c r="F24" s="102"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="208"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="208"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="209"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="209"/>
     </row>
     <row r="25" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="213"/>
+      <c r="A25" s="214"/>
       <c r="B25" s="89"/>
       <c r="C25" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D25" s="97"/>
       <c r="E25" s="97"/>
       <c r="F25" s="102"/>
-      <c r="G25" s="207"/>
-      <c r="H25" s="208"/>
-      <c r="I25" s="207"/>
-      <c r="J25" s="208"/>
+      <c r="G25" s="208"/>
+      <c r="H25" s="209"/>
+      <c r="I25" s="208"/>
+      <c r="J25" s="209"/>
     </row>
     <row r="26" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="213"/>
+      <c r="A26" s="214"/>
       <c r="B26" s="89"/>
       <c r="C26" s="96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26" s="97"/>
       <c r="E26" s="97"/>
       <c r="F26" s="97"/>
-      <c r="G26" s="207"/>
-      <c r="H26" s="208"/>
-      <c r="I26" s="207"/>
-      <c r="J26" s="208"/>
+      <c r="G26" s="208"/>
+      <c r="H26" s="209"/>
+      <c r="I26" s="208"/>
+      <c r="J26" s="209"/>
     </row>
     <row r="27" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="213"/>
+      <c r="A27" s="214"/>
       <c r="B27" s="89"/>
       <c r="C27" s="96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="97"/>
       <c r="E27" s="97"/>
       <c r="F27" s="97"/>
-      <c r="G27" s="207"/>
-      <c r="H27" s="208"/>
-      <c r="I27" s="207"/>
-      <c r="J27" s="208"/>
+      <c r="G27" s="208"/>
+      <c r="H27" s="209"/>
+      <c r="I27" s="208"/>
+      <c r="J27" s="209"/>
     </row>
     <row r="28" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="213"/>
+      <c r="A28" s="214"/>
       <c r="B28" s="89"/>
       <c r="C28" s="96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="97"/>
       <c r="E28" s="97"/>
       <c r="F28" s="97"/>
-      <c r="G28" s="207"/>
-      <c r="H28" s="208"/>
-      <c r="I28" s="207"/>
-      <c r="J28" s="208"/>
+      <c r="G28" s="208"/>
+      <c r="H28" s="209"/>
+      <c r="I28" s="208"/>
+      <c r="J28" s="209"/>
     </row>
     <row r="29" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="213"/>
+      <c r="A29" s="214"/>
       <c r="B29" s="89"/>
       <c r="C29" s="96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="97"/>
       <c r="E29" s="97"/>
@@ -5879,122 +6390,122 @@
       <c r="J29" s="99"/>
     </row>
     <row r="30" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="214"/>
+      <c r="A30" s="215"/>
       <c r="B30" s="106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D30" s="97"/>
       <c r="E30" s="97"/>
-      <c r="G30" s="207"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="207"/>
-      <c r="J30" s="208"/>
+      <c r="G30" s="208"/>
+      <c r="H30" s="209"/>
+      <c r="I30" s="208"/>
+      <c r="J30" s="209"/>
     </row>
     <row r="31" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="209" t="s">
-        <v>86</v>
+      <c r="A31" s="216" t="s">
+        <v>85</v>
       </c>
       <c r="B31" s="112"/>
       <c r="C31" s="96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="97"/>
       <c r="E31" s="97"/>
       <c r="F31" s="97"/>
-      <c r="G31" s="207"/>
-      <c r="H31" s="208"/>
-      <c r="I31" s="207"/>
-      <c r="J31" s="208"/>
+      <c r="G31" s="208"/>
+      <c r="H31" s="209"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="209"/>
     </row>
     <row r="32" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="210"/>
+      <c r="A32" s="217"/>
       <c r="B32" s="112"/>
       <c r="C32" s="96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="97"/>
       <c r="E32" s="97"/>
       <c r="F32" s="97"/>
-      <c r="G32" s="207"/>
-      <c r="H32" s="208"/>
-      <c r="I32" s="207"/>
-      <c r="J32" s="208"/>
+      <c r="G32" s="208"/>
+      <c r="H32" s="209"/>
+      <c r="I32" s="208"/>
+      <c r="J32" s="209"/>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="210"/>
+      <c r="A33" s="217"/>
       <c r="B33" s="112"/>
       <c r="C33" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="97"/>
       <c r="E33" s="97"/>
       <c r="F33" s="97"/>
-      <c r="G33" s="207"/>
-      <c r="H33" s="208"/>
-      <c r="I33" s="207"/>
-      <c r="J33" s="208"/>
+      <c r="G33" s="208"/>
+      <c r="H33" s="209"/>
+      <c r="I33" s="208"/>
+      <c r="J33" s="209"/>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="210"/>
+      <c r="A34" s="217"/>
       <c r="B34" s="112"/>
       <c r="C34" s="96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="97"/>
       <c r="E34" s="97"/>
       <c r="F34" s="97"/>
-      <c r="G34" s="207"/>
-      <c r="H34" s="208"/>
-      <c r="I34" s="207"/>
-      <c r="J34" s="208"/>
+      <c r="G34" s="208"/>
+      <c r="H34" s="209"/>
+      <c r="I34" s="208"/>
+      <c r="J34" s="209"/>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="210"/>
+      <c r="A35" s="217"/>
       <c r="B35" s="112"/>
       <c r="C35" s="96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="97"/>
       <c r="E35" s="97"/>
       <c r="F35" s="97"/>
-      <c r="G35" s="207"/>
-      <c r="H35" s="208"/>
-      <c r="I35" s="207"/>
-      <c r="J35" s="208"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="209"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="209"/>
     </row>
     <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="210"/>
+      <c r="A36" s="217"/>
       <c r="B36" s="112"/>
       <c r="C36" s="96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" s="97"/>
       <c r="E36" s="97"/>
       <c r="F36" s="97"/>
-      <c r="G36" s="207"/>
-      <c r="H36" s="208"/>
-      <c r="I36" s="207"/>
-      <c r="J36" s="208"/>
+      <c r="G36" s="208"/>
+      <c r="H36" s="209"/>
+      <c r="I36" s="208"/>
+      <c r="J36" s="209"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="210"/>
+      <c r="A37" s="217"/>
       <c r="B37" s="112"/>
       <c r="C37" s="96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D37" s="97"/>
       <c r="E37" s="97"/>
       <c r="F37" s="97"/>
-      <c r="G37" s="207"/>
-      <c r="H37" s="208"/>
-      <c r="I37" s="207"/>
-      <c r="J37" s="208"/>
+      <c r="G37" s="208"/>
+      <c r="H37" s="209"/>
+      <c r="I37" s="208"/>
+      <c r="J37" s="209"/>
     </row>
     <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="210"/>
+      <c r="A38" s="217"/>
       <c r="B38" s="112"/>
       <c r="C38" s="96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D38" s="97"/>
       <c r="E38" s="97"/>
@@ -6005,264 +6516,287 @@
       <c r="J38" s="99"/>
     </row>
     <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="211"/>
+      <c r="A39" s="218"/>
       <c r="B39" s="106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D39" s="97"/>
       <c r="E39" s="97"/>
-      <c r="G39" s="207"/>
-      <c r="H39" s="208"/>
-      <c r="I39" s="207"/>
-      <c r="J39" s="208"/>
+      <c r="G39" s="208"/>
+      <c r="H39" s="209"/>
+      <c r="I39" s="208"/>
+      <c r="J39" s="209"/>
     </row>
     <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="106" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B40" s="106"/>
       <c r="C40" s="106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D40" s="97"/>
       <c r="E40" s="97"/>
       <c r="F40" s="97"/>
-      <c r="G40" s="207"/>
-      <c r="H40" s="208"/>
-      <c r="I40" s="207"/>
-      <c r="J40" s="208"/>
+      <c r="G40" s="208"/>
+      <c r="H40" s="209"/>
+      <c r="I40" s="208"/>
+      <c r="J40" s="209"/>
     </row>
     <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="106" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41" s="106"/>
       <c r="C41" s="96" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="D41" s="93" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="E41" s="101" t="s">
         <v>27</v>
       </c>
       <c r="F41" s="93" t="s">
-        <v>279</v>
-      </c>
-      <c r="G41" s="207"/>
-      <c r="H41" s="208"/>
-      <c r="I41" s="207"/>
-      <c r="J41" s="208"/>
+        <v>260</v>
+      </c>
+      <c r="G41" s="208"/>
+      <c r="H41" s="209"/>
+      <c r="I41" s="208"/>
+      <c r="J41" s="209"/>
     </row>
     <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42" s="106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" s="96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D42" s="93" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E42" s="110" t="s">
         <v>25</v>
       </c>
       <c r="F42" s="110" t="s">
-        <v>133</v>
-      </c>
-      <c r="G42" s="207"/>
-      <c r="H42" s="208"/>
-      <c r="I42" s="207"/>
-      <c r="J42" s="208"/>
+        <v>129</v>
+      </c>
+      <c r="G42" s="208"/>
+      <c r="H42" s="209"/>
+      <c r="I42" s="208"/>
+      <c r="J42" s="209"/>
     </row>
     <row r="43" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A43" s="106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43" s="106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C43" s="96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D43" s="93" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E43" s="110" t="s">
         <v>25</v>
       </c>
       <c r="F43" s="110" t="s">
-        <v>133</v>
-      </c>
-      <c r="G43" s="207"/>
-      <c r="H43" s="208"/>
-      <c r="I43" s="207"/>
-      <c r="J43" s="208"/>
+        <v>129</v>
+      </c>
+      <c r="G43" s="208"/>
+      <c r="H43" s="209"/>
+      <c r="I43" s="208"/>
+      <c r="J43" s="209"/>
     </row>
     <row r="44" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A44" s="106" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B44" s="106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D44" s="93" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E44" s="110" t="s">
         <v>25</v>
       </c>
       <c r="F44" s="110" t="s">
-        <v>132</v>
-      </c>
-      <c r="G44" s="207"/>
-      <c r="H44" s="208"/>
-      <c r="I44" s="207"/>
-      <c r="J44" s="208"/>
+        <v>128</v>
+      </c>
+      <c r="G44" s="208"/>
+      <c r="H44" s="209"/>
+      <c r="I44" s="208"/>
+      <c r="J44" s="209"/>
     </row>
     <row r="45" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A45" s="106" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45" s="106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" s="96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D45" s="93" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E45" s="110" t="s">
         <v>25</v>
       </c>
       <c r="F45" s="110" t="s">
-        <v>132</v>
-      </c>
-      <c r="G45" s="207"/>
-      <c r="H45" s="208"/>
-      <c r="I45" s="207"/>
-      <c r="J45" s="208"/>
+        <v>128</v>
+      </c>
+      <c r="G45" s="208"/>
+      <c r="H45" s="209"/>
+      <c r="I45" s="208"/>
+      <c r="J45" s="209"/>
     </row>
     <row r="46" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A46" s="106" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" s="106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C46" s="96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="93" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E46" s="110" t="s">
         <v>25</v>
       </c>
       <c r="F46" s="110" t="s">
-        <v>132</v>
-      </c>
-      <c r="G46" s="207"/>
-      <c r="H46" s="208"/>
-      <c r="I46" s="207"/>
-      <c r="J46" s="208"/>
+        <v>128</v>
+      </c>
+      <c r="G46" s="208"/>
+      <c r="H46" s="209"/>
+      <c r="I46" s="208"/>
+      <c r="J46" s="209"/>
     </row>
     <row r="47" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A47" s="106" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C47" s="96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D47" s="93" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="E47" s="110" t="s">
         <v>25</v>
       </c>
       <c r="F47" s="110" t="s">
-        <v>133</v>
-      </c>
-      <c r="G47" s="207"/>
-      <c r="H47" s="208"/>
-      <c r="I47" s="207"/>
-      <c r="J47" s="208"/>
+        <v>129</v>
+      </c>
+      <c r="G47" s="208"/>
+      <c r="H47" s="209"/>
+      <c r="I47" s="208"/>
+      <c r="J47" s="209"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="106" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B48" s="106"/>
       <c r="C48" s="106"/>
       <c r="D48" s="97"/>
       <c r="E48" s="97"/>
       <c r="F48" s="108"/>
-      <c r="G48" s="207"/>
-      <c r="H48" s="208"/>
-      <c r="I48" s="207"/>
-      <c r="J48" s="208"/>
+      <c r="G48" s="208"/>
+      <c r="H48" s="209"/>
+      <c r="I48" s="208"/>
+      <c r="J48" s="209"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="106" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B49" s="106"/>
       <c r="C49" s="106"/>
       <c r="D49" s="97"/>
       <c r="E49" s="97"/>
       <c r="F49" s="97"/>
-      <c r="G49" s="207"/>
-      <c r="H49" s="208"/>
-      <c r="I49" s="207"/>
-      <c r="J49" s="208"/>
+      <c r="G49" s="208"/>
+      <c r="H49" s="209"/>
+      <c r="I49" s="208"/>
+      <c r="J49" s="209"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="106"/>
       <c r="B50" s="106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C50" s="106"/>
       <c r="D50" s="106"/>
       <c r="E50" s="106"/>
       <c r="F50" s="106"/>
-      <c r="G50" s="207"/>
-      <c r="H50" s="208"/>
-      <c r="I50" s="207"/>
-      <c r="J50" s="208"/>
+      <c r="G50" s="208"/>
+      <c r="H50" s="209"/>
+      <c r="I50" s="208"/>
+      <c r="J50" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="G28:H28"/>
@@ -6273,51 +6807,28 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6347,7 +6858,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="219" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B1" s="219"/>
       <c r="C1" s="219"/>
@@ -6389,7 +6900,7 @@
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -6398,24 +6909,24 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
@@ -6424,24 +6935,24 @@
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
@@ -6450,19 +6961,19 @@
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/IP_cim_kiosztas_akutális.xlsx
+++ b/IP_cim_kiosztas_akutális.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180D11D9-6061-4F85-81ED-F9656DF3F90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E066D8-6EC4-44EE-AB9F-7DCFBE1277AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="298">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -926,6 +926,9 @@
   </si>
   <si>
     <t>Keszletgazdalkodas</t>
+  </si>
+  <si>
+    <t>192.168.5.129</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1159,30 +1162,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF66"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF33CCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1190,12 +1169,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9933"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,7 +1197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1443,97 +1416,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1584,97 +1466,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1940,7 +1735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1964,115 +1759,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2081,45 +1789,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2142,35 +1817,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2189,16 +1848,16 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2222,10 +1881,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2242,8 +1901,8 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2252,7 +1911,104 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2267,28 +2023,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2300,12 +2056,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2315,371 +2071,145 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3037,815 +2567,815 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="124" t="s">
+      <c r="E2" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="118"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="121" t="s">
+      <c r="A3" s="107"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="122"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="43" t="s">
+      <c r="D3" s="111"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="65"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
+      <c r="A6" s="103"/>
       <c r="B6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="68"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="8"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="114"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="68"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="8"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="68"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="123"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="112"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="68"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="8"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="114"/>
-      <c r="B11" s="67" t="s">
+      <c r="A11" s="103"/>
+      <c r="B11" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="68"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="114"/>
-      <c r="B12" s="67" t="s">
+      <c r="A12" s="103"/>
+      <c r="B12" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="68"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="8"/>
-      <c r="I12" s="129" t="s">
+      <c r="I12" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="131" t="s">
+      <c r="J12" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="131" t="s">
+      <c r="K12" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="131" t="s">
+      <c r="L12" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="131" t="s">
+      <c r="M12" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="131" t="s">
+      <c r="N12" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="131" t="s">
+      <c r="O12" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="131" t="s">
+      <c r="P12" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="131" t="s">
+      <c r="Q12" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="R12" s="133" t="s">
+      <c r="R12" s="122" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="114"/>
-      <c r="B13" s="67" t="s">
+      <c r="A13" s="103"/>
+      <c r="B13" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="68"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="8"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="134"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="121"/>
+      <c r="Q13" s="121"/>
+      <c r="R13" s="123"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="114"/>
-      <c r="B14" s="67" t="s">
+      <c r="A14" s="103"/>
+      <c r="B14" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="68"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="8"/>
-      <c r="I14" s="127" t="s">
+      <c r="I14" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="127">
+      <c r="J14" s="116">
         <v>7</v>
       </c>
-      <c r="K14" s="127">
+      <c r="K14" s="116">
         <v>30</v>
       </c>
-      <c r="L14" s="126" t="s">
+      <c r="L14" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="127" t="s">
+      <c r="M14" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="128" t="s">
+      <c r="N14" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="126" t="s">
+      <c r="O14" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="P14" s="126" t="s">
+      <c r="P14" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="126" t="s">
+      <c r="Q14" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="R14" s="126" t="s">
+      <c r="R14" s="115" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="114"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="8"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="126"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="126"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="114"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="8"/>
-      <c r="I16" s="127" t="s">
+      <c r="I16" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="127">
+      <c r="J16" s="116">
         <v>5</v>
       </c>
-      <c r="K16" s="127">
+      <c r="K16" s="116">
         <v>30</v>
       </c>
-      <c r="L16" s="126" t="s">
+      <c r="L16" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="127" t="s">
+      <c r="M16" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="128" t="s">
+      <c r="N16" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="126" t="s">
+      <c r="O16" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="P16" s="126" t="s">
+      <c r="P16" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="Q16" s="126" t="s">
+      <c r="Q16" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="126" t="s">
+      <c r="R16" s="115" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="114"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
+      <c r="A17" s="103"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="8"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="126"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="126"/>
-      <c r="R17" s="126"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="115"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="113" t="s">
+      <c r="A18" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="68"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="8"/>
-      <c r="I18" s="127" t="s">
+      <c r="I18" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="127">
+      <c r="J18" s="116">
         <v>1</v>
       </c>
-      <c r="K18" s="127">
+      <c r="K18" s="116">
         <v>6</v>
       </c>
-      <c r="L18" s="126" t="s">
+      <c r="L18" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="M18" s="127" t="s">
+      <c r="M18" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="128" t="s">
+      <c r="N18" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="126" t="s">
+      <c r="O18" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="P18" s="126" t="s">
+      <c r="P18" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="Q18" s="126" t="s">
+      <c r="Q18" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="126" t="s">
+      <c r="R18" s="115" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="114"/>
-      <c r="B19" s="67" t="s">
+      <c r="A19" s="103"/>
+      <c r="B19" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="68"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="8"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="126"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="115"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="114"/>
-      <c r="B20" s="67" t="s">
+      <c r="A20" s="103"/>
+      <c r="B20" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="68"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="8"/>
-      <c r="I20" s="127" t="s">
+      <c r="I20" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="127">
+      <c r="J20" s="116">
         <v>1</v>
       </c>
-      <c r="K20" s="127">
+      <c r="K20" s="116">
         <v>6</v>
       </c>
-      <c r="L20" s="126" t="s">
+      <c r="L20" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="M20" s="127" t="s">
+      <c r="M20" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="128" t="s">
+      <c r="N20" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="126" t="s">
+      <c r="O20" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="P20" s="126" t="s">
+      <c r="P20" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="Q20" s="126" t="s">
+      <c r="Q20" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="R20" s="126" t="s">
+      <c r="R20" s="115" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="114"/>
-      <c r="B21" s="67" t="s">
+      <c r="A21" s="103"/>
+      <c r="B21" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="68"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="8"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="127"/>
-      <c r="N21" s="128"/>
-      <c r="O21" s="126"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="126"/>
-      <c r="R21" s="126"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="115"/>
+      <c r="Q21" s="115"/>
+      <c r="R21" s="115"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="114"/>
-      <c r="B22" s="67" t="s">
+      <c r="A22" s="103"/>
+      <c r="B22" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="68"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="8"/>
-      <c r="I22" s="127" t="s">
+      <c r="I22" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="J22" s="127">
+      <c r="J22" s="116">
         <v>3</v>
       </c>
-      <c r="K22" s="127">
+      <c r="K22" s="116">
         <v>6</v>
       </c>
-      <c r="L22" s="126" t="s">
+      <c r="L22" s="115" t="s">
         <v>178</v>
       </c>
-      <c r="M22" s="127" t="s">
+      <c r="M22" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="128" t="s">
+      <c r="N22" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="O22" s="126" t="s">
+      <c r="O22" s="115" t="s">
         <v>179</v>
       </c>
-      <c r="P22" s="126" t="s">
+      <c r="P22" s="115" t="s">
         <v>180</v>
       </c>
-      <c r="Q22" s="126" t="s">
+      <c r="Q22" s="115" t="s">
         <v>181</v>
       </c>
-      <c r="R22" s="126" t="s">
+      <c r="R22" s="115" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="114"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
+      <c r="A23" s="103"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="8"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="128"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="126"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="115"/>
+      <c r="Q23" s="115"/>
+      <c r="R23" s="115"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="114"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
+      <c r="A24" s="103"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="114"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="68" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="F26" s="68" t="s">
+      <c r="F26" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="N26" s="84"/>
+      <c r="N26" s="38"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68" t="s">
+      <c r="B27" s="28"/>
+      <c r="C27" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="68" t="s">
+      <c r="E27" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="F27" s="68" t="s">
+      <c r="F27" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="N27" s="84"/>
+      <c r="N27" s="38"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="68" t="s">
+      <c r="E28" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="F28" s="68" t="s">
+      <c r="F28" s="28" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68" t="s">
+      <c r="E29" s="28"/>
+      <c r="F29" s="28" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="D30" s="68" t="s">
+      <c r="D30" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="68" t="s">
+      <c r="C31" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68" t="s">
+      <c r="E31" s="28"/>
+      <c r="F31" s="28" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="68" t="s">
+      <c r="C32" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="D32" s="68" t="s">
+      <c r="D32" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68" t="s">
+      <c r="E32" s="28"/>
+      <c r="F32" s="28" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="B33" s="68"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="71"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="B34" s="72"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="71"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="69" t="s">
+      <c r="A35" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="72"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="71"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="72"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="71"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="72"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="71"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="72"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="71"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="72"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="71"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="72"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="71"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="31"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="72"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="71"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="69">
@@ -3928,8 +3458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
   <dimension ref="A1:S88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3954,168 +3484,352 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="154"/>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-    </row>
-    <row r="2" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="186"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="A1" s="126"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+    </row>
+    <row r="2" spans="1:19" ht="33" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="132" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="132"/>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="187"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="192"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="188"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="195"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="189"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="196"/>
-      <c r="H5" s="197"/>
-      <c r="I5" s="196"/>
-      <c r="J5" s="198"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
+      <c r="A3" s="139" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="99"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="L3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="M3" s="4">
+        <v>40</v>
+      </c>
+      <c r="N3" s="4">
+        <v>62</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="139"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="99"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="L4" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="M4" s="4">
+        <v>40</v>
+      </c>
+      <c r="N4" s="4">
+        <v>62</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="139"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="99"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="L5" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M5" s="4">
+        <v>40</v>
+      </c>
+      <c r="N5" s="4">
+        <v>62</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="201"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="181"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="202"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="50"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-    </row>
-    <row r="8" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="203"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="53"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
+      <c r="A6" s="140" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="97" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="L6" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="M6" s="4">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="140"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="97" t="s">
+        <v>240</v>
+      </c>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="L7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="4">
+        <v>2</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="140"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="97" t="s">
+        <v>240</v>
+      </c>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="L8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="4">
+        <v>2</v>
+      </c>
+      <c r="N8" s="4">
+        <v>2</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="199"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="176"/>
+      <c r="A9" s="71" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
       <c r="L9" s="3"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -4125,17 +3839,27 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="200"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="177"/>
-      <c r="J10" s="179"/>
+    <row r="10" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="94"/>
+      <c r="C10" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="94" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" s="94" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="94" t="s">
+        <v>240</v>
+      </c>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -4146,42 +3870,76 @@
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="200"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="204"/>
-      <c r="H11" s="205"/>
-      <c r="I11" s="204"/>
-      <c r="J11" s="206"/>
+      <c r="A11" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="95" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95" t="s">
+        <v>297</v>
+      </c>
+      <c r="E11" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
       <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="80"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
+      <c r="A12" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
     </row>
     <row r="13" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="80"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="L13" s="47"/>
+      <c r="A13" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="L13" s="18"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -4191,17 +3949,29 @@
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="80"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="L14" s="47"/>
+      <c r="A14" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="L14" s="18"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -4211,17 +3981,29 @@
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="80"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="L15" s="47"/>
+      <c r="A15" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="L15" s="18"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -4231,17 +4013,27 @@
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="80"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="L16" s="47"/>
+      <c r="A16" s="74" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="L16" s="18"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -4251,17 +4043,29 @@
       <c r="S16" s="6"/>
     </row>
     <row r="17" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="80"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="L17" s="47"/>
+      <c r="A17" s="96" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="96" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="79" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="L17" s="18"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -4271,389 +4075,465 @@
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="80"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
+      <c r="A18" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="96" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="79" t="s">
+        <v>240</v>
+      </c>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="138"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="173"/>
-    </row>
-    <row r="20" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="138"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="168"/>
-    </row>
-    <row r="21" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="138"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="168"/>
+      <c r="A19" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="96" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+    </row>
+    <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="B20" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="82" t="s">
+        <v>293</v>
+      </c>
+      <c r="D20" s="92" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="82" t="s">
+        <v>240</v>
+      </c>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="128"/>
+    </row>
+    <row r="21" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" s="85" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="85"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="130"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="138"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="168"/>
+      <c r="A22" s="86">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="131"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="138"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="168"/>
-    </row>
-    <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="138"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="168"/>
+      <c r="A23" s="86">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="131"/>
+    </row>
+    <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="88">
+        <v>19</v>
+      </c>
+      <c r="B24" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="89" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="141" t="s">
+        <v>228</v>
+      </c>
+      <c r="F24" s="141"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="143"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="138"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="168"/>
-      <c r="J25" s="168"/>
+      <c r="A25" s="157"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="124"/>
     </row>
     <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="139"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="169"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="169"/>
-      <c r="J26" s="169"/>
+      <c r="A26" s="158"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="183"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="172"/>
+      <c r="A27" s="159"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
     </row>
     <row r="28" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="184"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="153"/>
+      <c r="A28" s="160"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="124"/>
     </row>
     <row r="29" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="184"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="153"/>
+      <c r="A29" s="160"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="124"/>
     </row>
     <row r="30" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="184"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="153"/>
+      <c r="A30" s="160"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="124"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="184"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="153"/>
+      <c r="A31" s="160"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="124"/>
+      <c r="J31" s="124"/>
     </row>
     <row r="32" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="184"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="153"/>
+      <c r="A32" s="160"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="124"/>
     </row>
     <row r="33" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="184"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="162"/>
-      <c r="H33" s="163"/>
-      <c r="I33" s="162"/>
-      <c r="J33" s="164"/>
+      <c r="A33" s="160"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="124"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="124"/>
     </row>
     <row r="34" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="184"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="162"/>
-      <c r="H34" s="163"/>
-      <c r="I34" s="162"/>
-      <c r="J34" s="164"/>
+      <c r="A34" s="160"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="124"/>
+      <c r="J34" s="124"/>
     </row>
     <row r="35" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="140"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="166"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="167"/>
+      <c r="A35" s="161"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="124"/>
     </row>
     <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="141"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="157"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="158"/>
-    </row>
-    <row r="37" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="54"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="160"/>
-      <c r="I37" s="159"/>
-      <c r="J37" s="161"/>
-    </row>
-    <row r="38" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="147"/>
-    </row>
-    <row r="39" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="148"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="148"/>
-      <c r="J39" s="150"/>
-    </row>
-    <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="144"/>
-    </row>
-    <row r="41" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="58"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="142"/>
-      <c r="J41" s="144"/>
-    </row>
-    <row r="42" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="56"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="137"/>
-    </row>
-    <row r="43" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="38"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="136"/>
-      <c r="H43" s="136"/>
-      <c r="I43" s="136"/>
-      <c r="J43" s="137"/>
+      <c r="A36" s="162"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="124"/>
+    </row>
+    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="163"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="124"/>
+      <c r="J37" s="124"/>
+    </row>
+    <row r="38" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="90"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="124"/>
+      <c r="J38" s="124"/>
+    </row>
+    <row r="39" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="90"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="124"/>
+      <c r="J39" s="124"/>
+    </row>
+    <row r="40" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="90"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="124"/>
+    </row>
+    <row r="41" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="165"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="124"/>
+      <c r="H41" s="124"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+    </row>
+    <row r="42" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="166"/>
+      <c r="B42" s="167"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="124"/>
+      <c r="I42" s="124"/>
+      <c r="J42" s="124"/>
+    </row>
+    <row r="43" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="168"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="124"/>
+      <c r="H43" s="124"/>
+      <c r="I43" s="124"/>
+      <c r="J43" s="124"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="136"/>
-      <c r="H44" s="136"/>
-      <c r="I44" s="136"/>
-      <c r="J44" s="137"/>
+      <c r="A44" s="169"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="124"/>
+      <c r="H44" s="124"/>
+      <c r="I44" s="124"/>
+      <c r="J44" s="124"/>
     </row>
     <row r="45" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
+      <c r="A45" s="90"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="87"/>
     </row>
     <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="77"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="87"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="82"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
     </row>
     <row r="48" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="82"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
     </row>
     <row r="49" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="82"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
-      <c r="I49" s="83"/>
-      <c r="J49" s="83"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
     </row>
     <row r="50" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="82"/>
-      <c r="I50" s="83"/>
-      <c r="J50" s="83"/>
+      <c r="A50" s="36"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
     </row>
     <row r="52" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
-      <c r="B52" s="58"/>
+      <c r="B52" s="19"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -4670,52 +4550,52 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="85"/>
+      <c r="E54" s="39"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="135"/>
-      <c r="F55" s="135"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="125"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="E57" s="83"/>
+      <c r="E57" s="37"/>
     </row>
     <row r="58" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="E58" s="83"/>
+      <c r="E58" s="37"/>
     </row>
     <row r="59" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="E59" s="83"/>
+      <c r="E59" s="37"/>
     </row>
     <row r="66" spans="1:19" ht="33" x14ac:dyDescent="0.25">
-      <c r="A66" s="220" t="s">
+      <c r="A66" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="220" t="s">
+      <c r="B66" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="C66" s="220" t="s">
+      <c r="C66" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="220" t="s">
+      <c r="D66" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="220" t="s">
+      <c r="E66" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F66" s="220" t="s">
+      <c r="F66" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="G66" s="221" t="s">
+      <c r="G66" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="H66" s="221"/>
-      <c r="I66" s="221" t="s">
+      <c r="H66" s="132"/>
+      <c r="I66" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="J66" s="221"/>
+      <c r="J66" s="132"/>
       <c r="L66" s="2" t="s">
         <v>16</v>
       </c>
@@ -4742,24 +4622,24 @@
       </c>
     </row>
     <row r="67" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="222" t="s">
+      <c r="A67" s="139" t="s">
         <v>112</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12" t="s">
+      <c r="B67" s="9"/>
+      <c r="C67" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D67" s="223" t="s">
+      <c r="D67" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="E67" s="224" t="s">
+      <c r="E67" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="F67" s="12"/>
-      <c r="G67" s="225"/>
-      <c r="H67" s="225"/>
-      <c r="I67" s="225"/>
-      <c r="J67" s="225"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="133"/>
+      <c r="H67" s="133"/>
+      <c r="I67" s="133"/>
+      <c r="J67" s="133"/>
       <c r="L67" s="3" t="s">
         <v>216</v>
       </c>
@@ -4786,22 +4666,22 @@
       </c>
     </row>
     <row r="68" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="222"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12" t="s">
+      <c r="A68" s="139"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D68" s="59" t="s">
+      <c r="D68" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E68" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="225"/>
-      <c r="H68" s="225"/>
-      <c r="I68" s="225"/>
-      <c r="J68" s="225"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="133"/>
+      <c r="H68" s="133"/>
+      <c r="I68" s="133"/>
+      <c r="J68" s="133"/>
       <c r="L68" s="3" t="s">
         <v>217</v>
       </c>
@@ -4828,22 +4708,22 @@
       </c>
     </row>
     <row r="69" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="222"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12" t="s">
+      <c r="A69" s="139"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D69" s="224" t="s">
+      <c r="D69" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="E69" s="224" t="s">
+      <c r="E69" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="F69" s="12"/>
-      <c r="G69" s="225"/>
-      <c r="H69" s="225"/>
-      <c r="I69" s="225"/>
-      <c r="J69" s="225"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="133"/>
+      <c r="H69" s="133"/>
+      <c r="I69" s="133"/>
+      <c r="J69" s="133"/>
       <c r="L69" s="3" t="s">
         <v>287</v>
       </c>
@@ -4870,26 +4750,26 @@
       </c>
     </row>
     <row r="70" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="226" t="s">
+      <c r="A70" s="140" t="s">
         <v>286</v>
       </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16" t="s">
+      <c r="B70" s="10"/>
+      <c r="C70" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F70" s="16" t="s">
+      <c r="F70" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="G70" s="227"/>
-      <c r="H70" s="227"/>
-      <c r="I70" s="227"/>
-      <c r="J70" s="227"/>
+      <c r="G70" s="137"/>
+      <c r="H70" s="137"/>
+      <c r="I70" s="137"/>
+      <c r="J70" s="137"/>
       <c r="L70" s="3" t="s">
         <v>284</v>
       </c>
@@ -4916,24 +4796,24 @@
       </c>
     </row>
     <row r="71" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="226"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16" t="s">
+      <c r="A71" s="140"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="F71" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="G71" s="228"/>
-      <c r="H71" s="228"/>
-      <c r="I71" s="228"/>
-      <c r="J71" s="228"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="70"/>
+      <c r="J71" s="70"/>
       <c r="L71" s="3" t="s">
         <v>78</v>
       </c>
@@ -4960,24 +4840,24 @@
       </c>
     </row>
     <row r="72" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="226"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16" t="s">
+      <c r="A72" s="140"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="D72" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F72" s="16" t="s">
+      <c r="F72" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="G72" s="228"/>
-      <c r="H72" s="228"/>
-      <c r="I72" s="228"/>
-      <c r="J72" s="228"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="70"/>
+      <c r="J72" s="70"/>
       <c r="L72" s="3" t="s">
         <v>79</v>
       </c>
@@ -5004,26 +4884,26 @@
       </c>
     </row>
     <row r="73" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="229" t="s">
+      <c r="A73" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="B73" s="79"/>
-      <c r="C73" s="79" t="s">
+      <c r="B73" s="35"/>
+      <c r="C73" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="D73" s="79" t="s">
+      <c r="D73" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="E73" s="79" t="s">
+      <c r="E73" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="F73" s="79" t="s">
+      <c r="F73" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="G73" s="230"/>
-      <c r="H73" s="230"/>
-      <c r="I73" s="230"/>
-      <c r="J73" s="230"/>
+      <c r="G73" s="135"/>
+      <c r="H73" s="135"/>
+      <c r="I73" s="135"/>
+      <c r="J73" s="135"/>
       <c r="L73" s="3"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
@@ -5034,26 +4914,26 @@
       <c r="S73" s="4"/>
     </row>
     <row r="74" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="231" t="s">
+      <c r="A74" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="B74" s="231"/>
-      <c r="C74" s="232" t="s">
+      <c r="B74" s="72"/>
+      <c r="C74" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="D74" s="231" t="s">
+      <c r="D74" s="72" t="s">
         <v>241</v>
       </c>
-      <c r="E74" s="231" t="s">
+      <c r="E74" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="F74" s="231" t="s">
+      <c r="F74" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="G74" s="233"/>
-      <c r="H74" s="233"/>
-      <c r="I74" s="233"/>
-      <c r="J74" s="233"/>
+      <c r="G74" s="136"/>
+      <c r="H74" s="136"/>
+      <c r="I74" s="136"/>
+      <c r="J74" s="136"/>
       <c r="L74" s="3"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
@@ -5064,76 +4944,76 @@
       <c r="S74" s="4"/>
     </row>
     <row r="75" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="E75" s="25" t="s">
+      <c r="C75" s="11"/>
+      <c r="D75" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E75" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F75" s="26" t="s">
+      <c r="F75" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="G75" s="234"/>
-      <c r="H75" s="234"/>
-      <c r="I75" s="234"/>
-      <c r="J75" s="234"/>
+      <c r="G75" s="134"/>
+      <c r="H75" s="134"/>
+      <c r="I75" s="134"/>
+      <c r="J75" s="134"/>
       <c r="S75" s="4"/>
     </row>
     <row r="76" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="235" t="s">
+      <c r="A76" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="B76" s="235" t="s">
+      <c r="B76" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="C76" s="236" t="s">
+      <c r="C76" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="D76" s="235" t="s">
+      <c r="D76" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="E76" s="235" t="s">
+      <c r="E76" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="F76" s="237" t="s">
+      <c r="F76" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="G76" s="237"/>
-      <c r="H76" s="237"/>
-      <c r="I76" s="237"/>
-      <c r="J76" s="237"/>
+      <c r="G76" s="76"/>
+      <c r="H76" s="76"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="76"/>
     </row>
     <row r="77" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="235" t="s">
+      <c r="A77" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="B77" s="235" t="s">
+      <c r="B77" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="C77" s="236" t="s">
+      <c r="C77" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="D77" s="235" t="s">
+      <c r="D77" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="E77" s="235" t="s">
+      <c r="E77" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="F77" s="237" t="s">
+      <c r="F77" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="G77" s="237"/>
-      <c r="H77" s="237"/>
-      <c r="I77" s="237"/>
-      <c r="J77" s="237"/>
-      <c r="L77" s="47"/>
+      <c r="G77" s="76"/>
+      <c r="H77" s="76"/>
+      <c r="I77" s="76"/>
+      <c r="J77" s="76"/>
+      <c r="L77" s="18"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
@@ -5143,29 +5023,29 @@
       <c r="S77" s="6"/>
     </row>
     <row r="78" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="235" t="s">
+      <c r="A78" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="B78" s="235" t="s">
+      <c r="B78" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="C78" s="236" t="s">
+      <c r="C78" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="D78" s="235" t="s">
+      <c r="D78" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="E78" s="235" t="s">
+      <c r="E78" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="F78" s="237" t="s">
+      <c r="F78" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="G78" s="237"/>
-      <c r="H78" s="237"/>
-      <c r="I78" s="237"/>
-      <c r="J78" s="237"/>
-      <c r="L78" s="47"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="76"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="76"/>
+      <c r="L78" s="18"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
@@ -5175,29 +5055,29 @@
       <c r="S78" s="6"/>
     </row>
     <row r="79" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A79" s="238" t="s">
+      <c r="A79" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="B79" s="235" t="s">
+      <c r="B79" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="C79" s="236" t="s">
+      <c r="C79" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="D79" s="235" t="s">
+      <c r="D79" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="E79" s="235" t="s">
+      <c r="E79" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="F79" s="237" t="s">
+      <c r="F79" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="G79" s="237"/>
-      <c r="H79" s="237"/>
-      <c r="I79" s="237"/>
-      <c r="J79" s="237"/>
-      <c r="L79" s="47"/>
+      <c r="G79" s="76"/>
+      <c r="H79" s="76"/>
+      <c r="I79" s="76"/>
+      <c r="J79" s="76"/>
+      <c r="L79" s="18"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
@@ -5207,27 +5087,27 @@
       <c r="S79" s="6"/>
     </row>
     <row r="80" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="235" t="s">
+      <c r="A80" s="74" t="s">
         <v>290</v>
       </c>
-      <c r="B80" s="235" t="s">
+      <c r="B80" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="C80" s="235"/>
-      <c r="D80" s="235" t="s">
+      <c r="C80" s="74"/>
+      <c r="D80" s="74" t="s">
         <v>291</v>
       </c>
-      <c r="E80" s="235" t="s">
+      <c r="E80" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="F80" s="237" t="s">
+      <c r="F80" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="G80" s="237"/>
-      <c r="H80" s="237"/>
-      <c r="I80" s="237"/>
-      <c r="J80" s="237"/>
-      <c r="L80" s="47"/>
+      <c r="G80" s="76"/>
+      <c r="H80" s="76"/>
+      <c r="I80" s="76"/>
+      <c r="J80" s="76"/>
+      <c r="L80" s="18"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
@@ -5237,29 +5117,29 @@
       <c r="S80" s="6"/>
     </row>
     <row r="81" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="45" t="s">
+      <c r="A81" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B81" s="45" t="s">
+      <c r="B81" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C81" s="239" t="s">
+      <c r="C81" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="D81" s="45" t="s">
+      <c r="D81" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E81" s="45" t="s">
+      <c r="E81" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F81" s="240" t="s">
+      <c r="F81" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="G81" s="240"/>
-      <c r="H81" s="240"/>
-      <c r="I81" s="240"/>
-      <c r="J81" s="240"/>
-      <c r="L81" s="47"/>
+      <c r="G81" s="79"/>
+      <c r="H81" s="79"/>
+      <c r="I81" s="79"/>
+      <c r="J81" s="79"/>
+      <c r="L81" s="18"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
@@ -5269,101 +5149,101 @@
       <c r="S81" s="6"/>
     </row>
     <row r="82" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="45" t="s">
+      <c r="A82" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B82" s="45" t="s">
+      <c r="B82" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C82" s="239" t="s">
+      <c r="C82" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="D82" s="45" t="s">
+      <c r="D82" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="E82" s="45" t="s">
+      <c r="E82" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F82" s="240" t="s">
+      <c r="F82" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="G82" s="240"/>
-      <c r="H82" s="240"/>
-      <c r="I82" s="240"/>
-      <c r="J82" s="240"/>
+      <c r="G82" s="79"/>
+      <c r="H82" s="79"/>
+      <c r="I82" s="79"/>
+      <c r="J82" s="79"/>
     </row>
     <row r="83" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="45" t="s">
+      <c r="A83" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="45" t="s">
+      <c r="B83" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="239" t="s">
+      <c r="C83" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="D83" s="45" t="s">
+      <c r="D83" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="E83" s="45" t="s">
+      <c r="E83" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F83" s="239" t="s">
+      <c r="F83" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="G83" s="241"/>
-      <c r="H83" s="241"/>
-      <c r="I83" s="241"/>
-      <c r="J83" s="241"/>
+      <c r="G83" s="138"/>
+      <c r="H83" s="138"/>
+      <c r="I83" s="138"/>
+      <c r="J83" s="138"/>
     </row>
     <row r="84" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="242" t="s">
+      <c r="A84" s="80" t="s">
         <v>292</v>
       </c>
-      <c r="B84" s="243" t="s">
+      <c r="B84" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="C84" s="244" t="s">
+      <c r="C84" s="82" t="s">
         <v>293</v>
       </c>
-      <c r="D84" s="243" t="s">
+      <c r="D84" s="81" t="s">
         <v>294</v>
       </c>
-      <c r="E84" s="243" t="s">
+      <c r="E84" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F84" s="244" t="s">
+      <c r="F84" s="82" t="s">
         <v>240</v>
       </c>
-      <c r="G84" s="245"/>
-      <c r="H84" s="245"/>
-      <c r="I84" s="245"/>
-      <c r="J84" s="245"/>
+      <c r="G84" s="128"/>
+      <c r="H84" s="128"/>
+      <c r="I84" s="128"/>
+      <c r="J84" s="128"/>
     </row>
     <row r="85" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="246" t="s">
+      <c r="A85" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="B85" s="247" t="s">
+      <c r="B85" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="C85" s="248" t="s">
+      <c r="C85" s="85" t="s">
         <v>220</v>
       </c>
-      <c r="D85" s="248" t="s">
+      <c r="D85" s="85" t="s">
         <v>221</v>
       </c>
-      <c r="E85" s="248" t="s">
+      <c r="E85" s="85" t="s">
         <v>222</v>
       </c>
-      <c r="F85" s="248"/>
-      <c r="G85" s="249"/>
-      <c r="H85" s="249"/>
-      <c r="I85" s="249"/>
-      <c r="J85" s="250"/>
+      <c r="F85" s="85"/>
+      <c r="G85" s="129"/>
+      <c r="H85" s="129"/>
+      <c r="I85" s="129"/>
+      <c r="J85" s="130"/>
     </row>
     <row r="86" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A86" s="251">
+      <c r="A86" s="86">
         <v>11</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -5379,13 +5259,13 @@
         <v>224</v>
       </c>
       <c r="F86" s="1"/>
-      <c r="G86" s="252"/>
-      <c r="H86" s="252"/>
-      <c r="I86" s="252"/>
-      <c r="J86" s="253"/>
+      <c r="G86" s="124"/>
+      <c r="H86" s="124"/>
+      <c r="I86" s="124"/>
+      <c r="J86" s="131"/>
     </row>
     <row r="87" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="251">
+      <c r="A87" s="86">
         <v>12</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -5401,35 +5281,35 @@
         <v>225</v>
       </c>
       <c r="F87" s="1"/>
-      <c r="G87" s="252"/>
-      <c r="H87" s="252"/>
-      <c r="I87" s="252"/>
-      <c r="J87" s="253"/>
+      <c r="G87" s="124"/>
+      <c r="H87" s="124"/>
+      <c r="I87" s="124"/>
+      <c r="J87" s="131"/>
     </row>
     <row r="88" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="254">
+      <c r="A88" s="88">
         <v>19</v>
       </c>
-      <c r="B88" s="255" t="s">
+      <c r="B88" s="89" t="s">
         <v>223</v>
       </c>
-      <c r="C88" s="255" t="s">
+      <c r="C88" s="89" t="s">
         <v>244</v>
       </c>
-      <c r="D88" s="255" t="s">
+      <c r="D88" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="E88" s="256" t="s">
+      <c r="E88" s="141" t="s">
         <v>228</v>
       </c>
-      <c r="F88" s="256"/>
-      <c r="G88" s="257"/>
-      <c r="H88" s="257"/>
-      <c r="I88" s="257"/>
-      <c r="J88" s="258"/>
+      <c r="F88" s="141"/>
+      <c r="G88" s="142"/>
+      <c r="H88" s="142"/>
+      <c r="I88" s="142"/>
+      <c r="J88" s="143"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="104">
     <mergeCell ref="G87:H87"/>
     <mergeCell ref="I87:J87"/>
     <mergeCell ref="E88:F88"/>
@@ -5452,6 +5332,11 @@
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="G73:H73"/>
     <mergeCell ref="I73:J73"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="I66:J66"/>
     <mergeCell ref="A67:A69"/>
@@ -5461,9 +5346,13 @@
     <mergeCell ref="I68:J68"/>
     <mergeCell ref="G69:H69"/>
     <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="I34:J34"/>
-    <mergeCell ref="A27:A34"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A3:A5"/>
@@ -5473,33 +5362,12 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A9:A11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="I36:J36"/>
@@ -5516,8 +5384,21 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="G42:H42"/>
@@ -5528,15 +5409,11 @@
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5554,1202 +5431,1202 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="87" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="87" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="87" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="87" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="87" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="87" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="87" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="87" customWidth="1"/>
-    <col min="13" max="13" width="32.42578125" style="87" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="87" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" style="87" customWidth="1"/>
-    <col min="16" max="16" width="20" style="87" customWidth="1"/>
-    <col min="17" max="17" width="21.42578125" style="87" customWidth="1"/>
-    <col min="18" max="19" width="17.28515625" style="87" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="87" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="87"/>
+    <col min="1" max="1" width="32.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="41" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="41" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="41" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" style="41" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="41" customWidth="1"/>
+    <col min="13" max="13" width="32.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="41" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" style="41" customWidth="1"/>
+    <col min="16" max="16" width="20" style="41" customWidth="1"/>
+    <col min="17" max="17" width="21.42578125" style="41" customWidth="1"/>
+    <col min="18" max="19" width="17.28515625" style="41" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="147" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="212" t="s">
+      <c r="G2" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212" t="s">
+      <c r="H2" s="149"/>
+      <c r="I2" s="149" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="212"/>
+      <c r="J2" s="149"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="144" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="90" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="89"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="209"/>
-      <c r="L3" s="87" t="s">
+      <c r="F3" s="43"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="146"/>
+      <c r="L3" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="207"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="90" t="s">
+      <c r="A4" s="144"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="209"/>
-      <c r="I4" s="208"/>
-      <c r="J4" s="209"/>
-      <c r="L4" s="94" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="146"/>
+      <c r="L4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="94" t="s">
+      <c r="M4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="95" t="s">
+      <c r="T4" s="49" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="207"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="96" t="s">
+      <c r="A5" s="144"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="99"/>
-      <c r="L5" s="100" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="L5" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="95">
+      <c r="M5" s="49">
         <v>4</v>
       </c>
-      <c r="N5" s="95">
+      <c r="N5" s="49">
         <v>6</v>
       </c>
-      <c r="O5" s="95" t="s">
+      <c r="O5" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="95" t="s">
+      <c r="P5" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="95" t="s">
+      <c r="Q5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="95" t="s">
+      <c r="R5" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="S5" s="95" t="s">
+      <c r="S5" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="T5" s="95" t="s">
+      <c r="T5" s="49" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="207"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="96" t="s">
+      <c r="A6" s="144"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="89"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="209"/>
-      <c r="L6" s="100" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
+      <c r="L6" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="95">
+      <c r="M6" s="49">
         <v>4</v>
       </c>
-      <c r="N6" s="95">
+      <c r="N6" s="49">
         <v>6</v>
       </c>
-      <c r="O6" s="95" t="s">
+      <c r="O6" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="P6" s="95" t="s">
+      <c r="P6" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="95" t="s">
+      <c r="Q6" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="95" t="s">
+      <c r="R6" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="S6" s="95" t="s">
+      <c r="S6" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="95" t="s">
+      <c r="T6" s="49" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="213" t="s">
+      <c r="A7" s="150" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="96" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="208"/>
-      <c r="H7" s="209"/>
-      <c r="I7" s="208"/>
-      <c r="J7" s="209"/>
-      <c r="L7" s="100" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
+      <c r="L7" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="95">
+      <c r="M7" s="49">
         <v>4</v>
       </c>
-      <c r="N7" s="95">
+      <c r="N7" s="49">
         <v>6</v>
       </c>
-      <c r="O7" s="95" t="s">
+      <c r="O7" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="95" t="s">
+      <c r="P7" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="95" t="s">
+      <c r="Q7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="95" t="s">
+      <c r="R7" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="S7" s="95" t="s">
+      <c r="S7" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="T7" s="95" t="s">
+      <c r="T7" s="49" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="214"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="96" t="s">
+      <c r="A8" s="151"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="99"/>
-      <c r="L8" s="100" t="s">
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="53"/>
+      <c r="L8" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="95">
+      <c r="M8" s="49">
         <v>4</v>
       </c>
-      <c r="N8" s="95">
+      <c r="N8" s="49">
         <v>6</v>
       </c>
-      <c r="O8" s="95" t="s">
+      <c r="O8" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="P8" s="95" t="s">
+      <c r="P8" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="95" t="s">
+      <c r="Q8" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="95" t="s">
+      <c r="R8" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="S8" s="95" t="s">
+      <c r="S8" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="T8" s="95" t="s">
+      <c r="T8" s="49" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="215"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="96" t="s">
+      <c r="A9" s="152"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="99"/>
-      <c r="L9" s="100" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="53"/>
+      <c r="L9" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="95">
+      <c r="M9" s="49">
         <v>4</v>
       </c>
-      <c r="N9" s="95">
+      <c r="N9" s="49">
         <v>6</v>
       </c>
-      <c r="O9" s="95" t="s">
+      <c r="O9" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="P9" s="95" t="s">
+      <c r="P9" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="95" t="s">
+      <c r="Q9" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="95" t="s">
+      <c r="R9" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="S9" s="95" t="s">
+      <c r="S9" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="T9" s="95" t="s">
+      <c r="T9" s="49" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="207" t="s">
+      <c r="A10" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="90" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="97"/>
-      <c r="G10" s="208"/>
-      <c r="H10" s="209"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="209"/>
-      <c r="L10" s="100" t="s">
+      <c r="F10" s="51"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
+      <c r="L10" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="95">
+      <c r="M10" s="49">
         <v>54</v>
       </c>
-      <c r="N10" s="95">
+      <c r="N10" s="49">
         <v>62</v>
       </c>
-      <c r="O10" s="95" t="s">
+      <c r="O10" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="95" t="s">
+      <c r="P10" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="95" t="s">
+      <c r="Q10" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="95" t="s">
+      <c r="R10" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="S10" s="95" t="s">
+      <c r="S10" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="T10" s="95" t="s">
+      <c r="T10" s="49" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="207"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90" t="s">
+      <c r="A11" s="144"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="102"/>
-      <c r="G11" s="208"/>
-      <c r="H11" s="209"/>
-      <c r="I11" s="208"/>
-      <c r="J11" s="209"/>
-      <c r="L11" s="100" t="s">
+      <c r="F11" s="56"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="146"/>
+      <c r="L11" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="M11" s="95">
+      <c r="M11" s="49">
         <v>54</v>
       </c>
-      <c r="N11" s="95">
+      <c r="N11" s="49">
         <v>62</v>
       </c>
-      <c r="O11" s="95" t="s">
+      <c r="O11" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="